--- a/AR6WG1_variables/AR6WG1_priorityVariables_table.xlsx
+++ b/AR6WG1_variables/AR6WG1_priorityVariables_table.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="261">
   <si>
     <t xml:space="preserve">Omon</t>
   </si>
@@ -589,13 +589,22 @@
     <t xml:space="preserve">ssp370</t>
   </si>
   <si>
+    <t xml:space="preserve">10 realisations</t>
+  </si>
+  <si>
     <t xml:space="preserve">piControl</t>
   </si>
   <si>
     <t xml:space="preserve">historical</t>
   </si>
   <si>
+    <t xml:space="preserve">1 realisation only.</t>
+  </si>
+  <si>
     <t xml:space="preserve">ssp245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 realisations</t>
   </si>
   <si>
     <t xml:space="preserve">omip1-spunup</t>
@@ -808,6 +817,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -829,6 +839,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -899,131 +910,130 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:IG73"/>
+  <dimension ref="A1:IH73"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B:B"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.3571428571429"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="11.015306122449"/>
-    <col collapsed="false" hidden="false" max="6" min="3" style="0" width="7.95408163265306"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="9.76530612244898"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="7.82142857142857"/>
-    <col collapsed="false" hidden="false" max="10" min="9" style="0" width="7.95408163265306"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="7.68367346938776"/>
-    <col collapsed="false" hidden="false" max="13" min="12" style="0" width="7.95408163265306"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="8.93877551020408"/>
-    <col collapsed="false" hidden="false" max="17" min="15" style="0" width="6.01020408163265"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="9.20408163265306"/>
-    <col collapsed="false" hidden="false" max="23" min="19" style="0" width="6.01020408163265"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="6.57142857142857"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="7.68367346938776"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="9.20408163265306"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="7.12755102040816"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="6.43367346938776"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="6.98469387755102"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="7.95408163265306"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="8.51530612244898"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="6.43367346938776"/>
-    <col collapsed="false" hidden="false" max="34" min="33" style="0" width="7.95408163265306"/>
-    <col collapsed="false" hidden="false" max="40" min="35" style="0" width="6.98469387755102"/>
-    <col collapsed="false" hidden="false" max="41" min="41" style="0" width="7.54081632653061"/>
-    <col collapsed="false" hidden="false" max="43" min="42" style="0" width="6.98469387755102"/>
-    <col collapsed="false" hidden="false" max="44" min="44" style="0" width="11.5714285714286"/>
-    <col collapsed="false" hidden="false" max="47" min="45" style="0" width="6.01020408163265"/>
-    <col collapsed="false" hidden="false" max="48" min="48" style="0" width="7.95408163265306"/>
-    <col collapsed="false" hidden="false" max="52" min="49" style="0" width="6.98469387755102"/>
-    <col collapsed="false" hidden="false" max="55" min="53" style="0" width="8.79081632653061"/>
-    <col collapsed="false" hidden="false" max="56" min="56" style="0" width="7.95408163265306"/>
-    <col collapsed="false" hidden="false" max="57" min="57" style="0" width="8.79081632653061"/>
-    <col collapsed="false" hidden="false" max="58" min="58" style="0" width="8.65816326530612"/>
-    <col collapsed="false" hidden="false" max="67" min="59" style="0" width="8.79081632653061"/>
-    <col collapsed="false" hidden="false" max="68" min="68" style="0" width="10.6020408163265"/>
-    <col collapsed="false" hidden="false" max="71" min="69" style="0" width="8.79081632653061"/>
-    <col collapsed="false" hidden="false" max="72" min="72" style="0" width="7.82142857142857"/>
-    <col collapsed="false" hidden="false" max="73" min="73" style="0" width="7.95408163265306"/>
-    <col collapsed="false" hidden="false" max="74" min="74" style="0" width="7.82142857142857"/>
-    <col collapsed="false" hidden="false" max="81" min="75" style="0" width="8.79081632653061"/>
-    <col collapsed="false" hidden="false" max="82" min="82" style="0" width="8.93877551020408"/>
-    <col collapsed="false" hidden="false" max="84" min="83" style="0" width="8.79081632653061"/>
-    <col collapsed="false" hidden="false" max="85" min="85" style="0" width="8.93877551020408"/>
-    <col collapsed="false" hidden="false" max="86" min="86" style="0" width="9.90816326530612"/>
-    <col collapsed="false" hidden="false" max="87" min="87" style="0" width="10.8826530612245"/>
-    <col collapsed="false" hidden="false" max="88" min="88" style="0" width="8.79081632653061"/>
-    <col collapsed="false" hidden="false" max="89" min="89" style="0" width="7.95408163265306"/>
-    <col collapsed="false" hidden="false" max="90" min="90" style="0" width="8.79081632653061"/>
-    <col collapsed="false" hidden="false" max="91" min="91" style="0" width="8.10204081632653"/>
-    <col collapsed="false" hidden="false" max="92" min="92" style="0" width="8.79081632653061"/>
-    <col collapsed="false" hidden="false" max="93" min="93" style="0" width="7.54081632653061"/>
-    <col collapsed="false" hidden="false" max="97" min="94" style="0" width="8.79081632653061"/>
-    <col collapsed="false" hidden="false" max="105" min="98" style="0" width="6.98469387755102"/>
-    <col collapsed="false" hidden="false" max="110" min="106" style="0" width="6.01020408163265"/>
-    <col collapsed="false" hidden="false" max="111" min="111" style="0" width="7.82142857142857"/>
-    <col collapsed="false" hidden="false" max="112" min="112" style="0" width="6.57142857142857"/>
-    <col collapsed="false" hidden="false" max="129" min="113" style="0" width="6.01020408163265"/>
-    <col collapsed="false" hidden="false" max="130" min="130" style="0" width="7.54081632653061"/>
-    <col collapsed="false" hidden="false" max="131" min="131" style="0" width="6.98469387755102"/>
-    <col collapsed="false" hidden="false" max="133" min="132" style="0" width="6.01020408163265"/>
-    <col collapsed="false" hidden="false" max="135" min="134" style="0" width="6.98469387755102"/>
-    <col collapsed="false" hidden="false" max="136" min="136" style="0" width="7.12755102040816"/>
-    <col collapsed="false" hidden="false" max="138" min="137" style="0" width="8.10204081632653"/>
-    <col collapsed="false" hidden="false" max="146" min="139" style="0" width="6.98469387755102"/>
-    <col collapsed="false" hidden="false" max="148" min="147" style="0" width="6.01020408163265"/>
-    <col collapsed="false" hidden="false" max="149" min="149" style="0" width="6.57142857142857"/>
-    <col collapsed="false" hidden="false" max="150" min="150" style="0" width="6.01020408163265"/>
-    <col collapsed="false" hidden="false" max="151" min="151" style="0" width="13.2397959183673"/>
-    <col collapsed="false" hidden="false" max="153" min="152" style="0" width="6.01020408163265"/>
-    <col collapsed="false" hidden="false" max="154" min="154" style="0" width="6.15816326530612"/>
-    <col collapsed="false" hidden="false" max="155" min="155" style="0" width="6.01020408163265"/>
-    <col collapsed="false" hidden="false" max="156" min="156" style="0" width="14.2091836734694"/>
-    <col collapsed="false" hidden="false" max="157" min="157" style="0" width="11.9897959183673"/>
-    <col collapsed="false" hidden="false" max="159" min="158" style="0" width="6.01020408163265"/>
-    <col collapsed="false" hidden="false" max="160" min="160" style="0" width="6.29081632653061"/>
-    <col collapsed="false" hidden="false" max="161" min="161" style="0" width="11.7091836734694"/>
-    <col collapsed="false" hidden="false" max="162" min="162" style="0" width="11.4285714285714"/>
-    <col collapsed="false" hidden="false" max="163" min="163" style="0" width="6.01020408163265"/>
-    <col collapsed="false" hidden="false" max="164" min="164" style="0" width="9.48469387755102"/>
-    <col collapsed="false" hidden="false" max="165" min="165" style="0" width="6.01020408163265"/>
-    <col collapsed="false" hidden="false" max="166" min="166" style="0" width="8.79081632653061"/>
-    <col collapsed="false" hidden="false" max="167" min="167" style="0" width="6.01020408163265"/>
-    <col collapsed="false" hidden="false" max="168" min="168" style="0" width="9.20408163265306"/>
-    <col collapsed="false" hidden="false" max="169" min="169" style="0" width="6.01020408163265"/>
-    <col collapsed="false" hidden="false" max="176" min="170" style="0" width="6.57142857142857"/>
-    <col collapsed="false" hidden="false" max="177" min="177" style="0" width="5.73469387755102"/>
-    <col collapsed="false" hidden="false" max="178" min="178" style="0" width="5.18367346938776"/>
-    <col collapsed="false" hidden="false" max="179" min="179" style="0" width="5.5969387755102"/>
-    <col collapsed="false" hidden="false" max="180" min="180" style="0" width="7.54081632653061"/>
-    <col collapsed="false" hidden="false" max="181" min="181" style="0" width="7.68367346938776"/>
-    <col collapsed="false" hidden="false" max="184" min="182" style="0" width="6.01020408163265"/>
-    <col collapsed="false" hidden="false" max="185" min="185" style="0" width="5.5969387755102"/>
-    <col collapsed="false" hidden="false" max="186" min="186" style="0" width="7.26020408163265"/>
-    <col collapsed="false" hidden="false" max="187" min="187" style="0" width="6.01020408163265"/>
-    <col collapsed="false" hidden="false" max="188" min="188" style="0" width="6.43367346938776"/>
-    <col collapsed="false" hidden="false" max="189" min="189" style="0" width="10.3214285714286"/>
-    <col collapsed="false" hidden="false" max="190" min="190" style="0" width="8.10204081632653"/>
-    <col collapsed="false" hidden="false" max="191" min="191" style="0" width="6.01020408163265"/>
-    <col collapsed="false" hidden="false" max="193" min="192" style="0" width="6.8469387755102"/>
-    <col collapsed="false" hidden="false" max="194" min="194" style="0" width="7.82142857142857"/>
-    <col collapsed="false" hidden="false" max="195" min="195" style="0" width="6.8469387755102"/>
-    <col collapsed="false" hidden="false" max="197" min="196" style="0" width="6.29081632653061"/>
-    <col collapsed="false" hidden="false" max="200" min="198" style="0" width="7.40816326530612"/>
-    <col collapsed="false" hidden="false" max="203" min="201" style="0" width="6.8469387755102"/>
-    <col collapsed="false" hidden="false" max="210" min="204" style="0" width="9.90816326530612"/>
-    <col collapsed="false" hidden="false" max="211" min="211" style="0" width="6.98469387755102"/>
-    <col collapsed="false" hidden="false" max="225" min="212" style="0" width="8.37755102040816"/>
-    <col collapsed="false" hidden="false" max="239" min="226" style="0" width="8.51530612244898"/>
-    <col collapsed="false" hidden="false" max="240" min="240" style="0" width="7.40816326530612"/>
-    <col collapsed="false" hidden="false" max="241" min="241" style="0" width="7.12755102040816"/>
-    <col collapsed="false" hidden="false" max="1025" min="242" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.0357142857143"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="7" min="4" style="0" width="7.83163265306122"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="9.58673469387755"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="7.69387755102041"/>
+    <col collapsed="false" hidden="false" max="11" min="10" style="0" width="7.83163265306122"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="7.56122448979592"/>
+    <col collapsed="false" hidden="false" max="14" min="13" style="0" width="7.83163265306122"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="8.77551020408163"/>
+    <col collapsed="false" hidden="false" max="18" min="16" style="0" width="5.80612244897959"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="9.04591836734694"/>
+    <col collapsed="false" hidden="false" max="24" min="20" style="0" width="5.80612244897959"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="6.47959183673469"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="7.56122448979592"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="9.04591836734694"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="7.02040816326531"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="6.3469387755102"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="6.88265306122449"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="7.83163265306122"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="0" width="6.3469387755102"/>
+    <col collapsed="false" hidden="false" max="35" min="34" style="0" width="7.83163265306122"/>
+    <col collapsed="false" hidden="false" max="41" min="36" style="0" width="6.88265306122449"/>
+    <col collapsed="false" hidden="false" max="42" min="42" style="0" width="7.4234693877551"/>
+    <col collapsed="false" hidden="false" max="44" min="43" style="0" width="6.88265306122449"/>
+    <col collapsed="false" hidden="false" max="45" min="45" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="48" min="46" style="0" width="5.80612244897959"/>
+    <col collapsed="false" hidden="false" max="49" min="49" style="0" width="7.83163265306122"/>
+    <col collapsed="false" hidden="false" max="53" min="50" style="0" width="6.88265306122449"/>
+    <col collapsed="false" hidden="false" max="56" min="54" style="0" width="8.63775510204082"/>
+    <col collapsed="false" hidden="false" max="57" min="57" style="0" width="7.83163265306122"/>
+    <col collapsed="false" hidden="false" max="58" min="58" style="0" width="8.63775510204082"/>
+    <col collapsed="false" hidden="false" max="59" min="59" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="68" min="60" style="0" width="8.63775510204082"/>
+    <col collapsed="false" hidden="false" max="69" min="69" style="0" width="10.3928571428571"/>
+    <col collapsed="false" hidden="false" max="72" min="70" style="0" width="8.63775510204082"/>
+    <col collapsed="false" hidden="false" max="73" min="73" style="0" width="7.69387755102041"/>
+    <col collapsed="false" hidden="false" max="74" min="74" style="0" width="7.83163265306122"/>
+    <col collapsed="false" hidden="false" max="75" min="75" style="0" width="7.69387755102041"/>
+    <col collapsed="false" hidden="false" max="82" min="76" style="0" width="8.63775510204082"/>
+    <col collapsed="false" hidden="false" max="83" min="83" style="0" width="8.77551020408163"/>
+    <col collapsed="false" hidden="false" max="85" min="84" style="0" width="8.63775510204082"/>
+    <col collapsed="false" hidden="false" max="86" min="86" style="0" width="8.77551020408163"/>
+    <col collapsed="false" hidden="false" max="87" min="87" style="0" width="9.71938775510204"/>
+    <col collapsed="false" hidden="false" max="88" min="88" style="0" width="10.6632653061225"/>
+    <col collapsed="false" hidden="false" max="89" min="89" style="0" width="8.63775510204082"/>
+    <col collapsed="false" hidden="false" max="90" min="90" style="0" width="7.83163265306122"/>
+    <col collapsed="false" hidden="false" max="91" min="91" style="0" width="8.63775510204082"/>
+    <col collapsed="false" hidden="false" max="92" min="92" style="0" width="7.96428571428571"/>
+    <col collapsed="false" hidden="false" max="93" min="93" style="0" width="8.63775510204082"/>
+    <col collapsed="false" hidden="false" max="94" min="94" style="0" width="7.4234693877551"/>
+    <col collapsed="false" hidden="false" max="98" min="95" style="0" width="8.63775510204082"/>
+    <col collapsed="false" hidden="false" max="106" min="99" style="0" width="6.88265306122449"/>
+    <col collapsed="false" hidden="false" max="111" min="107" style="0" width="5.80612244897959"/>
+    <col collapsed="false" hidden="false" max="112" min="112" style="0" width="7.69387755102041"/>
+    <col collapsed="false" hidden="false" max="113" min="113" style="0" width="6.47959183673469"/>
+    <col collapsed="false" hidden="false" max="130" min="114" style="0" width="5.80612244897959"/>
+    <col collapsed="false" hidden="false" max="131" min="131" style="0" width="7.4234693877551"/>
+    <col collapsed="false" hidden="false" max="132" min="132" style="0" width="6.88265306122449"/>
+    <col collapsed="false" hidden="false" max="134" min="133" style="0" width="5.80612244897959"/>
+    <col collapsed="false" hidden="false" max="136" min="135" style="0" width="6.88265306122449"/>
+    <col collapsed="false" hidden="false" max="137" min="137" style="0" width="7.02040816326531"/>
+    <col collapsed="false" hidden="false" max="139" min="138" style="0" width="7.96428571428571"/>
+    <col collapsed="false" hidden="false" max="147" min="140" style="0" width="6.88265306122449"/>
+    <col collapsed="false" hidden="false" max="149" min="148" style="0" width="5.80612244897959"/>
+    <col collapsed="false" hidden="false" max="150" min="150" style="0" width="6.47959183673469"/>
+    <col collapsed="false" hidden="false" max="151" min="151" style="0" width="5.80612244897959"/>
+    <col collapsed="false" hidden="false" max="152" min="152" style="0" width="13.0918367346939"/>
+    <col collapsed="false" hidden="false" max="154" min="153" style="0" width="5.80612244897959"/>
+    <col collapsed="false" hidden="false" max="155" min="155" style="0" width="6.0765306122449"/>
+    <col collapsed="false" hidden="false" max="156" min="156" style="0" width="5.80612244897959"/>
+    <col collapsed="false" hidden="false" max="157" min="157" style="0" width="13.9030612244898"/>
+    <col collapsed="false" hidden="false" max="158" min="158" style="0" width="11.7448979591837"/>
+    <col collapsed="false" hidden="false" max="160" min="159" style="0" width="5.80612244897959"/>
+    <col collapsed="false" hidden="false" max="161" min="161" style="0" width="6.20918367346939"/>
+    <col collapsed="false" hidden="false" max="162" min="162" style="0" width="11.4744897959184"/>
+    <col collapsed="false" hidden="false" max="163" min="163" style="0" width="11.2040816326531"/>
+    <col collapsed="false" hidden="false" max="164" min="164" style="0" width="5.80612244897959"/>
+    <col collapsed="false" hidden="false" max="165" min="165" style="0" width="9.31632653061224"/>
+    <col collapsed="false" hidden="false" max="166" min="166" style="0" width="5.80612244897959"/>
+    <col collapsed="false" hidden="false" max="167" min="167" style="0" width="8.63775510204082"/>
+    <col collapsed="false" hidden="false" max="168" min="168" style="0" width="5.80612244897959"/>
+    <col collapsed="false" hidden="false" max="169" min="169" style="0" width="9.04591836734694"/>
+    <col collapsed="false" hidden="false" max="170" min="170" style="0" width="5.80612244897959"/>
+    <col collapsed="false" hidden="false" max="177" min="171" style="0" width="6.47959183673469"/>
+    <col collapsed="false" hidden="false" max="178" min="178" style="0" width="5.53571428571429"/>
+    <col collapsed="false" hidden="false" max="179" min="179" style="0" width="4.99489795918367"/>
+    <col collapsed="false" hidden="false" max="180" min="180" style="0" width="5.39795918367347"/>
+    <col collapsed="false" hidden="false" max="181" min="181" style="0" width="7.4234693877551"/>
+    <col collapsed="false" hidden="false" max="182" min="182" style="0" width="7.56122448979592"/>
+    <col collapsed="false" hidden="false" max="185" min="183" style="0" width="5.80612244897959"/>
+    <col collapsed="false" hidden="false" max="186" min="186" style="0" width="5.39795918367347"/>
+    <col collapsed="false" hidden="false" max="187" min="187" style="0" width="7.1530612244898"/>
+    <col collapsed="false" hidden="false" max="188" min="188" style="0" width="5.80612244897959"/>
+    <col collapsed="false" hidden="false" max="189" min="189" style="0" width="6.3469387755102"/>
+    <col collapsed="false" hidden="false" max="190" min="190" style="0" width="10.1224489795918"/>
+    <col collapsed="false" hidden="false" max="191" min="191" style="0" width="7.96428571428571"/>
+    <col collapsed="false" hidden="false" max="192" min="192" style="0" width="5.80612244897959"/>
+    <col collapsed="false" hidden="false" max="194" min="193" style="0" width="6.75"/>
+    <col collapsed="false" hidden="false" max="195" min="195" style="0" width="7.69387755102041"/>
+    <col collapsed="false" hidden="false" max="196" min="196" style="0" width="6.75"/>
+    <col collapsed="false" hidden="false" max="198" min="197" style="0" width="6.20918367346939"/>
+    <col collapsed="false" hidden="false" max="201" min="199" style="0" width="7.29081632653061"/>
+    <col collapsed="false" hidden="false" max="204" min="202" style="0" width="6.75"/>
+    <col collapsed="false" hidden="false" max="211" min="205" style="0" width="9.71938775510204"/>
+    <col collapsed="false" hidden="false" max="212" min="212" style="0" width="6.88265306122449"/>
+    <col collapsed="false" hidden="false" max="226" min="213" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="240" min="227" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="241" min="241" style="0" width="7.29081632653061"/>
+    <col collapsed="false" hidden="false" max="242" min="242" style="0" width="7.02040816326531"/>
+    <col collapsed="false" hidden="false" max="1025" min="243" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1" s="0" t="s">
-        <v>0</v>
-      </c>
+      <c r="C1" s="0"/>
       <c r="D1" s="0" t="s">
         <v>0</v>
       </c>
@@ -1112,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="AG1" s="0" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH1" s="0" t="s">
         <v>1</v>
@@ -1157,7 +1167,7 @@
         <v>1</v>
       </c>
       <c r="AV1" s="0" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AW1" s="0" t="s">
         <v>2</v>
@@ -1172,7 +1182,7 @@
         <v>2</v>
       </c>
       <c r="BA1" s="0" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BB1" s="0" t="s">
         <v>3</v>
@@ -1307,7 +1317,7 @@
         <v>3</v>
       </c>
       <c r="CT1" s="0" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="CU1" s="0" t="s">
         <v>4</v>
@@ -1430,13 +1440,13 @@
         <v>4</v>
       </c>
       <c r="EI1" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="EJ1" s="0" t="s">
         <v>5</v>
       </c>
       <c r="EK1" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="EL1" s="0" t="s">
         <v>6</v>
@@ -1445,16 +1455,16 @@
         <v>6</v>
       </c>
       <c r="EN1" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="EO1" s="0" t="s">
         <v>7</v>
-      </c>
-      <c r="EO1" s="0" t="s">
-        <v>8</v>
       </c>
       <c r="EP1" s="0" t="s">
         <v>8</v>
       </c>
       <c r="EQ1" s="0" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="ER1" s="0" t="s">
         <v>9</v>
@@ -1520,10 +1530,10 @@
         <v>9</v>
       </c>
       <c r="FM1" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="FN1" s="0" t="s">
         <v>10</v>
-      </c>
-      <c r="FN1" s="0" t="s">
-        <v>11</v>
       </c>
       <c r="FO1" s="0" t="s">
         <v>11</v>
@@ -1556,10 +1566,10 @@
         <v>11</v>
       </c>
       <c r="FY1" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="FZ1" s="0" t="s">
         <v>12</v>
-      </c>
-      <c r="FZ1" s="0" t="s">
-        <v>13</v>
       </c>
       <c r="GA1" s="0" t="s">
         <v>13</v>
@@ -1589,10 +1599,10 @@
         <v>13</v>
       </c>
       <c r="GJ1" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="GK1" s="0" t="s">
         <v>14</v>
-      </c>
-      <c r="GK1" s="0" t="s">
-        <v>15</v>
       </c>
       <c r="GL1" s="0" t="s">
         <v>15</v>
@@ -1613,10 +1623,10 @@
         <v>15</v>
       </c>
       <c r="GR1" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="GS1" s="0" t="s">
         <v>16</v>
-      </c>
-      <c r="GS1" s="0" t="s">
-        <v>17</v>
       </c>
       <c r="GT1" s="0" t="s">
         <v>17</v>
@@ -1625,7 +1635,7 @@
         <v>17</v>
       </c>
       <c r="GV1" s="0" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="GW1" s="0" t="s">
         <v>18</v>
@@ -1646,10 +1656,10 @@
         <v>18</v>
       </c>
       <c r="HC1" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="HD1" s="0" t="s">
         <v>19</v>
-      </c>
-      <c r="HD1" s="0" t="s">
-        <v>20</v>
       </c>
       <c r="HE1" s="0" t="s">
         <v>20</v>
@@ -1691,7 +1701,7 @@
         <v>20</v>
       </c>
       <c r="HR1" s="0" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="HS1" s="0" t="s">
         <v>21</v>
@@ -1733,9 +1743,12 @@
         <v>21</v>
       </c>
       <c r="IF1" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="IG1" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="IG1" s="0" t="s">
+      <c r="IH1" s="0" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1743,724 +1756,724 @@
       <c r="A2" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="D2" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="E2" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="F2" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="G2" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="H2" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="H2" s="0" t="s">
+      <c r="I2" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="I2" s="0" t="s">
+      <c r="J2" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="J2" s="0" t="s">
+      <c r="K2" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="K2" s="0" t="s">
+      <c r="L2" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="L2" s="0" t="s">
+      <c r="M2" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="M2" s="0" t="s">
+      <c r="N2" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="N2" s="0" t="s">
+      <c r="O2" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="O2" s="0" t="s">
+      <c r="P2" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="P2" s="0" t="s">
+      <c r="Q2" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="Q2" s="0" t="s">
+      <c r="R2" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="R2" s="0" t="s">
+      <c r="S2" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="S2" s="0" t="s">
+      <c r="T2" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="T2" s="0" t="s">
+      <c r="U2" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="U2" s="0" t="s">
+      <c r="V2" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="V2" s="0" t="s">
+      <c r="W2" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="W2" s="0" t="s">
+      <c r="X2" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="X2" s="0" t="s">
+      <c r="Y2" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="Y2" s="0" t="s">
+      <c r="Z2" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="Z2" s="0" t="s">
+      <c r="AA2" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="AA2" s="0" t="s">
+      <c r="AB2" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="AB2" s="0" t="s">
+      <c r="AC2" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="AC2" s="0" t="s">
+      <c r="AD2" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="AD2" s="0" t="s">
+      <c r="AE2" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="AE2" s="0" t="s">
+      <c r="AF2" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="AF2" s="0" t="s">
+      <c r="AG2" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="AG2" s="0" t="s">
+      <c r="AH2" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="AH2" s="0" t="s">
+      <c r="AI2" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="AI2" s="0" t="s">
+      <c r="AJ2" s="0" t="s">
         <v>58</v>
       </c>
-      <c r="AJ2" s="0" t="s">
+      <c r="AK2" s="0" t="s">
         <v>59</v>
       </c>
-      <c r="AK2" s="0" t="s">
+      <c r="AL2" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="AL2" s="0" t="s">
+      <c r="AM2" s="0" t="s">
         <v>61</v>
       </c>
-      <c r="AM2" s="0" t="s">
+      <c r="AN2" s="0" t="s">
         <v>62</v>
       </c>
-      <c r="AN2" s="0" t="s">
+      <c r="AO2" s="0" t="s">
         <v>63</v>
       </c>
-      <c r="AO2" s="0" t="s">
+      <c r="AP2" s="0" t="s">
         <v>64</v>
       </c>
-      <c r="AP2" s="0" t="s">
+      <c r="AQ2" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="AQ2" s="0" t="s">
+      <c r="AR2" s="0" t="s">
         <v>66</v>
       </c>
-      <c r="AR2" s="0" t="s">
+      <c r="AS2" s="0" t="s">
         <v>67</v>
       </c>
-      <c r="AS2" s="0" t="s">
+      <c r="AT2" s="0" t="s">
         <v>68</v>
       </c>
-      <c r="AT2" s="0" t="s">
+      <c r="AU2" s="0" t="s">
         <v>69</v>
       </c>
-      <c r="AU2" s="0" t="s">
+      <c r="AV2" s="0" t="s">
         <v>70</v>
       </c>
-      <c r="AV2" s="0" t="s">
+      <c r="AW2" s="0" t="s">
         <v>62</v>
       </c>
-      <c r="AW2" s="0" t="s">
+      <c r="AX2" s="0" t="s">
         <v>59</v>
       </c>
-      <c r="AX2" s="0" t="s">
+      <c r="AY2" s="0" t="s">
         <v>61</v>
       </c>
-      <c r="AY2" s="0" t="s">
+      <c r="AZ2" s="0" t="s">
         <v>68</v>
       </c>
-      <c r="AZ2" s="0" t="s">
+      <c r="BA2" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="BA2" s="0" t="s">
+      <c r="BB2" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="BB2" s="0" t="s">
+      <c r="BC2" s="0" t="s">
         <v>58</v>
       </c>
-      <c r="BC2" s="0" t="s">
+      <c r="BD2" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="BD2" s="0" t="s">
+      <c r="BE2" s="0" t="s">
         <v>71</v>
       </c>
-      <c r="BE2" s="0" t="s">
+      <c r="BF2" s="0" t="s">
         <v>72</v>
       </c>
-      <c r="BF2" s="0" t="s">
+      <c r="BG2" s="0" t="s">
         <v>73</v>
       </c>
-      <c r="BG2" s="0" t="s">
+      <c r="BH2" s="0" t="s">
         <v>74</v>
       </c>
-      <c r="BH2" s="0" t="s">
+      <c r="BI2" s="0" t="s">
         <v>75</v>
       </c>
-      <c r="BI2" s="0" t="s">
+      <c r="BJ2" s="0" t="s">
         <v>76</v>
       </c>
-      <c r="BJ2" s="0" t="s">
+      <c r="BK2" s="0" t="s">
         <v>77</v>
       </c>
-      <c r="BK2" s="0" t="s">
+      <c r="BL2" s="0" t="s">
         <v>78</v>
       </c>
-      <c r="BL2" s="0" t="s">
+      <c r="BM2" s="0" t="s">
         <v>79</v>
       </c>
-      <c r="BM2" s="0" t="s">
+      <c r="BN2" s="0" t="s">
         <v>80</v>
       </c>
-      <c r="BN2" s="0" t="s">
+      <c r="BO2" s="0" t="s">
         <v>81</v>
       </c>
-      <c r="BO2" s="0" t="s">
+      <c r="BP2" s="0" t="s">
         <v>82</v>
       </c>
-      <c r="BP2" s="0" t="s">
+      <c r="BQ2" s="0" t="s">
         <v>83</v>
       </c>
-      <c r="BQ2" s="0" t="s">
+      <c r="BR2" s="0" t="s">
         <v>84</v>
       </c>
-      <c r="BR2" s="0" t="s">
+      <c r="BS2" s="0" t="s">
         <v>85</v>
       </c>
-      <c r="BS2" s="0" t="s">
+      <c r="BT2" s="0" t="s">
         <v>86</v>
       </c>
-      <c r="BT2" s="0" t="s">
+      <c r="BU2" s="0" t="s">
         <v>87</v>
       </c>
-      <c r="BU2" s="0" t="s">
+      <c r="BV2" s="0" t="s">
         <v>88</v>
       </c>
-      <c r="BV2" s="0" t="s">
+      <c r="BW2" s="0" t="s">
         <v>89</v>
       </c>
-      <c r="BW2" s="0" t="s">
+      <c r="BX2" s="0" t="s">
         <v>90</v>
       </c>
-      <c r="BX2" s="0" t="s">
+      <c r="BY2" s="0" t="s">
         <v>91</v>
       </c>
-      <c r="BY2" s="0" t="s">
+      <c r="BZ2" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="BZ2" s="0" t="s">
+      <c r="CA2" s="0" t="s">
         <v>93</v>
       </c>
-      <c r="CA2" s="0" t="s">
+      <c r="CB2" s="0" t="s">
         <v>94</v>
       </c>
-      <c r="CB2" s="0" t="s">
+      <c r="CC2" s="0" t="s">
         <v>95</v>
       </c>
-      <c r="CC2" s="0" t="s">
+      <c r="CD2" s="0" t="s">
         <v>96</v>
       </c>
-      <c r="CD2" s="0" t="s">
+      <c r="CE2" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="CE2" s="0" t="s">
+      <c r="CF2" s="0" t="s">
         <v>98</v>
       </c>
-      <c r="CF2" s="0" t="s">
+      <c r="CG2" s="0" t="s">
         <v>99</v>
       </c>
-      <c r="CG2" s="0" t="s">
+      <c r="CH2" s="0" t="s">
         <v>100</v>
       </c>
-      <c r="CH2" s="0" t="s">
+      <c r="CI2" s="0" t="s">
         <v>101</v>
       </c>
-      <c r="CI2" s="0" t="s">
+      <c r="CJ2" s="0" t="s">
         <v>102</v>
       </c>
-      <c r="CJ2" s="0" t="s">
+      <c r="CK2" s="0" t="s">
         <v>103</v>
       </c>
-      <c r="CK2" s="0" t="s">
+      <c r="CL2" s="0" t="s">
         <v>104</v>
       </c>
-      <c r="CL2" s="0" t="s">
+      <c r="CM2" s="0" t="s">
         <v>105</v>
       </c>
-      <c r="CM2" s="0" t="s">
+      <c r="CN2" s="0" t="s">
         <v>106</v>
       </c>
-      <c r="CN2" s="0" t="s">
+      <c r="CO2" s="0" t="s">
         <v>107</v>
       </c>
-      <c r="CO2" s="0" t="s">
+      <c r="CP2" s="0" t="s">
         <v>108</v>
       </c>
-      <c r="CP2" s="0" t="s">
+      <c r="CQ2" s="0" t="s">
         <v>109</v>
       </c>
-      <c r="CQ2" s="0" t="s">
+      <c r="CR2" s="0" t="s">
         <v>110</v>
       </c>
-      <c r="CR2" s="0" t="s">
+      <c r="CS2" s="0" t="s">
         <v>111</v>
       </c>
-      <c r="CS2" s="0" t="s">
+      <c r="CT2" s="0" t="s">
         <v>112</v>
       </c>
-      <c r="CT2" s="0" t="s">
+      <c r="CU2" s="0" t="s">
         <v>113</v>
       </c>
-      <c r="CU2" s="0" t="s">
+      <c r="CV2" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="CV2" s="0" t="s">
+      <c r="CW2" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="CW2" s="0" t="s">
+      <c r="CX2" s="0" t="s">
         <v>58</v>
       </c>
-      <c r="CX2" s="0" t="s">
+      <c r="CY2" s="0" t="s">
         <v>114</v>
       </c>
-      <c r="CY2" s="0" t="s">
+      <c r="CZ2" s="0" t="s">
         <v>72</v>
       </c>
-      <c r="CZ2" s="0" t="s">
+      <c r="DA2" s="0" t="s">
         <v>85</v>
       </c>
-      <c r="DA2" s="0" t="s">
+      <c r="DB2" s="0" t="s">
         <v>82</v>
       </c>
-      <c r="DB2" s="0" t="s">
+      <c r="DC2" s="0" t="s">
         <v>115</v>
       </c>
-      <c r="DC2" s="0" t="s">
+      <c r="DD2" s="0" t="s">
         <v>62</v>
       </c>
-      <c r="DD2" s="0" t="s">
+      <c r="DE2" s="0" t="s">
         <v>66</v>
       </c>
-      <c r="DE2" s="0" t="s">
+      <c r="DF2" s="0" t="s">
         <v>116</v>
       </c>
-      <c r="DF2" s="0" t="s">
+      <c r="DG2" s="0" t="s">
         <v>117</v>
       </c>
-      <c r="DG2" s="0" t="s">
+      <c r="DH2" s="0" t="s">
         <v>118</v>
       </c>
-      <c r="DH2" s="0" t="s">
+      <c r="DI2" s="0" t="s">
         <v>119</v>
       </c>
-      <c r="DI2" s="0" t="s">
+      <c r="DJ2" s="0" t="s">
         <v>120</v>
       </c>
-      <c r="DJ2" s="0" t="s">
+      <c r="DK2" s="0" t="s">
         <v>68</v>
       </c>
-      <c r="DK2" s="0" t="s">
+      <c r="DL2" s="0" t="s">
         <v>61</v>
       </c>
-      <c r="DL2" s="0" t="s">
+      <c r="DM2" s="0" t="s">
         <v>98</v>
       </c>
-      <c r="DM2" s="0" t="s">
+      <c r="DN2" s="0" t="s">
         <v>121</v>
       </c>
-      <c r="DN2" s="0" t="s">
+      <c r="DO2" s="0" t="s">
         <v>63</v>
       </c>
-      <c r="DO2" s="0" t="s">
+      <c r="DP2" s="0" t="s">
         <v>122</v>
       </c>
-      <c r="DP2" s="0" t="s">
+      <c r="DQ2" s="0" t="s">
         <v>123</v>
       </c>
-      <c r="DQ2" s="0" t="s">
+      <c r="DR2" s="0" t="s">
         <v>124</v>
       </c>
-      <c r="DR2" s="0" t="s">
+      <c r="DS2" s="0" t="s">
         <v>125</v>
       </c>
-      <c r="DS2" s="0" t="s">
+      <c r="DT2" s="0" t="s">
         <v>126</v>
       </c>
-      <c r="DT2" s="0" t="s">
+      <c r="DU2" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="DU2" s="0" t="s">
+      <c r="DV2" s="0" t="s">
         <v>127</v>
       </c>
-      <c r="DV2" s="0" t="s">
+      <c r="DW2" s="0" t="s">
         <v>128</v>
       </c>
-      <c r="DW2" s="0" t="s">
+      <c r="DX2" s="0" t="s">
         <v>129</v>
       </c>
-      <c r="DX2" s="0" t="s">
+      <c r="DY2" s="0" t="s">
         <v>130</v>
       </c>
-      <c r="DY2" s="0" t="s">
+      <c r="DZ2" s="0" t="s">
         <v>131</v>
       </c>
-      <c r="DZ2" s="0" t="s">
+      <c r="EA2" s="0" t="s">
         <v>64</v>
       </c>
-      <c r="EA2" s="0" t="s">
+      <c r="EB2" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="EB2" s="0" t="s">
+      <c r="EC2" s="0" t="s">
         <v>132</v>
       </c>
-      <c r="EC2" s="0" t="s">
+      <c r="ED2" s="0" t="s">
         <v>133</v>
       </c>
-      <c r="ED2" s="0" t="s">
+      <c r="EE2" s="0" t="s">
         <v>134</v>
       </c>
-      <c r="EE2" s="0" t="s">
+      <c r="EF2" s="0" t="s">
         <v>135</v>
       </c>
-      <c r="EF2" s="0" t="s">
+      <c r="EG2" s="0" t="s">
         <v>136</v>
       </c>
-      <c r="EG2" s="0" t="s">
+      <c r="EH2" s="0" t="s">
         <v>137</v>
       </c>
-      <c r="EH2" s="0" t="s">
+      <c r="EI2" s="0" t="s">
         <v>138</v>
       </c>
-      <c r="EI2" s="0" t="s">
+      <c r="EJ2" s="0" t="s">
         <v>59</v>
       </c>
-      <c r="EJ2" s="0" t="s">
+      <c r="EK2" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="EK2" s="0" t="s">
+      <c r="EL2" s="0" t="s">
         <v>113</v>
       </c>
-      <c r="EL2" s="0" t="s">
+      <c r="EM2" s="0" t="s">
         <v>114</v>
       </c>
-      <c r="EM2" s="0" t="s">
+      <c r="EN2" s="0" t="s">
         <v>139</v>
       </c>
-      <c r="EN2" s="0" t="s">
+      <c r="EO2" s="0" t="s">
         <v>63</v>
       </c>
-      <c r="EO2" s="0" t="s">
+      <c r="EP2" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="EP2" s="0" t="s">
+      <c r="EQ2" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="EQ2" s="0" t="s">
+      <c r="ER2" s="0" t="s">
         <v>140</v>
       </c>
-      <c r="ER2" s="0" t="s">
+      <c r="ES2" s="0" t="s">
         <v>141</v>
       </c>
-      <c r="ES2" s="0" t="s">
+      <c r="ET2" s="0" t="s">
         <v>142</v>
       </c>
-      <c r="ET2" s="0" t="s">
+      <c r="EU2" s="0" t="s">
         <v>69</v>
       </c>
-      <c r="EU2" s="0" t="s">
+      <c r="EV2" s="0" t="s">
         <v>143</v>
       </c>
-      <c r="EV2" s="0" t="s">
+      <c r="EW2" s="0" t="s">
         <v>144</v>
       </c>
-      <c r="EW2" s="0" t="s">
+      <c r="EX2" s="0" t="s">
         <v>145</v>
       </c>
-      <c r="EX2" s="0" t="s">
+      <c r="EY2" s="0" t="s">
         <v>146</v>
       </c>
-      <c r="EY2" s="0" t="s">
+      <c r="EZ2" s="0" t="s">
         <v>147</v>
       </c>
-      <c r="EZ2" s="0" t="s">
+      <c r="FA2" s="0" t="s">
         <v>148</v>
       </c>
-      <c r="FA2" s="0" t="s">
+      <c r="FB2" s="0" t="s">
         <v>149</v>
       </c>
-      <c r="FB2" s="0" t="s">
+      <c r="FC2" s="0" t="s">
         <v>150</v>
       </c>
-      <c r="FC2" s="0" t="s">
+      <c r="FD2" s="0" t="s">
         <v>151</v>
       </c>
-      <c r="FD2" s="0" t="s">
+      <c r="FE2" s="0" t="s">
         <v>152</v>
       </c>
-      <c r="FE2" s="0" t="s">
+      <c r="FF2" s="0" t="s">
         <v>153</v>
       </c>
-      <c r="FF2" s="0" t="s">
+      <c r="FG2" s="0" t="s">
         <v>154</v>
       </c>
-      <c r="FG2" s="0" t="s">
+      <c r="FH2" s="0" t="s">
         <v>155</v>
       </c>
-      <c r="FH2" s="0" t="s">
+      <c r="FI2" s="0" t="s">
         <v>156</v>
       </c>
-      <c r="FI2" s="0" t="s">
+      <c r="FJ2" s="0" t="s">
         <v>157</v>
       </c>
-      <c r="FJ2" s="0" t="s">
+      <c r="FK2" s="0" t="s">
         <v>158</v>
       </c>
-      <c r="FK2" s="0" t="s">
+      <c r="FL2" s="0" t="s">
         <v>159</v>
       </c>
-      <c r="FL2" s="0" t="s">
+      <c r="FM2" s="0" t="s">
         <v>160</v>
       </c>
-      <c r="FM2" s="0" t="s">
+      <c r="FN2" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="FN2" s="0" t="s">
+      <c r="FO2" s="0" t="s">
         <v>70</v>
       </c>
-      <c r="FO2" s="0" t="s">
+      <c r="FP2" s="0" t="s">
         <v>161</v>
       </c>
-      <c r="FP2" s="0" t="s">
+      <c r="FQ2" s="0" t="s">
         <v>162</v>
       </c>
-      <c r="FQ2" s="0" t="s">
+      <c r="FR2" s="0" t="s">
         <v>163</v>
       </c>
-      <c r="FR2" s="0" t="s">
+      <c r="FS2" s="0" t="s">
         <v>164</v>
       </c>
-      <c r="FS2" s="0" t="s">
+      <c r="FT2" s="0" t="s">
         <v>165</v>
       </c>
-      <c r="FT2" s="0" t="s">
+      <c r="FU2" s="0" t="s">
         <v>132</v>
       </c>
-      <c r="FU2" s="0" t="s">
+      <c r="FV2" s="0" t="s">
         <v>166</v>
       </c>
-      <c r="FV2" s="0" t="s">
+      <c r="FW2" s="0" t="s">
         <v>167</v>
       </c>
-      <c r="FW2" s="0" t="s">
+      <c r="FX2" s="0" t="s">
         <v>168</v>
       </c>
-      <c r="FX2" s="0" t="s">
+      <c r="FY2" s="0" t="s">
         <v>169</v>
       </c>
-      <c r="FY2" s="0" t="s">
+      <c r="FZ2" s="0" t="s">
         <v>170</v>
       </c>
-      <c r="FZ2" s="0" t="s">
+      <c r="GA2" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="GA2" s="0" t="s">
+      <c r="GB2" s="0" t="s">
         <v>114</v>
       </c>
-      <c r="GB2" s="0" t="s">
+      <c r="GC2" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="GC2" s="0" t="s">
+      <c r="GD2" s="0" t="s">
         <v>171</v>
       </c>
-      <c r="GD2" s="0" t="s">
+      <c r="GE2" s="0" t="s">
         <v>172</v>
       </c>
-      <c r="GE2" s="0" t="s">
+      <c r="GF2" s="0" t="s">
         <v>98</v>
       </c>
-      <c r="GF2" s="0" t="s">
+      <c r="GG2" s="0" t="s">
         <v>173</v>
       </c>
-      <c r="GG2" s="0" t="s">
+      <c r="GH2" s="0" t="s">
         <v>174</v>
       </c>
-      <c r="GH2" s="0" t="s">
+      <c r="GI2" s="0" t="s">
         <v>78</v>
       </c>
-      <c r="GI2" s="0" t="s">
+      <c r="GJ2" s="0" t="s">
         <v>175</v>
       </c>
-      <c r="GJ2" s="0" t="s">
+      <c r="GK2" s="0" t="s">
         <v>98</v>
       </c>
-      <c r="GK2" s="0" t="s">
+      <c r="GL2" s="0" t="s">
         <v>176</v>
       </c>
-      <c r="GL2" s="0" t="s">
+      <c r="GM2" s="0" t="s">
         <v>177</v>
       </c>
-      <c r="GM2" s="0" t="s">
+      <c r="GN2" s="0" t="s">
         <v>178</v>
       </c>
-      <c r="GN2" s="0" t="s">
+      <c r="GO2" s="0" t="s">
         <v>179</v>
       </c>
-      <c r="GO2" s="0" t="s">
+      <c r="GP2" s="0" t="s">
         <v>180</v>
       </c>
-      <c r="GP2" s="0" t="s">
+      <c r="GQ2" s="0" t="s">
         <v>181</v>
       </c>
-      <c r="GQ2" s="0" t="s">
+      <c r="GR2" s="0" t="s">
         <v>182</v>
       </c>
-      <c r="GR2" s="0" t="s">
+      <c r="GS2" s="0" t="s">
         <v>183</v>
       </c>
-      <c r="GS2" s="0" t="s">
+      <c r="GT2" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="GT2" s="0" t="s">
+      <c r="GU2" s="0" t="s">
         <v>58</v>
       </c>
-      <c r="GU2" s="0" t="s">
+      <c r="GV2" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="GV2" s="0" t="s">
+      <c r="GW2" s="0" t="s">
         <v>113</v>
       </c>
-      <c r="GW2" s="0" t="s">
+      <c r="GX2" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="GX2" s="0" t="s">
+      <c r="GY2" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="GY2" s="0" t="s">
+      <c r="GZ2" s="0" t="s">
         <v>58</v>
       </c>
-      <c r="GZ2" s="0" t="s">
+      <c r="HA2" s="0" t="s">
         <v>85</v>
       </c>
-      <c r="HA2" s="0" t="s">
+      <c r="HB2" s="0" t="s">
         <v>82</v>
       </c>
-      <c r="HB2" s="0" t="s">
+      <c r="HC2" s="0" t="s">
         <v>96</v>
       </c>
-      <c r="HC2" s="0" t="s">
+      <c r="HD2" s="0" t="s">
         <v>184</v>
       </c>
-      <c r="HD2" s="0" t="s">
+      <c r="HE2" s="0" t="s">
         <v>61</v>
       </c>
-      <c r="HE2" s="0" t="s">
+      <c r="HF2" s="0" t="s">
         <v>122</v>
       </c>
-      <c r="HF2" s="0" t="s">
+      <c r="HG2" s="0" t="s">
         <v>115</v>
       </c>
-      <c r="HG2" s="0" t="s">
+      <c r="HH2" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="HH2" s="0" t="s">
+      <c r="HI2" s="0" t="s">
         <v>129</v>
       </c>
-      <c r="HI2" s="0" t="s">
+      <c r="HJ2" s="0" t="s">
         <v>133</v>
       </c>
-      <c r="HJ2" s="0" t="s">
+      <c r="HK2" s="0" t="s">
         <v>130</v>
       </c>
-      <c r="HK2" s="0" t="s">
+      <c r="HL2" s="0" t="s">
         <v>127</v>
       </c>
-      <c r="HL2" s="0" t="s">
+      <c r="HM2" s="0" t="s">
         <v>131</v>
       </c>
-      <c r="HM2" s="0" t="s">
+      <c r="HN2" s="0" t="s">
         <v>161</v>
       </c>
-      <c r="HN2" s="0" t="s">
+      <c r="HO2" s="0" t="s">
         <v>163</v>
       </c>
-      <c r="HO2" s="0" t="s">
+      <c r="HP2" s="0" t="s">
         <v>185</v>
       </c>
-      <c r="HP2" s="0" t="s">
+      <c r="HQ2" s="0" t="s">
         <v>132</v>
       </c>
-      <c r="HQ2" s="0" t="s">
+      <c r="HR2" s="0" t="s">
         <v>162</v>
       </c>
-      <c r="HR2" s="0" t="s">
+      <c r="HS2" s="0" t="s">
         <v>61</v>
       </c>
-      <c r="HS2" s="0" t="s">
+      <c r="HT2" s="0" t="s">
         <v>122</v>
       </c>
-      <c r="HT2" s="0" t="s">
+      <c r="HU2" s="0" t="s">
         <v>115</v>
       </c>
-      <c r="HU2" s="0" t="s">
+      <c r="HV2" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="HV2" s="0" t="s">
+      <c r="HW2" s="0" t="s">
         <v>129</v>
       </c>
-      <c r="HW2" s="0" t="s">
+      <c r="HX2" s="0" t="s">
         <v>133</v>
       </c>
-      <c r="HX2" s="0" t="s">
+      <c r="HY2" s="0" t="s">
         <v>130</v>
       </c>
-      <c r="HY2" s="0" t="s">
+      <c r="HZ2" s="0" t="s">
         <v>127</v>
       </c>
-      <c r="HZ2" s="0" t="s">
+      <c r="IA2" s="0" t="s">
         <v>161</v>
       </c>
-      <c r="IA2" s="0" t="s">
+      <c r="IB2" s="0" t="s">
         <v>131</v>
       </c>
-      <c r="IB2" s="0" t="s">
+      <c r="IC2" s="0" t="s">
         <v>163</v>
       </c>
-      <c r="IC2" s="0" t="s">
+      <c r="ID2" s="0" t="s">
         <v>185</v>
       </c>
-      <c r="ID2" s="0" t="s">
+      <c r="IE2" s="0" t="s">
         <v>132</v>
       </c>
-      <c r="IE2" s="0" t="s">
+      <c r="IF2" s="0" t="s">
         <v>162</v>
       </c>
-      <c r="IF2" s="0" t="s">
+      <c r="IG2" s="0" t="s">
         <v>186</v>
       </c>
-      <c r="IG2" s="0" t="s">
+      <c r="IH2" s="0" t="s">
         <v>187</v>
       </c>
     </row>
@@ -2468,50 +2481,47 @@
       <c r="A3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="1" t="n">
+      <c r="C3" s="1" t="n">
         <v>22.472</v>
       </c>
-      <c r="C3" s="1" t="n">
+      <c r="D3" s="1" t="n">
         <v>2.667</v>
       </c>
-      <c r="D3" s="1" t="n">
+      <c r="E3" s="1" t="n">
         <v>2.144</v>
-      </c>
-      <c r="E3" s="1" t="n">
-        <v>1.508</v>
       </c>
       <c r="F3" s="1" t="n">
         <v>1.508</v>
       </c>
       <c r="G3" s="1" t="n">
-        <v>1.152</v>
+        <v>1.508</v>
       </c>
       <c r="H3" s="1" t="n">
         <v>1.152</v>
       </c>
       <c r="I3" s="1" t="n">
-        <v>1.078</v>
+        <v>1.152</v>
       </c>
       <c r="J3" s="1" t="n">
         <v>1.078</v>
       </c>
       <c r="K3" s="1" t="n">
+        <v>1.078</v>
+      </c>
+      <c r="L3" s="1" t="n">
         <v>0.88</v>
-      </c>
-      <c r="L3" s="1" t="n">
-        <v>0.849</v>
       </c>
       <c r="M3" s="1" t="n">
         <v>0.849</v>
       </c>
       <c r="N3" s="1" t="n">
+        <v>0.849</v>
+      </c>
+      <c r="O3" s="1" t="n">
         <v>0.794</v>
       </c>
-      <c r="O3" s="1" t="n">
+      <c r="P3" s="1" t="n">
         <v>0.009</v>
-      </c>
-      <c r="P3" s="1" t="n">
-        <v>0.004</v>
       </c>
       <c r="Q3" s="1" t="n">
         <v>0.004</v>
@@ -2520,13 +2530,13 @@
         <v>0.004</v>
       </c>
       <c r="S3" s="1" t="n">
-        <v>0.003</v>
+        <v>0.004</v>
       </c>
       <c r="T3" s="1" t="n">
         <v>0.003</v>
       </c>
       <c r="U3" s="1" t="n">
-        <v>0.002</v>
+        <v>0.003</v>
       </c>
       <c r="V3" s="1" t="n">
         <v>0.002</v>
@@ -2538,7 +2548,7 @@
         <v>0.002</v>
       </c>
       <c r="Y3" s="1" t="n">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="Z3" s="1" t="n">
         <v>0</v>
@@ -2562,16 +2572,16 @@
         <v>0</v>
       </c>
       <c r="AG3" s="1" t="n">
-        <v>0.503</v>
+        <v>0</v>
       </c>
       <c r="AH3" s="1" t="n">
         <v>0.503</v>
       </c>
       <c r="AI3" s="1" t="n">
+        <v>0.503</v>
+      </c>
+      <c r="AJ3" s="1" t="n">
         <v>0.389</v>
-      </c>
-      <c r="AJ3" s="1" t="n">
-        <v>0.079</v>
       </c>
       <c r="AK3" s="1" t="n">
         <v>0.079</v>
@@ -2589,13 +2599,13 @@
         <v>0.079</v>
       </c>
       <c r="AP3" s="1" t="n">
+        <v>0.079</v>
+      </c>
+      <c r="AQ3" s="1" t="n">
         <v>0.065</v>
       </c>
-      <c r="AQ3" s="1" t="n">
+      <c r="AR3" s="1" t="n">
         <v>0.063</v>
-      </c>
-      <c r="AR3" s="1" t="n">
-        <v>0.039</v>
       </c>
       <c r="AS3" s="1" t="n">
         <v>0.039</v>
@@ -2607,10 +2617,10 @@
         <v>0.039</v>
       </c>
       <c r="AV3" s="1" t="n">
+        <v>0.039</v>
+      </c>
+      <c r="AW3" s="1" t="n">
         <v>0.74</v>
-      </c>
-      <c r="AW3" s="1" t="n">
-        <v>0.266</v>
       </c>
       <c r="AX3" s="1" t="n">
         <v>0.266</v>
@@ -2622,22 +2632,22 @@
         <v>0.266</v>
       </c>
       <c r="BA3" s="1" t="n">
+        <v>0.266</v>
+      </c>
+      <c r="BB3" s="1" t="n">
         <v>0.113</v>
-      </c>
-      <c r="BB3" s="1" t="n">
-        <v>0.074</v>
       </c>
       <c r="BC3" s="1" t="n">
         <v>0.074</v>
       </c>
       <c r="BD3" s="1" t="n">
+        <v>0.074</v>
+      </c>
+      <c r="BE3" s="1" t="n">
         <v>0.062</v>
       </c>
-      <c r="BE3" s="1" t="n">
+      <c r="BF3" s="1" t="n">
         <v>0.055</v>
-      </c>
-      <c r="BF3" s="1" t="n">
-        <v>0.039</v>
       </c>
       <c r="BG3" s="1" t="n">
         <v>0.039</v>
@@ -2646,13 +2656,13 @@
         <v>0.039</v>
       </c>
       <c r="BI3" s="1" t="n">
-        <v>0.029</v>
+        <v>0.039</v>
       </c>
       <c r="BJ3" s="1" t="n">
         <v>0.029</v>
       </c>
       <c r="BK3" s="1" t="n">
-        <v>0.018</v>
+        <v>0.029</v>
       </c>
       <c r="BL3" s="1" t="n">
         <v>0.018</v>
@@ -2709,10 +2719,10 @@
         <v>0.018</v>
       </c>
       <c r="CD3" s="1" t="n">
+        <v>0.018</v>
+      </c>
+      <c r="CE3" s="1" t="n">
         <v>0.004</v>
-      </c>
-      <c r="CE3" s="1" t="n">
-        <v>0.003</v>
       </c>
       <c r="CF3" s="1" t="n">
         <v>0.003</v>
@@ -2727,7 +2737,7 @@
         <v>0.003</v>
       </c>
       <c r="CJ3" s="1" t="n">
-        <v>0.001</v>
+        <v>0.003</v>
       </c>
       <c r="CK3" s="1" t="n">
         <v>0.001</v>
@@ -2739,7 +2749,7 @@
         <v>0.001</v>
       </c>
       <c r="CN3" s="1" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="CO3" s="1" t="n">
         <v>0</v>
@@ -2757,10 +2767,10 @@
         <v>0</v>
       </c>
       <c r="CT3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU3" s="1" t="n">
         <v>0.128</v>
-      </c>
-      <c r="CU3" s="1" t="n">
-        <v>0.123</v>
       </c>
       <c r="CV3" s="1" t="n">
         <v>0.123</v>
@@ -2769,25 +2779,25 @@
         <v>0.123</v>
       </c>
       <c r="CX3" s="1" t="n">
+        <v>0.123</v>
+      </c>
+      <c r="CY3" s="1" t="n">
         <v>0.088</v>
       </c>
-      <c r="CY3" s="1" t="n">
+      <c r="CZ3" s="1" t="n">
         <v>0.063</v>
-      </c>
-      <c r="CZ3" s="1" t="n">
-        <v>0.052</v>
       </c>
       <c r="DA3" s="1" t="n">
         <v>0.052</v>
       </c>
       <c r="DB3" s="1" t="n">
+        <v>0.052</v>
+      </c>
+      <c r="DC3" s="1" t="n">
         <v>0.012</v>
       </c>
-      <c r="DC3" s="1" t="n">
+      <c r="DD3" s="1" t="n">
         <v>0.011</v>
-      </c>
-      <c r="DD3" s="1" t="n">
-        <v>0.009</v>
       </c>
       <c r="DE3" s="1" t="n">
         <v>0.009</v>
@@ -2799,7 +2809,7 @@
         <v>0.009</v>
       </c>
       <c r="DH3" s="1" t="n">
-        <v>0.008</v>
+        <v>0.009</v>
       </c>
       <c r="DI3" s="1" t="n">
         <v>0.008</v>
@@ -2811,22 +2821,22 @@
         <v>0.008</v>
       </c>
       <c r="DL3" s="1" t="n">
-        <v>0.007</v>
+        <v>0.008</v>
       </c>
       <c r="DM3" s="1" t="n">
         <v>0.007</v>
       </c>
       <c r="DN3" s="1" t="n">
-        <v>0.006</v>
+        <v>0.007</v>
       </c>
       <c r="DO3" s="1" t="n">
         <v>0.006</v>
       </c>
       <c r="DP3" s="1" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="DQ3" s="1" t="n">
         <v>0.005</v>
-      </c>
-      <c r="DQ3" s="1" t="n">
-        <v>0.004</v>
       </c>
       <c r="DR3" s="1" t="n">
         <v>0.004</v>
@@ -2838,7 +2848,7 @@
         <v>0.004</v>
       </c>
       <c r="DU3" s="1" t="n">
-        <v>0.003</v>
+        <v>0.004</v>
       </c>
       <c r="DV3" s="1" t="n">
         <v>0.003</v>
@@ -2862,11 +2872,11 @@
         <v>0.003</v>
       </c>
       <c r="EC3" s="1" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="ED3" s="1" t="n">
         <v>0.001</v>
       </c>
-      <c r="ED3" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="EE3" s="1" t="n">
         <v>0</v>
       </c>
@@ -2880,34 +2890,34 @@
         <v>0</v>
       </c>
       <c r="EI3" s="1" t="n">
-        <v>0.143</v>
+        <v>0</v>
       </c>
       <c r="EJ3" s="1" t="n">
         <v>0.143</v>
       </c>
       <c r="EK3" s="1" t="n">
+        <v>0.143</v>
+      </c>
+      <c r="EL3" s="1" t="n">
         <v>0.11</v>
       </c>
-      <c r="EL3" s="1" t="n">
+      <c r="EM3" s="1" t="n">
         <v>0.071</v>
       </c>
-      <c r="EM3" s="1" t="n">
+      <c r="EN3" s="1" t="n">
         <v>0.039</v>
       </c>
-      <c r="EN3" s="1" t="n">
+      <c r="EO3" s="1" t="n">
         <v>0.136</v>
       </c>
-      <c r="EO3" s="1" t="n">
+      <c r="EP3" s="1" t="n">
         <v>0.071</v>
       </c>
-      <c r="EP3" s="1" t="n">
+      <c r="EQ3" s="1" t="n">
         <v>0.042</v>
       </c>
-      <c r="EQ3" s="1" t="n">
+      <c r="ER3" s="1" t="n">
         <v>0.015</v>
-      </c>
-      <c r="ER3" s="1" t="n">
-        <v>0.008</v>
       </c>
       <c r="ES3" s="1" t="n">
         <v>0.008</v>
@@ -2916,10 +2926,10 @@
         <v>0.008</v>
       </c>
       <c r="EU3" s="1" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="EV3" s="1" t="n">
         <v>0.007</v>
-      </c>
-      <c r="EV3" s="1" t="n">
-        <v>0.003</v>
       </c>
       <c r="EW3" s="1" t="n">
         <v>0.003</v>
@@ -2928,13 +2938,13 @@
         <v>0.003</v>
       </c>
       <c r="EY3" s="1" t="n">
-        <v>0.002</v>
+        <v>0.003</v>
       </c>
       <c r="EZ3" s="1" t="n">
         <v>0.002</v>
       </c>
       <c r="FA3" s="1" t="n">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
       <c r="FB3" s="1" t="n">
         <v>0.001</v>
@@ -2970,13 +2980,13 @@
         <v>0.001</v>
       </c>
       <c r="FM3" s="1" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="FN3" s="1" t="n">
         <v>0.039</v>
       </c>
-      <c r="FN3" s="1" t="n">
+      <c r="FO3" s="1" t="n">
         <v>0.007</v>
-      </c>
-      <c r="FO3" s="1" t="n">
-        <v>0.003</v>
       </c>
       <c r="FP3" s="1" t="n">
         <v>0.003</v>
@@ -3003,13 +3013,13 @@
         <v>0.003</v>
       </c>
       <c r="FX3" s="1" t="n">
-        <v>0</v>
+        <v>0.003</v>
       </c>
       <c r="FY3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="FZ3" s="1" t="n">
         <v>0.031</v>
-      </c>
-      <c r="FZ3" s="1" t="n">
-        <v>0.003</v>
       </c>
       <c r="GA3" s="1" t="n">
         <v>0.003</v>
@@ -3024,7 +3034,7 @@
         <v>0.003</v>
       </c>
       <c r="GE3" s="1" t="n">
-        <v>0.001</v>
+        <v>0.003</v>
       </c>
       <c r="GF3" s="1" t="n">
         <v>0.001</v>
@@ -3039,20 +3049,20 @@
         <v>0.001</v>
       </c>
       <c r="GJ3" s="1" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="GK3" s="1" t="n">
         <v>0.014</v>
       </c>
-      <c r="GK3" s="1" t="n">
+      <c r="GL3" s="1" t="n">
         <v>0.005</v>
       </c>
-      <c r="GL3" s="1" t="n">
+      <c r="GM3" s="1" t="n">
         <v>0.004</v>
       </c>
-      <c r="GM3" s="1" t="n">
+      <c r="GN3" s="1" t="n">
         <v>0.003</v>
       </c>
-      <c r="GN3" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="GO3" s="1" t="n">
         <v>0</v>
       </c>
@@ -3063,11 +3073,11 @@
         <v>0</v>
       </c>
       <c r="GR3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GS3" s="1" t="n">
         <v>0.01</v>
       </c>
-      <c r="GS3" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="GT3" s="1" t="n">
         <v>0</v>
       </c>
@@ -3186,6 +3196,9 @@
         <v>0</v>
       </c>
       <c r="IG3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IH3" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3193,11 +3206,11 @@
       <c r="A4" s="0" t="s">
         <v>188</v>
       </c>
-      <c r="B4" s="1" t="n">
+      <c r="B4" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="C4" s="1" t="n">
         <v>3.349</v>
-      </c>
-      <c r="C4" s="0" t="n">
-        <v>320.993</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>320.993</v>
@@ -3209,7 +3222,7 @@
         <v>320.993</v>
       </c>
       <c r="G4" s="0" t="n">
-        <v>45.91</v>
+        <v>320.993</v>
       </c>
       <c r="H4" s="0" t="n">
         <v>45.91</v>
@@ -3220,14 +3233,14 @@
       <c r="J4" s="0" t="n">
         <v>45.91</v>
       </c>
-      <c r="L4" s="0" t="n">
-        <v>320.993</v>
+      <c r="K4" s="0" t="n">
+        <v>45.91</v>
       </c>
       <c r="M4" s="0" t="n">
         <v>320.993</v>
       </c>
-      <c r="O4" s="0" t="n">
-        <v>0.191</v>
+      <c r="N4" s="0" t="n">
+        <v>320.993</v>
       </c>
       <c r="P4" s="0" t="n">
         <v>0.191</v>
@@ -3241,17 +3254,17 @@
       <c r="S4" s="0" t="n">
         <v>0.191</v>
       </c>
-      <c r="U4" s="0" t="n">
+      <c r="T4" s="0" t="n">
         <v>0.191</v>
       </c>
-      <c r="Y4" s="0" t="n">
-        <v>0.002</v>
+      <c r="V4" s="0" t="n">
+        <v>0.191</v>
       </c>
       <c r="Z4" s="0" t="n">
         <v>0.002</v>
       </c>
-      <c r="AB4" s="0" t="n">
-        <v>0</v>
+      <c r="AA4" s="0" t="n">
+        <v>0.002</v>
       </c>
       <c r="AC4" s="0" t="n">
         <v>0</v>
@@ -3262,8 +3275,8 @@
       <c r="AE4" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="AG4" s="0" t="n">
-        <v>32.545</v>
+      <c r="AF4" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="AH4" s="0" t="n">
         <v>32.545</v>
@@ -3272,7 +3285,7 @@
         <v>32.545</v>
       </c>
       <c r="AJ4" s="0" t="n">
-        <v>18.922</v>
+        <v>32.545</v>
       </c>
       <c r="AK4" s="0" t="n">
         <v>18.922</v>
@@ -3287,13 +3300,13 @@
         <v>18.922</v>
       </c>
       <c r="AO4" s="0" t="n">
-        <v>5.818</v>
+        <v>18.922</v>
       </c>
       <c r="AP4" s="0" t="n">
         <v>5.818</v>
       </c>
       <c r="AQ4" s="0" t="n">
-        <v>4.068</v>
+        <v>5.818</v>
       </c>
       <c r="AR4" s="0" t="n">
         <v>4.068</v>
@@ -3308,10 +3321,10 @@
         <v>4.068</v>
       </c>
       <c r="AV4" s="0" t="n">
+        <v>4.068</v>
+      </c>
+      <c r="AW4" s="0" t="n">
         <v>325.452</v>
-      </c>
-      <c r="AW4" s="0" t="n">
-        <v>32.545</v>
       </c>
       <c r="AX4" s="0" t="n">
         <v>32.545</v>
@@ -3323,10 +3336,10 @@
         <v>32.545</v>
       </c>
       <c r="BA4" s="0" t="n">
+        <v>32.545</v>
+      </c>
+      <c r="BB4" s="0" t="n">
         <v>24.883</v>
-      </c>
-      <c r="BB4" s="0" t="n">
-        <v>7.652</v>
       </c>
       <c r="BC4" s="0" t="n">
         <v>7.652</v>
@@ -3334,7 +3347,7 @@
       <c r="BD4" s="0" t="n">
         <v>7.652</v>
       </c>
-      <c r="BF4" s="0" t="n">
+      <c r="BE4" s="0" t="n">
         <v>7.652</v>
       </c>
       <c r="BG4" s="0" t="n">
@@ -3407,7 +3420,7 @@
         <v>7.652</v>
       </c>
       <c r="CD4" s="0" t="n">
-        <v>0.191</v>
+        <v>7.652</v>
       </c>
       <c r="CE4" s="0" t="n">
         <v>0.191</v>
@@ -3415,7 +3428,7 @@
       <c r="CF4" s="0" t="n">
         <v>0.191</v>
       </c>
-      <c r="CJ4" s="0" t="n">
+      <c r="CG4" s="0" t="n">
         <v>0.191</v>
       </c>
       <c r="CK4" s="0" t="n">
@@ -3446,7 +3459,7 @@
         <v>0.191</v>
       </c>
       <c r="CT4" s="0" t="n">
-        <v>25.412</v>
+        <v>0.191</v>
       </c>
       <c r="CU4" s="0" t="n">
         <v>25.412</v>
@@ -3457,14 +3470,14 @@
       <c r="CW4" s="0" t="n">
         <v>25.412</v>
       </c>
-      <c r="CZ4" s="0" t="n">
+      <c r="CX4" s="0" t="n">
         <v>25.412</v>
       </c>
       <c r="DA4" s="0" t="n">
         <v>25.412</v>
       </c>
       <c r="DB4" s="0" t="n">
-        <v>1.337</v>
+        <v>25.412</v>
       </c>
       <c r="DC4" s="0" t="n">
         <v>1.337</v>
@@ -3508,10 +3521,10 @@
       <c r="DP4" s="0" t="n">
         <v>1.337</v>
       </c>
-      <c r="DT4" s="0" t="n">
+      <c r="DQ4" s="0" t="n">
         <v>1.337</v>
       </c>
-      <c r="DZ4" s="0" t="n">
+      <c r="DU4" s="0" t="n">
         <v>1.337</v>
       </c>
       <c r="EA4" s="0" t="n">
@@ -3520,35 +3533,35 @@
       <c r="EB4" s="0" t="n">
         <v>1.337</v>
       </c>
-      <c r="EF4" s="0" t="n">
-        <v>0.03</v>
+      <c r="EC4" s="0" t="n">
+        <v>1.337</v>
       </c>
       <c r="EG4" s="0" t="n">
         <v>0.03</v>
       </c>
-      <c r="EI4" s="0" t="n">
-        <v>32.545</v>
+      <c r="EH4" s="0" t="n">
+        <v>0.03</v>
       </c>
       <c r="EJ4" s="0" t="n">
         <v>32.545</v>
       </c>
       <c r="EK4" s="0" t="n">
+        <v>32.545</v>
+      </c>
+      <c r="EL4" s="0" t="n">
         <v>7.652</v>
       </c>
-      <c r="EM4" s="0" t="n">
+      <c r="EN4" s="0" t="n">
         <v>7.652</v>
       </c>
-      <c r="EO4" s="0" t="n">
+      <c r="EP4" s="0" t="n">
         <v>26.749</v>
       </c>
-      <c r="EP4" s="0" t="n">
+      <c r="EQ4" s="0" t="n">
         <v>3.826</v>
       </c>
-      <c r="EQ4" s="0" t="n">
+      <c r="ER4" s="0" t="n">
         <v>6.687</v>
-      </c>
-      <c r="ER4" s="0" t="n">
-        <v>1.337</v>
       </c>
       <c r="ES4" s="0" t="n">
         <v>1.337</v>
@@ -3556,16 +3569,16 @@
       <c r="ET4" s="0" t="n">
         <v>1.337</v>
       </c>
-      <c r="EX4" s="0" t="n">
+      <c r="EU4" s="0" t="n">
         <v>1.337</v>
       </c>
-      <c r="FM4" s="0" t="n">
+      <c r="EY4" s="0" t="n">
+        <v>1.337</v>
+      </c>
+      <c r="FN4" s="0" t="n">
         <v>4.068</v>
       </c>
-      <c r="FN4" s="0" t="n">
-        <v>1.337</v>
-      </c>
-      <c r="FP4" s="0" t="n">
+      <c r="FO4" s="0" t="n">
         <v>1.337</v>
       </c>
       <c r="FQ4" s="0" t="n">
@@ -3581,7 +3594,7 @@
         <v>1.337</v>
       </c>
       <c r="FU4" s="0" t="n">
-        <v>0.134</v>
+        <v>1.337</v>
       </c>
       <c r="FV4" s="0" t="n">
         <v>0.134</v>
@@ -3589,14 +3602,14 @@
       <c r="FW4" s="0" t="n">
         <v>0.134</v>
       </c>
-      <c r="GE4" s="0" t="n">
+      <c r="FX4" s="0" t="n">
+        <v>0.134</v>
+      </c>
+      <c r="GF4" s="0" t="n">
         <v>0.622</v>
       </c>
-      <c r="GJ4" s="0" t="n">
+      <c r="GK4" s="0" t="n">
         <v>5.818</v>
-      </c>
-      <c r="GK4" s="0" t="n">
-        <v>1.337</v>
       </c>
       <c r="GL4" s="0" t="n">
         <v>1.337</v>
@@ -3605,7 +3618,7 @@
         <v>1.337</v>
       </c>
       <c r="GN4" s="0" t="n">
-        <v>0</v>
+        <v>1.337</v>
       </c>
       <c r="GO4" s="0" t="n">
         <v>0</v>
@@ -3616,17 +3629,17 @@
       <c r="GQ4" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="GS4" s="0" t="n">
+      <c r="GR4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="GT4" s="0" t="n">
         <v>0.105</v>
       </c>
-      <c r="GT4" s="0" t="n">
+      <c r="GU4" s="0" t="n">
         <v>0.119</v>
       </c>
-      <c r="GV4" s="0" t="n">
+      <c r="GW4" s="0" t="n">
         <v>0.003</v>
-      </c>
-      <c r="GW4" s="0" t="n">
-        <v>0.001</v>
       </c>
       <c r="GX4" s="0" t="n">
         <v>0.001</v>
@@ -3646,21 +3659,21 @@
       <c r="HC4" s="0" t="n">
         <v>0.001</v>
       </c>
-      <c r="IG4" s="0" t="n">
+      <c r="HD4" s="0" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="IH4" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>189</v>
-      </c>
-      <c r="B5" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="C5" s="1" t="n">
         <v>2.009</v>
       </c>
-      <c r="C5" s="0" t="n">
-        <v>186.624</v>
-      </c>
-      <c r="K5" s="0" t="n">
+      <c r="D5" s="0" t="n">
         <v>186.624</v>
       </c>
       <c r="L5" s="0" t="n">
@@ -3669,32 +3682,32 @@
       <c r="M5" s="0" t="n">
         <v>186.624</v>
       </c>
-      <c r="O5" s="0" t="n">
+      <c r="N5" s="0" t="n">
+        <v>186.624</v>
+      </c>
+      <c r="P5" s="0" t="n">
         <v>0.778</v>
       </c>
-      <c r="S5" s="0" t="n">
+      <c r="T5" s="0" t="n">
         <v>0.778</v>
       </c>
-      <c r="U5" s="0" t="n">
+      <c r="V5" s="0" t="n">
         <v>0.778</v>
       </c>
-      <c r="AD5" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="AE5" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="AG5" s="0" t="n">
-        <v>189.216</v>
+      <c r="AF5" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="AH5" s="0" t="n">
         <v>189.216</v>
       </c>
       <c r="AI5" s="0" t="n">
+        <v>189.216</v>
+      </c>
+      <c r="AJ5" s="0" t="n">
         <v>75.686</v>
-      </c>
-      <c r="AJ5" s="0" t="n">
-        <v>23.652</v>
       </c>
       <c r="AK5" s="0" t="n">
         <v>23.652</v>
@@ -3717,11 +3730,11 @@
       <c r="AQ5" s="0" t="n">
         <v>23.652</v>
       </c>
-      <c r="AV5" s="0" t="n">
+      <c r="AR5" s="0" t="n">
+        <v>23.652</v>
+      </c>
+      <c r="AW5" s="0" t="n">
         <v>189.216</v>
-      </c>
-      <c r="AW5" s="0" t="n">
-        <v>75.686</v>
       </c>
       <c r="AX5" s="0" t="n">
         <v>75.686</v>
@@ -3732,8 +3745,8 @@
       <c r="AZ5" s="0" t="n">
         <v>75.686</v>
       </c>
-      <c r="DB5" s="0" t="n">
-        <v>0.778</v>
+      <c r="BA5" s="0" t="n">
+        <v>75.686</v>
       </c>
       <c r="DC5" s="0" t="n">
         <v>0.778</v>
@@ -3756,35 +3769,35 @@
       <c r="DI5" s="0" t="n">
         <v>0.778</v>
       </c>
-      <c r="DK5" s="0" t="n">
+      <c r="DJ5" s="0" t="n">
         <v>0.778</v>
       </c>
-      <c r="DO5" s="0" t="n">
+      <c r="DL5" s="0" t="n">
         <v>0.778</v>
       </c>
       <c r="DP5" s="0" t="n">
         <v>0.778</v>
       </c>
-      <c r="DT5" s="0" t="n">
+      <c r="DQ5" s="0" t="n">
         <v>0.778</v>
       </c>
-      <c r="DZ5" s="0" t="n">
+      <c r="DU5" s="0" t="n">
         <v>0.778</v>
       </c>
       <c r="EA5" s="0" t="n">
         <v>0.778</v>
       </c>
-      <c r="EN5" s="0" t="n">
+      <c r="EB5" s="0" t="n">
+        <v>0.778</v>
+      </c>
+      <c r="EO5" s="0" t="n">
         <v>75.686</v>
-      </c>
-      <c r="EO5" s="0" t="n">
-        <v>15.552</v>
       </c>
       <c r="EP5" s="0" t="n">
         <v>15.552</v>
       </c>
-      <c r="ER5" s="0" t="n">
-        <v>0.778</v>
+      <c r="EQ5" s="0" t="n">
+        <v>15.552</v>
       </c>
       <c r="ES5" s="0" t="n">
         <v>0.778</v>
@@ -3792,10 +3805,10 @@
       <c r="ET5" s="0" t="n">
         <v>0.778</v>
       </c>
-      <c r="EX5" s="0" t="n">
+      <c r="EU5" s="0" t="n">
         <v>0.778</v>
       </c>
-      <c r="FU5" s="0" t="n">
+      <c r="EY5" s="0" t="n">
         <v>0.778</v>
       </c>
       <c r="FV5" s="0" t="n">
@@ -3804,23 +3817,23 @@
       <c r="FW5" s="0" t="n">
         <v>0.778</v>
       </c>
-      <c r="GK5" s="0" t="n">
+      <c r="FX5" s="0" t="n">
         <v>0.778</v>
       </c>
-      <c r="GR5" s="0" t="n">
+      <c r="GL5" s="0" t="n">
+        <v>0.778</v>
+      </c>
+      <c r="GS5" s="0" t="n">
         <v>0.946</v>
       </c>
-      <c r="GS5" s="0" t="n">
+      <c r="GT5" s="0" t="n">
         <v>0.131</v>
-      </c>
-      <c r="GT5" s="0" t="n">
-        <v>0.069</v>
       </c>
       <c r="GU5" s="0" t="n">
         <v>0.069</v>
       </c>
-      <c r="HD5" s="0" t="n">
-        <v>0</v>
+      <c r="GV5" s="0" t="n">
+        <v>0.069</v>
       </c>
       <c r="HE5" s="0" t="n">
         <v>0</v>
@@ -3831,7 +3844,7 @@
       <c r="HG5" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="HR5" s="0" t="n">
+      <c r="HH5" s="0" t="n">
         <v>0</v>
       </c>
       <c r="HS5" s="0" t="n">
@@ -3843,19 +3856,22 @@
       <c r="HU5" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="IG5" s="0" t="n">
+      <c r="HV5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="IH5" s="0" t="n">
         <v>0.001</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>190</v>
-      </c>
-      <c r="B6" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="C6" s="1" t="n">
         <v>1.871</v>
-      </c>
-      <c r="C6" s="0" t="n">
-        <v>61.586</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>61.586</v>
@@ -3891,7 +3907,7 @@
         <v>61.586</v>
       </c>
       <c r="O6" s="0" t="n">
-        <v>0.257</v>
+        <v>61.586</v>
       </c>
       <c r="P6" s="0" t="n">
         <v>0.257</v>
@@ -3921,7 +3937,7 @@
         <v>0.257</v>
       </c>
       <c r="Y6" s="0" t="n">
-        <v>0.002</v>
+        <v>0.257</v>
       </c>
       <c r="Z6" s="0" t="n">
         <v>0.002</v>
@@ -3930,7 +3946,7 @@
         <v>0.002</v>
       </c>
       <c r="AB6" s="0" t="n">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="AC6" s="0" t="n">
         <v>0</v>
@@ -3945,7 +3961,7 @@
         <v>0</v>
       </c>
       <c r="AG6" s="0" t="n">
-        <v>62.441</v>
+        <v>0</v>
       </c>
       <c r="AH6" s="0" t="n">
         <v>62.441</v>
@@ -3954,7 +3970,7 @@
         <v>62.441</v>
       </c>
       <c r="AJ6" s="0" t="n">
-        <v>7.805</v>
+        <v>62.441</v>
       </c>
       <c r="AK6" s="0" t="n">
         <v>7.805</v>
@@ -3990,10 +4006,10 @@
         <v>7.805</v>
       </c>
       <c r="AV6" s="0" t="n">
+        <v>7.805</v>
+      </c>
+      <c r="AW6" s="0" t="n">
         <v>62.441</v>
-      </c>
-      <c r="AW6" s="0" t="n">
-        <v>60.549</v>
       </c>
       <c r="AX6" s="0" t="n">
         <v>60.549</v>
@@ -4005,7 +4021,7 @@
         <v>60.549</v>
       </c>
       <c r="BA6" s="0" t="n">
-        <v>10.264</v>
+        <v>60.549</v>
       </c>
       <c r="BB6" s="0" t="n">
         <v>10.264</v>
@@ -4092,7 +4108,7 @@
         <v>10.264</v>
       </c>
       <c r="CD6" s="0" t="n">
-        <v>0.257</v>
+        <v>10.264</v>
       </c>
       <c r="CE6" s="0" t="n">
         <v>0.257</v>
@@ -4140,7 +4156,7 @@
         <v>0.257</v>
       </c>
       <c r="CT6" s="0" t="n">
-        <v>4.876</v>
+        <v>0.257</v>
       </c>
       <c r="CU6" s="0" t="n">
         <v>4.876</v>
@@ -4164,7 +4180,7 @@
         <v>4.876</v>
       </c>
       <c r="DB6" s="0" t="n">
-        <v>0.257</v>
+        <v>4.876</v>
       </c>
       <c r="DC6" s="0" t="n">
         <v>0.257</v>
@@ -4247,8 +4263,8 @@
       <c r="EC6" s="0" t="n">
         <v>0.257</v>
       </c>
-      <c r="EF6" s="0" t="n">
-        <v>0.03</v>
+      <c r="ED6" s="0" t="n">
+        <v>0.257</v>
       </c>
       <c r="EG6" s="0" t="n">
         <v>0.03</v>
@@ -4257,13 +4273,13 @@
         <v>0.03</v>
       </c>
       <c r="EI6" s="0" t="n">
-        <v>13.245</v>
+        <v>0.03</v>
       </c>
       <c r="EJ6" s="0" t="n">
         <v>13.245</v>
       </c>
       <c r="EK6" s="0" t="n">
-        <v>10.264</v>
+        <v>13.245</v>
       </c>
       <c r="EL6" s="0" t="n">
         <v>10.264</v>
@@ -4272,20 +4288,20 @@
         <v>10.264</v>
       </c>
       <c r="EN6" s="0" t="n">
+        <v>10.264</v>
+      </c>
+      <c r="EO6" s="0" t="n">
         <v>60.549</v>
-      </c>
-      <c r="EO6" s="0" t="n">
-        <v>5.132</v>
       </c>
       <c r="EP6" s="0" t="n">
         <v>5.132</v>
       </c>
       <c r="EQ6" s="0" t="n">
+        <v>5.132</v>
+      </c>
+      <c r="ER6" s="0" t="n">
         <v>1.283</v>
       </c>
-      <c r="ER6" s="0" t="n">
-        <v>0.257</v>
-      </c>
       <c r="ES6" s="0" t="n">
         <v>0.257</v>
       </c>
@@ -4293,11 +4309,11 @@
         <v>0.257</v>
       </c>
       <c r="EU6" s="0" t="n">
+        <v>0.257</v>
+      </c>
+      <c r="EV6" s="0" t="n">
         <v>2.053</v>
       </c>
-      <c r="EV6" s="0" t="n">
-        <v>0.257</v>
-      </c>
       <c r="EW6" s="0" t="n">
         <v>0.257</v>
       </c>
@@ -4347,11 +4363,11 @@
         <v>0.257</v>
       </c>
       <c r="FM6" s="0" t="n">
+        <v>0.257</v>
+      </c>
+      <c r="FN6" s="0" t="n">
         <v>7.805</v>
       </c>
-      <c r="FN6" s="0" t="n">
-        <v>0.257</v>
-      </c>
       <c r="FO6" s="0" t="n">
         <v>0.257</v>
       </c>
@@ -4383,10 +4399,10 @@
         <v>0.257</v>
       </c>
       <c r="FY6" s="0" t="n">
+        <v>0.257</v>
+      </c>
+      <c r="FZ6" s="0" t="n">
         <v>31.221</v>
-      </c>
-      <c r="FZ6" s="0" t="n">
-        <v>1.742</v>
       </c>
       <c r="GA6" s="0" t="n">
         <v>1.742</v>
@@ -4395,17 +4411,17 @@
         <v>1.742</v>
       </c>
       <c r="GC6" s="0" t="n">
-        <v>0.257</v>
+        <v>1.742</v>
       </c>
       <c r="GD6" s="0" t="n">
+        <v>0.257</v>
+      </c>
+      <c r="GE6" s="0" t="n">
         <v>1.283</v>
       </c>
-      <c r="GE6" s="0" t="n">
+      <c r="GF6" s="0" t="n">
         <v>0.062</v>
       </c>
-      <c r="GF6" s="0" t="n">
-        <v>0.257</v>
-      </c>
       <c r="GG6" s="0" t="n">
         <v>0.257</v>
       </c>
@@ -4416,11 +4432,11 @@
         <v>0.257</v>
       </c>
       <c r="GJ6" s="0" t="n">
+        <v>0.257</v>
+      </c>
+      <c r="GK6" s="0" t="n">
         <v>7.805</v>
       </c>
-      <c r="GK6" s="0" t="n">
-        <v>0.257</v>
-      </c>
       <c r="GL6" s="0" t="n">
         <v>0.257</v>
       </c>
@@ -4428,7 +4444,7 @@
         <v>0.257</v>
       </c>
       <c r="GN6" s="0" t="n">
-        <v>0</v>
+        <v>0.257</v>
       </c>
       <c r="GO6" s="0" t="n">
         <v>0</v>
@@ -4440,19 +4456,19 @@
         <v>0</v>
       </c>
       <c r="GR6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="GS6" s="0" t="n">
         <v>0.946</v>
       </c>
-      <c r="GS6" s="0" t="n">
+      <c r="GT6" s="0" t="n">
         <v>0.043</v>
-      </c>
-      <c r="GT6" s="0" t="n">
-        <v>0.023</v>
       </c>
       <c r="GU6" s="0" t="n">
         <v>0.023</v>
       </c>
       <c r="GV6" s="0" t="n">
-        <v>0.001</v>
+        <v>0.023</v>
       </c>
       <c r="GW6" s="0" t="n">
         <v>0.001</v>
@@ -4473,7 +4489,7 @@
         <v>0.001</v>
       </c>
       <c r="HC6" s="0" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="HD6" s="0" t="n">
         <v>0</v>
@@ -4560,21 +4576,24 @@
         <v>0</v>
       </c>
       <c r="IF6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="IG6" s="0" t="n">
         <v>0.001</v>
       </c>
-      <c r="IG6" s="0" t="n">
+      <c r="IH6" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>191</v>
-      </c>
-      <c r="B7" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="C7" s="1" t="n">
         <v>1.394</v>
-      </c>
-      <c r="C7" s="0" t="n">
-        <v>96.298</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>96.298</v>
@@ -4586,7 +4605,7 @@
         <v>96.298</v>
       </c>
       <c r="G7" s="0" t="n">
-        <v>32.099</v>
+        <v>96.298</v>
       </c>
       <c r="H7" s="0" t="n">
         <v>32.099</v>
@@ -4597,8 +4616,8 @@
       <c r="J7" s="0" t="n">
         <v>32.099</v>
       </c>
-      <c r="L7" s="0" t="n">
-        <v>96.298</v>
+      <c r="K7" s="0" t="n">
+        <v>32.099</v>
       </c>
       <c r="M7" s="0" t="n">
         <v>96.298</v>
@@ -4607,11 +4626,11 @@
         <v>96.298</v>
       </c>
       <c r="O7" s="0" t="n">
+        <v>96.298</v>
+      </c>
+      <c r="P7" s="0" t="n">
         <v>0.401</v>
       </c>
-      <c r="P7" s="0" t="n">
-        <v>0.134</v>
-      </c>
       <c r="Q7" s="0" t="n">
         <v>0.134</v>
       </c>
@@ -4619,16 +4638,16 @@
         <v>0.134</v>
       </c>
       <c r="S7" s="0" t="n">
-        <v>0.401</v>
+        <v>0.134</v>
       </c>
       <c r="T7" s="0" t="n">
         <v>0.401</v>
       </c>
       <c r="U7" s="0" t="n">
-        <v>0.134</v>
+        <v>0.401</v>
       </c>
       <c r="V7" s="0" t="n">
-        <v>0.401</v>
+        <v>0.134</v>
       </c>
       <c r="W7" s="0" t="n">
         <v>0.401</v>
@@ -4637,16 +4656,16 @@
         <v>0.401</v>
       </c>
       <c r="Y7" s="0" t="n">
+        <v>0.401</v>
+      </c>
+      <c r="Z7" s="0" t="n">
         <v>0.004</v>
-      </c>
-      <c r="Z7" s="0" t="n">
-        <v>0.001</v>
       </c>
       <c r="AA7" s="0" t="n">
         <v>0.001</v>
       </c>
       <c r="AB7" s="0" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="AC7" s="0" t="n">
         <v>0</v>
@@ -4661,7 +4680,7 @@
         <v>0</v>
       </c>
       <c r="AG7" s="0" t="n">
-        <v>32.545</v>
+        <v>0</v>
       </c>
       <c r="AH7" s="0" t="n">
         <v>32.545</v>
@@ -4670,7 +4689,7 @@
         <v>32.545</v>
       </c>
       <c r="AJ7" s="0" t="n">
-        <v>5.676</v>
+        <v>32.545</v>
       </c>
       <c r="AK7" s="0" t="n">
         <v>5.676</v>
@@ -4685,7 +4704,7 @@
         <v>5.676</v>
       </c>
       <c r="AO7" s="0" t="n">
-        <v>4.068</v>
+        <v>5.676</v>
       </c>
       <c r="AP7" s="0" t="n">
         <v>4.068</v>
@@ -4706,10 +4725,10 @@
         <v>4.068</v>
       </c>
       <c r="AV7" s="0" t="n">
+        <v>4.068</v>
+      </c>
+      <c r="AW7" s="0" t="n">
         <v>97.635</v>
-      </c>
-      <c r="AW7" s="0" t="n">
-        <v>32.545</v>
       </c>
       <c r="AX7" s="0" t="n">
         <v>32.545</v>
@@ -4721,10 +4740,10 @@
         <v>32.545</v>
       </c>
       <c r="BA7" s="0" t="n">
+        <v>32.545</v>
+      </c>
+      <c r="BB7" s="0" t="n">
         <v>7.465</v>
-      </c>
-      <c r="BF7" s="0" t="n">
-        <v>5.35</v>
       </c>
       <c r="BG7" s="0" t="n">
         <v>5.35</v>
@@ -4732,10 +4751,10 @@
       <c r="BH7" s="0" t="n">
         <v>5.35</v>
       </c>
-      <c r="CD7" s="0" t="n">
-        <v>0.134</v>
-      </c>
-      <c r="CG7" s="0" t="n">
+      <c r="BI7" s="0" t="n">
+        <v>5.35</v>
+      </c>
+      <c r="CE7" s="0" t="n">
         <v>0.134</v>
       </c>
       <c r="CH7" s="0" t="n">
@@ -4756,8 +4775,8 @@
       <c r="CM7" s="0" t="n">
         <v>0.134</v>
       </c>
-      <c r="CT7" s="0" t="n">
-        <v>7.624</v>
+      <c r="CN7" s="0" t="n">
+        <v>0.134</v>
       </c>
       <c r="CU7" s="0" t="n">
         <v>7.624</v>
@@ -4781,7 +4800,7 @@
         <v>7.624</v>
       </c>
       <c r="DB7" s="0" t="n">
-        <v>0.401</v>
+        <v>7.624</v>
       </c>
       <c r="DC7" s="0" t="n">
         <v>0.401</v>
@@ -4861,8 +4880,8 @@
       <c r="EB7" s="0" t="n">
         <v>0.401</v>
       </c>
-      <c r="EF7" s="0" t="n">
-        <v>0.03</v>
+      <c r="EC7" s="0" t="n">
+        <v>0.401</v>
       </c>
       <c r="EG7" s="0" t="n">
         <v>0.03</v>
@@ -4871,13 +4890,13 @@
         <v>0.03</v>
       </c>
       <c r="EI7" s="0" t="n">
-        <v>32.545</v>
+        <v>0.03</v>
       </c>
       <c r="EJ7" s="0" t="n">
         <v>32.545</v>
       </c>
       <c r="EK7" s="0" t="n">
-        <v>5.35</v>
+        <v>32.545</v>
       </c>
       <c r="EL7" s="0" t="n">
         <v>5.35</v>
@@ -4885,17 +4904,17 @@
       <c r="EM7" s="0" t="n">
         <v>5.35</v>
       </c>
-      <c r="EO7" s="0" t="n">
+      <c r="EN7" s="0" t="n">
+        <v>5.35</v>
+      </c>
+      <c r="EP7" s="0" t="n">
         <v>8.025</v>
       </c>
-      <c r="EP7" s="0" t="n">
+      <c r="EQ7" s="0" t="n">
         <v>2.675</v>
       </c>
-      <c r="EQ7" s="0" t="n">
+      <c r="ER7" s="0" t="n">
         <v>2.006</v>
-      </c>
-      <c r="ER7" s="0" t="n">
-        <v>0.401</v>
       </c>
       <c r="ES7" s="0" t="n">
         <v>0.401</v>
@@ -4904,10 +4923,10 @@
         <v>0.401</v>
       </c>
       <c r="EU7" s="0" t="n">
+        <v>0.401</v>
+      </c>
+      <c r="EV7" s="0" t="n">
         <v>3.21</v>
-      </c>
-      <c r="EV7" s="0" t="n">
-        <v>0.401</v>
       </c>
       <c r="EW7" s="0" t="n">
         <v>0.401</v>
@@ -4921,11 +4940,11 @@
       <c r="EZ7" s="0" t="n">
         <v>0.401</v>
       </c>
-      <c r="FM7" s="0" t="n">
+      <c r="FA7" s="0" t="n">
+        <v>0.401</v>
+      </c>
+      <c r="FN7" s="0" t="n">
         <v>4.068</v>
-      </c>
-      <c r="FN7" s="0" t="n">
-        <v>0.401</v>
       </c>
       <c r="FO7" s="0" t="n">
         <v>0.401</v>
@@ -4946,7 +4965,7 @@
         <v>0.401</v>
       </c>
       <c r="FU7" s="0" t="n">
-        <v>0.134</v>
+        <v>0.401</v>
       </c>
       <c r="FV7" s="0" t="n">
         <v>0.134</v>
@@ -4954,16 +4973,16 @@
       <c r="FW7" s="0" t="n">
         <v>0.134</v>
       </c>
-      <c r="GC7" s="0" t="n">
+      <c r="FX7" s="0" t="n">
+        <v>0.134</v>
+      </c>
+      <c r="GD7" s="0" t="n">
         <v>0.401</v>
       </c>
-      <c r="GE7" s="0" t="n">
+      <c r="GF7" s="0" t="n">
         <v>0.187</v>
       </c>
-      <c r="GF7" s="0" t="n">
-        <v>0.401</v>
-      </c>
-      <c r="GK7" s="0" t="n">
+      <c r="GG7" s="0" t="n">
         <v>0.401</v>
       </c>
       <c r="GL7" s="0" t="n">
@@ -4973,7 +4992,7 @@
         <v>0.401</v>
       </c>
       <c r="GN7" s="0" t="n">
-        <v>0</v>
+        <v>0.401</v>
       </c>
       <c r="GO7" s="0" t="n">
         <v>0</v>
@@ -4984,31 +5003,31 @@
       <c r="GQ7" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="GS7" s="0" t="n">
+      <c r="GR7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="GT7" s="0" t="n">
         <v>0.032</v>
       </c>
-      <c r="GT7" s="0" t="n">
+      <c r="GU7" s="0" t="n">
         <v>0.036</v>
       </c>
-      <c r="GV7" s="0" t="n">
+      <c r="GW7" s="0" t="n">
         <v>0.001</v>
       </c>
-      <c r="HC7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="IG7" s="0" t="n">
+      <c r="HD7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="IH7" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>192</v>
-      </c>
-      <c r="B8" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="C8" s="1" t="n">
         <v>0.928</v>
-      </c>
-      <c r="C8" s="0" t="n">
-        <v>115.707</v>
       </c>
       <c r="D8" s="0" t="n">
         <v>115.707</v>
@@ -5031,8 +5050,8 @@
       <c r="J8" s="0" t="n">
         <v>115.707</v>
       </c>
-      <c r="O8" s="0" t="n">
-        <v>0.482</v>
+      <c r="K8" s="0" t="n">
+        <v>115.707</v>
       </c>
       <c r="P8" s="0" t="n">
         <v>0.482</v>
@@ -5043,34 +5062,34 @@
       <c r="R8" s="0" t="n">
         <v>0.482</v>
       </c>
-      <c r="Y8" s="0" t="n">
-        <v>0.004</v>
+      <c r="S8" s="0" t="n">
+        <v>0.482</v>
       </c>
       <c r="Z8" s="0" t="n">
         <v>0.004</v>
       </c>
-      <c r="AB8" s="0" t="n">
-        <v>0</v>
+      <c r="AA8" s="0" t="n">
+        <v>0.004</v>
       </c>
       <c r="AC8" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="DB8" s="0" t="n">
+      <c r="AD8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="DC8" s="0" t="n">
         <v>0.482</v>
       </c>
-      <c r="HC8" s="0" t="n">
+      <c r="HD8" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>193</v>
-      </c>
-      <c r="B9" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="C9" s="1" t="n">
         <v>0.928</v>
-      </c>
-      <c r="C9" s="0" t="n">
-        <v>115.707</v>
       </c>
       <c r="D9" s="0" t="n">
         <v>115.707</v>
@@ -5093,8 +5112,8 @@
       <c r="J9" s="0" t="n">
         <v>115.707</v>
       </c>
-      <c r="O9" s="0" t="n">
-        <v>0.482</v>
+      <c r="K9" s="0" t="n">
+        <v>115.707</v>
       </c>
       <c r="P9" s="0" t="n">
         <v>0.482</v>
@@ -5105,34 +5124,34 @@
       <c r="R9" s="0" t="n">
         <v>0.482</v>
       </c>
-      <c r="Y9" s="0" t="n">
-        <v>0.004</v>
+      <c r="S9" s="0" t="n">
+        <v>0.482</v>
       </c>
       <c r="Z9" s="0" t="n">
         <v>0.004</v>
       </c>
-      <c r="AB9" s="0" t="n">
-        <v>0</v>
+      <c r="AA9" s="0" t="n">
+        <v>0.004</v>
       </c>
       <c r="AC9" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="DB9" s="0" t="n">
+      <c r="AD9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="DC9" s="0" t="n">
         <v>0.482</v>
       </c>
-      <c r="HC9" s="0" t="n">
+      <c r="HD9" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>194</v>
-      </c>
-      <c r="B10" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="C10" s="1" t="n">
         <v>0.883</v>
-      </c>
-      <c r="C10" s="0" t="n">
-        <v>110.108</v>
       </c>
       <c r="D10" s="0" t="n">
         <v>110.108</v>
@@ -5155,8 +5174,8 @@
       <c r="J10" s="0" t="n">
         <v>110.108</v>
       </c>
-      <c r="O10" s="0" t="n">
-        <v>0.459</v>
+      <c r="K10" s="0" t="n">
+        <v>110.108</v>
       </c>
       <c r="P10" s="0" t="n">
         <v>0.459</v>
@@ -5167,34 +5186,34 @@
       <c r="R10" s="0" t="n">
         <v>0.459</v>
       </c>
-      <c r="Y10" s="0" t="n">
-        <v>0.004</v>
+      <c r="S10" s="0" t="n">
+        <v>0.459</v>
       </c>
       <c r="Z10" s="0" t="n">
         <v>0.004</v>
       </c>
-      <c r="AB10" s="0" t="n">
-        <v>0</v>
+      <c r="AA10" s="0" t="n">
+        <v>0.004</v>
       </c>
       <c r="AC10" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="DB10" s="0" t="n">
+      <c r="AD10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="DC10" s="0" t="n">
         <v>0.459</v>
       </c>
-      <c r="HC10" s="0" t="n">
+      <c r="HD10" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>195</v>
-      </c>
-      <c r="B11" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="C11" s="1" t="n">
         <v>0.883</v>
-      </c>
-      <c r="C11" s="0" t="n">
-        <v>110.108</v>
       </c>
       <c r="D11" s="0" t="n">
         <v>110.108</v>
@@ -5217,8 +5236,8 @@
       <c r="J11" s="0" t="n">
         <v>110.108</v>
       </c>
-      <c r="O11" s="0" t="n">
-        <v>0.459</v>
+      <c r="K11" s="0" t="n">
+        <v>110.108</v>
       </c>
       <c r="P11" s="0" t="n">
         <v>0.459</v>
@@ -5229,58 +5248,58 @@
       <c r="R11" s="0" t="n">
         <v>0.459</v>
       </c>
-      <c r="Y11" s="0" t="n">
-        <v>0.004</v>
+      <c r="S11" s="0" t="n">
+        <v>0.459</v>
       </c>
       <c r="Z11" s="0" t="n">
         <v>0.004</v>
       </c>
-      <c r="AB11" s="0" t="n">
-        <v>0</v>
+      <c r="AA11" s="0" t="n">
+        <v>0.004</v>
       </c>
       <c r="AC11" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="DB11" s="0" t="n">
+      <c r="AD11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="DC11" s="0" t="n">
         <v>0.459</v>
       </c>
-      <c r="HC11" s="0" t="n">
+      <c r="HD11" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>196</v>
-      </c>
-      <c r="B12" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="C12" s="1" t="n">
         <v>0.873</v>
-      </c>
-      <c r="C12" s="0" t="n">
-        <v>191.476</v>
       </c>
       <c r="D12" s="0" t="n">
         <v>191.476</v>
       </c>
-      <c r="G12" s="0" t="n">
-        <v>47.869</v>
+      <c r="E12" s="0" t="n">
+        <v>191.476</v>
       </c>
       <c r="H12" s="0" t="n">
         <v>47.869</v>
       </c>
-      <c r="N12" s="0" t="n">
+      <c r="I12" s="0" t="n">
+        <v>47.869</v>
+      </c>
+      <c r="O12" s="0" t="n">
         <v>191.476</v>
       </c>
-      <c r="O12" s="0" t="n">
+      <c r="P12" s="0" t="n">
         <v>0.266</v>
       </c>
-      <c r="S12" s="0" t="n">
+      <c r="T12" s="0" t="n">
         <v>0.266</v>
       </c>
-      <c r="T12" s="0" t="n">
-        <v>0.798</v>
-      </c>
-      <c r="V12" s="0" t="n">
-        <v>0.266</v>
+      <c r="U12" s="0" t="n">
+        <v>0.798</v>
       </c>
       <c r="W12" s="0" t="n">
         <v>0.266</v>
@@ -5289,25 +5308,25 @@
         <v>0.266</v>
       </c>
       <c r="Y12" s="0" t="n">
+        <v>0.266</v>
+      </c>
+      <c r="Z12" s="0" t="n">
         <v>0.002</v>
       </c>
-      <c r="AA12" s="0" t="n">
+      <c r="AB12" s="0" t="n">
         <v>0.007</v>
       </c>
-      <c r="AB12" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="AC12" s="0" t="n">
         <v>0</v>
       </c>
       <c r="AD12" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="AF12" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA12" s="0" t="n">
-        <v>11.384</v>
+      <c r="AE12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG12" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="BB12" s="0" t="n">
         <v>11.384</v>
@@ -5321,8 +5340,8 @@
       <c r="BE12" s="0" t="n">
         <v>11.384</v>
       </c>
-      <c r="CD12" s="0" t="n">
-        <v>0.798</v>
+      <c r="BF12" s="0" t="n">
+        <v>11.384</v>
       </c>
       <c r="CE12" s="0" t="n">
         <v>0.798</v>
@@ -5339,8 +5358,8 @@
       <c r="CI12" s="0" t="n">
         <v>0.798</v>
       </c>
-      <c r="CT12" s="0" t="n">
-        <v>15.159</v>
+      <c r="CJ12" s="0" t="n">
+        <v>0.798</v>
       </c>
       <c r="CU12" s="0" t="n">
         <v>15.159</v>
@@ -5357,8 +5376,8 @@
       <c r="CY12" s="0" t="n">
         <v>15.159</v>
       </c>
-      <c r="DB12" s="0" t="n">
-        <v>0.798</v>
+      <c r="CZ12" s="0" t="n">
+        <v>15.159</v>
       </c>
       <c r="DC12" s="0" t="n">
         <v>0.798</v>
@@ -5399,7 +5418,7 @@
       <c r="DO12" s="0" t="n">
         <v>0.798</v>
       </c>
-      <c r="DQ12" s="0" t="n">
+      <c r="DP12" s="0" t="n">
         <v>0.798</v>
       </c>
       <c r="DR12" s="0" t="n">
@@ -5408,7 +5427,7 @@
       <c r="DS12" s="0" t="n">
         <v>0.798</v>
       </c>
-      <c r="DU12" s="0" t="n">
+      <c r="DT12" s="0" t="n">
         <v>0.798</v>
       </c>
       <c r="DV12" s="0" t="n">
@@ -5423,17 +5442,17 @@
       <c r="DY12" s="0" t="n">
         <v>0.798</v>
       </c>
-      <c r="EH12" s="0" t="n">
+      <c r="DZ12" s="0" t="n">
+        <v>0.798</v>
+      </c>
+      <c r="EI12" s="0" t="n">
         <v>0.03</v>
-      </c>
-      <c r="EK12" s="0" t="n">
-        <v>11.384</v>
       </c>
       <c r="EL12" s="0" t="n">
         <v>11.384</v>
       </c>
-      <c r="ER12" s="0" t="n">
-        <v>0.798</v>
+      <c r="EM12" s="0" t="n">
+        <v>11.384</v>
       </c>
       <c r="ES12" s="0" t="n">
         <v>0.798</v>
@@ -5441,70 +5460,70 @@
       <c r="ET12" s="0" t="n">
         <v>0.798</v>
       </c>
-      <c r="EV12" s="0" t="n">
+      <c r="EU12" s="0" t="n">
         <v>0.798</v>
       </c>
       <c r="EW12" s="0" t="n">
         <v>0.798</v>
       </c>
-      <c r="EY12" s="0" t="n">
-        <v>0.266</v>
+      <c r="EX12" s="0" t="n">
+        <v>0.798</v>
       </c>
       <c r="EZ12" s="0" t="n">
         <v>0.266</v>
       </c>
-      <c r="FN12" s="0" t="n">
-        <v>0.798</v>
+      <c r="FA12" s="0" t="n">
+        <v>0.266</v>
       </c>
       <c r="FO12" s="0" t="n">
         <v>0.798</v>
       </c>
-      <c r="GC12" s="0" t="n">
-        <v>0.798</v>
-      </c>
-      <c r="GK12" s="0" t="n">
-        <v>0.266</v>
+      <c r="FP12" s="0" t="n">
+        <v>0.798</v>
+      </c>
+      <c r="GD12" s="0" t="n">
+        <v>0.798</v>
       </c>
       <c r="GL12" s="0" t="n">
         <v>0.266</v>
       </c>
-      <c r="HC12" s="0" t="n">
+      <c r="GM12" s="0" t="n">
+        <v>0.266</v>
+      </c>
+      <c r="HD12" s="0" t="n">
         <v>0.001</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>197</v>
-      </c>
-      <c r="B13" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="C13" s="1" t="n">
         <v>0.873</v>
-      </c>
-      <c r="C13" s="0" t="n">
-        <v>191.476</v>
       </c>
       <c r="D13" s="0" t="n">
         <v>191.476</v>
       </c>
-      <c r="G13" s="0" t="n">
-        <v>47.869</v>
+      <c r="E13" s="0" t="n">
+        <v>191.476</v>
       </c>
       <c r="H13" s="0" t="n">
         <v>47.869</v>
       </c>
-      <c r="N13" s="0" t="n">
+      <c r="I13" s="0" t="n">
+        <v>47.869</v>
+      </c>
+      <c r="O13" s="0" t="n">
         <v>191.476</v>
       </c>
-      <c r="O13" s="0" t="n">
+      <c r="P13" s="0" t="n">
         <v>0.266</v>
       </c>
-      <c r="S13" s="0" t="n">
+      <c r="T13" s="0" t="n">
         <v>0.266</v>
       </c>
-      <c r="T13" s="0" t="n">
-        <v>0.798</v>
-      </c>
-      <c r="V13" s="0" t="n">
-        <v>0.266</v>
+      <c r="U13" s="0" t="n">
+        <v>0.798</v>
       </c>
       <c r="W13" s="0" t="n">
         <v>0.266</v>
@@ -5513,25 +5532,25 @@
         <v>0.266</v>
       </c>
       <c r="Y13" s="0" t="n">
+        <v>0.266</v>
+      </c>
+      <c r="Z13" s="0" t="n">
         <v>0.002</v>
       </c>
-      <c r="AA13" s="0" t="n">
+      <c r="AB13" s="0" t="n">
         <v>0.007</v>
       </c>
-      <c r="AB13" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="AC13" s="0" t="n">
         <v>0</v>
       </c>
       <c r="AD13" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="AF13" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA13" s="0" t="n">
-        <v>11.384</v>
+      <c r="AE13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG13" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="BB13" s="0" t="n">
         <v>11.384</v>
@@ -5545,8 +5564,8 @@
       <c r="BE13" s="0" t="n">
         <v>11.384</v>
       </c>
-      <c r="CD13" s="0" t="n">
-        <v>0.798</v>
+      <c r="BF13" s="0" t="n">
+        <v>11.384</v>
       </c>
       <c r="CE13" s="0" t="n">
         <v>0.798</v>
@@ -5563,8 +5582,8 @@
       <c r="CI13" s="0" t="n">
         <v>0.798</v>
       </c>
-      <c r="CT13" s="0" t="n">
-        <v>15.159</v>
+      <c r="CJ13" s="0" t="n">
+        <v>0.798</v>
       </c>
       <c r="CU13" s="0" t="n">
         <v>15.159</v>
@@ -5581,8 +5600,8 @@
       <c r="CY13" s="0" t="n">
         <v>15.159</v>
       </c>
-      <c r="DB13" s="0" t="n">
-        <v>0.798</v>
+      <c r="CZ13" s="0" t="n">
+        <v>15.159</v>
       </c>
       <c r="DC13" s="0" t="n">
         <v>0.798</v>
@@ -5623,7 +5642,7 @@
       <c r="DO13" s="0" t="n">
         <v>0.798</v>
       </c>
-      <c r="DQ13" s="0" t="n">
+      <c r="DP13" s="0" t="n">
         <v>0.798</v>
       </c>
       <c r="DR13" s="0" t="n">
@@ -5632,7 +5651,7 @@
       <c r="DS13" s="0" t="n">
         <v>0.798</v>
       </c>
-      <c r="DU13" s="0" t="n">
+      <c r="DT13" s="0" t="n">
         <v>0.798</v>
       </c>
       <c r="DV13" s="0" t="n">
@@ -5647,17 +5666,17 @@
       <c r="DY13" s="0" t="n">
         <v>0.798</v>
       </c>
-      <c r="EH13" s="0" t="n">
+      <c r="DZ13" s="0" t="n">
+        <v>0.798</v>
+      </c>
+      <c r="EI13" s="0" t="n">
         <v>0.03</v>
-      </c>
-      <c r="EK13" s="0" t="n">
-        <v>11.384</v>
       </c>
       <c r="EL13" s="0" t="n">
         <v>11.384</v>
       </c>
-      <c r="ER13" s="0" t="n">
-        <v>0.798</v>
+      <c r="EM13" s="0" t="n">
+        <v>11.384</v>
       </c>
       <c r="ES13" s="0" t="n">
         <v>0.798</v>
@@ -5665,70 +5684,70 @@
       <c r="ET13" s="0" t="n">
         <v>0.798</v>
       </c>
-      <c r="EV13" s="0" t="n">
+      <c r="EU13" s="0" t="n">
         <v>0.798</v>
       </c>
       <c r="EW13" s="0" t="n">
         <v>0.798</v>
       </c>
-      <c r="EY13" s="0" t="n">
-        <v>0.266</v>
+      <c r="EX13" s="0" t="n">
+        <v>0.798</v>
       </c>
       <c r="EZ13" s="0" t="n">
         <v>0.266</v>
       </c>
-      <c r="FN13" s="0" t="n">
-        <v>0.798</v>
+      <c r="FA13" s="0" t="n">
+        <v>0.266</v>
       </c>
       <c r="FO13" s="0" t="n">
         <v>0.798</v>
       </c>
-      <c r="GC13" s="0" t="n">
-        <v>0.798</v>
-      </c>
-      <c r="GK13" s="0" t="n">
-        <v>0.266</v>
+      <c r="FP13" s="0" t="n">
+        <v>0.798</v>
+      </c>
+      <c r="GD13" s="0" t="n">
+        <v>0.798</v>
       </c>
       <c r="GL13" s="0" t="n">
         <v>0.266</v>
       </c>
-      <c r="HC13" s="0" t="n">
+      <c r="GM13" s="0" t="n">
+        <v>0.266</v>
+      </c>
+      <c r="HD13" s="0" t="n">
         <v>0.001</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>198</v>
-      </c>
-      <c r="B14" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="C14" s="1" t="n">
         <v>0.872</v>
-      </c>
-      <c r="C14" s="0" t="n">
-        <v>191.476</v>
       </c>
       <c r="D14" s="0" t="n">
         <v>191.476</v>
       </c>
-      <c r="G14" s="0" t="n">
-        <v>47.869</v>
+      <c r="E14" s="0" t="n">
+        <v>191.476</v>
       </c>
       <c r="H14" s="0" t="n">
         <v>47.869</v>
       </c>
-      <c r="N14" s="0" t="n">
+      <c r="I14" s="0" t="n">
+        <v>47.869</v>
+      </c>
+      <c r="O14" s="0" t="n">
         <v>191.476</v>
       </c>
-      <c r="O14" s="0" t="n">
+      <c r="P14" s="0" t="n">
         <v>0.266</v>
       </c>
-      <c r="S14" s="0" t="n">
+      <c r="T14" s="0" t="n">
         <v>0.266</v>
       </c>
-      <c r="T14" s="0" t="n">
-        <v>0.798</v>
-      </c>
-      <c r="V14" s="0" t="n">
-        <v>0.266</v>
+      <c r="U14" s="0" t="n">
+        <v>0.798</v>
       </c>
       <c r="W14" s="0" t="n">
         <v>0.266</v>
@@ -5737,25 +5756,25 @@
         <v>0.266</v>
       </c>
       <c r="Y14" s="0" t="n">
+        <v>0.266</v>
+      </c>
+      <c r="Z14" s="0" t="n">
         <v>0.002</v>
       </c>
-      <c r="AA14" s="0" t="n">
+      <c r="AB14" s="0" t="n">
         <v>0.007</v>
       </c>
-      <c r="AB14" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="AC14" s="0" t="n">
         <v>0</v>
       </c>
       <c r="AD14" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="AF14" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA14" s="0" t="n">
-        <v>11.384</v>
+      <c r="AE14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG14" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="BB14" s="0" t="n">
         <v>11.384</v>
@@ -5769,8 +5788,8 @@
       <c r="BE14" s="0" t="n">
         <v>11.384</v>
       </c>
-      <c r="CD14" s="0" t="n">
-        <v>0.798</v>
+      <c r="BF14" s="0" t="n">
+        <v>11.384</v>
       </c>
       <c r="CE14" s="0" t="n">
         <v>0.798</v>
@@ -5787,8 +5806,8 @@
       <c r="CI14" s="0" t="n">
         <v>0.798</v>
       </c>
-      <c r="CT14" s="0" t="n">
-        <v>15.159</v>
+      <c r="CJ14" s="0" t="n">
+        <v>0.798</v>
       </c>
       <c r="CU14" s="0" t="n">
         <v>15.159</v>
@@ -5805,8 +5824,8 @@
       <c r="CY14" s="0" t="n">
         <v>15.159</v>
       </c>
-      <c r="DB14" s="0" t="n">
-        <v>0.798</v>
+      <c r="CZ14" s="0" t="n">
+        <v>15.159</v>
       </c>
       <c r="DC14" s="0" t="n">
         <v>0.798</v>
@@ -5847,7 +5866,7 @@
       <c r="DO14" s="0" t="n">
         <v>0.798</v>
       </c>
-      <c r="DQ14" s="0" t="n">
+      <c r="DP14" s="0" t="n">
         <v>0.798</v>
       </c>
       <c r="DR14" s="0" t="n">
@@ -5856,7 +5875,7 @@
       <c r="DS14" s="0" t="n">
         <v>0.798</v>
       </c>
-      <c r="DU14" s="0" t="n">
+      <c r="DT14" s="0" t="n">
         <v>0.798</v>
       </c>
       <c r="DV14" s="0" t="n">
@@ -5871,64 +5890,64 @@
       <c r="DY14" s="0" t="n">
         <v>0.798</v>
       </c>
-      <c r="EH14" s="0" t="n">
+      <c r="DZ14" s="0" t="n">
+        <v>0.798</v>
+      </c>
+      <c r="EI14" s="0" t="n">
         <v>0.03</v>
-      </c>
-      <c r="EK14" s="0" t="n">
-        <v>11.384</v>
       </c>
       <c r="EL14" s="0" t="n">
         <v>11.384</v>
       </c>
-      <c r="ER14" s="0" t="n">
-        <v>0.798</v>
+      <c r="EM14" s="0" t="n">
+        <v>11.384</v>
       </c>
       <c r="ES14" s="0" t="n">
         <v>0.798</v>
       </c>
       <c r="ET14" s="0" t="n">
+        <v>0.798</v>
+      </c>
+      <c r="EU14" s="0" t="n">
         <v>0.266</v>
       </c>
-      <c r="EV14" s="0" t="n">
-        <v>0.798</v>
-      </c>
       <c r="EW14" s="0" t="n">
         <v>0.798</v>
       </c>
-      <c r="EY14" s="0" t="n">
-        <v>0.266</v>
+      <c r="EX14" s="0" t="n">
+        <v>0.798</v>
       </c>
       <c r="EZ14" s="0" t="n">
         <v>0.266</v>
       </c>
-      <c r="FN14" s="0" t="n">
-        <v>0.798</v>
+      <c r="FA14" s="0" t="n">
+        <v>0.266</v>
       </c>
       <c r="FO14" s="0" t="n">
         <v>0.798</v>
       </c>
-      <c r="GC14" s="0" t="n">
-        <v>0.798</v>
-      </c>
-      <c r="GK14" s="0" t="n">
-        <v>0.266</v>
+      <c r="FP14" s="0" t="n">
+        <v>0.798</v>
+      </c>
+      <c r="GD14" s="0" t="n">
+        <v>0.798</v>
       </c>
       <c r="GL14" s="0" t="n">
         <v>0.266</v>
       </c>
-      <c r="HC14" s="0" t="n">
+      <c r="GM14" s="0" t="n">
+        <v>0.266</v>
+      </c>
+      <c r="HD14" s="0" t="n">
         <v>0.001</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>199</v>
-      </c>
-      <c r="B15" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="C15" s="1" t="n">
         <v>0.771</v>
-      </c>
-      <c r="C15" s="0" t="n">
-        <v>32.099</v>
       </c>
       <c r="D15" s="0" t="n">
         <v>32.099</v>
@@ -5951,14 +5970,14 @@
       <c r="J15" s="0" t="n">
         <v>32.099</v>
       </c>
-      <c r="L15" s="0" t="n">
+      <c r="K15" s="0" t="n">
         <v>32.099</v>
       </c>
       <c r="M15" s="0" t="n">
         <v>32.099</v>
       </c>
-      <c r="O15" s="0" t="n">
-        <v>0.134</v>
+      <c r="N15" s="0" t="n">
+        <v>32.099</v>
       </c>
       <c r="P15" s="0" t="n">
         <v>0.134</v>
@@ -5972,17 +5991,17 @@
       <c r="S15" s="0" t="n">
         <v>0.134</v>
       </c>
-      <c r="U15" s="0" t="n">
-        <v>0.134</v>
-      </c>
-      <c r="Y15" s="0" t="n">
-        <v>0.001</v>
+      <c r="T15" s="0" t="n">
+        <v>0.134</v>
+      </c>
+      <c r="V15" s="0" t="n">
+        <v>0.134</v>
       </c>
       <c r="Z15" s="0" t="n">
         <v>0.001</v>
       </c>
-      <c r="AB15" s="0" t="n">
-        <v>0</v>
+      <c r="AA15" s="0" t="n">
+        <v>0.001</v>
       </c>
       <c r="AC15" s="0" t="n">
         <v>0</v>
@@ -5993,8 +6012,8 @@
       <c r="AE15" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="AG15" s="0" t="n">
-        <v>32.545</v>
+      <c r="AF15" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="AH15" s="0" t="n">
         <v>32.545</v>
@@ -6003,7 +6022,7 @@
         <v>32.545</v>
       </c>
       <c r="AJ15" s="0" t="n">
-        <v>4.068</v>
+        <v>32.545</v>
       </c>
       <c r="AK15" s="0" t="n">
         <v>4.068</v>
@@ -6039,7 +6058,7 @@
         <v>4.068</v>
       </c>
       <c r="AV15" s="0" t="n">
-        <v>32.545</v>
+        <v>4.068</v>
       </c>
       <c r="AW15" s="0" t="n">
         <v>32.545</v>
@@ -6054,10 +6073,10 @@
         <v>32.545</v>
       </c>
       <c r="BA15" s="0" t="n">
+        <v>32.545</v>
+      </c>
+      <c r="BB15" s="0" t="n">
         <v>2.488</v>
-      </c>
-      <c r="BF15" s="0" t="n">
-        <v>5.35</v>
       </c>
       <c r="BG15" s="0" t="n">
         <v>5.35</v>
@@ -6071,10 +6090,10 @@
       <c r="BJ15" s="0" t="n">
         <v>5.35</v>
       </c>
-      <c r="CD15" s="0" t="n">
-        <v>0.134</v>
-      </c>
-      <c r="CJ15" s="0" t="n">
+      <c r="BK15" s="0" t="n">
+        <v>5.35</v>
+      </c>
+      <c r="CE15" s="0" t="n">
         <v>0.134</v>
       </c>
       <c r="CK15" s="0" t="n">
@@ -6086,8 +6105,8 @@
       <c r="CM15" s="0" t="n">
         <v>0.134</v>
       </c>
-      <c r="CT15" s="0" t="n">
-        <v>2.541</v>
+      <c r="CN15" s="0" t="n">
+        <v>0.134</v>
       </c>
       <c r="CU15" s="0" t="n">
         <v>2.541</v>
@@ -6098,14 +6117,14 @@
       <c r="CW15" s="0" t="n">
         <v>2.541</v>
       </c>
-      <c r="CZ15" s="0" t="n">
+      <c r="CX15" s="0" t="n">
         <v>2.541</v>
       </c>
       <c r="DA15" s="0" t="n">
         <v>2.541</v>
       </c>
       <c r="DB15" s="0" t="n">
-        <v>0.134</v>
+        <v>2.541</v>
       </c>
       <c r="DC15" s="0" t="n">
         <v>0.134</v>
@@ -6149,10 +6168,10 @@
       <c r="DP15" s="0" t="n">
         <v>0.134</v>
       </c>
-      <c r="DT15" s="0" t="n">
-        <v>0.134</v>
-      </c>
-      <c r="DZ15" s="0" t="n">
+      <c r="DQ15" s="0" t="n">
+        <v>0.134</v>
+      </c>
+      <c r="DU15" s="0" t="n">
         <v>0.134</v>
       </c>
       <c r="EA15" s="0" t="n">
@@ -6161,52 +6180,52 @@
       <c r="EB15" s="0" t="n">
         <v>0.134</v>
       </c>
-      <c r="EF15" s="0" t="n">
-        <v>0.03</v>
+      <c r="EC15" s="0" t="n">
+        <v>0.134</v>
       </c>
       <c r="EG15" s="0" t="n">
         <v>0.03</v>
       </c>
-      <c r="EI15" s="0" t="n">
-        <v>32.545</v>
+      <c r="EH15" s="0" t="n">
+        <v>0.03</v>
       </c>
       <c r="EJ15" s="0" t="n">
         <v>32.545</v>
       </c>
       <c r="EK15" s="0" t="n">
+        <v>32.545</v>
+      </c>
+      <c r="EL15" s="0" t="n">
         <v>5.35</v>
       </c>
-      <c r="EM15" s="0" t="n">
+      <c r="EN15" s="0" t="n">
         <v>5.35</v>
-      </c>
-      <c r="EO15" s="0" t="n">
-        <v>2.675</v>
       </c>
       <c r="EP15" s="0" t="n">
         <v>2.675</v>
       </c>
       <c r="EQ15" s="0" t="n">
+        <v>2.675</v>
+      </c>
+      <c r="ER15" s="0" t="n">
         <v>0.669</v>
       </c>
-      <c r="ER15" s="0" t="n">
-        <v>0.134</v>
-      </c>
       <c r="ES15" s="0" t="n">
         <v>0.134</v>
       </c>
       <c r="ET15" s="0" t="n">
         <v>0.134</v>
       </c>
-      <c r="EX15" s="0" t="n">
-        <v>0.134</v>
-      </c>
-      <c r="FM15" s="0" t="n">
+      <c r="EU15" s="0" t="n">
+        <v>0.134</v>
+      </c>
+      <c r="EY15" s="0" t="n">
+        <v>0.134</v>
+      </c>
+      <c r="FN15" s="0" t="n">
         <v>4.068</v>
       </c>
-      <c r="FN15" s="0" t="n">
-        <v>0.134</v>
-      </c>
-      <c r="FP15" s="0" t="n">
+      <c r="FO15" s="0" t="n">
         <v>0.134</v>
       </c>
       <c r="FQ15" s="0" t="n">
@@ -6233,16 +6252,16 @@
       <c r="FX15" s="0" t="n">
         <v>0.134</v>
       </c>
-      <c r="GE15" s="0" t="n">
+      <c r="FY15" s="0" t="n">
+        <v>0.134</v>
+      </c>
+      <c r="GF15" s="0" t="n">
         <v>0.062</v>
       </c>
-      <c r="GG15" s="0" t="n">
-        <v>0.134</v>
-      </c>
       <c r="GH15" s="0" t="n">
         <v>0.134</v>
       </c>
-      <c r="GK15" s="0" t="n">
+      <c r="GI15" s="0" t="n">
         <v>0.134</v>
       </c>
       <c r="GL15" s="0" t="n">
@@ -6252,7 +6271,7 @@
         <v>0.134</v>
       </c>
       <c r="GN15" s="0" t="n">
-        <v>0</v>
+        <v>0.134</v>
       </c>
       <c r="GO15" s="0" t="n">
         <v>0</v>
@@ -6264,18 +6283,18 @@
         <v>0</v>
       </c>
       <c r="GR15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="GS15" s="0" t="n">
         <v>4.068</v>
       </c>
-      <c r="GS15" s="0" t="n">
+      <c r="GT15" s="0" t="n">
         <v>0.011</v>
       </c>
-      <c r="GT15" s="0" t="n">
+      <c r="GU15" s="0" t="n">
         <v>0.012</v>
       </c>
-      <c r="GV15" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="HC15" s="0" t="n">
+      <c r="GW15" s="0" t="n">
         <v>0</v>
       </c>
       <c r="HD15" s="0" t="n">
@@ -6290,7 +6309,7 @@
       <c r="HG15" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="HN15" s="0" t="n">
+      <c r="HH15" s="0" t="n">
         <v>0</v>
       </c>
       <c r="HO15" s="0" t="n">
@@ -6314,7 +6333,7 @@
       <c r="HU15" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="IB15" s="0" t="n">
+      <c r="HV15" s="0" t="n">
         <v>0</v>
       </c>
       <c r="IC15" s="0" t="n">
@@ -6326,19 +6345,19 @@
       <c r="IE15" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="IG15" s="0" t="n">
+      <c r="IF15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="IH15" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>200</v>
-      </c>
-      <c r="B16" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="C16" s="1" t="n">
         <v>0.771</v>
-      </c>
-      <c r="C16" s="0" t="n">
-        <v>32.099</v>
       </c>
       <c r="D16" s="0" t="n">
         <v>32.099</v>
@@ -6361,14 +6380,14 @@
       <c r="J16" s="0" t="n">
         <v>32.099</v>
       </c>
-      <c r="L16" s="0" t="n">
+      <c r="K16" s="0" t="n">
         <v>32.099</v>
       </c>
       <c r="M16" s="0" t="n">
         <v>32.099</v>
       </c>
-      <c r="O16" s="0" t="n">
-        <v>0.134</v>
+      <c r="N16" s="0" t="n">
+        <v>32.099</v>
       </c>
       <c r="P16" s="0" t="n">
         <v>0.134</v>
@@ -6382,17 +6401,17 @@
       <c r="S16" s="0" t="n">
         <v>0.134</v>
       </c>
-      <c r="U16" s="0" t="n">
-        <v>0.134</v>
-      </c>
-      <c r="Y16" s="0" t="n">
-        <v>0.001</v>
+      <c r="T16" s="0" t="n">
+        <v>0.134</v>
+      </c>
+      <c r="V16" s="0" t="n">
+        <v>0.134</v>
       </c>
       <c r="Z16" s="0" t="n">
         <v>0.001</v>
       </c>
-      <c r="AB16" s="0" t="n">
-        <v>0</v>
+      <c r="AA16" s="0" t="n">
+        <v>0.001</v>
       </c>
       <c r="AC16" s="0" t="n">
         <v>0</v>
@@ -6403,8 +6422,8 @@
       <c r="AE16" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="AG16" s="0" t="n">
-        <v>32.545</v>
+      <c r="AF16" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="AH16" s="0" t="n">
         <v>32.545</v>
@@ -6413,7 +6432,7 @@
         <v>32.545</v>
       </c>
       <c r="AJ16" s="0" t="n">
-        <v>4.068</v>
+        <v>32.545</v>
       </c>
       <c r="AK16" s="0" t="n">
         <v>4.068</v>
@@ -6449,7 +6468,7 @@
         <v>4.068</v>
       </c>
       <c r="AV16" s="0" t="n">
-        <v>32.545</v>
+        <v>4.068</v>
       </c>
       <c r="AW16" s="0" t="n">
         <v>32.545</v>
@@ -6464,10 +6483,10 @@
         <v>32.545</v>
       </c>
       <c r="BA16" s="0" t="n">
+        <v>32.545</v>
+      </c>
+      <c r="BB16" s="0" t="n">
         <v>2.488</v>
-      </c>
-      <c r="BF16" s="0" t="n">
-        <v>5.35</v>
       </c>
       <c r="BG16" s="0" t="n">
         <v>5.35</v>
@@ -6481,10 +6500,10 @@
       <c r="BJ16" s="0" t="n">
         <v>5.35</v>
       </c>
-      <c r="CD16" s="0" t="n">
-        <v>0.134</v>
-      </c>
-      <c r="CJ16" s="0" t="n">
+      <c r="BK16" s="0" t="n">
+        <v>5.35</v>
+      </c>
+      <c r="CE16" s="0" t="n">
         <v>0.134</v>
       </c>
       <c r="CK16" s="0" t="n">
@@ -6496,8 +6515,8 @@
       <c r="CM16" s="0" t="n">
         <v>0.134</v>
       </c>
-      <c r="CT16" s="0" t="n">
-        <v>2.541</v>
+      <c r="CN16" s="0" t="n">
+        <v>0.134</v>
       </c>
       <c r="CU16" s="0" t="n">
         <v>2.541</v>
@@ -6508,14 +6527,14 @@
       <c r="CW16" s="0" t="n">
         <v>2.541</v>
       </c>
-      <c r="CZ16" s="0" t="n">
+      <c r="CX16" s="0" t="n">
         <v>2.541</v>
       </c>
       <c r="DA16" s="0" t="n">
         <v>2.541</v>
       </c>
       <c r="DB16" s="0" t="n">
-        <v>0.134</v>
+        <v>2.541</v>
       </c>
       <c r="DC16" s="0" t="n">
         <v>0.134</v>
@@ -6559,10 +6578,10 @@
       <c r="DP16" s="0" t="n">
         <v>0.134</v>
       </c>
-      <c r="DT16" s="0" t="n">
-        <v>0.134</v>
-      </c>
-      <c r="DZ16" s="0" t="n">
+      <c r="DQ16" s="0" t="n">
+        <v>0.134</v>
+      </c>
+      <c r="DU16" s="0" t="n">
         <v>0.134</v>
       </c>
       <c r="EA16" s="0" t="n">
@@ -6571,52 +6590,52 @@
       <c r="EB16" s="0" t="n">
         <v>0.134</v>
       </c>
-      <c r="EF16" s="0" t="n">
-        <v>0.03</v>
+      <c r="EC16" s="0" t="n">
+        <v>0.134</v>
       </c>
       <c r="EG16" s="0" t="n">
         <v>0.03</v>
       </c>
-      <c r="EI16" s="0" t="n">
-        <v>32.545</v>
+      <c r="EH16" s="0" t="n">
+        <v>0.03</v>
       </c>
       <c r="EJ16" s="0" t="n">
         <v>32.545</v>
       </c>
       <c r="EK16" s="0" t="n">
+        <v>32.545</v>
+      </c>
+      <c r="EL16" s="0" t="n">
         <v>5.35</v>
       </c>
-      <c r="EM16" s="0" t="n">
+      <c r="EN16" s="0" t="n">
         <v>5.35</v>
-      </c>
-      <c r="EO16" s="0" t="n">
-        <v>2.675</v>
       </c>
       <c r="EP16" s="0" t="n">
         <v>2.675</v>
       </c>
       <c r="EQ16" s="0" t="n">
+        <v>2.675</v>
+      </c>
+      <c r="ER16" s="0" t="n">
         <v>0.669</v>
       </c>
-      <c r="ER16" s="0" t="n">
-        <v>0.134</v>
-      </c>
       <c r="ES16" s="0" t="n">
         <v>0.134</v>
       </c>
       <c r="ET16" s="0" t="n">
         <v>0.134</v>
       </c>
-      <c r="EX16" s="0" t="n">
-        <v>0.134</v>
-      </c>
-      <c r="FM16" s="0" t="n">
+      <c r="EU16" s="0" t="n">
+        <v>0.134</v>
+      </c>
+      <c r="EY16" s="0" t="n">
+        <v>0.134</v>
+      </c>
+      <c r="FN16" s="0" t="n">
         <v>4.068</v>
       </c>
-      <c r="FN16" s="0" t="n">
-        <v>0.134</v>
-      </c>
-      <c r="FP16" s="0" t="n">
+      <c r="FO16" s="0" t="n">
         <v>0.134</v>
       </c>
       <c r="FQ16" s="0" t="n">
@@ -6640,16 +6659,16 @@
       <c r="FW16" s="0" t="n">
         <v>0.134</v>
       </c>
-      <c r="GE16" s="0" t="n">
+      <c r="FX16" s="0" t="n">
+        <v>0.134</v>
+      </c>
+      <c r="GF16" s="0" t="n">
         <v>0.062</v>
       </c>
-      <c r="GG16" s="0" t="n">
-        <v>0.134</v>
-      </c>
       <c r="GH16" s="0" t="n">
         <v>0.134</v>
       </c>
-      <c r="GK16" s="0" t="n">
+      <c r="GI16" s="0" t="n">
         <v>0.134</v>
       </c>
       <c r="GL16" s="0" t="n">
@@ -6659,7 +6678,7 @@
         <v>0.134</v>
       </c>
       <c r="GN16" s="0" t="n">
-        <v>0</v>
+        <v>0.134</v>
       </c>
       <c r="GO16" s="0" t="n">
         <v>0</v>
@@ -6671,33 +6690,33 @@
         <v>0</v>
       </c>
       <c r="GR16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="GS16" s="0" t="n">
         <v>4.068</v>
       </c>
-      <c r="GS16" s="0" t="n">
+      <c r="GT16" s="0" t="n">
         <v>0.011</v>
       </c>
-      <c r="GT16" s="0" t="n">
+      <c r="GU16" s="0" t="n">
         <v>0.012</v>
       </c>
-      <c r="GV16" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="HC16" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="IG16" s="0" t="n">
+      <c r="GW16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="HD16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="IH16" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>201</v>
-      </c>
-      <c r="B17" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="C17" s="1" t="n">
         <v>0.673</v>
-      </c>
-      <c r="C17" s="0" t="n">
-        <v>74.65</v>
       </c>
       <c r="D17" s="0" t="n">
         <v>74.65</v>
@@ -6723,8 +6742,8 @@
       <c r="K17" s="0" t="n">
         <v>74.65</v>
       </c>
-      <c r="O17" s="0" t="n">
-        <v>0.311</v>
+      <c r="L17" s="0" t="n">
+        <v>74.65</v>
       </c>
       <c r="P17" s="0" t="n">
         <v>0.311</v>
@@ -6735,78 +6754,78 @@
       <c r="R17" s="0" t="n">
         <v>0.311</v>
       </c>
-      <c r="Y17" s="0" t="n">
-        <v>0.003</v>
+      <c r="S17" s="0" t="n">
+        <v>0.311</v>
       </c>
       <c r="Z17" s="0" t="n">
         <v>0.003</v>
       </c>
-      <c r="AB17" s="0" t="n">
-        <v>0</v>
+      <c r="AA17" s="0" t="n">
+        <v>0.003</v>
       </c>
       <c r="AC17" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="DB17" s="0" t="n">
+      <c r="AD17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="DC17" s="0" t="n">
         <v>0.311</v>
       </c>
-      <c r="HC17" s="0" t="n">
+      <c r="HD17" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>202</v>
-      </c>
-      <c r="B18" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="C18" s="1" t="n">
         <v>0.569</v>
       </c>
-      <c r="C18" s="0" t="n">
+      <c r="D18" s="0" t="n">
         <v>279.936</v>
       </c>
-      <c r="K18" s="0" t="n">
+      <c r="L18" s="0" t="n">
         <v>279.936</v>
       </c>
-      <c r="O18" s="0" t="n">
+      <c r="P18" s="0" t="n">
         <v>1.166</v>
       </c>
-      <c r="AD18" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="AE18" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="DC18" s="0" t="n">
-        <v>1.166</v>
-      </c>
-      <c r="DE18" s="0" t="n">
+      <c r="AF18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD18" s="0" t="n">
         <v>1.166</v>
       </c>
       <c r="DF18" s="0" t="n">
         <v>1.166</v>
       </c>
-      <c r="DH18" s="0" t="n">
+      <c r="DG18" s="0" t="n">
         <v>1.166</v>
       </c>
       <c r="DI18" s="0" t="n">
         <v>1.166</v>
       </c>
-      <c r="DK18" s="0" t="n">
+      <c r="DJ18" s="0" t="n">
         <v>1.166</v>
       </c>
-      <c r="DP18" s="0" t="n">
+      <c r="DL18" s="0" t="n">
+        <v>1.166</v>
+      </c>
+      <c r="DQ18" s="0" t="n">
         <v>1.166</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>203</v>
-      </c>
-      <c r="B19" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="C19" s="1" t="n">
         <v>0.527</v>
-      </c>
-      <c r="C19" s="0" t="n">
-        <v>32.099</v>
       </c>
       <c r="D19" s="0" t="n">
         <v>32.099</v>
@@ -6829,14 +6848,14 @@
       <c r="J19" s="0" t="n">
         <v>32.099</v>
       </c>
-      <c r="L19" s="0" t="n">
+      <c r="K19" s="0" t="n">
         <v>32.099</v>
       </c>
       <c r="M19" s="0" t="n">
         <v>32.099</v>
       </c>
-      <c r="O19" s="0" t="n">
-        <v>0.134</v>
+      <c r="N19" s="0" t="n">
+        <v>32.099</v>
       </c>
       <c r="P19" s="0" t="n">
         <v>0.134</v>
@@ -6850,17 +6869,17 @@
       <c r="S19" s="0" t="n">
         <v>0.134</v>
       </c>
-      <c r="U19" s="0" t="n">
-        <v>0.134</v>
-      </c>
-      <c r="Y19" s="0" t="n">
-        <v>0.001</v>
+      <c r="T19" s="0" t="n">
+        <v>0.134</v>
+      </c>
+      <c r="V19" s="0" t="n">
+        <v>0.134</v>
       </c>
       <c r="Z19" s="0" t="n">
         <v>0.001</v>
       </c>
-      <c r="AB19" s="0" t="n">
-        <v>0</v>
+      <c r="AA19" s="0" t="n">
+        <v>0.001</v>
       </c>
       <c r="AC19" s="0" t="n">
         <v>0</v>
@@ -6868,8 +6887,8 @@
       <c r="AD19" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="AG19" s="0" t="n">
-        <v>32.545</v>
+      <c r="AE19" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="AH19" s="0" t="n">
         <v>32.545</v>
@@ -6878,7 +6897,7 @@
         <v>32.545</v>
       </c>
       <c r="AJ19" s="0" t="n">
-        <v>4.068</v>
+        <v>32.545</v>
       </c>
       <c r="AK19" s="0" t="n">
         <v>4.068</v>
@@ -6913,11 +6932,11 @@
       <c r="AU19" s="0" t="n">
         <v>4.068</v>
       </c>
-      <c r="BA19" s="0" t="n">
+      <c r="AV19" s="0" t="n">
+        <v>4.068</v>
+      </c>
+      <c r="BB19" s="0" t="n">
         <v>2.488</v>
-      </c>
-      <c r="BF19" s="0" t="n">
-        <v>5.35</v>
       </c>
       <c r="BG19" s="0" t="n">
         <v>5.35</v>
@@ -6925,10 +6944,10 @@
       <c r="BH19" s="0" t="n">
         <v>5.35</v>
       </c>
-      <c r="CD19" s="0" t="n">
-        <v>0.134</v>
-      </c>
-      <c r="CJ19" s="0" t="n">
+      <c r="BI19" s="0" t="n">
+        <v>5.35</v>
+      </c>
+      <c r="CE19" s="0" t="n">
         <v>0.134</v>
       </c>
       <c r="CK19" s="0" t="n">
@@ -6940,8 +6959,8 @@
       <c r="CM19" s="0" t="n">
         <v>0.134</v>
       </c>
-      <c r="CT19" s="0" t="n">
-        <v>2.541</v>
+      <c r="CN19" s="0" t="n">
+        <v>0.134</v>
       </c>
       <c r="CU19" s="0" t="n">
         <v>2.541</v>
@@ -6952,14 +6971,14 @@
       <c r="CW19" s="0" t="n">
         <v>2.541</v>
       </c>
-      <c r="CZ19" s="0" t="n">
+      <c r="CX19" s="0" t="n">
         <v>2.541</v>
       </c>
       <c r="DA19" s="0" t="n">
         <v>2.541</v>
       </c>
       <c r="DB19" s="0" t="n">
-        <v>0.134</v>
+        <v>2.541</v>
       </c>
       <c r="DC19" s="0" t="n">
         <v>0.134</v>
@@ -6976,7 +6995,7 @@
       <c r="DG19" s="0" t="n">
         <v>0.134</v>
       </c>
-      <c r="DJ19" s="0" t="n">
+      <c r="DH19" s="0" t="n">
         <v>0.134</v>
       </c>
       <c r="DK19" s="0" t="n">
@@ -6991,49 +7010,49 @@
       <c r="DN19" s="0" t="n">
         <v>0.134</v>
       </c>
-      <c r="DT19" s="0" t="n">
-        <v>0.134</v>
-      </c>
-      <c r="EB19" s="0" t="n">
-        <v>0.134</v>
-      </c>
-      <c r="EF19" s="0" t="n">
-        <v>0.03</v>
+      <c r="DO19" s="0" t="n">
+        <v>0.134</v>
+      </c>
+      <c r="DU19" s="0" t="n">
+        <v>0.134</v>
+      </c>
+      <c r="EC19" s="0" t="n">
+        <v>0.134</v>
       </c>
       <c r="EG19" s="0" t="n">
         <v>0.03</v>
       </c>
-      <c r="EK19" s="0" t="n">
+      <c r="EH19" s="0" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="EL19" s="0" t="n">
         <v>5.35</v>
       </c>
-      <c r="EM19" s="0" t="n">
+      <c r="EN19" s="0" t="n">
         <v>5.35</v>
-      </c>
-      <c r="EO19" s="0" t="n">
-        <v>2.675</v>
       </c>
       <c r="EP19" s="0" t="n">
         <v>2.675</v>
       </c>
       <c r="EQ19" s="0" t="n">
+        <v>2.675</v>
+      </c>
+      <c r="ER19" s="0" t="n">
         <v>0.669</v>
       </c>
-      <c r="ER19" s="0" t="n">
-        <v>0.134</v>
-      </c>
       <c r="ES19" s="0" t="n">
         <v>0.134</v>
       </c>
       <c r="ET19" s="0" t="n">
         <v>0.134</v>
       </c>
-      <c r="FM19" s="0" t="n">
+      <c r="EU19" s="0" t="n">
+        <v>0.134</v>
+      </c>
+      <c r="FN19" s="0" t="n">
         <v>4.068</v>
       </c>
-      <c r="FN19" s="0" t="n">
-        <v>0.134</v>
-      </c>
-      <c r="FP19" s="0" t="n">
+      <c r="FO19" s="0" t="n">
         <v>0.134</v>
       </c>
       <c r="FQ19" s="0" t="n">
@@ -7057,12 +7076,12 @@
       <c r="FW19" s="0" t="n">
         <v>0.134</v>
       </c>
-      <c r="GE19" s="0" t="n">
+      <c r="FX19" s="0" t="n">
+        <v>0.134</v>
+      </c>
+      <c r="GF19" s="0" t="n">
         <v>0.062</v>
       </c>
-      <c r="GK19" s="0" t="n">
-        <v>0.134</v>
-      </c>
       <c r="GL19" s="0" t="n">
         <v>0.134</v>
       </c>
@@ -7070,7 +7089,7 @@
         <v>0.134</v>
       </c>
       <c r="GN19" s="0" t="n">
-        <v>0</v>
+        <v>0.134</v>
       </c>
       <c r="GO19" s="0" t="n">
         <v>0</v>
@@ -7081,28 +7100,28 @@
       <c r="GQ19" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="GS19" s="0" t="n">
+      <c r="GR19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="GT19" s="0" t="n">
         <v>0.011</v>
       </c>
-      <c r="GT19" s="0" t="n">
+      <c r="GU19" s="0" t="n">
         <v>0.012</v>
       </c>
-      <c r="GV19" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="HC19" s="0" t="n">
+      <c r="GW19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="HD19" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>204</v>
-      </c>
-      <c r="B20" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="C20" s="1" t="n">
         <v>0.506</v>
-      </c>
-      <c r="C20" s="0" t="n">
-        <v>32.099</v>
       </c>
       <c r="D20" s="0" t="n">
         <v>32.099</v>
@@ -7125,14 +7144,14 @@
       <c r="J20" s="0" t="n">
         <v>32.099</v>
       </c>
-      <c r="L20" s="0" t="n">
+      <c r="K20" s="0" t="n">
         <v>32.099</v>
       </c>
       <c r="M20" s="0" t="n">
         <v>32.099</v>
       </c>
-      <c r="O20" s="0" t="n">
-        <v>0.134</v>
+      <c r="N20" s="0" t="n">
+        <v>32.099</v>
       </c>
       <c r="P20" s="0" t="n">
         <v>0.134</v>
@@ -7146,17 +7165,17 @@
       <c r="S20" s="0" t="n">
         <v>0.134</v>
       </c>
-      <c r="U20" s="0" t="n">
-        <v>0.134</v>
-      </c>
-      <c r="Y20" s="0" t="n">
-        <v>0.001</v>
+      <c r="T20" s="0" t="n">
+        <v>0.134</v>
+      </c>
+      <c r="V20" s="0" t="n">
+        <v>0.134</v>
       </c>
       <c r="Z20" s="0" t="n">
         <v>0.001</v>
       </c>
-      <c r="AB20" s="0" t="n">
-        <v>0</v>
+      <c r="AA20" s="0" t="n">
+        <v>0.001</v>
       </c>
       <c r="AC20" s="0" t="n">
         <v>0</v>
@@ -7164,8 +7183,8 @@
       <c r="AD20" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="AG20" s="0" t="n">
-        <v>32.545</v>
+      <c r="AE20" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="AH20" s="0" t="n">
         <v>32.545</v>
@@ -7174,7 +7193,7 @@
         <v>32.545</v>
       </c>
       <c r="AJ20" s="0" t="n">
-        <v>4.068</v>
+        <v>32.545</v>
       </c>
       <c r="AK20" s="0" t="n">
         <v>4.068</v>
@@ -7209,20 +7228,20 @@
       <c r="AU20" s="0" t="n">
         <v>4.068</v>
       </c>
-      <c r="BA20" s="0" t="n">
+      <c r="AV20" s="0" t="n">
+        <v>4.068</v>
+      </c>
+      <c r="BB20" s="0" t="n">
         <v>2.488</v>
       </c>
-      <c r="CD20" s="0" t="n">
-        <v>0.134</v>
-      </c>
-      <c r="CJ20" s="0" t="n">
+      <c r="CE20" s="0" t="n">
         <v>0.134</v>
       </c>
       <c r="CK20" s="0" t="n">
         <v>0.134</v>
       </c>
-      <c r="CT20" s="0" t="n">
-        <v>2.541</v>
+      <c r="CL20" s="0" t="n">
+        <v>0.134</v>
       </c>
       <c r="CU20" s="0" t="n">
         <v>2.541</v>
@@ -7233,14 +7252,14 @@
       <c r="CW20" s="0" t="n">
         <v>2.541</v>
       </c>
-      <c r="CZ20" s="0" t="n">
+      <c r="CX20" s="0" t="n">
         <v>2.541</v>
       </c>
       <c r="DA20" s="0" t="n">
         <v>2.541</v>
       </c>
       <c r="DB20" s="0" t="n">
-        <v>0.134</v>
+        <v>2.541</v>
       </c>
       <c r="DC20" s="0" t="n">
         <v>0.134</v>
@@ -7257,7 +7276,7 @@
       <c r="DG20" s="0" t="n">
         <v>0.134</v>
       </c>
-      <c r="DJ20" s="0" t="n">
+      <c r="DH20" s="0" t="n">
         <v>0.134</v>
       </c>
       <c r="DK20" s="0" t="n">
@@ -7272,46 +7291,46 @@
       <c r="DN20" s="0" t="n">
         <v>0.134</v>
       </c>
-      <c r="DT20" s="0" t="n">
-        <v>0.134</v>
-      </c>
-      <c r="EB20" s="0" t="n">
-        <v>0.134</v>
-      </c>
-      <c r="EF20" s="0" t="n">
-        <v>0.03</v>
+      <c r="DO20" s="0" t="n">
+        <v>0.134</v>
+      </c>
+      <c r="DU20" s="0" t="n">
+        <v>0.134</v>
+      </c>
+      <c r="EC20" s="0" t="n">
+        <v>0.134</v>
       </c>
       <c r="EG20" s="0" t="n">
         <v>0.03</v>
       </c>
-      <c r="EK20" s="0" t="n">
+      <c r="EH20" s="0" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="EL20" s="0" t="n">
         <v>5.35</v>
-      </c>
-      <c r="EO20" s="0" t="n">
-        <v>2.675</v>
       </c>
       <c r="EP20" s="0" t="n">
         <v>2.675</v>
       </c>
       <c r="EQ20" s="0" t="n">
+        <v>2.675</v>
+      </c>
+      <c r="ER20" s="0" t="n">
         <v>0.669</v>
       </c>
-      <c r="ER20" s="0" t="n">
-        <v>0.134</v>
-      </c>
       <c r="ES20" s="0" t="n">
         <v>0.134</v>
       </c>
       <c r="ET20" s="0" t="n">
         <v>0.134</v>
       </c>
-      <c r="FM20" s="0" t="n">
+      <c r="EU20" s="0" t="n">
+        <v>0.134</v>
+      </c>
+      <c r="FN20" s="0" t="n">
         <v>4.068</v>
       </c>
-      <c r="FN20" s="0" t="n">
-        <v>0.134</v>
-      </c>
-      <c r="FP20" s="0" t="n">
+      <c r="FO20" s="0" t="n">
         <v>0.134</v>
       </c>
       <c r="FQ20" s="0" t="n">
@@ -7335,12 +7354,12 @@
       <c r="FW20" s="0" t="n">
         <v>0.134</v>
       </c>
-      <c r="GE20" s="0" t="n">
+      <c r="FX20" s="0" t="n">
+        <v>0.134</v>
+      </c>
+      <c r="GF20" s="0" t="n">
         <v>0.062</v>
       </c>
-      <c r="GK20" s="0" t="n">
-        <v>0.134</v>
-      </c>
       <c r="GL20" s="0" t="n">
         <v>0.134</v>
       </c>
@@ -7348,7 +7367,7 @@
         <v>0.134</v>
       </c>
       <c r="GN20" s="0" t="n">
-        <v>0</v>
+        <v>0.134</v>
       </c>
       <c r="GO20" s="0" t="n">
         <v>0</v>
@@ -7359,28 +7378,28 @@
       <c r="GQ20" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="GS20" s="0" t="n">
+      <c r="GR20" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="GT20" s="0" t="n">
         <v>0.011</v>
       </c>
-      <c r="GT20" s="0" t="n">
+      <c r="GU20" s="0" t="n">
         <v>0.012</v>
       </c>
-      <c r="GV20" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="HC20" s="0" t="n">
+      <c r="GW20" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="HD20" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>205</v>
-      </c>
-      <c r="B21" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="C21" s="1" t="n">
         <v>0.506</v>
-      </c>
-      <c r="C21" s="0" t="n">
-        <v>32.099</v>
       </c>
       <c r="D21" s="0" t="n">
         <v>32.099</v>
@@ -7403,14 +7422,14 @@
       <c r="J21" s="0" t="n">
         <v>32.099</v>
       </c>
-      <c r="L21" s="0" t="n">
+      <c r="K21" s="0" t="n">
         <v>32.099</v>
       </c>
       <c r="M21" s="0" t="n">
         <v>32.099</v>
       </c>
-      <c r="O21" s="0" t="n">
-        <v>0.134</v>
+      <c r="N21" s="0" t="n">
+        <v>32.099</v>
       </c>
       <c r="P21" s="0" t="n">
         <v>0.134</v>
@@ -7424,17 +7443,17 @@
       <c r="S21" s="0" t="n">
         <v>0.134</v>
       </c>
-      <c r="U21" s="0" t="n">
-        <v>0.134</v>
-      </c>
-      <c r="Y21" s="0" t="n">
-        <v>0.001</v>
+      <c r="T21" s="0" t="n">
+        <v>0.134</v>
+      </c>
+      <c r="V21" s="0" t="n">
+        <v>0.134</v>
       </c>
       <c r="Z21" s="0" t="n">
         <v>0.001</v>
       </c>
-      <c r="AB21" s="0" t="n">
-        <v>0</v>
+      <c r="AA21" s="0" t="n">
+        <v>0.001</v>
       </c>
       <c r="AC21" s="0" t="n">
         <v>0</v>
@@ -7442,8 +7461,8 @@
       <c r="AD21" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="AG21" s="0" t="n">
-        <v>32.545</v>
+      <c r="AE21" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="AH21" s="0" t="n">
         <v>32.545</v>
@@ -7452,7 +7471,7 @@
         <v>32.545</v>
       </c>
       <c r="AJ21" s="0" t="n">
-        <v>4.068</v>
+        <v>32.545</v>
       </c>
       <c r="AK21" s="0" t="n">
         <v>4.068</v>
@@ -7487,20 +7506,20 @@
       <c r="AU21" s="0" t="n">
         <v>4.068</v>
       </c>
-      <c r="BA21" s="0" t="n">
+      <c r="AV21" s="0" t="n">
+        <v>4.068</v>
+      </c>
+      <c r="BB21" s="0" t="n">
         <v>2.488</v>
       </c>
-      <c r="CD21" s="0" t="n">
-        <v>0.134</v>
-      </c>
-      <c r="CJ21" s="0" t="n">
+      <c r="CE21" s="0" t="n">
         <v>0.134</v>
       </c>
       <c r="CK21" s="0" t="n">
         <v>0.134</v>
       </c>
-      <c r="CT21" s="0" t="n">
-        <v>2.541</v>
+      <c r="CL21" s="0" t="n">
+        <v>0.134</v>
       </c>
       <c r="CU21" s="0" t="n">
         <v>2.541</v>
@@ -7511,14 +7530,14 @@
       <c r="CW21" s="0" t="n">
         <v>2.541</v>
       </c>
-      <c r="CZ21" s="0" t="n">
+      <c r="CX21" s="0" t="n">
         <v>2.541</v>
       </c>
       <c r="DA21" s="0" t="n">
         <v>2.541</v>
       </c>
       <c r="DB21" s="0" t="n">
-        <v>0.134</v>
+        <v>2.541</v>
       </c>
       <c r="DC21" s="0" t="n">
         <v>0.134</v>
@@ -7535,7 +7554,7 @@
       <c r="DG21" s="0" t="n">
         <v>0.134</v>
       </c>
-      <c r="DJ21" s="0" t="n">
+      <c r="DH21" s="0" t="n">
         <v>0.134</v>
       </c>
       <c r="DK21" s="0" t="n">
@@ -7550,46 +7569,46 @@
       <c r="DN21" s="0" t="n">
         <v>0.134</v>
       </c>
-      <c r="DT21" s="0" t="n">
-        <v>0.134</v>
-      </c>
-      <c r="EB21" s="0" t="n">
-        <v>0.134</v>
-      </c>
-      <c r="EF21" s="0" t="n">
-        <v>0.03</v>
+      <c r="DO21" s="0" t="n">
+        <v>0.134</v>
+      </c>
+      <c r="DU21" s="0" t="n">
+        <v>0.134</v>
+      </c>
+      <c r="EC21" s="0" t="n">
+        <v>0.134</v>
       </c>
       <c r="EG21" s="0" t="n">
         <v>0.03</v>
       </c>
-      <c r="EK21" s="0" t="n">
+      <c r="EH21" s="0" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="EL21" s="0" t="n">
         <v>5.35</v>
-      </c>
-      <c r="EO21" s="0" t="n">
-        <v>2.675</v>
       </c>
       <c r="EP21" s="0" t="n">
         <v>2.675</v>
       </c>
       <c r="EQ21" s="0" t="n">
+        <v>2.675</v>
+      </c>
+      <c r="ER21" s="0" t="n">
         <v>0.669</v>
       </c>
-      <c r="ER21" s="0" t="n">
-        <v>0.134</v>
-      </c>
       <c r="ES21" s="0" t="n">
         <v>0.134</v>
       </c>
       <c r="ET21" s="0" t="n">
         <v>0.134</v>
       </c>
-      <c r="FM21" s="0" t="n">
+      <c r="EU21" s="0" t="n">
+        <v>0.134</v>
+      </c>
+      <c r="FN21" s="0" t="n">
         <v>4.068</v>
       </c>
-      <c r="FN21" s="0" t="n">
-        <v>0.134</v>
-      </c>
-      <c r="FP21" s="0" t="n">
+      <c r="FO21" s="0" t="n">
         <v>0.134</v>
       </c>
       <c r="FQ21" s="0" t="n">
@@ -7613,12 +7632,12 @@
       <c r="FW21" s="0" t="n">
         <v>0.134</v>
       </c>
-      <c r="GE21" s="0" t="n">
+      <c r="FX21" s="0" t="n">
+        <v>0.134</v>
+      </c>
+      <c r="GF21" s="0" t="n">
         <v>0.062</v>
       </c>
-      <c r="GK21" s="0" t="n">
-        <v>0.134</v>
-      </c>
       <c r="GL21" s="0" t="n">
         <v>0.134</v>
       </c>
@@ -7626,7 +7645,7 @@
         <v>0.134</v>
       </c>
       <c r="GN21" s="0" t="n">
-        <v>0</v>
+        <v>0.134</v>
       </c>
       <c r="GO21" s="0" t="n">
         <v>0</v>
@@ -7637,54 +7656,54 @@
       <c r="GQ21" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="GS21" s="0" t="n">
+      <c r="GR21" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="GT21" s="0" t="n">
         <v>0.011</v>
       </c>
-      <c r="GT21" s="0" t="n">
+      <c r="GU21" s="0" t="n">
         <v>0.012</v>
       </c>
-      <c r="GV21" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="HC21" s="0" t="n">
+      <c r="GW21" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="HD21" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>206</v>
-      </c>
-      <c r="B22" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="C22" s="1" t="n">
         <v>0.497</v>
-      </c>
-      <c r="C22" s="0" t="n">
-        <v>61.586</v>
       </c>
       <c r="D22" s="0" t="n">
         <v>61.586</v>
       </c>
-      <c r="G22" s="0" t="n">
+      <c r="E22" s="0" t="n">
         <v>61.586</v>
       </c>
       <c r="H22" s="0" t="n">
         <v>61.586</v>
       </c>
-      <c r="K22" s="0" t="n">
+      <c r="I22" s="0" t="n">
         <v>61.586</v>
       </c>
-      <c r="N22" s="0" t="n">
+      <c r="L22" s="0" t="n">
         <v>61.586</v>
       </c>
       <c r="O22" s="0" t="n">
-        <v>0.257</v>
-      </c>
-      <c r="S22" s="0" t="n">
+        <v>61.586</v>
+      </c>
+      <c r="P22" s="0" t="n">
         <v>0.257</v>
       </c>
       <c r="T22" s="0" t="n">
         <v>0.257</v>
       </c>
-      <c r="V22" s="0" t="n">
+      <c r="U22" s="0" t="n">
         <v>0.257</v>
       </c>
       <c r="W22" s="0" t="n">
@@ -7694,25 +7713,25 @@
         <v>0.257</v>
       </c>
       <c r="Y22" s="0" t="n">
+        <v>0.257</v>
+      </c>
+      <c r="Z22" s="0" t="n">
         <v>0.002</v>
       </c>
-      <c r="AA22" s="0" t="n">
+      <c r="AB22" s="0" t="n">
         <v>0.002</v>
       </c>
-      <c r="AB22" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="AC22" s="0" t="n">
         <v>0</v>
       </c>
       <c r="AD22" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="AF22" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA22" s="0" t="n">
-        <v>10.264</v>
+      <c r="AE22" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG22" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="BB22" s="0" t="n">
         <v>10.264</v>
@@ -7726,8 +7745,8 @@
       <c r="BE22" s="0" t="n">
         <v>10.264</v>
       </c>
-      <c r="CD22" s="0" t="n">
-        <v>0.257</v>
+      <c r="BF22" s="0" t="n">
+        <v>10.264</v>
       </c>
       <c r="CE22" s="0" t="n">
         <v>0.257</v>
@@ -7744,8 +7763,8 @@
       <c r="CI22" s="0" t="n">
         <v>0.257</v>
       </c>
-      <c r="CT22" s="0" t="n">
-        <v>4.876</v>
+      <c r="CJ22" s="0" t="n">
+        <v>0.257</v>
       </c>
       <c r="CU22" s="0" t="n">
         <v>4.876</v>
@@ -7762,8 +7781,8 @@
       <c r="CY22" s="0" t="n">
         <v>4.876</v>
       </c>
-      <c r="DB22" s="0" t="n">
-        <v>0.257</v>
+      <c r="CZ22" s="0" t="n">
+        <v>4.876</v>
       </c>
       <c r="DC22" s="0" t="n">
         <v>0.257</v>
@@ -7804,7 +7823,7 @@
       <c r="DO22" s="0" t="n">
         <v>0.257</v>
       </c>
-      <c r="DQ22" s="0" t="n">
+      <c r="DP22" s="0" t="n">
         <v>0.257</v>
       </c>
       <c r="DR22" s="0" t="n">
@@ -7813,7 +7832,7 @@
       <c r="DS22" s="0" t="n">
         <v>0.257</v>
       </c>
-      <c r="DU22" s="0" t="n">
+      <c r="DT22" s="0" t="n">
         <v>0.257</v>
       </c>
       <c r="DV22" s="0" t="n">
@@ -7834,24 +7853,24 @@
       <c r="EA22" s="0" t="n">
         <v>0.257</v>
       </c>
-      <c r="EC22" s="0" t="n">
-        <v>0.257</v>
-      </c>
-      <c r="EH22" s="0" t="n">
+      <c r="EB22" s="0" t="n">
+        <v>0.257</v>
+      </c>
+      <c r="ED22" s="0" t="n">
+        <v>0.257</v>
+      </c>
+      <c r="EI22" s="0" t="n">
         <v>0.03</v>
-      </c>
-      <c r="EK22" s="0" t="n">
-        <v>10.264</v>
       </c>
       <c r="EL22" s="0" t="n">
         <v>10.264</v>
       </c>
-      <c r="EQ22" s="0" t="n">
+      <c r="EM22" s="0" t="n">
+        <v>10.264</v>
+      </c>
+      <c r="ER22" s="0" t="n">
         <v>1.283</v>
       </c>
-      <c r="ER22" s="0" t="n">
-        <v>0.257</v>
-      </c>
       <c r="ES22" s="0" t="n">
         <v>0.257</v>
       </c>
@@ -7859,15 +7878,15 @@
         <v>0.257</v>
       </c>
       <c r="EU22" s="0" t="n">
+        <v>0.257</v>
+      </c>
+      <c r="EV22" s="0" t="n">
         <v>2.053</v>
       </c>
-      <c r="EV22" s="0" t="n">
-        <v>0.257</v>
-      </c>
       <c r="EW22" s="0" t="n">
         <v>0.257</v>
       </c>
-      <c r="EY22" s="0" t="n">
+      <c r="EX22" s="0" t="n">
         <v>0.257</v>
       </c>
       <c r="EZ22" s="0" t="n">
@@ -7909,14 +7928,14 @@
       <c r="FL22" s="0" t="n">
         <v>0.257</v>
       </c>
-      <c r="FN22" s="0" t="n">
+      <c r="FM22" s="0" t="n">
         <v>0.257</v>
       </c>
       <c r="FO22" s="0" t="n">
         <v>0.257</v>
       </c>
-      <c r="FZ22" s="0" t="n">
-        <v>1.742</v>
+      <c r="FP22" s="0" t="n">
+        <v>0.257</v>
       </c>
       <c r="GA22" s="0" t="n">
         <v>1.742</v>
@@ -7925,31 +7944,31 @@
         <v>1.742</v>
       </c>
       <c r="GC22" s="0" t="n">
-        <v>0.257</v>
+        <v>1.742</v>
       </c>
       <c r="GD22" s="0" t="n">
+        <v>0.257</v>
+      </c>
+      <c r="GE22" s="0" t="n">
         <v>1.283</v>
       </c>
-      <c r="GE22" s="0" t="n">
+      <c r="GF22" s="0" t="n">
         <v>0.062</v>
       </c>
-      <c r="GF22" s="0" t="n">
-        <v>0.257</v>
-      </c>
       <c r="GG22" s="0" t="n">
         <v>0.257</v>
       </c>
-      <c r="GI22" s="0" t="n">
-        <v>0.257</v>
-      </c>
-      <c r="GK22" s="0" t="n">
+      <c r="GH22" s="0" t="n">
+        <v>0.257</v>
+      </c>
+      <c r="GJ22" s="0" t="n">
         <v>0.257</v>
       </c>
       <c r="GL22" s="0" t="n">
         <v>0.257</v>
       </c>
-      <c r="GV22" s="0" t="n">
-        <v>0.001</v>
+      <c r="GM22" s="0" t="n">
+        <v>0.257</v>
       </c>
       <c r="GW22" s="0" t="n">
         <v>0.001</v>
@@ -7960,8 +7979,8 @@
       <c r="GY22" s="0" t="n">
         <v>0.001</v>
       </c>
-      <c r="HC22" s="0" t="n">
-        <v>0</v>
+      <c r="GZ22" s="0" t="n">
+        <v>0.001</v>
       </c>
       <c r="HD22" s="0" t="n">
         <v>0</v>
@@ -7972,7 +7991,7 @@
       <c r="HF22" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="HH22" s="0" t="n">
+      <c r="HG22" s="0" t="n">
         <v>0</v>
       </c>
       <c r="HI22" s="0" t="n">
@@ -7990,7 +8009,7 @@
       <c r="HM22" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="HR22" s="0" t="n">
+      <c r="HN22" s="0" t="n">
         <v>0</v>
       </c>
       <c r="HS22" s="0" t="n">
@@ -7999,7 +8018,7 @@
       <c r="HT22" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="HV22" s="0" t="n">
+      <c r="HU22" s="0" t="n">
         <v>0</v>
       </c>
       <c r="HW22" s="0" t="n">
@@ -8015,18 +8034,18 @@
         <v>0</v>
       </c>
       <c r="IA22" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="IB22" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>207</v>
-      </c>
-      <c r="B23" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="C23" s="1" t="n">
         <v>0.438</v>
-      </c>
-      <c r="C23" s="0" t="n">
-        <v>48.522</v>
       </c>
       <c r="D23" s="0" t="n">
         <v>48.522</v>
@@ -8052,8 +8071,8 @@
       <c r="K23" s="0" t="n">
         <v>48.522</v>
       </c>
-      <c r="O23" s="0" t="n">
-        <v>0.202</v>
+      <c r="L23" s="0" t="n">
+        <v>48.522</v>
       </c>
       <c r="P23" s="0" t="n">
         <v>0.202</v>
@@ -8064,34 +8083,34 @@
       <c r="R23" s="0" t="n">
         <v>0.202</v>
       </c>
-      <c r="Y23" s="0" t="n">
-        <v>0.002</v>
+      <c r="S23" s="0" t="n">
+        <v>0.202</v>
       </c>
       <c r="Z23" s="0" t="n">
         <v>0.002</v>
       </c>
-      <c r="AB23" s="0" t="n">
-        <v>0</v>
+      <c r="AA23" s="0" t="n">
+        <v>0.002</v>
       </c>
       <c r="AC23" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="DB23" s="0" t="n">
+      <c r="AD23" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="DC23" s="0" t="n">
         <v>0.202</v>
       </c>
-      <c r="HC23" s="0" t="n">
+      <c r="HD23" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>208</v>
-      </c>
-      <c r="B24" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="C24" s="1" t="n">
         <v>0.359</v>
-      </c>
-      <c r="C24" s="0" t="n">
-        <v>22.768</v>
       </c>
       <c r="D24" s="0" t="n">
         <v>22.768</v>
@@ -8114,14 +8133,14 @@
       <c r="J24" s="0" t="n">
         <v>22.768</v>
       </c>
-      <c r="L24" s="0" t="n">
+      <c r="K24" s="0" t="n">
         <v>22.768</v>
       </c>
       <c r="M24" s="0" t="n">
         <v>22.768</v>
       </c>
-      <c r="O24" s="0" t="n">
-        <v>0.095</v>
+      <c r="N24" s="0" t="n">
+        <v>22.768</v>
       </c>
       <c r="P24" s="0" t="n">
         <v>0.095</v>
@@ -8135,17 +8154,17 @@
       <c r="S24" s="0" t="n">
         <v>0.095</v>
       </c>
-      <c r="U24" s="0" t="n">
+      <c r="T24" s="0" t="n">
         <v>0.095</v>
       </c>
-      <c r="Y24" s="0" t="n">
-        <v>0.001</v>
+      <c r="V24" s="0" t="n">
+        <v>0.095</v>
       </c>
       <c r="Z24" s="0" t="n">
         <v>0.001</v>
       </c>
-      <c r="AB24" s="0" t="n">
-        <v>0</v>
+      <c r="AA24" s="0" t="n">
+        <v>0.001</v>
       </c>
       <c r="AC24" s="0" t="n">
         <v>0</v>
@@ -8153,8 +8172,8 @@
       <c r="AD24" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="AG24" s="0" t="n">
-        <v>23.084</v>
+      <c r="AE24" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="AH24" s="0" t="n">
         <v>23.084</v>
@@ -8163,7 +8182,7 @@
         <v>23.084</v>
       </c>
       <c r="AJ24" s="0" t="n">
-        <v>2.886</v>
+        <v>23.084</v>
       </c>
       <c r="AK24" s="0" t="n">
         <v>2.886</v>
@@ -8198,20 +8217,20 @@
       <c r="AU24" s="0" t="n">
         <v>2.886</v>
       </c>
-      <c r="BA24" s="0" t="n">
+      <c r="AV24" s="0" t="n">
+        <v>2.886</v>
+      </c>
+      <c r="BB24" s="0" t="n">
         <v>2.488</v>
       </c>
-      <c r="CD24" s="0" t="n">
-        <v>0.095</v>
-      </c>
-      <c r="CJ24" s="0" t="n">
+      <c r="CE24" s="0" t="n">
         <v>0.095</v>
       </c>
       <c r="CK24" s="0" t="n">
         <v>0.095</v>
       </c>
-      <c r="CT24" s="0" t="n">
-        <v>1.802</v>
+      <c r="CL24" s="0" t="n">
+        <v>0.095</v>
       </c>
       <c r="CU24" s="0" t="n">
         <v>1.802</v>
@@ -8222,14 +8241,14 @@
       <c r="CW24" s="0" t="n">
         <v>1.802</v>
       </c>
-      <c r="CZ24" s="0" t="n">
+      <c r="CX24" s="0" t="n">
         <v>1.802</v>
       </c>
       <c r="DA24" s="0" t="n">
         <v>1.802</v>
       </c>
       <c r="DB24" s="0" t="n">
-        <v>0.095</v>
+        <v>1.802</v>
       </c>
       <c r="DC24" s="0" t="n">
         <v>0.095</v>
@@ -8246,7 +8265,7 @@
       <c r="DG24" s="0" t="n">
         <v>0.095</v>
       </c>
-      <c r="DJ24" s="0" t="n">
+      <c r="DH24" s="0" t="n">
         <v>0.095</v>
       </c>
       <c r="DK24" s="0" t="n">
@@ -8261,32 +8280,32 @@
       <c r="DN24" s="0" t="n">
         <v>0.095</v>
       </c>
-      <c r="DT24" s="0" t="n">
+      <c r="DO24" s="0" t="n">
         <v>0.095</v>
       </c>
-      <c r="EB24" s="0" t="n">
+      <c r="DU24" s="0" t="n">
         <v>0.095</v>
       </c>
-      <c r="EF24" s="0" t="n">
-        <v>0.03</v>
+      <c r="EC24" s="0" t="n">
+        <v>0.095</v>
       </c>
       <c r="EG24" s="0" t="n">
         <v>0.03</v>
       </c>
-      <c r="EK24" s="0" t="n">
+      <c r="EH24" s="0" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="EL24" s="0" t="n">
         <v>3.795</v>
-      </c>
-      <c r="EO24" s="0" t="n">
-        <v>1.897</v>
       </c>
       <c r="EP24" s="0" t="n">
         <v>1.897</v>
       </c>
       <c r="EQ24" s="0" t="n">
+        <v>1.897</v>
+      </c>
+      <c r="ER24" s="0" t="n">
         <v>0.474</v>
-      </c>
-      <c r="ER24" s="0" t="n">
-        <v>0.095</v>
       </c>
       <c r="ES24" s="0" t="n">
         <v>0.095</v>
@@ -8294,13 +8313,13 @@
       <c r="ET24" s="0" t="n">
         <v>0.095</v>
       </c>
-      <c r="FM24" s="0" t="n">
+      <c r="EU24" s="0" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="FN24" s="0" t="n">
         <v>2.886</v>
       </c>
-      <c r="FN24" s="0" t="n">
-        <v>0.095</v>
-      </c>
-      <c r="FP24" s="0" t="n">
+      <c r="FO24" s="0" t="n">
         <v>0.095</v>
       </c>
       <c r="FQ24" s="0" t="n">
@@ -8324,11 +8343,11 @@
       <c r="FW24" s="0" t="n">
         <v>0.095</v>
       </c>
-      <c r="GE24" s="0" t="n">
+      <c r="FX24" s="0" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="GF24" s="0" t="n">
         <v>0.062</v>
-      </c>
-      <c r="GK24" s="0" t="n">
-        <v>0.095</v>
       </c>
       <c r="GL24" s="0" t="n">
         <v>0.095</v>
@@ -8337,7 +8356,7 @@
         <v>0.095</v>
       </c>
       <c r="GN24" s="0" t="n">
-        <v>0</v>
+        <v>0.095</v>
       </c>
       <c r="GO24" s="0" t="n">
         <v>0</v>
@@ -8348,28 +8367,28 @@
       <c r="GQ24" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="GS24" s="0" t="n">
+      <c r="GR24" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="GT24" s="0" t="n">
         <v>0.011</v>
       </c>
-      <c r="GT24" s="0" t="n">
+      <c r="GU24" s="0" t="n">
         <v>0.008</v>
       </c>
-      <c r="GV24" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="HC24" s="0" t="n">
+      <c r="GW24" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="HD24" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>209</v>
-      </c>
-      <c r="B25" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="C25" s="1" t="n">
         <v>0.242</v>
-      </c>
-      <c r="C25" s="0" t="n">
-        <v>26.874</v>
       </c>
       <c r="D25" s="0" t="n">
         <v>26.874</v>
@@ -8395,8 +8414,8 @@
       <c r="K25" s="0" t="n">
         <v>26.874</v>
       </c>
-      <c r="O25" s="0" t="n">
-        <v>0.112</v>
+      <c r="L25" s="0" t="n">
+        <v>26.874</v>
       </c>
       <c r="P25" s="0" t="n">
         <v>0.112</v>
@@ -8407,34 +8426,34 @@
       <c r="R25" s="0" t="n">
         <v>0.112</v>
       </c>
-      <c r="Y25" s="0" t="n">
-        <v>0.001</v>
+      <c r="S25" s="0" t="n">
+        <v>0.112</v>
       </c>
       <c r="Z25" s="0" t="n">
         <v>0.001</v>
       </c>
-      <c r="AB25" s="0" t="n">
-        <v>0</v>
+      <c r="AA25" s="0" t="n">
+        <v>0.001</v>
       </c>
       <c r="AC25" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="DB25" s="0" t="n">
+      <c r="AD25" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="DC25" s="0" t="n">
         <v>0.112</v>
       </c>
-      <c r="HC25" s="0" t="n">
+      <c r="HD25" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>210</v>
-      </c>
-      <c r="B26" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="C26" s="1" t="n">
         <v>0.202</v>
-      </c>
-      <c r="C26" s="0" t="n">
-        <v>22.395</v>
       </c>
       <c r="D26" s="0" t="n">
         <v>22.395</v>
@@ -8460,8 +8479,8 @@
       <c r="K26" s="0" t="n">
         <v>22.395</v>
       </c>
-      <c r="O26" s="0" t="n">
-        <v>0.093</v>
+      <c r="L26" s="0" t="n">
+        <v>22.395</v>
       </c>
       <c r="P26" s="0" t="n">
         <v>0.093</v>
@@ -8472,34 +8491,34 @@
       <c r="R26" s="0" t="n">
         <v>0.093</v>
       </c>
-      <c r="Y26" s="0" t="n">
-        <v>0.001</v>
+      <c r="S26" s="0" t="n">
+        <v>0.093</v>
       </c>
       <c r="Z26" s="0" t="n">
         <v>0.001</v>
       </c>
-      <c r="AB26" s="0" t="n">
-        <v>0</v>
+      <c r="AA26" s="0" t="n">
+        <v>0.001</v>
       </c>
       <c r="AC26" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="DB26" s="0" t="n">
+      <c r="AD26" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="DC26" s="0" t="n">
         <v>0.093</v>
       </c>
-      <c r="HC26" s="0" t="n">
+      <c r="HD26" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>211</v>
-      </c>
-      <c r="B27" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="C27" s="1" t="n">
         <v>0.157</v>
-      </c>
-      <c r="C27" s="0" t="n">
-        <v>26.127</v>
       </c>
       <c r="D27" s="0" t="n">
         <v>26.127</v>
@@ -8510,34 +8529,34 @@
       <c r="F27" s="0" t="n">
         <v>26.127</v>
       </c>
-      <c r="I27" s="0" t="n">
+      <c r="G27" s="0" t="n">
         <v>26.127</v>
       </c>
       <c r="J27" s="0" t="n">
         <v>26.127</v>
       </c>
-      <c r="O27" s="0" t="n">
+      <c r="K27" s="0" t="n">
+        <v>26.127</v>
+      </c>
+      <c r="P27" s="0" t="n">
         <v>0.109</v>
       </c>
-      <c r="Y27" s="0" t="n">
+      <c r="Z27" s="0" t="n">
         <v>0.001</v>
       </c>
-      <c r="DB27" s="0" t="n">
+      <c r="DC27" s="0" t="n">
         <v>0.109</v>
       </c>
-      <c r="HC27" s="0" t="n">
+      <c r="HD27" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>212</v>
-      </c>
-      <c r="B28" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="C28" s="1" t="n">
         <v>0.157</v>
-      </c>
-      <c r="C28" s="0" t="n">
-        <v>26.127</v>
       </c>
       <c r="D28" s="0" t="n">
         <v>26.127</v>
@@ -8548,34 +8567,34 @@
       <c r="F28" s="0" t="n">
         <v>26.127</v>
       </c>
-      <c r="I28" s="0" t="n">
+      <c r="G28" s="0" t="n">
         <v>26.127</v>
       </c>
       <c r="J28" s="0" t="n">
         <v>26.127</v>
       </c>
-      <c r="O28" s="0" t="n">
+      <c r="K28" s="0" t="n">
+        <v>26.127</v>
+      </c>
+      <c r="P28" s="0" t="n">
         <v>0.109</v>
       </c>
-      <c r="Y28" s="0" t="n">
+      <c r="Z28" s="0" t="n">
         <v>0.001</v>
       </c>
-      <c r="DB28" s="0" t="n">
+      <c r="DC28" s="0" t="n">
         <v>0.109</v>
       </c>
-      <c r="HC28" s="0" t="n">
+      <c r="HD28" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>213</v>
-      </c>
-      <c r="B29" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="C29" s="1" t="n">
         <v>0.157</v>
-      </c>
-      <c r="C29" s="0" t="n">
-        <v>26.127</v>
       </c>
       <c r="D29" s="0" t="n">
         <v>26.127</v>
@@ -8586,34 +8605,34 @@
       <c r="F29" s="0" t="n">
         <v>26.127</v>
       </c>
-      <c r="I29" s="0" t="n">
+      <c r="G29" s="0" t="n">
         <v>26.127</v>
       </c>
       <c r="J29" s="0" t="n">
         <v>26.127</v>
       </c>
-      <c r="O29" s="0" t="n">
+      <c r="K29" s="0" t="n">
+        <v>26.127</v>
+      </c>
+      <c r="P29" s="0" t="n">
         <v>0.109</v>
       </c>
-      <c r="Y29" s="0" t="n">
+      <c r="Z29" s="0" t="n">
         <v>0.001</v>
       </c>
-      <c r="DB29" s="0" t="n">
+      <c r="DC29" s="0" t="n">
         <v>0.109</v>
       </c>
-      <c r="HC29" s="0" t="n">
+      <c r="HD29" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>214</v>
-      </c>
-      <c r="B30" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="C30" s="1" t="n">
         <v>0.157</v>
-      </c>
-      <c r="C30" s="0" t="n">
-        <v>26.127</v>
       </c>
       <c r="D30" s="0" t="n">
         <v>26.127</v>
@@ -8624,34 +8643,34 @@
       <c r="F30" s="0" t="n">
         <v>26.127</v>
       </c>
-      <c r="I30" s="0" t="n">
+      <c r="G30" s="0" t="n">
         <v>26.127</v>
       </c>
       <c r="J30" s="0" t="n">
         <v>26.127</v>
       </c>
-      <c r="O30" s="0" t="n">
+      <c r="K30" s="0" t="n">
+        <v>26.127</v>
+      </c>
+      <c r="P30" s="0" t="n">
         <v>0.109</v>
       </c>
-      <c r="Y30" s="0" t="n">
+      <c r="Z30" s="0" t="n">
         <v>0.001</v>
       </c>
-      <c r="DB30" s="0" t="n">
+      <c r="DC30" s="0" t="n">
         <v>0.109</v>
       </c>
-      <c r="HC30" s="0" t="n">
+      <c r="HD30" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>215</v>
-      </c>
-      <c r="B31" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="C31" s="1" t="n">
         <v>0.157</v>
-      </c>
-      <c r="C31" s="0" t="n">
-        <v>26.127</v>
       </c>
       <c r="D31" s="0" t="n">
         <v>26.127</v>
@@ -8662,34 +8681,34 @@
       <c r="F31" s="0" t="n">
         <v>26.127</v>
       </c>
-      <c r="I31" s="0" t="n">
+      <c r="G31" s="0" t="n">
         <v>26.127</v>
       </c>
       <c r="J31" s="0" t="n">
         <v>26.127</v>
       </c>
-      <c r="O31" s="0" t="n">
+      <c r="K31" s="0" t="n">
+        <v>26.127</v>
+      </c>
+      <c r="P31" s="0" t="n">
         <v>0.109</v>
       </c>
-      <c r="Y31" s="0" t="n">
+      <c r="Z31" s="0" t="n">
         <v>0.001</v>
       </c>
-      <c r="DB31" s="0" t="n">
+      <c r="DC31" s="0" t="n">
         <v>0.109</v>
       </c>
-      <c r="HC31" s="0" t="n">
+      <c r="HD31" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>216</v>
-      </c>
-      <c r="B32" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="C32" s="1" t="n">
         <v>0.141</v>
-      </c>
-      <c r="BA32" s="0" t="n">
-        <v>11.384</v>
       </c>
       <c r="BB32" s="0" t="n">
         <v>11.384</v>
@@ -8697,8 +8716,8 @@
       <c r="BC32" s="0" t="n">
         <v>11.384</v>
       </c>
-      <c r="CT32" s="0" t="n">
-        <v>15.159</v>
+      <c r="BD32" s="0" t="n">
+        <v>11.384</v>
       </c>
       <c r="CU32" s="0" t="n">
         <v>15.159</v>
@@ -8712,8 +8731,8 @@
       <c r="CX32" s="0" t="n">
         <v>15.159</v>
       </c>
-      <c r="DB32" s="0" t="n">
-        <v>0.798</v>
+      <c r="CY32" s="0" t="n">
+        <v>15.159</v>
       </c>
       <c r="DC32" s="0" t="n">
         <v>0.798</v>
@@ -8727,7 +8746,7 @@
       <c r="DF32" s="0" t="n">
         <v>0.798</v>
       </c>
-      <c r="DH32" s="0" t="n">
+      <c r="DG32" s="0" t="n">
         <v>0.798</v>
       </c>
       <c r="DI32" s="0" t="n">
@@ -8736,75 +8755,75 @@
       <c r="DJ32" s="0" t="n">
         <v>0.798</v>
       </c>
-      <c r="DN32" s="0" t="n">
-        <v>0.798</v>
-      </c>
-      <c r="DQ32" s="0" t="n">
-        <v>0.798</v>
-      </c>
-      <c r="EK32" s="0" t="n">
+      <c r="DK32" s="0" t="n">
+        <v>0.798</v>
+      </c>
+      <c r="DO32" s="0" t="n">
+        <v>0.798</v>
+      </c>
+      <c r="DR32" s="0" t="n">
+        <v>0.798</v>
+      </c>
+      <c r="EL32" s="0" t="n">
         <v>11.384</v>
       </c>
-      <c r="EL32" s="0" t="n">
+      <c r="EM32" s="0" t="n">
         <v>11.384</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>217</v>
-      </c>
-      <c r="B33" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="C33" s="1" t="n">
         <v>0.114</v>
       </c>
-      <c r="C33" s="0" t="n">
+      <c r="D33" s="0" t="n">
         <v>55.987</v>
       </c>
-      <c r="K33" s="0" t="n">
+      <c r="L33" s="0" t="n">
         <v>55.987</v>
       </c>
-      <c r="O33" s="0" t="n">
+      <c r="P33" s="0" t="n">
         <v>0.233</v>
       </c>
-      <c r="AD33" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="AE33" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="DE33" s="0" t="n">
-        <v>0.233</v>
+      <c r="AF33" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="DF33" s="0" t="n">
         <v>0.233</v>
       </c>
-      <c r="DH33" s="0" t="n">
+      <c r="DG33" s="0" t="n">
         <v>0.233</v>
       </c>
       <c r="DI33" s="0" t="n">
         <v>0.233</v>
       </c>
-      <c r="DK33" s="0" t="n">
+      <c r="DJ33" s="0" t="n">
         <v>0.233</v>
       </c>
-      <c r="DP33" s="0" t="n">
+      <c r="DL33" s="0" t="n">
         <v>0.233</v>
       </c>
-      <c r="HD33" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="HR33" s="0" t="n">
+      <c r="DQ33" s="0" t="n">
+        <v>0.233</v>
+      </c>
+      <c r="HE33" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="HS33" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>218</v>
-      </c>
-      <c r="B34" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="C34" s="1" t="n">
         <v>0.097</v>
-      </c>
-      <c r="C34" s="0" t="n">
-        <v>24.261</v>
       </c>
       <c r="D34" s="0" t="n">
         <v>24.261</v>
@@ -8815,8 +8834,8 @@
       <c r="F34" s="0" t="n">
         <v>24.261</v>
       </c>
-      <c r="O34" s="0" t="n">
-        <v>0.101</v>
+      <c r="G34" s="0" t="n">
+        <v>24.261</v>
       </c>
       <c r="P34" s="0" t="n">
         <v>0.101</v>
@@ -8824,28 +8843,28 @@
       <c r="Q34" s="0" t="n">
         <v>0.101</v>
       </c>
-      <c r="Y34" s="0" t="n">
+      <c r="R34" s="0" t="n">
+        <v>0.101</v>
+      </c>
+      <c r="Z34" s="0" t="n">
         <v>0.001</v>
       </c>
-      <c r="DB34" s="0" t="n">
+      <c r="DC34" s="0" t="n">
         <v>0.101</v>
       </c>
-      <c r="HC34" s="0" t="n">
+      <c r="HD34" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>219</v>
-      </c>
-      <c r="B35" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="C35" s="1" t="n">
         <v>0.09</v>
       </c>
-      <c r="K35" s="0" t="n">
+      <c r="L35" s="0" t="n">
         <v>61.586</v>
-      </c>
-      <c r="CT35" s="0" t="n">
-        <v>4.876</v>
       </c>
       <c r="CU35" s="0" t="n">
         <v>4.876</v>
@@ -8859,8 +8878,8 @@
       <c r="CX35" s="0" t="n">
         <v>4.876</v>
       </c>
-      <c r="DB35" s="0" t="n">
-        <v>0.257</v>
+      <c r="CY35" s="0" t="n">
+        <v>4.876</v>
       </c>
       <c r="DC35" s="0" t="n">
         <v>0.257</v>
@@ -8874,7 +8893,7 @@
       <c r="DF35" s="0" t="n">
         <v>0.257</v>
       </c>
-      <c r="DH35" s="0" t="n">
+      <c r="DG35" s="0" t="n">
         <v>0.257</v>
       </c>
       <c r="DI35" s="0" t="n">
@@ -8886,10 +8905,10 @@
       <c r="DK35" s="0" t="n">
         <v>0.257</v>
       </c>
-      <c r="DN35" s="0" t="n">
-        <v>0.257</v>
-      </c>
-      <c r="DQ35" s="0" t="n">
+      <c r="DL35" s="0" t="n">
+        <v>0.257</v>
+      </c>
+      <c r="DO35" s="0" t="n">
         <v>0.257</v>
       </c>
       <c r="DR35" s="0" t="n">
@@ -8898,22 +8917,22 @@
       <c r="DS35" s="0" t="n">
         <v>0.257</v>
       </c>
-      <c r="GK35" s="0" t="n">
+      <c r="DT35" s="0" t="n">
         <v>0.257</v>
       </c>
       <c r="GL35" s="0" t="n">
+        <v>0.257</v>
+      </c>
+      <c r="GM35" s="0" t="n">
         <v>0.257</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>220</v>
-      </c>
-      <c r="B36" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="C36" s="1" t="n">
         <v>0.054</v>
-      </c>
-      <c r="C36" s="0" t="n">
-        <v>13.437</v>
       </c>
       <c r="D36" s="0" t="n">
         <v>13.437</v>
@@ -8924,28 +8943,28 @@
       <c r="F36" s="0" t="n">
         <v>13.437</v>
       </c>
-      <c r="O36" s="0" t="n">
+      <c r="G36" s="0" t="n">
+        <v>13.437</v>
+      </c>
+      <c r="P36" s="0" t="n">
         <v>0.056</v>
       </c>
-      <c r="Y36" s="0" t="n">
+      <c r="Z36" s="0" t="n">
         <v>0.001</v>
       </c>
-      <c r="DB36" s="0" t="n">
+      <c r="DC36" s="0" t="n">
         <v>0.056</v>
       </c>
-      <c r="HC36" s="0" t="n">
+      <c r="HD36" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>221</v>
-      </c>
-      <c r="B37" s="1" t="n">
+        <v>224</v>
+      </c>
+      <c r="C37" s="1" t="n">
         <v>0.054</v>
-      </c>
-      <c r="C37" s="0" t="n">
-        <v>13.437</v>
       </c>
       <c r="D37" s="0" t="n">
         <v>13.437</v>
@@ -8956,28 +8975,28 @@
       <c r="F37" s="0" t="n">
         <v>13.437</v>
       </c>
-      <c r="O37" s="0" t="n">
+      <c r="G37" s="0" t="n">
+        <v>13.437</v>
+      </c>
+      <c r="P37" s="0" t="n">
         <v>0.056</v>
       </c>
-      <c r="Y37" s="0" t="n">
+      <c r="Z37" s="0" t="n">
         <v>0.001</v>
       </c>
-      <c r="DB37" s="0" t="n">
+      <c r="DC37" s="0" t="n">
         <v>0.056</v>
       </c>
-      <c r="HC37" s="0" t="n">
+      <c r="HD37" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>222</v>
-      </c>
-      <c r="B38" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="C38" s="1" t="n">
         <v>0.054</v>
-      </c>
-      <c r="C38" s="0" t="n">
-        <v>13.437</v>
       </c>
       <c r="D38" s="0" t="n">
         <v>13.437</v>
@@ -8988,28 +9007,28 @@
       <c r="F38" s="0" t="n">
         <v>13.437</v>
       </c>
-      <c r="O38" s="0" t="n">
+      <c r="G38" s="0" t="n">
+        <v>13.437</v>
+      </c>
+      <c r="P38" s="0" t="n">
         <v>0.056</v>
       </c>
-      <c r="Y38" s="0" t="n">
+      <c r="Z38" s="0" t="n">
         <v>0.001</v>
       </c>
-      <c r="DB38" s="0" t="n">
+      <c r="DC38" s="0" t="n">
         <v>0.056</v>
       </c>
-      <c r="HC38" s="0" t="n">
+      <c r="HD38" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>223</v>
-      </c>
-      <c r="B39" s="1" t="n">
+        <v>226</v>
+      </c>
+      <c r="C39" s="1" t="n">
         <v>0.054</v>
-      </c>
-      <c r="C39" s="0" t="n">
-        <v>13.437</v>
       </c>
       <c r="D39" s="0" t="n">
         <v>13.437</v>
@@ -9020,28 +9039,28 @@
       <c r="F39" s="0" t="n">
         <v>13.437</v>
       </c>
-      <c r="O39" s="0" t="n">
+      <c r="G39" s="0" t="n">
+        <v>13.437</v>
+      </c>
+      <c r="P39" s="0" t="n">
         <v>0.056</v>
       </c>
-      <c r="Y39" s="0" t="n">
+      <c r="Z39" s="0" t="n">
         <v>0.001</v>
       </c>
-      <c r="DB39" s="0" t="n">
+      <c r="DC39" s="0" t="n">
         <v>0.056</v>
       </c>
-      <c r="HC39" s="0" t="n">
+      <c r="HD39" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>224</v>
-      </c>
-      <c r="B40" s="1" t="n">
+        <v>227</v>
+      </c>
+      <c r="C40" s="1" t="n">
         <v>0.054</v>
-      </c>
-      <c r="C40" s="0" t="n">
-        <v>13.437</v>
       </c>
       <c r="D40" s="0" t="n">
         <v>13.437</v>
@@ -9052,45 +9071,45 @@
       <c r="F40" s="0" t="n">
         <v>13.437</v>
       </c>
-      <c r="O40" s="0" t="n">
+      <c r="G40" s="0" t="n">
+        <v>13.437</v>
+      </c>
+      <c r="P40" s="0" t="n">
         <v>0.056</v>
       </c>
-      <c r="Y40" s="0" t="n">
+      <c r="Z40" s="0" t="n">
         <v>0.001</v>
       </c>
-      <c r="DB40" s="0" t="n">
+      <c r="DC40" s="0" t="n">
         <v>0.056</v>
       </c>
-      <c r="HC40" s="0" t="n">
+      <c r="HD40" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>225</v>
-      </c>
-      <c r="B41" s="1" t="n">
+        <v>228</v>
+      </c>
+      <c r="C41" s="1" t="n">
         <v>0.012</v>
       </c>
-      <c r="O41" s="0" t="n">
+      <c r="P41" s="0" t="n">
         <v>0.311</v>
       </c>
-      <c r="AO41" s="0" t="n">
+      <c r="AP41" s="0" t="n">
         <v>9.461</v>
-      </c>
-      <c r="DB41" s="0" t="n">
-        <v>0.311</v>
       </c>
       <c r="DC41" s="0" t="n">
         <v>0.311</v>
       </c>
-      <c r="DG41" s="0" t="n">
+      <c r="DD41" s="0" t="n">
         <v>0.311</v>
       </c>
-      <c r="DK41" s="0" t="n">
+      <c r="DH41" s="0" t="n">
         <v>0.311</v>
       </c>
-      <c r="FU41" s="0" t="n">
+      <c r="DL41" s="0" t="n">
         <v>0.311</v>
       </c>
       <c r="FV41" s="0" t="n">
@@ -9099,36 +9118,36 @@
       <c r="FW41" s="0" t="n">
         <v>0.311</v>
       </c>
-      <c r="GK41" s="0" t="n">
+      <c r="FX41" s="0" t="n">
+        <v>0.311</v>
+      </c>
+      <c r="GL41" s="0" t="n">
         <v>0.311</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>226</v>
-      </c>
-      <c r="B42" s="1" t="n">
+        <v>229</v>
+      </c>
+      <c r="C42" s="1" t="n">
         <v>0.006</v>
       </c>
-      <c r="O42" s="0" t="n">
+      <c r="P42" s="0" t="n">
         <v>0.156</v>
       </c>
-      <c r="AO42" s="0" t="n">
+      <c r="AP42" s="0" t="n">
         <v>4.73</v>
-      </c>
-      <c r="DB42" s="0" t="n">
-        <v>0.156</v>
       </c>
       <c r="DC42" s="0" t="n">
         <v>0.156</v>
       </c>
-      <c r="DG42" s="0" t="n">
+      <c r="DD42" s="0" t="n">
         <v>0.156</v>
       </c>
-      <c r="DK42" s="0" t="n">
+      <c r="DH42" s="0" t="n">
         <v>0.156</v>
       </c>
-      <c r="FU42" s="0" t="n">
+      <c r="DL42" s="0" t="n">
         <v>0.156</v>
       </c>
       <c r="FV42" s="0" t="n">
@@ -9137,36 +9156,36 @@
       <c r="FW42" s="0" t="n">
         <v>0.156</v>
       </c>
-      <c r="GK42" s="0" t="n">
+      <c r="FX42" s="0" t="n">
+        <v>0.156</v>
+      </c>
+      <c r="GL42" s="0" t="n">
         <v>0.156</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>227</v>
-      </c>
-      <c r="B43" s="1" t="n">
+        <v>230</v>
+      </c>
+      <c r="C43" s="1" t="n">
         <v>0.002</v>
-      </c>
-      <c r="DC43" s="0" t="n">
-        <v>0.233</v>
       </c>
       <c r="DD43" s="0" t="n">
         <v>0.233</v>
       </c>
-      <c r="DG43" s="0" t="n">
+      <c r="DE43" s="0" t="n">
         <v>0.233</v>
       </c>
-      <c r="DJ43" s="0" t="n">
+      <c r="DH43" s="0" t="n">
         <v>0.233</v>
       </c>
-      <c r="DL43" s="0" t="n">
+      <c r="DK43" s="0" t="n">
         <v>0.233</v>
       </c>
       <c r="DM43" s="0" t="n">
         <v>0.233</v>
       </c>
-      <c r="ER43" s="0" t="n">
+      <c r="DN43" s="0" t="n">
         <v>0.233</v>
       </c>
       <c r="ES43" s="0" t="n">
@@ -9175,36 +9194,36 @@
       <c r="ET43" s="0" t="n">
         <v>0.233</v>
       </c>
-      <c r="FN43" s="0" t="n">
+      <c r="EU43" s="0" t="n">
+        <v>0.233</v>
+      </c>
+      <c r="FO43" s="0" t="n">
         <v>0.233</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>228</v>
-      </c>
-      <c r="B44" s="1" t="n">
+        <v>231</v>
+      </c>
+      <c r="C44" s="1" t="n">
         <v>0.002</v>
-      </c>
-      <c r="DC44" s="0" t="n">
-        <v>0.233</v>
       </c>
       <c r="DD44" s="0" t="n">
         <v>0.233</v>
       </c>
-      <c r="DG44" s="0" t="n">
+      <c r="DE44" s="0" t="n">
         <v>0.233</v>
       </c>
-      <c r="DJ44" s="0" t="n">
+      <c r="DH44" s="0" t="n">
         <v>0.233</v>
       </c>
-      <c r="DL44" s="0" t="n">
+      <c r="DK44" s="0" t="n">
         <v>0.233</v>
       </c>
       <c r="DM44" s="0" t="n">
         <v>0.233</v>
       </c>
-      <c r="ER44" s="0" t="n">
+      <c r="DN44" s="0" t="n">
         <v>0.233</v>
       </c>
       <c r="ES44" s="0" t="n">
@@ -9213,36 +9232,36 @@
       <c r="ET44" s="0" t="n">
         <v>0.233</v>
       </c>
-      <c r="FN44" s="0" t="n">
+      <c r="EU44" s="0" t="n">
+        <v>0.233</v>
+      </c>
+      <c r="FO44" s="0" t="n">
         <v>0.233</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>229</v>
-      </c>
-      <c r="B45" s="1" t="n">
+        <v>232</v>
+      </c>
+      <c r="C45" s="1" t="n">
         <v>0.002</v>
-      </c>
-      <c r="DC45" s="0" t="n">
-        <v>0.233</v>
       </c>
       <c r="DD45" s="0" t="n">
         <v>0.233</v>
       </c>
-      <c r="DG45" s="0" t="n">
+      <c r="DE45" s="0" t="n">
         <v>0.233</v>
       </c>
-      <c r="DJ45" s="0" t="n">
+      <c r="DH45" s="0" t="n">
         <v>0.233</v>
       </c>
-      <c r="DL45" s="0" t="n">
+      <c r="DK45" s="0" t="n">
         <v>0.233</v>
       </c>
       <c r="DM45" s="0" t="n">
         <v>0.233</v>
       </c>
-      <c r="ER45" s="0" t="n">
+      <c r="DN45" s="0" t="n">
         <v>0.233</v>
       </c>
       <c r="ES45" s="0" t="n">
@@ -9251,36 +9270,36 @@
       <c r="ET45" s="0" t="n">
         <v>0.233</v>
       </c>
-      <c r="FN45" s="0" t="n">
+      <c r="EU45" s="0" t="n">
+        <v>0.233</v>
+      </c>
+      <c r="FO45" s="0" t="n">
         <v>0.233</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>230</v>
-      </c>
-      <c r="B46" s="1" t="n">
+        <v>233</v>
+      </c>
+      <c r="C46" s="1" t="n">
         <v>0.002</v>
-      </c>
-      <c r="DC46" s="0" t="n">
-        <v>0.233</v>
       </c>
       <c r="DD46" s="0" t="n">
         <v>0.233</v>
       </c>
-      <c r="DG46" s="0" t="n">
+      <c r="DE46" s="0" t="n">
         <v>0.233</v>
       </c>
-      <c r="DJ46" s="0" t="n">
+      <c r="DH46" s="0" t="n">
         <v>0.233</v>
       </c>
-      <c r="DL46" s="0" t="n">
+      <c r="DK46" s="0" t="n">
         <v>0.233</v>
       </c>
       <c r="DM46" s="0" t="n">
         <v>0.233</v>
       </c>
-      <c r="ER46" s="0" t="n">
+      <c r="DN46" s="0" t="n">
         <v>0.233</v>
       </c>
       <c r="ES46" s="0" t="n">
@@ -9289,36 +9308,36 @@
       <c r="ET46" s="0" t="n">
         <v>0.233</v>
       </c>
-      <c r="FN46" s="0" t="n">
+      <c r="EU46" s="0" t="n">
+        <v>0.233</v>
+      </c>
+      <c r="FO46" s="0" t="n">
         <v>0.233</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>231</v>
-      </c>
-      <c r="B47" s="1" t="n">
+        <v>234</v>
+      </c>
+      <c r="C47" s="1" t="n">
         <v>0.002</v>
-      </c>
-      <c r="DC47" s="0" t="n">
-        <v>0.226</v>
       </c>
       <c r="DD47" s="0" t="n">
         <v>0.226</v>
       </c>
-      <c r="DG47" s="0" t="n">
+      <c r="DE47" s="0" t="n">
         <v>0.226</v>
       </c>
-      <c r="DJ47" s="0" t="n">
+      <c r="DH47" s="0" t="n">
         <v>0.226</v>
       </c>
-      <c r="DL47" s="0" t="n">
+      <c r="DK47" s="0" t="n">
         <v>0.226</v>
       </c>
       <c r="DM47" s="0" t="n">
         <v>0.226</v>
       </c>
-      <c r="ER47" s="0" t="n">
+      <c r="DN47" s="0" t="n">
         <v>0.226</v>
       </c>
       <c r="ES47" s="0" t="n">
@@ -9327,264 +9346,264 @@
       <c r="ET47" s="0" t="n">
         <v>0.226</v>
       </c>
-      <c r="FN47" s="0" t="n">
+      <c r="EU47" s="0" t="n">
+        <v>0.226</v>
+      </c>
+      <c r="FO47" s="0" t="n">
         <v>0.226</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>232</v>
-      </c>
-      <c r="B48" s="1" t="n">
+        <v>235</v>
+      </c>
+      <c r="C48" s="1" t="n">
         <v>0.002</v>
       </c>
-      <c r="CT48" s="0" t="n">
+      <c r="CU48" s="0" t="n">
         <v>0.886</v>
       </c>
-      <c r="CX48" s="0" t="n">
+      <c r="CY48" s="0" t="n">
         <v>0.886</v>
       </c>
-      <c r="DB48" s="0" t="n">
-        <v>0.047</v>
-      </c>
-      <c r="DE48" s="0" t="n">
+      <c r="DC48" s="0" t="n">
         <v>0.047</v>
       </c>
       <c r="DF48" s="0" t="n">
         <v>0.047</v>
       </c>
-      <c r="DH48" s="0" t="n">
+      <c r="DG48" s="0" t="n">
         <v>0.047</v>
       </c>
       <c r="DI48" s="0" t="n">
         <v>0.047</v>
       </c>
-      <c r="DP48" s="0" t="n">
-        <v>0.047</v>
-      </c>
-      <c r="ED48" s="0" t="n">
+      <c r="DJ48" s="0" t="n">
+        <v>0.047</v>
+      </c>
+      <c r="DQ48" s="0" t="n">
         <v>0.047</v>
       </c>
       <c r="EE48" s="0" t="n">
+        <v>0.047</v>
+      </c>
+      <c r="EF48" s="0" t="n">
         <v>0.047</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>233</v>
-      </c>
-      <c r="B49" s="1" t="n">
+        <v>236</v>
+      </c>
+      <c r="C49" s="1" t="n">
         <v>0.002</v>
       </c>
-      <c r="CT49" s="0" t="n">
+      <c r="CU49" s="0" t="n">
         <v>0.886</v>
       </c>
-      <c r="CX49" s="0" t="n">
+      <c r="CY49" s="0" t="n">
         <v>0.886</v>
       </c>
-      <c r="DB49" s="0" t="n">
-        <v>0.047</v>
-      </c>
-      <c r="DE49" s="0" t="n">
+      <c r="DC49" s="0" t="n">
         <v>0.047</v>
       </c>
       <c r="DF49" s="0" t="n">
         <v>0.047</v>
       </c>
-      <c r="DH49" s="0" t="n">
+      <c r="DG49" s="0" t="n">
         <v>0.047</v>
       </c>
       <c r="DI49" s="0" t="n">
         <v>0.047</v>
       </c>
-      <c r="DP49" s="0" t="n">
-        <v>0.047</v>
-      </c>
-      <c r="ED49" s="0" t="n">
+      <c r="DJ49" s="0" t="n">
+        <v>0.047</v>
+      </c>
+      <c r="DQ49" s="0" t="n">
         <v>0.047</v>
       </c>
       <c r="EE49" s="0" t="n">
+        <v>0.047</v>
+      </c>
+      <c r="EF49" s="0" t="n">
         <v>0.047</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>234</v>
-      </c>
-      <c r="B50" s="1" t="n">
+        <v>237</v>
+      </c>
+      <c r="C50" s="1" t="n">
         <v>0.002</v>
       </c>
-      <c r="CT50" s="0" t="n">
+      <c r="CU50" s="0" t="n">
         <v>0.886</v>
       </c>
-      <c r="CX50" s="0" t="n">
+      <c r="CY50" s="0" t="n">
         <v>0.886</v>
       </c>
-      <c r="DB50" s="0" t="n">
-        <v>0.047</v>
-      </c>
-      <c r="DE50" s="0" t="n">
+      <c r="DC50" s="0" t="n">
         <v>0.047</v>
       </c>
       <c r="DF50" s="0" t="n">
         <v>0.047</v>
       </c>
-      <c r="DH50" s="0" t="n">
+      <c r="DG50" s="0" t="n">
         <v>0.047</v>
       </c>
       <c r="DI50" s="0" t="n">
         <v>0.047</v>
       </c>
-      <c r="DP50" s="0" t="n">
-        <v>0.047</v>
-      </c>
-      <c r="ED50" s="0" t="n">
+      <c r="DJ50" s="0" t="n">
+        <v>0.047</v>
+      </c>
+      <c r="DQ50" s="0" t="n">
         <v>0.047</v>
       </c>
       <c r="EE50" s="0" t="n">
+        <v>0.047</v>
+      </c>
+      <c r="EF50" s="0" t="n">
         <v>0.047</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>235</v>
-      </c>
-      <c r="B51" s="1" t="n">
+        <v>238</v>
+      </c>
+      <c r="C51" s="1" t="n">
         <v>0.002</v>
       </c>
-      <c r="CT51" s="0" t="n">
+      <c r="CU51" s="0" t="n">
         <v>0.886</v>
       </c>
-      <c r="CX51" s="0" t="n">
+      <c r="CY51" s="0" t="n">
         <v>0.886</v>
       </c>
-      <c r="DB51" s="0" t="n">
-        <v>0.047</v>
-      </c>
-      <c r="DE51" s="0" t="n">
+      <c r="DC51" s="0" t="n">
         <v>0.047</v>
       </c>
       <c r="DF51" s="0" t="n">
         <v>0.047</v>
       </c>
-      <c r="DH51" s="0" t="n">
+      <c r="DG51" s="0" t="n">
         <v>0.047</v>
       </c>
       <c r="DI51" s="0" t="n">
         <v>0.047</v>
       </c>
-      <c r="DP51" s="0" t="n">
-        <v>0.047</v>
-      </c>
-      <c r="ED51" s="0" t="n">
+      <c r="DJ51" s="0" t="n">
+        <v>0.047</v>
+      </c>
+      <c r="DQ51" s="0" t="n">
         <v>0.047</v>
       </c>
       <c r="EE51" s="0" t="n">
+        <v>0.047</v>
+      </c>
+      <c r="EF51" s="0" t="n">
         <v>0.047</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>236</v>
-      </c>
-      <c r="B52" s="1" t="n">
+        <v>239</v>
+      </c>
+      <c r="C52" s="1" t="n">
         <v>0.002</v>
       </c>
-      <c r="CT52" s="0" t="n">
+      <c r="CU52" s="0" t="n">
         <v>0.886</v>
       </c>
-      <c r="CX52" s="0" t="n">
+      <c r="CY52" s="0" t="n">
         <v>0.886</v>
       </c>
-      <c r="DB52" s="0" t="n">
-        <v>0.047</v>
-      </c>
-      <c r="DE52" s="0" t="n">
+      <c r="DC52" s="0" t="n">
         <v>0.047</v>
       </c>
       <c r="DF52" s="0" t="n">
         <v>0.047</v>
       </c>
-      <c r="DH52" s="0" t="n">
+      <c r="DG52" s="0" t="n">
         <v>0.047</v>
       </c>
       <c r="DI52" s="0" t="n">
         <v>0.047</v>
       </c>
-      <c r="DP52" s="0" t="n">
-        <v>0.047</v>
-      </c>
-      <c r="ED52" s="0" t="n">
+      <c r="DJ52" s="0" t="n">
+        <v>0.047</v>
+      </c>
+      <c r="DQ52" s="0" t="n">
         <v>0.047</v>
       </c>
       <c r="EE52" s="0" t="n">
+        <v>0.047</v>
+      </c>
+      <c r="EF52" s="0" t="n">
         <v>0.047</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>237</v>
-      </c>
-      <c r="B53" s="1" t="n">
+        <v>240</v>
+      </c>
+      <c r="C53" s="1" t="n">
         <v>0.002</v>
       </c>
-      <c r="CT53" s="0" t="n">
+      <c r="CU53" s="0" t="n">
         <v>0.886</v>
       </c>
-      <c r="CX53" s="0" t="n">
+      <c r="CY53" s="0" t="n">
         <v>0.886</v>
       </c>
-      <c r="DB53" s="0" t="n">
-        <v>0.047</v>
-      </c>
-      <c r="DE53" s="0" t="n">
+      <c r="DC53" s="0" t="n">
         <v>0.047</v>
       </c>
       <c r="DF53" s="0" t="n">
         <v>0.047</v>
       </c>
-      <c r="DH53" s="0" t="n">
+      <c r="DG53" s="0" t="n">
         <v>0.047</v>
       </c>
       <c r="DI53" s="0" t="n">
         <v>0.047</v>
       </c>
-      <c r="DP53" s="0" t="n">
-        <v>0.047</v>
-      </c>
-      <c r="ED53" s="0" t="n">
+      <c r="DJ53" s="0" t="n">
+        <v>0.047</v>
+      </c>
+      <c r="DQ53" s="0" t="n">
         <v>0.047</v>
       </c>
       <c r="EE53" s="0" t="n">
+        <v>0.047</v>
+      </c>
+      <c r="EF53" s="0" t="n">
         <v>0.047</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>238</v>
-      </c>
-      <c r="B54" s="1" t="n">
+        <v>241</v>
+      </c>
+      <c r="C54" s="1" t="n">
         <v>0.001</v>
-      </c>
-      <c r="DC54" s="0" t="n">
-        <v>0.056</v>
       </c>
       <c r="DD54" s="0" t="n">
         <v>0.056</v>
       </c>
-      <c r="DG54" s="0" t="n">
+      <c r="DE54" s="0" t="n">
         <v>0.056</v>
       </c>
-      <c r="DJ54" s="0" t="n">
+      <c r="DH54" s="0" t="n">
         <v>0.056</v>
       </c>
-      <c r="DL54" s="0" t="n">
+      <c r="DK54" s="0" t="n">
         <v>0.056</v>
       </c>
       <c r="DM54" s="0" t="n">
         <v>0.056</v>
       </c>
-      <c r="ER54" s="0" t="n">
+      <c r="DN54" s="0" t="n">
         <v>0.056</v>
       </c>
       <c r="ES54" s="0" t="n">
@@ -9593,36 +9612,36 @@
       <c r="ET54" s="0" t="n">
         <v>0.056</v>
       </c>
-      <c r="FN54" s="0" t="n">
+      <c r="EU54" s="0" t="n">
+        <v>0.056</v>
+      </c>
+      <c r="FO54" s="0" t="n">
         <v>0.056</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>239</v>
-      </c>
-      <c r="B55" s="1" t="n">
+        <v>242</v>
+      </c>
+      <c r="C55" s="1" t="n">
         <v>0.001</v>
-      </c>
-      <c r="DC55" s="0" t="n">
-        <v>0.056</v>
       </c>
       <c r="DD55" s="0" t="n">
         <v>0.056</v>
       </c>
-      <c r="DG55" s="0" t="n">
+      <c r="DE55" s="0" t="n">
         <v>0.056</v>
       </c>
-      <c r="DJ55" s="0" t="n">
+      <c r="DH55" s="0" t="n">
         <v>0.056</v>
       </c>
-      <c r="DL55" s="0" t="n">
+      <c r="DK55" s="0" t="n">
         <v>0.056</v>
       </c>
       <c r="DM55" s="0" t="n">
         <v>0.056</v>
       </c>
-      <c r="ER55" s="0" t="n">
+      <c r="DN55" s="0" t="n">
         <v>0.056</v>
       </c>
       <c r="ES55" s="0" t="n">
@@ -9631,36 +9650,36 @@
       <c r="ET55" s="0" t="n">
         <v>0.056</v>
       </c>
-      <c r="FN55" s="0" t="n">
+      <c r="EU55" s="0" t="n">
+        <v>0.056</v>
+      </c>
+      <c r="FO55" s="0" t="n">
         <v>0.056</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>240</v>
-      </c>
-      <c r="B56" s="1" t="n">
+        <v>243</v>
+      </c>
+      <c r="C56" s="1" t="n">
         <v>0.001</v>
-      </c>
-      <c r="DC56" s="0" t="n">
-        <v>0.056</v>
       </c>
       <c r="DD56" s="0" t="n">
         <v>0.056</v>
       </c>
-      <c r="DG56" s="0" t="n">
+      <c r="DE56" s="0" t="n">
         <v>0.056</v>
       </c>
-      <c r="DJ56" s="0" t="n">
+      <c r="DH56" s="0" t="n">
         <v>0.056</v>
       </c>
-      <c r="DL56" s="0" t="n">
+      <c r="DK56" s="0" t="n">
         <v>0.056</v>
       </c>
       <c r="DM56" s="0" t="n">
         <v>0.056</v>
       </c>
-      <c r="ER56" s="0" t="n">
+      <c r="DN56" s="0" t="n">
         <v>0.056</v>
       </c>
       <c r="ES56" s="0" t="n">
@@ -9669,36 +9688,36 @@
       <c r="ET56" s="0" t="n">
         <v>0.056</v>
       </c>
-      <c r="FN56" s="0" t="n">
+      <c r="EU56" s="0" t="n">
+        <v>0.056</v>
+      </c>
+      <c r="FO56" s="0" t="n">
         <v>0.056</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>241</v>
-      </c>
-      <c r="B57" s="1" t="n">
+        <v>244</v>
+      </c>
+      <c r="C57" s="1" t="n">
         <v>0.001</v>
-      </c>
-      <c r="DC57" s="0" t="n">
-        <v>0.056</v>
       </c>
       <c r="DD57" s="0" t="n">
         <v>0.056</v>
       </c>
-      <c r="DG57" s="0" t="n">
+      <c r="DE57" s="0" t="n">
         <v>0.056</v>
       </c>
-      <c r="DJ57" s="0" t="n">
+      <c r="DH57" s="0" t="n">
         <v>0.056</v>
       </c>
-      <c r="DL57" s="0" t="n">
+      <c r="DK57" s="0" t="n">
         <v>0.056</v>
       </c>
       <c r="DM57" s="0" t="n">
         <v>0.056</v>
       </c>
-      <c r="ER57" s="0" t="n">
+      <c r="DN57" s="0" t="n">
         <v>0.056</v>
       </c>
       <c r="ES57" s="0" t="n">
@@ -9707,36 +9726,36 @@
       <c r="ET57" s="0" t="n">
         <v>0.056</v>
       </c>
-      <c r="FN57" s="0" t="n">
+      <c r="EU57" s="0" t="n">
+        <v>0.056</v>
+      </c>
+      <c r="FO57" s="0" t="n">
         <v>0.056</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>242</v>
-      </c>
-      <c r="B58" s="1" t="n">
+        <v>245</v>
+      </c>
+      <c r="C58" s="1" t="n">
         <v>0.001</v>
-      </c>
-      <c r="DC58" s="0" t="n">
-        <v>0.056</v>
       </c>
       <c r="DD58" s="0" t="n">
         <v>0.056</v>
       </c>
-      <c r="DG58" s="0" t="n">
+      <c r="DE58" s="0" t="n">
         <v>0.056</v>
       </c>
-      <c r="DJ58" s="0" t="n">
+      <c r="DH58" s="0" t="n">
         <v>0.056</v>
       </c>
-      <c r="DL58" s="0" t="n">
+      <c r="DK58" s="0" t="n">
         <v>0.056</v>
       </c>
       <c r="DM58" s="0" t="n">
         <v>0.056</v>
       </c>
-      <c r="ER58" s="0" t="n">
+      <c r="DN58" s="0" t="n">
         <v>0.056</v>
       </c>
       <c r="ES58" s="0" t="n">
@@ -9745,36 +9764,36 @@
       <c r="ET58" s="0" t="n">
         <v>0.056</v>
       </c>
-      <c r="FN58" s="0" t="n">
+      <c r="EU58" s="0" t="n">
+        <v>0.056</v>
+      </c>
+      <c r="FO58" s="0" t="n">
         <v>0.056</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>243</v>
-      </c>
-      <c r="B59" s="1" t="n">
+        <v>246</v>
+      </c>
+      <c r="C59" s="1" t="n">
         <v>0.001</v>
-      </c>
-      <c r="DC59" s="0" t="n">
-        <v>0.056</v>
       </c>
       <c r="DD59" s="0" t="n">
         <v>0.056</v>
       </c>
-      <c r="DG59" s="0" t="n">
+      <c r="DE59" s="0" t="n">
         <v>0.056</v>
       </c>
-      <c r="DJ59" s="0" t="n">
+      <c r="DH59" s="0" t="n">
         <v>0.056</v>
       </c>
-      <c r="DL59" s="0" t="n">
+      <c r="DK59" s="0" t="n">
         <v>0.056</v>
       </c>
       <c r="DM59" s="0" t="n">
         <v>0.056</v>
       </c>
-      <c r="ER59" s="0" t="n">
+      <c r="DN59" s="0" t="n">
         <v>0.056</v>
       </c>
       <c r="ES59" s="0" t="n">
@@ -9783,36 +9802,36 @@
       <c r="ET59" s="0" t="n">
         <v>0.056</v>
       </c>
-      <c r="FN59" s="0" t="n">
+      <c r="EU59" s="0" t="n">
+        <v>0.056</v>
+      </c>
+      <c r="FO59" s="0" t="n">
         <v>0.056</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>244</v>
-      </c>
-      <c r="B60" s="1" t="n">
+        <v>247</v>
+      </c>
+      <c r="C60" s="1" t="n">
         <v>0.001</v>
-      </c>
-      <c r="DC60" s="0" t="n">
-        <v>0.056</v>
       </c>
       <c r="DD60" s="0" t="n">
         <v>0.056</v>
       </c>
-      <c r="DG60" s="0" t="n">
+      <c r="DE60" s="0" t="n">
         <v>0.056</v>
       </c>
-      <c r="DJ60" s="0" t="n">
+      <c r="DH60" s="0" t="n">
         <v>0.056</v>
       </c>
-      <c r="DL60" s="0" t="n">
+      <c r="DK60" s="0" t="n">
         <v>0.056</v>
       </c>
       <c r="DM60" s="0" t="n">
         <v>0.056</v>
       </c>
-      <c r="ER60" s="0" t="n">
+      <c r="DN60" s="0" t="n">
         <v>0.056</v>
       </c>
       <c r="ES60" s="0" t="n">
@@ -9821,36 +9840,36 @@
       <c r="ET60" s="0" t="n">
         <v>0.056</v>
       </c>
-      <c r="FN60" s="0" t="n">
+      <c r="EU60" s="0" t="n">
+        <v>0.056</v>
+      </c>
+      <c r="FO60" s="0" t="n">
         <v>0.056</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>245</v>
-      </c>
-      <c r="B61" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="DC61" s="0" t="n">
-        <v>0.047</v>
+        <v>248</v>
+      </c>
+      <c r="C61" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="DD61" s="0" t="n">
         <v>0.047</v>
       </c>
-      <c r="DG61" s="0" t="n">
-        <v>0.047</v>
-      </c>
-      <c r="DJ61" s="0" t="n">
-        <v>0.047</v>
-      </c>
-      <c r="DL61" s="0" t="n">
+      <c r="DE61" s="0" t="n">
+        <v>0.047</v>
+      </c>
+      <c r="DH61" s="0" t="n">
+        <v>0.047</v>
+      </c>
+      <c r="DK61" s="0" t="n">
         <v>0.047</v>
       </c>
       <c r="DM61" s="0" t="n">
         <v>0.047</v>
       </c>
-      <c r="ER61" s="0" t="n">
+      <c r="DN61" s="0" t="n">
         <v>0.047</v>
       </c>
       <c r="ES61" s="0" t="n">
@@ -9859,36 +9878,36 @@
       <c r="ET61" s="0" t="n">
         <v>0.047</v>
       </c>
-      <c r="FN61" s="0" t="n">
+      <c r="EU61" s="0" t="n">
+        <v>0.047</v>
+      </c>
+      <c r="FO61" s="0" t="n">
         <v>0.047</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>246</v>
-      </c>
-      <c r="B62" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="DC62" s="0" t="n">
-        <v>0.047</v>
+        <v>249</v>
+      </c>
+      <c r="C62" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="DD62" s="0" t="n">
         <v>0.047</v>
       </c>
-      <c r="DG62" s="0" t="n">
-        <v>0.047</v>
-      </c>
-      <c r="DJ62" s="0" t="n">
-        <v>0.047</v>
-      </c>
-      <c r="DL62" s="0" t="n">
+      <c r="DE62" s="0" t="n">
+        <v>0.047</v>
+      </c>
+      <c r="DH62" s="0" t="n">
+        <v>0.047</v>
+      </c>
+      <c r="DK62" s="0" t="n">
         <v>0.047</v>
       </c>
       <c r="DM62" s="0" t="n">
         <v>0.047</v>
       </c>
-      <c r="ER62" s="0" t="n">
+      <c r="DN62" s="0" t="n">
         <v>0.047</v>
       </c>
       <c r="ES62" s="0" t="n">
@@ -9897,36 +9916,36 @@
       <c r="ET62" s="0" t="n">
         <v>0.047</v>
       </c>
-      <c r="FN62" s="0" t="n">
+      <c r="EU62" s="0" t="n">
+        <v>0.047</v>
+      </c>
+      <c r="FO62" s="0" t="n">
         <v>0.047</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>247</v>
-      </c>
-      <c r="B63" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="DC63" s="0" t="n">
-        <v>0.047</v>
+        <v>250</v>
+      </c>
+      <c r="C63" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="DD63" s="0" t="n">
         <v>0.047</v>
       </c>
-      <c r="DG63" s="0" t="n">
-        <v>0.047</v>
-      </c>
-      <c r="DJ63" s="0" t="n">
-        <v>0.047</v>
-      </c>
-      <c r="DL63" s="0" t="n">
+      <c r="DE63" s="0" t="n">
+        <v>0.047</v>
+      </c>
+      <c r="DH63" s="0" t="n">
+        <v>0.047</v>
+      </c>
+      <c r="DK63" s="0" t="n">
         <v>0.047</v>
       </c>
       <c r="DM63" s="0" t="n">
         <v>0.047</v>
       </c>
-      <c r="ER63" s="0" t="n">
+      <c r="DN63" s="0" t="n">
         <v>0.047</v>
       </c>
       <c r="ES63" s="0" t="n">
@@ -9935,36 +9954,36 @@
       <c r="ET63" s="0" t="n">
         <v>0.047</v>
       </c>
-      <c r="FN63" s="0" t="n">
+      <c r="EU63" s="0" t="n">
+        <v>0.047</v>
+      </c>
+      <c r="FO63" s="0" t="n">
         <v>0.047</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>248</v>
-      </c>
-      <c r="B64" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="DC64" s="0" t="n">
-        <v>0.047</v>
+        <v>251</v>
+      </c>
+      <c r="C64" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="DD64" s="0" t="n">
         <v>0.047</v>
       </c>
-      <c r="DG64" s="0" t="n">
-        <v>0.047</v>
-      </c>
-      <c r="DJ64" s="0" t="n">
-        <v>0.047</v>
-      </c>
-      <c r="DL64" s="0" t="n">
+      <c r="DE64" s="0" t="n">
+        <v>0.047</v>
+      </c>
+      <c r="DH64" s="0" t="n">
+        <v>0.047</v>
+      </c>
+      <c r="DK64" s="0" t="n">
         <v>0.047</v>
       </c>
       <c r="DM64" s="0" t="n">
         <v>0.047</v>
       </c>
-      <c r="ER64" s="0" t="n">
+      <c r="DN64" s="0" t="n">
         <v>0.047</v>
       </c>
       <c r="ES64" s="0" t="n">
@@ -9973,36 +9992,36 @@
       <c r="ET64" s="0" t="n">
         <v>0.047</v>
       </c>
-      <c r="FN64" s="0" t="n">
+      <c r="EU64" s="0" t="n">
+        <v>0.047</v>
+      </c>
+      <c r="FO64" s="0" t="n">
         <v>0.047</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>249</v>
-      </c>
-      <c r="B65" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="DC65" s="0" t="n">
-        <v>0.047</v>
+        <v>252</v>
+      </c>
+      <c r="C65" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="DD65" s="0" t="n">
         <v>0.047</v>
       </c>
-      <c r="DG65" s="0" t="n">
-        <v>0.047</v>
-      </c>
-      <c r="DJ65" s="0" t="n">
-        <v>0.047</v>
-      </c>
-      <c r="DL65" s="0" t="n">
+      <c r="DE65" s="0" t="n">
+        <v>0.047</v>
+      </c>
+      <c r="DH65" s="0" t="n">
+        <v>0.047</v>
+      </c>
+      <c r="DK65" s="0" t="n">
         <v>0.047</v>
       </c>
       <c r="DM65" s="0" t="n">
         <v>0.047</v>
       </c>
-      <c r="ER65" s="0" t="n">
+      <c r="DN65" s="0" t="n">
         <v>0.047</v>
       </c>
       <c r="ES65" s="0" t="n">
@@ -10011,36 +10030,36 @@
       <c r="ET65" s="0" t="n">
         <v>0.047</v>
       </c>
-      <c r="FN65" s="0" t="n">
+      <c r="EU65" s="0" t="n">
+        <v>0.047</v>
+      </c>
+      <c r="FO65" s="0" t="n">
         <v>0.047</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>250</v>
-      </c>
-      <c r="B66" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="DC66" s="0" t="n">
-        <v>0.047</v>
+        <v>253</v>
+      </c>
+      <c r="C66" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="DD66" s="0" t="n">
         <v>0.047</v>
       </c>
-      <c r="DG66" s="0" t="n">
-        <v>0.047</v>
-      </c>
-      <c r="DJ66" s="0" t="n">
-        <v>0.047</v>
-      </c>
-      <c r="DL66" s="0" t="n">
+      <c r="DE66" s="0" t="n">
+        <v>0.047</v>
+      </c>
+      <c r="DH66" s="0" t="n">
+        <v>0.047</v>
+      </c>
+      <c r="DK66" s="0" t="n">
         <v>0.047</v>
       </c>
       <c r="DM66" s="0" t="n">
         <v>0.047</v>
       </c>
-      <c r="ER66" s="0" t="n">
+      <c r="DN66" s="0" t="n">
         <v>0.047</v>
       </c>
       <c r="ES66" s="0" t="n">
@@ -10049,36 +10068,36 @@
       <c r="ET66" s="0" t="n">
         <v>0.047</v>
       </c>
-      <c r="FN66" s="0" t="n">
+      <c r="EU66" s="0" t="n">
+        <v>0.047</v>
+      </c>
+      <c r="FO66" s="0" t="n">
         <v>0.047</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>251</v>
-      </c>
-      <c r="B67" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="DC67" s="0" t="n">
-        <v>0.031</v>
+        <v>254</v>
+      </c>
+      <c r="C67" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="DD67" s="0" t="n">
         <v>0.031</v>
       </c>
-      <c r="DG67" s="0" t="n">
+      <c r="DE67" s="0" t="n">
         <v>0.031</v>
       </c>
-      <c r="DJ67" s="0" t="n">
+      <c r="DH67" s="0" t="n">
         <v>0.031</v>
       </c>
-      <c r="DL67" s="0" t="n">
+      <c r="DK67" s="0" t="n">
         <v>0.031</v>
       </c>
       <c r="DM67" s="0" t="n">
         <v>0.031</v>
       </c>
-      <c r="ER67" s="0" t="n">
+      <c r="DN67" s="0" t="n">
         <v>0.031</v>
       </c>
       <c r="ES67" s="0" t="n">
@@ -10087,36 +10106,36 @@
       <c r="ET67" s="0" t="n">
         <v>0.031</v>
       </c>
-      <c r="FN67" s="0" t="n">
+      <c r="EU67" s="0" t="n">
+        <v>0.031</v>
+      </c>
+      <c r="FO67" s="0" t="n">
         <v>0.031</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>252</v>
-      </c>
-      <c r="B68" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="DC68" s="0" t="n">
-        <v>0.016</v>
+        <v>255</v>
+      </c>
+      <c r="C68" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="DD68" s="0" t="n">
         <v>0.016</v>
       </c>
-      <c r="DG68" s="0" t="n">
+      <c r="DE68" s="0" t="n">
         <v>0.016</v>
       </c>
-      <c r="DJ68" s="0" t="n">
+      <c r="DH68" s="0" t="n">
         <v>0.016</v>
       </c>
-      <c r="DL68" s="0" t="n">
+      <c r="DK68" s="0" t="n">
         <v>0.016</v>
       </c>
       <c r="DM68" s="0" t="n">
         <v>0.016</v>
       </c>
-      <c r="ER68" s="0" t="n">
+      <c r="DN68" s="0" t="n">
         <v>0.016</v>
       </c>
       <c r="ES68" s="0" t="n">
@@ -10125,36 +10144,36 @@
       <c r="ET68" s="0" t="n">
         <v>0.016</v>
       </c>
-      <c r="FN68" s="0" t="n">
+      <c r="EU68" s="0" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="FO68" s="0" t="n">
         <v>0.016</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>253</v>
-      </c>
-      <c r="B69" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="DC69" s="0" t="n">
-        <v>0.016</v>
+        <v>256</v>
+      </c>
+      <c r="C69" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="DD69" s="0" t="n">
         <v>0.016</v>
       </c>
-      <c r="DG69" s="0" t="n">
+      <c r="DE69" s="0" t="n">
         <v>0.016</v>
       </c>
-      <c r="DJ69" s="0" t="n">
+      <c r="DH69" s="0" t="n">
         <v>0.016</v>
       </c>
-      <c r="DL69" s="0" t="n">
+      <c r="DK69" s="0" t="n">
         <v>0.016</v>
       </c>
       <c r="DM69" s="0" t="n">
         <v>0.016</v>
       </c>
-      <c r="ER69" s="0" t="n">
+      <c r="DN69" s="0" t="n">
         <v>0.016</v>
       </c>
       <c r="ES69" s="0" t="n">
@@ -10163,36 +10182,36 @@
       <c r="ET69" s="0" t="n">
         <v>0.016</v>
       </c>
-      <c r="FN69" s="0" t="n">
+      <c r="EU69" s="0" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="FO69" s="0" t="n">
         <v>0.016</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>254</v>
-      </c>
-      <c r="B70" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="DC70" s="0" t="n">
-        <v>0.016</v>
+        <v>257</v>
+      </c>
+      <c r="C70" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="DD70" s="0" t="n">
         <v>0.016</v>
       </c>
-      <c r="DG70" s="0" t="n">
+      <c r="DE70" s="0" t="n">
         <v>0.016</v>
       </c>
-      <c r="DJ70" s="0" t="n">
+      <c r="DH70" s="0" t="n">
         <v>0.016</v>
       </c>
-      <c r="DL70" s="0" t="n">
+      <c r="DK70" s="0" t="n">
         <v>0.016</v>
       </c>
       <c r="DM70" s="0" t="n">
         <v>0.016</v>
       </c>
-      <c r="ER70" s="0" t="n">
+      <c r="DN70" s="0" t="n">
         <v>0.016</v>
       </c>
       <c r="ES70" s="0" t="n">
@@ -10201,36 +10220,36 @@
       <c r="ET70" s="0" t="n">
         <v>0.016</v>
       </c>
-      <c r="FN70" s="0" t="n">
+      <c r="EU70" s="0" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="FO70" s="0" t="n">
         <v>0.016</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>255</v>
-      </c>
-      <c r="B71" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="DC71" s="0" t="n">
-        <v>0.016</v>
+        <v>258</v>
+      </c>
+      <c r="C71" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="DD71" s="0" t="n">
         <v>0.016</v>
       </c>
-      <c r="DG71" s="0" t="n">
+      <c r="DE71" s="0" t="n">
         <v>0.016</v>
       </c>
-      <c r="DJ71" s="0" t="n">
+      <c r="DH71" s="0" t="n">
         <v>0.016</v>
       </c>
-      <c r="DL71" s="0" t="n">
+      <c r="DK71" s="0" t="n">
         <v>0.016</v>
       </c>
       <c r="DM71" s="0" t="n">
         <v>0.016</v>
       </c>
-      <c r="ER71" s="0" t="n">
+      <c r="DN71" s="0" t="n">
         <v>0.016</v>
       </c>
       <c r="ES71" s="0" t="n">
@@ -10239,36 +10258,36 @@
       <c r="ET71" s="0" t="n">
         <v>0.016</v>
       </c>
-      <c r="FN71" s="0" t="n">
+      <c r="EU71" s="0" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="FO71" s="0" t="n">
         <v>0.016</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>256</v>
-      </c>
-      <c r="B72" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="DC72" s="0" t="n">
-        <v>0.016</v>
+        <v>259</v>
+      </c>
+      <c r="C72" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="DD72" s="0" t="n">
         <v>0.016</v>
       </c>
-      <c r="DG72" s="0" t="n">
+      <c r="DE72" s="0" t="n">
         <v>0.016</v>
       </c>
-      <c r="DJ72" s="0" t="n">
+      <c r="DH72" s="0" t="n">
         <v>0.016</v>
       </c>
-      <c r="DL72" s="0" t="n">
+      <c r="DK72" s="0" t="n">
         <v>0.016</v>
       </c>
       <c r="DM72" s="0" t="n">
         <v>0.016</v>
       </c>
-      <c r="ER72" s="0" t="n">
+      <c r="DN72" s="0" t="n">
         <v>0.016</v>
       </c>
       <c r="ES72" s="0" t="n">
@@ -10277,24 +10296,27 @@
       <c r="ET72" s="0" t="n">
         <v>0.016</v>
       </c>
-      <c r="FN72" s="0" t="n">
+      <c r="EU72" s="0" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="FO72" s="0" t="n">
         <v>0.016</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>257</v>
-      </c>
-      <c r="B73" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="DK73" s="0" t="n">
+        <v>260</v>
+      </c>
+      <c r="C73" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="DL73" s="0" t="n">
         <v>0.056</v>
       </c>
-      <c r="HD73" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="HR73" s="0" t="n">
+      <c r="HE73" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="HS73" s="0" t="n">
         <v>0</v>
       </c>
     </row>

--- a/AR6WG1_variables/AR6WG1_priorityVariables_table.xlsx
+++ b/AR6WG1_variables/AR6WG1_priorityVariables_table.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="262">
   <si>
     <t xml:space="preserve">Omon</t>
   </si>
@@ -82,12 +82,12 @@
     <t xml:space="preserve">Ofx</t>
   </si>
   <si>
+    <t xml:space="preserve">ImonGre</t>
+  </si>
+  <si>
     <t xml:space="preserve">ImonAnt</t>
   </si>
   <si>
-    <t xml:space="preserve">ImonGre</t>
-  </si>
-  <si>
     <t xml:space="preserve">EmonZ</t>
   </si>
   <si>
@@ -103,27 +103,30 @@
     <t xml:space="preserve">thetao</t>
   </si>
   <si>
+    <t xml:space="preserve">bigthetao</t>
+  </si>
+  <si>
     <t xml:space="preserve">so</t>
   </si>
   <si>
+    <t xml:space="preserve">vo</t>
+  </si>
+  <si>
     <t xml:space="preserve">uo</t>
   </si>
   <si>
-    <t xml:space="preserve">vo</t>
+    <t xml:space="preserve">thkcello</t>
   </si>
   <si>
     <t xml:space="preserve">masscello</t>
   </si>
   <si>
-    <t xml:space="preserve">thkcello</t>
+    <t xml:space="preserve">vmo</t>
   </si>
   <si>
     <t xml:space="preserve">umo</t>
   </si>
   <si>
-    <t xml:space="preserve">vmo</t>
-  </si>
-  <si>
     <t xml:space="preserve">volcello</t>
   </si>
   <si>
@@ -133,18 +136,15 @@
     <t xml:space="preserve">ph</t>
   </si>
   <si>
-    <t xml:space="preserve">bigthetao</t>
-  </si>
-  <si>
     <t xml:space="preserve">tos</t>
   </si>
   <si>
+    <t xml:space="preserve">tauvo</t>
+  </si>
+  <si>
     <t xml:space="preserve">tauuo</t>
   </si>
   <si>
-    <t xml:space="preserve">tauvo</t>
-  </si>
-  <si>
     <t xml:space="preserve">msftbarot</t>
   </si>
   <si>
@@ -157,12 +157,12 @@
     <t xml:space="preserve">prsn</t>
   </si>
   <si>
+    <t xml:space="preserve">hfds</t>
+  </si>
+  <si>
     <t xml:space="preserve">sos</t>
   </si>
   <si>
-    <t xml:space="preserve">hfds</t>
-  </si>
-  <si>
     <t xml:space="preserve">mlotst</t>
   </si>
   <si>
@@ -184,36 +184,39 @@
     <t xml:space="preserve">zostoga</t>
   </si>
   <si>
+    <t xml:space="preserve">bigthetaoga</t>
+  </si>
+  <si>
     <t xml:space="preserve">thetaoga</t>
   </si>
   <si>
     <t xml:space="preserve">mfo</t>
   </si>
   <si>
+    <t xml:space="preserve">va</t>
+  </si>
+  <si>
     <t xml:space="preserve">ua</t>
   </si>
   <si>
-    <t xml:space="preserve">va</t>
-  </si>
-  <si>
     <t xml:space="preserve">zg</t>
   </si>
   <si>
+    <t xml:space="preserve">pr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">psl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uas</t>
+  </si>
+  <si>
     <t xml:space="preserve">vas</t>
   </si>
   <si>
-    <t xml:space="preserve">uas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">psl</t>
-  </si>
-  <si>
     <t xml:space="preserve">tasmax</t>
   </si>
   <si>
@@ -241,12 +244,12 @@
     <t xml:space="preserve">co2</t>
   </si>
   <si>
+    <t xml:space="preserve">mmrss</t>
+  </si>
+  <si>
     <t xml:space="preserve">mmrdust</t>
   </si>
   <si>
-    <t xml:space="preserve">mmrss</t>
-  </si>
-  <si>
     <t xml:space="preserve">so2</t>
   </si>
   <si>
@@ -256,81 +259,81 @@
     <t xml:space="preserve">mmrbc</t>
   </si>
   <si>
+    <t xml:space="preserve">co</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mmroa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">photo1d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ch4</t>
+  </si>
+  <si>
     <t xml:space="preserve">mmrno3</t>
   </si>
   <si>
     <t xml:space="preserve">o3loss</t>
   </si>
   <si>
+    <t xml:space="preserve">cdnc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lossco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mmrnh4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lossch4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mmrsoa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">o3prod</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mmrpm2p5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">o3</t>
+  </si>
+  <si>
     <t xml:space="preserve">no</t>
   </si>
   <si>
-    <t xml:space="preserve">lossco</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ch4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mmrpm2p5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mmroa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">o3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">co</t>
-  </si>
-  <si>
     <t xml:space="preserve">emilnox</t>
   </si>
   <si>
-    <t xml:space="preserve">photo1d</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lossch4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">no2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mmrsoa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cdnc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">o3prod</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mmrnh4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oh</t>
-  </si>
-  <si>
     <t xml:space="preserve">od550aer</t>
   </si>
   <si>
+    <t xml:space="preserve">toz</t>
+  </si>
+  <si>
     <t xml:space="preserve">ps</t>
   </si>
   <si>
-    <t xml:space="preserve">toz</t>
+    <t xml:space="preserve">abs550aer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">od550lt1aer</t>
   </si>
   <si>
     <t xml:space="preserve">od870aer</t>
   </si>
   <si>
-    <t xml:space="preserve">abs550aer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">od550lt1aer</t>
-  </si>
-  <si>
     <t xml:space="preserve">emiss</t>
   </si>
   <si>
@@ -343,6 +346,12 @@
     <t xml:space="preserve">rsutcsaf</t>
   </si>
   <si>
+    <t xml:space="preserve">rlutaf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ptp</t>
+  </si>
+  <si>
     <t xml:space="preserve">tropoz</t>
   </si>
   <si>
@@ -355,12 +364,6 @@
     <t xml:space="preserve">ccn</t>
   </si>
   <si>
-    <t xml:space="preserve">rlutaf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ptp</t>
-  </si>
-  <si>
     <t xml:space="preserve">ta</t>
   </si>
   <si>
@@ -379,12 +382,12 @@
     <t xml:space="preserve">evspsbl</t>
   </si>
   <si>
+    <t xml:space="preserve">rlutcs</t>
+  </si>
+  <si>
     <t xml:space="preserve">rsutcs</t>
   </si>
   <si>
-    <t xml:space="preserve">rlutcs</t>
-  </si>
-  <si>
     <t xml:space="preserve">prw</t>
   </si>
   <si>
@@ -403,33 +406,33 @@
     <t xml:space="preserve">tauu</t>
   </si>
   <si>
+    <t xml:space="preserve">hfss</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rtmt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hfls</t>
+  </si>
+  <si>
     <t xml:space="preserve">rlds</t>
   </si>
   <si>
-    <t xml:space="preserve">rtmt</t>
-  </si>
-  <si>
     <t xml:space="preserve">rsus</t>
   </si>
   <si>
-    <t xml:space="preserve">hfls</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hfss</t>
-  </si>
-  <si>
     <t xml:space="preserve">sbl</t>
   </si>
   <si>
     <t xml:space="preserve">rlus</t>
   </si>
   <si>
+    <t xml:space="preserve">rsuscs</t>
+  </si>
+  <si>
     <t xml:space="preserve">rsdscs</t>
   </si>
   <si>
-    <t xml:space="preserve">rsuscs</t>
-  </si>
-  <si>
     <t xml:space="preserve">o3Clim</t>
   </si>
   <si>
@@ -469,63 +472,63 @@
     <t xml:space="preserve">burntFractionAll</t>
   </si>
   <si>
+    <t xml:space="preserve">cProduct</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cLeaf</t>
+  </si>
+  <si>
     <t xml:space="preserve">cSoilMedium</t>
   </si>
   <si>
     <t xml:space="preserve">cVeg</t>
   </si>
   <si>
-    <t xml:space="preserve">cLeaf</t>
-  </si>
-  <si>
     <t xml:space="preserve">cRoot</t>
   </si>
   <si>
+    <t xml:space="preserve">ra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cCwd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cSoilSlow</t>
+  </si>
+  <si>
     <t xml:space="preserve">cLitterAbove</t>
   </si>
   <si>
+    <t xml:space="preserve">cSoilFast</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rh</t>
+  </si>
+  <si>
     <t xml:space="preserve">cLitterBelow</t>
   </si>
   <si>
-    <t xml:space="preserve">rh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cSoilSlow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ra</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cProduct</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cCwd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cSoilFast</t>
-  </si>
-  <si>
     <t xml:space="preserve">snc</t>
   </si>
   <si>
+    <t xml:space="preserve">tsn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tpf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">snd</t>
+  </si>
+  <si>
     <t xml:space="preserve">snm</t>
   </si>
   <si>
-    <t xml:space="preserve">tsn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tpf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">snd</t>
+    <t xml:space="preserve">sftflf</t>
   </si>
   <si>
     <t xml:space="preserve">sftgrf</t>
   </si>
   <si>
-    <t xml:space="preserve">sftflf</t>
-  </si>
-  <si>
     <t xml:space="preserve">sftgif</t>
   </si>
   <si>
@@ -559,18 +562,18 @@
     <t xml:space="preserve">sithick</t>
   </si>
   <si>
+    <t xml:space="preserve">sivols</t>
+  </si>
+  <si>
+    <t xml:space="preserve">siareas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">siarean</t>
+  </si>
+  <si>
     <t xml:space="preserve">sivoln</t>
   </si>
   <si>
-    <t xml:space="preserve">sivols</t>
-  </si>
-  <si>
-    <t xml:space="preserve">siarean</t>
-  </si>
-  <si>
-    <t xml:space="preserve">siareas</t>
-  </si>
-  <si>
     <t xml:space="preserve">hus850</t>
   </si>
   <si>
@@ -607,27 +610,30 @@
     <t xml:space="preserve">3 realisations</t>
   </si>
   <si>
+    <t xml:space="preserve">omip1</t>
+  </si>
+  <si>
     <t xml:space="preserve">omip1-spunup</t>
   </si>
   <si>
-    <t xml:space="preserve">omip1</t>
-  </si>
-  <si>
     <t xml:space="preserve">omip2</t>
   </si>
   <si>
     <t xml:space="preserve">omip2-spunup</t>
   </si>
   <si>
+    <t xml:space="preserve">hist-GHG</t>
+  </si>
+  <si>
     <t xml:space="preserve">hist-nat</t>
   </si>
   <si>
-    <t xml:space="preserve">hist-GHG</t>
-  </si>
-  <si>
     <t xml:space="preserve">hist-aer</t>
   </si>
   <si>
+    <t xml:space="preserve">abrupt-4xCO2</t>
+  </si>
+  <si>
     <t xml:space="preserve">ssp585</t>
   </si>
   <si>
@@ -637,9 +643,6 @@
     <t xml:space="preserve">control-1950</t>
   </si>
   <si>
-    <t xml:space="preserve">abrupt-4xCO2</t>
-  </si>
-  <si>
     <t xml:space="preserve">ssp460</t>
   </si>
   <si>
@@ -664,45 +667,45 @@
     <t xml:space="preserve">spinup-1950</t>
   </si>
   <si>
+    <t xml:space="preserve">faf-all</t>
+  </si>
+  <si>
+    <t xml:space="preserve">faf-heat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">faf-water</t>
+  </si>
+  <si>
     <t xml:space="preserve">faf-passiveheat</t>
   </si>
   <si>
-    <t xml:space="preserve">faf-water</t>
-  </si>
-  <si>
-    <t xml:space="preserve">faf-all</t>
-  </si>
-  <si>
     <t xml:space="preserve">faf-stress</t>
   </si>
   <si>
-    <t xml:space="preserve">faf-heat</t>
+    <t xml:space="preserve">1pctCO2</t>
   </si>
   <si>
     <t xml:space="preserve">hist-stratO3</t>
   </si>
   <si>
-    <t xml:space="preserve">1pctCO2</t>
-  </si>
-  <si>
     <t xml:space="preserve">highresSST-present</t>
   </si>
   <si>
     <t xml:space="preserve">land-noLu</t>
   </si>
   <si>
+    <t xml:space="preserve">highresSST-4xCO2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">highresSST-p4K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">highresSST-smoothed</t>
+  </si>
+  <si>
     <t xml:space="preserve">highresSST-LAI</t>
   </si>
   <si>
-    <t xml:space="preserve">highresSST-p4K</t>
-  </si>
-  <si>
-    <t xml:space="preserve">highresSST-smoothed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">highresSST-4xCO2</t>
-  </si>
-  <si>
     <t xml:space="preserve">highresSST-future</t>
   </si>
   <si>
@@ -712,48 +715,48 @@
     <t xml:space="preserve">lgm</t>
   </si>
   <si>
+    <t xml:space="preserve">abrupt-0p5xCO2</t>
+  </si>
+  <si>
     <t xml:space="preserve">abrupt-2xCO2</t>
   </si>
   <si>
+    <t xml:space="preserve">abrupt-solm4p</t>
+  </si>
+  <si>
     <t xml:space="preserve">abrupt-solp4p</t>
   </si>
   <si>
-    <t xml:space="preserve">abrupt-solm4p</t>
-  </si>
-  <si>
-    <t xml:space="preserve">abrupt-0p5xCO2</t>
-  </si>
-  <si>
     <t xml:space="preserve">amip-piForcing</t>
   </si>
   <si>
+    <t xml:space="preserve">piClim-lu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">piClim-4xCO2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">piClim-ghg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">piClim-control</t>
+  </si>
+  <si>
     <t xml:space="preserve">piClim-aer</t>
   </si>
   <si>
-    <t xml:space="preserve">piClim-4xCO2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">piClim-control</t>
-  </si>
-  <si>
-    <t xml:space="preserve">piClim-lu</t>
-  </si>
-  <si>
     <t xml:space="preserve">piClim-anthro</t>
   </si>
   <si>
-    <t xml:space="preserve">piClim-ghg</t>
+    <t xml:space="preserve">amip-lwoff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">amip-m4K</t>
   </si>
   <si>
     <t xml:space="preserve">amip-4xCO2</t>
   </si>
   <si>
-    <t xml:space="preserve">amip-lwoff</t>
-  </si>
-  <si>
-    <t xml:space="preserve">amip-m4K</t>
-  </si>
-  <si>
     <t xml:space="preserve">amip-p4K-lwoff</t>
   </si>
   <si>
@@ -766,21 +769,21 @@
     <t xml:space="preserve">amip-future4K</t>
   </si>
   <si>
+    <t xml:space="preserve">a4SST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a4SSTice-4xCO2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">piSST-4xCO2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a4SSTice</t>
+  </si>
+  <si>
     <t xml:space="preserve">piSST-4xCO2-rad</t>
   </si>
   <si>
-    <t xml:space="preserve">a4SST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a4SSTice-4xCO2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a4SSTice</t>
-  </si>
-  <si>
-    <t xml:space="preserve">piSST-4xCO2</t>
-  </si>
-  <si>
     <t xml:space="preserve">piSST</t>
   </si>
   <si>
@@ -790,13 +793,13 @@
     <t xml:space="preserve">aqua-p4K</t>
   </si>
   <si>
+    <t xml:space="preserve">aqua-control-lwoff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aqua-p4K-lwoff</t>
+  </si>
+  <si>
     <t xml:space="preserve">aqua-control</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aqua-p4K-lwoff</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aqua-control-lwoff</t>
   </si>
   <si>
     <t xml:space="preserve">aqua-4xCO2</t>
@@ -817,7 +820,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -842,12 +844,18 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -884,12 +892,20 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -910,130 +926,133 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:IH73"/>
+  <dimension ref="A1:II73"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.0357142857143"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.8010204081633"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="10.8010204081633"/>
-    <col collapsed="false" hidden="false" max="7" min="4" style="0" width="7.83163265306122"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="9.58673469387755"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="7.69387755102041"/>
-    <col collapsed="false" hidden="false" max="11" min="10" style="0" width="7.83163265306122"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="7.56122448979592"/>
-    <col collapsed="false" hidden="false" max="14" min="13" style="0" width="7.83163265306122"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="8.77551020408163"/>
-    <col collapsed="false" hidden="false" max="18" min="16" style="0" width="5.80612244897959"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="9.04591836734694"/>
-    <col collapsed="false" hidden="false" max="24" min="20" style="0" width="5.80612244897959"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="6.47959183673469"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="7.56122448979592"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="9.04591836734694"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="7.02040816326531"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="6.3469387755102"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="6.88265306122449"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="7.83163265306122"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="0" width="6.3469387755102"/>
-    <col collapsed="false" hidden="false" max="35" min="34" style="0" width="7.83163265306122"/>
-    <col collapsed="false" hidden="false" max="41" min="36" style="0" width="6.88265306122449"/>
-    <col collapsed="false" hidden="false" max="42" min="42" style="0" width="7.4234693877551"/>
-    <col collapsed="false" hidden="false" max="44" min="43" style="0" width="6.88265306122449"/>
-    <col collapsed="false" hidden="false" max="45" min="45" style="0" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="48" min="46" style="0" width="5.80612244897959"/>
-    <col collapsed="false" hidden="false" max="49" min="49" style="0" width="7.83163265306122"/>
-    <col collapsed="false" hidden="false" max="53" min="50" style="0" width="6.88265306122449"/>
-    <col collapsed="false" hidden="false" max="56" min="54" style="0" width="8.63775510204082"/>
-    <col collapsed="false" hidden="false" max="57" min="57" style="0" width="7.83163265306122"/>
-    <col collapsed="false" hidden="false" max="58" min="58" style="0" width="8.63775510204082"/>
-    <col collapsed="false" hidden="false" max="59" min="59" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="68" min="60" style="0" width="8.63775510204082"/>
-    <col collapsed="false" hidden="false" max="69" min="69" style="0" width="10.3928571428571"/>
-    <col collapsed="false" hidden="false" max="72" min="70" style="0" width="8.63775510204082"/>
-    <col collapsed="false" hidden="false" max="73" min="73" style="0" width="7.69387755102041"/>
-    <col collapsed="false" hidden="false" max="74" min="74" style="0" width="7.83163265306122"/>
-    <col collapsed="false" hidden="false" max="75" min="75" style="0" width="7.69387755102041"/>
-    <col collapsed="false" hidden="false" max="82" min="76" style="0" width="8.63775510204082"/>
-    <col collapsed="false" hidden="false" max="83" min="83" style="0" width="8.77551020408163"/>
-    <col collapsed="false" hidden="false" max="85" min="84" style="0" width="8.63775510204082"/>
-    <col collapsed="false" hidden="false" max="86" min="86" style="0" width="8.77551020408163"/>
-    <col collapsed="false" hidden="false" max="87" min="87" style="0" width="9.71938775510204"/>
-    <col collapsed="false" hidden="false" max="88" min="88" style="0" width="10.6632653061225"/>
-    <col collapsed="false" hidden="false" max="89" min="89" style="0" width="8.63775510204082"/>
-    <col collapsed="false" hidden="false" max="90" min="90" style="0" width="7.83163265306122"/>
-    <col collapsed="false" hidden="false" max="91" min="91" style="0" width="8.63775510204082"/>
-    <col collapsed="false" hidden="false" max="92" min="92" style="0" width="7.96428571428571"/>
-    <col collapsed="false" hidden="false" max="93" min="93" style="0" width="8.63775510204082"/>
-    <col collapsed="false" hidden="false" max="94" min="94" style="0" width="7.4234693877551"/>
-    <col collapsed="false" hidden="false" max="98" min="95" style="0" width="8.63775510204082"/>
-    <col collapsed="false" hidden="false" max="106" min="99" style="0" width="6.88265306122449"/>
-    <col collapsed="false" hidden="false" max="111" min="107" style="0" width="5.80612244897959"/>
-    <col collapsed="false" hidden="false" max="112" min="112" style="0" width="7.69387755102041"/>
-    <col collapsed="false" hidden="false" max="113" min="113" style="0" width="6.47959183673469"/>
-    <col collapsed="false" hidden="false" max="130" min="114" style="0" width="5.80612244897959"/>
-    <col collapsed="false" hidden="false" max="131" min="131" style="0" width="7.4234693877551"/>
-    <col collapsed="false" hidden="false" max="132" min="132" style="0" width="6.88265306122449"/>
-    <col collapsed="false" hidden="false" max="134" min="133" style="0" width="5.80612244897959"/>
-    <col collapsed="false" hidden="false" max="136" min="135" style="0" width="6.88265306122449"/>
-    <col collapsed="false" hidden="false" max="137" min="137" style="0" width="7.02040816326531"/>
-    <col collapsed="false" hidden="false" max="139" min="138" style="0" width="7.96428571428571"/>
-    <col collapsed="false" hidden="false" max="147" min="140" style="0" width="6.88265306122449"/>
-    <col collapsed="false" hidden="false" max="149" min="148" style="0" width="5.80612244897959"/>
-    <col collapsed="false" hidden="false" max="150" min="150" style="0" width="6.47959183673469"/>
-    <col collapsed="false" hidden="false" max="151" min="151" style="0" width="5.80612244897959"/>
-    <col collapsed="false" hidden="false" max="152" min="152" style="0" width="13.0918367346939"/>
-    <col collapsed="false" hidden="false" max="154" min="153" style="0" width="5.80612244897959"/>
-    <col collapsed="false" hidden="false" max="155" min="155" style="0" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="156" min="156" style="0" width="5.80612244897959"/>
-    <col collapsed="false" hidden="false" max="157" min="157" style="0" width="13.9030612244898"/>
-    <col collapsed="false" hidden="false" max="158" min="158" style="0" width="11.7448979591837"/>
-    <col collapsed="false" hidden="false" max="160" min="159" style="0" width="5.80612244897959"/>
-    <col collapsed="false" hidden="false" max="161" min="161" style="0" width="6.20918367346939"/>
-    <col collapsed="false" hidden="false" max="162" min="162" style="0" width="11.4744897959184"/>
-    <col collapsed="false" hidden="false" max="163" min="163" style="0" width="11.2040816326531"/>
-    <col collapsed="false" hidden="false" max="164" min="164" style="0" width="5.80612244897959"/>
-    <col collapsed="false" hidden="false" max="165" min="165" style="0" width="9.31632653061224"/>
-    <col collapsed="false" hidden="false" max="166" min="166" style="0" width="5.80612244897959"/>
-    <col collapsed="false" hidden="false" max="167" min="167" style="0" width="8.63775510204082"/>
-    <col collapsed="false" hidden="false" max="168" min="168" style="0" width="5.80612244897959"/>
-    <col collapsed="false" hidden="false" max="169" min="169" style="0" width="9.04591836734694"/>
-    <col collapsed="false" hidden="false" max="170" min="170" style="0" width="5.80612244897959"/>
-    <col collapsed="false" hidden="false" max="177" min="171" style="0" width="6.47959183673469"/>
-    <col collapsed="false" hidden="false" max="178" min="178" style="0" width="5.53571428571429"/>
-    <col collapsed="false" hidden="false" max="179" min="179" style="0" width="4.99489795918367"/>
-    <col collapsed="false" hidden="false" max="180" min="180" style="0" width="5.39795918367347"/>
-    <col collapsed="false" hidden="false" max="181" min="181" style="0" width="7.4234693877551"/>
-    <col collapsed="false" hidden="false" max="182" min="182" style="0" width="7.56122448979592"/>
-    <col collapsed="false" hidden="false" max="185" min="183" style="0" width="5.80612244897959"/>
-    <col collapsed="false" hidden="false" max="186" min="186" style="0" width="5.39795918367347"/>
-    <col collapsed="false" hidden="false" max="187" min="187" style="0" width="7.1530612244898"/>
-    <col collapsed="false" hidden="false" max="188" min="188" style="0" width="5.80612244897959"/>
-    <col collapsed="false" hidden="false" max="189" min="189" style="0" width="6.3469387755102"/>
-    <col collapsed="false" hidden="false" max="190" min="190" style="0" width="10.1224489795918"/>
-    <col collapsed="false" hidden="false" max="191" min="191" style="0" width="7.96428571428571"/>
-    <col collapsed="false" hidden="false" max="192" min="192" style="0" width="5.80612244897959"/>
-    <col collapsed="false" hidden="false" max="194" min="193" style="0" width="6.75"/>
-    <col collapsed="false" hidden="false" max="195" min="195" style="0" width="7.69387755102041"/>
-    <col collapsed="false" hidden="false" max="196" min="196" style="0" width="6.75"/>
-    <col collapsed="false" hidden="false" max="198" min="197" style="0" width="6.20918367346939"/>
-    <col collapsed="false" hidden="false" max="201" min="199" style="0" width="7.29081632653061"/>
-    <col collapsed="false" hidden="false" max="204" min="202" style="0" width="6.75"/>
-    <col collapsed="false" hidden="false" max="211" min="205" style="0" width="9.71938775510204"/>
-    <col collapsed="false" hidden="false" max="212" min="212" style="0" width="6.88265306122449"/>
-    <col collapsed="false" hidden="false" max="226" min="213" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="240" min="227" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="241" min="241" style="0" width="7.29081632653061"/>
-    <col collapsed="false" hidden="false" max="242" min="242" style="0" width="7.02040816326531"/>
-    <col collapsed="false" hidden="false" max="1025" min="243" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.3571428571429"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="7.95408163265306"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.93877551020408"/>
+    <col collapsed="false" hidden="false" max="8" min="6" style="0" width="7.95408163265306"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="7.82142857142857"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="9.76530612244898"/>
+    <col collapsed="false" hidden="false" max="12" min="11" style="0" width="7.95408163265306"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="7.68367346938776"/>
+    <col collapsed="false" hidden="false" max="15" min="14" style="0" width="7.95408163265306"/>
+    <col collapsed="false" hidden="false" max="18" min="16" style="0" width="6.01020408163265"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="9.20408163265306"/>
+    <col collapsed="false" hidden="false" max="24" min="20" style="0" width="6.01020408163265"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="6.57142857142857"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="7.68367346938776"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="9.20408163265306"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="7.12755102040816"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="6.43367346938776"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="6.98469387755102"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="7.95408163265306"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="10.8826530612245"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="0" width="8.51530612244898"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="0" width="6.43367346938776"/>
+    <col collapsed="false" hidden="false" max="36" min="35" style="0" width="7.95408163265306"/>
+    <col collapsed="false" hidden="false" max="42" min="37" style="0" width="6.98469387755102"/>
+    <col collapsed="false" hidden="false" max="43" min="43" style="0" width="7.54081632653061"/>
+    <col collapsed="false" hidden="false" max="45" min="44" style="0" width="6.98469387755102"/>
+    <col collapsed="false" hidden="false" max="46" min="46" style="0" width="11.5714285714286"/>
+    <col collapsed="false" hidden="false" max="49" min="47" style="0" width="6.01020408163265"/>
+    <col collapsed="false" hidden="false" max="50" min="50" style="0" width="7.95408163265306"/>
+    <col collapsed="false" hidden="false" max="54" min="51" style="0" width="6.98469387755102"/>
+    <col collapsed="false" hidden="false" max="57" min="55" style="0" width="8.79081632653061"/>
+    <col collapsed="false" hidden="false" max="58" min="58" style="0" width="7.95408163265306"/>
+    <col collapsed="false" hidden="false" max="60" min="59" style="0" width="8.79081632653061"/>
+    <col collapsed="false" hidden="false" max="61" min="61" style="0" width="8.65816326530612"/>
+    <col collapsed="false" hidden="false" max="66" min="62" style="0" width="8.79081632653061"/>
+    <col collapsed="false" hidden="false" max="67" min="67" style="0" width="7.95408163265306"/>
+    <col collapsed="false" hidden="false" max="75" min="68" style="0" width="8.79081632653061"/>
+    <col collapsed="false" hidden="false" max="76" min="76" style="0" width="7.82142857142857"/>
+    <col collapsed="false" hidden="false" max="78" min="77" style="0" width="8.79081632653061"/>
+    <col collapsed="false" hidden="false" max="79" min="79" style="0" width="10.6020408163265"/>
+    <col collapsed="false" hidden="false" max="82" min="80" style="0" width="8.79081632653061"/>
+    <col collapsed="false" hidden="false" max="83" min="83" style="0" width="7.82142857142857"/>
+    <col collapsed="false" hidden="false" max="84" min="84" style="0" width="8.93877551020408"/>
+    <col collapsed="false" hidden="false" max="86" min="85" style="0" width="8.79081632653061"/>
+    <col collapsed="false" hidden="false" max="87" min="87" style="0" width="9.90816326530612"/>
+    <col collapsed="false" hidden="false" max="88" min="88" style="0" width="10.8826530612245"/>
+    <col collapsed="false" hidden="false" max="89" min="89" style="0" width="8.93877551020408"/>
+    <col collapsed="false" hidden="false" max="90" min="90" style="0" width="8.79081632653061"/>
+    <col collapsed="false" hidden="false" max="91" min="91" style="0" width="7.95408163265306"/>
+    <col collapsed="false" hidden="false" max="92" min="92" style="0" width="8.79081632653061"/>
+    <col collapsed="false" hidden="false" max="93" min="93" style="0" width="8.10204081632653"/>
+    <col collapsed="false" hidden="false" max="96" min="94" style="0" width="8.79081632653061"/>
+    <col collapsed="false" hidden="false" max="97" min="97" style="0" width="7.54081632653061"/>
+    <col collapsed="false" hidden="false" max="99" min="98" style="0" width="8.79081632653061"/>
+    <col collapsed="false" hidden="false" max="107" min="100" style="0" width="6.98469387755102"/>
+    <col collapsed="false" hidden="false" max="112" min="108" style="0" width="6.01020408163265"/>
+    <col collapsed="false" hidden="false" max="113" min="113" style="0" width="7.82142857142857"/>
+    <col collapsed="false" hidden="false" max="114" min="114" style="0" width="6.01020408163265"/>
+    <col collapsed="false" hidden="false" max="115" min="115" style="0" width="6.57142857142857"/>
+    <col collapsed="false" hidden="false" max="131" min="116" style="0" width="6.01020408163265"/>
+    <col collapsed="false" hidden="false" max="132" min="132" style="0" width="6.98469387755102"/>
+    <col collapsed="false" hidden="false" max="133" min="133" style="0" width="7.54081632653061"/>
+    <col collapsed="false" hidden="false" max="135" min="134" style="0" width="6.01020408163265"/>
+    <col collapsed="false" hidden="false" max="137" min="136" style="0" width="6.98469387755102"/>
+    <col collapsed="false" hidden="false" max="138" min="138" style="0" width="7.12755102040816"/>
+    <col collapsed="false" hidden="false" max="140" min="139" style="0" width="8.10204081632653"/>
+    <col collapsed="false" hidden="false" max="148" min="141" style="0" width="6.98469387755102"/>
+    <col collapsed="false" hidden="false" max="150" min="149" style="0" width="6.01020408163265"/>
+    <col collapsed="false" hidden="false" max="151" min="151" style="0" width="6.57142857142857"/>
+    <col collapsed="false" hidden="false" max="152" min="152" style="0" width="6.01020408163265"/>
+    <col collapsed="false" hidden="false" max="153" min="153" style="0" width="13.2397959183673"/>
+    <col collapsed="false" hidden="false" max="155" min="154" style="0" width="6.01020408163265"/>
+    <col collapsed="false" hidden="false" max="156" min="156" style="0" width="6.15816326530612"/>
+    <col collapsed="false" hidden="false" max="157" min="157" style="0" width="6.01020408163265"/>
+    <col collapsed="false" hidden="false" max="158" min="158" style="0" width="14.2091836734694"/>
+    <col collapsed="false" hidden="false" max="159" min="159" style="0" width="8.79081632653061"/>
+    <col collapsed="false" hidden="false" max="160" min="160" style="0" width="6.01020408163265"/>
+    <col collapsed="false" hidden="false" max="161" min="161" style="0" width="11.9897959183673"/>
+    <col collapsed="false" hidden="false" max="162" min="162" style="0" width="6.01020408163265"/>
+    <col collapsed="false" hidden="false" max="163" min="163" style="0" width="6.29081632653061"/>
+    <col collapsed="false" hidden="false" max="165" min="164" style="0" width="6.01020408163265"/>
+    <col collapsed="false" hidden="false" max="166" min="166" style="0" width="9.48469387755102"/>
+    <col collapsed="false" hidden="false" max="167" min="167" style="0" width="11.7091836734694"/>
+    <col collapsed="false" hidden="false" max="168" min="168" style="0" width="9.20408163265306"/>
+    <col collapsed="false" hidden="false" max="169" min="169" style="0" width="6.01020408163265"/>
+    <col collapsed="false" hidden="false" max="170" min="170" style="0" width="11.4285714285714"/>
+    <col collapsed="false" hidden="false" max="171" min="171" style="0" width="6.01020408163265"/>
+    <col collapsed="false" hidden="false" max="178" min="172" style="0" width="6.57142857142857"/>
+    <col collapsed="false" hidden="false" max="179" min="179" style="0" width="5.18367346938776"/>
+    <col collapsed="false" hidden="false" max="180" min="180" style="0" width="5.73469387755102"/>
+    <col collapsed="false" hidden="false" max="181" min="181" style="0" width="5.5969387755102"/>
+    <col collapsed="false" hidden="false" max="182" min="182" style="0" width="7.54081632653061"/>
+    <col collapsed="false" hidden="false" max="183" min="183" style="0" width="7.68367346938776"/>
+    <col collapsed="false" hidden="false" max="186" min="184" style="0" width="6.01020408163265"/>
+    <col collapsed="false" hidden="false" max="187" min="187" style="0" width="5.5969387755102"/>
+    <col collapsed="false" hidden="false" max="188" min="188" style="0" width="7.26020408163265"/>
+    <col collapsed="false" hidden="false" max="189" min="189" style="0" width="6.01020408163265"/>
+    <col collapsed="false" hidden="false" max="190" min="190" style="0" width="6.43367346938776"/>
+    <col collapsed="false" hidden="false" max="191" min="191" style="0" width="10.3214285714286"/>
+    <col collapsed="false" hidden="false" max="192" min="192" style="0" width="8.10204081632653"/>
+    <col collapsed="false" hidden="false" max="193" min="193" style="0" width="6.01020408163265"/>
+    <col collapsed="false" hidden="false" max="195" min="194" style="0" width="6.8469387755102"/>
+    <col collapsed="false" hidden="false" max="196" min="196" style="0" width="7.82142857142857"/>
+    <col collapsed="false" hidden="false" max="197" min="197" style="0" width="6.8469387755102"/>
+    <col collapsed="false" hidden="false" max="198" min="198" style="0" width="6.29081632653061"/>
+    <col collapsed="false" hidden="false" max="200" min="199" style="0" width="7.40816326530612"/>
+    <col collapsed="false" hidden="false" max="201" min="201" style="0" width="6.29081632653061"/>
+    <col collapsed="false" hidden="false" max="202" min="202" style="0" width="7.40816326530612"/>
+    <col collapsed="false" hidden="false" max="205" min="203" style="0" width="6.8469387755102"/>
+    <col collapsed="false" hidden="false" max="212" min="206" style="0" width="9.90816326530612"/>
+    <col collapsed="false" hidden="false" max="213" min="213" style="0" width="6.98469387755102"/>
+    <col collapsed="false" hidden="false" max="227" min="214" style="0" width="8.51530612244898"/>
+    <col collapsed="false" hidden="false" max="241" min="228" style="0" width="8.37755102040816"/>
+    <col collapsed="false" hidden="false" max="242" min="242" style="0" width="7.40816326530612"/>
+    <col collapsed="false" hidden="false" max="243" min="243" style="0" width="7.12755102040816"/>
+    <col collapsed="false" hidden="false" max="1025" min="244" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1" s="0"/>
       <c r="D1" s="0" t="s">
         <v>0</v>
       </c>
@@ -1125,7 +1144,7 @@
         <v>0</v>
       </c>
       <c r="AH1" s="0" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI1" s="0" t="s">
         <v>1</v>
@@ -1170,7 +1189,7 @@
         <v>1</v>
       </c>
       <c r="AW1" s="0" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX1" s="0" t="s">
         <v>2</v>
@@ -1185,7 +1204,7 @@
         <v>2</v>
       </c>
       <c r="BB1" s="0" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BC1" s="0" t="s">
         <v>3</v>
@@ -1320,7 +1339,7 @@
         <v>3</v>
       </c>
       <c r="CU1" s="0" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="CV1" s="0" t="s">
         <v>4</v>
@@ -1443,13 +1462,13 @@
         <v>4</v>
       </c>
       <c r="EJ1" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="EK1" s="0" t="s">
         <v>5</v>
       </c>
       <c r="EL1" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="EM1" s="0" t="s">
         <v>6</v>
@@ -1458,16 +1477,16 @@
         <v>6</v>
       </c>
       <c r="EO1" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="EP1" s="0" t="s">
         <v>7</v>
-      </c>
-      <c r="EP1" s="0" t="s">
-        <v>8</v>
       </c>
       <c r="EQ1" s="0" t="s">
         <v>8</v>
       </c>
       <c r="ER1" s="0" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="ES1" s="0" t="s">
         <v>9</v>
@@ -1533,10 +1552,10 @@
         <v>9</v>
       </c>
       <c r="FN1" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="FO1" s="0" t="s">
         <v>10</v>
-      </c>
-      <c r="FO1" s="0" t="s">
-        <v>11</v>
       </c>
       <c r="FP1" s="0" t="s">
         <v>11</v>
@@ -1569,10 +1588,10 @@
         <v>11</v>
       </c>
       <c r="FZ1" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="GA1" s="0" t="s">
         <v>12</v>
-      </c>
-      <c r="GA1" s="0" t="s">
-        <v>13</v>
       </c>
       <c r="GB1" s="0" t="s">
         <v>13</v>
@@ -1602,10 +1621,10 @@
         <v>13</v>
       </c>
       <c r="GK1" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="GL1" s="0" t="s">
         <v>14</v>
-      </c>
-      <c r="GL1" s="0" t="s">
-        <v>15</v>
       </c>
       <c r="GM1" s="0" t="s">
         <v>15</v>
@@ -1626,10 +1645,10 @@
         <v>15</v>
       </c>
       <c r="GS1" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="GT1" s="0" t="s">
         <v>16</v>
-      </c>
-      <c r="GT1" s="0" t="s">
-        <v>17</v>
       </c>
       <c r="GU1" s="0" t="s">
         <v>17</v>
@@ -1638,7 +1657,7 @@
         <v>17</v>
       </c>
       <c r="GW1" s="0" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="GX1" s="0" t="s">
         <v>18</v>
@@ -1659,10 +1678,10 @@
         <v>18</v>
       </c>
       <c r="HD1" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="HE1" s="0" t="s">
         <v>19</v>
-      </c>
-      <c r="HE1" s="0" t="s">
-        <v>20</v>
       </c>
       <c r="HF1" s="0" t="s">
         <v>20</v>
@@ -1704,7 +1723,7 @@
         <v>20</v>
       </c>
       <c r="HS1" s="0" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="HT1" s="0" t="s">
         <v>21</v>
@@ -1746,9 +1765,12 @@
         <v>21</v>
       </c>
       <c r="IG1" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="IH1" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="IH1" s="0" t="s">
+      <c r="II1" s="0" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1756,13 +1778,13 @@
       <c r="A2" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="E2" s="1" t="s">
         <v>27</v>
       </c>
       <c r="F2" s="0" t="s">
@@ -1895,22 +1917,22 @@
         <v>70</v>
       </c>
       <c r="AW2" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="AX2" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="AY2" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="AZ2" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="BA2" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="BB2" s="0" t="s">
         <v>62</v>
-      </c>
-      <c r="AX2" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="AY2" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="AZ2" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="BA2" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="BB2" s="0" t="s">
-        <v>56</v>
       </c>
       <c r="BC2" s="0" t="s">
         <v>58</v>
@@ -1919,7 +1941,7 @@
         <v>57</v>
       </c>
       <c r="BE2" s="0" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="BF2" s="0" t="s">
         <v>72</v>
@@ -2048,37 +2070,37 @@
         <v>113</v>
       </c>
       <c r="CV2" s="0" t="s">
-        <v>56</v>
+        <v>114</v>
       </c>
       <c r="CW2" s="0" t="s">
         <v>57</v>
       </c>
       <c r="CX2" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="CY2" s="0" t="s">
         <v>58</v>
       </c>
-      <c r="CY2" s="0" t="s">
-        <v>114</v>
-      </c>
       <c r="CZ2" s="0" t="s">
-        <v>72</v>
+        <v>115</v>
       </c>
       <c r="DA2" s="0" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="DB2" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="DC2" s="0" t="s">
-        <v>115</v>
+        <v>95</v>
       </c>
       <c r="DD2" s="0" t="s">
-        <v>62</v>
+        <v>116</v>
       </c>
       <c r="DE2" s="0" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="DF2" s="0" t="s">
-        <v>116</v>
+        <v>67</v>
       </c>
       <c r="DG2" s="0" t="s">
         <v>117</v>
@@ -2093,22 +2115,22 @@
         <v>120</v>
       </c>
       <c r="DK2" s="0" t="s">
-        <v>68</v>
+        <v>121</v>
       </c>
       <c r="DL2" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="DM2" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="DN2" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="DO2" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="DP2" s="0" t="s">
         <v>61</v>
-      </c>
-      <c r="DM2" s="0" t="s">
-        <v>98</v>
-      </c>
-      <c r="DN2" s="0" t="s">
-        <v>121</v>
-      </c>
-      <c r="DO2" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="DP2" s="0" t="s">
-        <v>122</v>
       </c>
       <c r="DQ2" s="0" t="s">
         <v>123</v>
@@ -2123,10 +2145,10 @@
         <v>126</v>
       </c>
       <c r="DU2" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="DV2" s="0" t="s">
         <v>44</v>
-      </c>
-      <c r="DV2" s="0" t="s">
-        <v>127</v>
       </c>
       <c r="DW2" s="0" t="s">
         <v>128</v>
@@ -2141,13 +2163,13 @@
         <v>131</v>
       </c>
       <c r="EA2" s="0" t="s">
-        <v>64</v>
+        <v>132</v>
       </c>
       <c r="EB2" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="EC2" s="0" t="s">
         <v>65</v>
-      </c>
-      <c r="EC2" s="0" t="s">
-        <v>132</v>
       </c>
       <c r="ED2" s="0" t="s">
         <v>133</v>
@@ -2168,31 +2190,31 @@
         <v>138</v>
       </c>
       <c r="EJ2" s="0" t="s">
-        <v>59</v>
+        <v>139</v>
       </c>
       <c r="EK2" s="0" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="EL2" s="0" t="s">
-        <v>113</v>
+        <v>63</v>
       </c>
       <c r="EM2" s="0" t="s">
         <v>114</v>
       </c>
       <c r="EN2" s="0" t="s">
-        <v>139</v>
+        <v>115</v>
       </c>
       <c r="EO2" s="0" t="s">
-        <v>63</v>
+        <v>140</v>
       </c>
       <c r="EP2" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="EQ2" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="ER2" s="0" t="s">
         <v>36</v>
-      </c>
-      <c r="EQ2" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="ER2" s="0" t="s">
-        <v>140</v>
       </c>
       <c r="ES2" s="0" t="s">
         <v>141</v>
@@ -2201,10 +2223,10 @@
         <v>142</v>
       </c>
       <c r="EU2" s="0" t="s">
-        <v>69</v>
+        <v>143</v>
       </c>
       <c r="EV2" s="0" t="s">
-        <v>143</v>
+        <v>70</v>
       </c>
       <c r="EW2" s="0" t="s">
         <v>144</v>
@@ -2258,13 +2280,13 @@
         <v>160</v>
       </c>
       <c r="FN2" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="FO2" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="FO2" s="0" t="s">
-        <v>70</v>
-      </c>
       <c r="FP2" s="0" t="s">
-        <v>161</v>
+        <v>71</v>
       </c>
       <c r="FQ2" s="0" t="s">
         <v>162</v>
@@ -2279,10 +2301,10 @@
         <v>165</v>
       </c>
       <c r="FU2" s="0" t="s">
-        <v>132</v>
+        <v>166</v>
       </c>
       <c r="FV2" s="0" t="s">
-        <v>166</v>
+        <v>133</v>
       </c>
       <c r="FW2" s="0" t="s">
         <v>167</v>
@@ -2297,40 +2319,40 @@
         <v>170</v>
       </c>
       <c r="GA2" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="GB2" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="GB2" s="0" t="s">
-        <v>114</v>
-      </c>
       <c r="GC2" s="0" t="s">
-        <v>56</v>
+        <v>115</v>
       </c>
       <c r="GD2" s="0" t="s">
-        <v>171</v>
+        <v>58</v>
       </c>
       <c r="GE2" s="0" t="s">
         <v>172</v>
       </c>
       <c r="GF2" s="0" t="s">
-        <v>98</v>
+        <v>173</v>
       </c>
       <c r="GG2" s="0" t="s">
-        <v>173</v>
+        <v>100</v>
       </c>
       <c r="GH2" s="0" t="s">
         <v>174</v>
       </c>
       <c r="GI2" s="0" t="s">
-        <v>78</v>
+        <v>175</v>
       </c>
       <c r="GJ2" s="0" t="s">
-        <v>175</v>
+        <v>84</v>
       </c>
       <c r="GK2" s="0" t="s">
-        <v>98</v>
+        <v>176</v>
       </c>
       <c r="GL2" s="0" t="s">
-        <v>176</v>
+        <v>100</v>
       </c>
       <c r="GM2" s="0" t="s">
         <v>177</v>
@@ -2354,863 +2376,870 @@
         <v>183</v>
       </c>
       <c r="GT2" s="0" t="s">
-        <v>56</v>
+        <v>184</v>
       </c>
       <c r="GU2" s="0" t="s">
         <v>58</v>
       </c>
       <c r="GV2" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="GW2" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="GW2" s="0" t="s">
-        <v>113</v>
-      </c>
       <c r="GX2" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="GY2" s="0" t="s">
         <v>57</v>
-      </c>
-      <c r="GY2" s="0" t="s">
-        <v>56</v>
       </c>
       <c r="GZ2" s="0" t="s">
         <v>58</v>
       </c>
       <c r="HA2" s="0" t="s">
-        <v>85</v>
+        <v>59</v>
       </c>
       <c r="HB2" s="0" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="HC2" s="0" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="HD2" s="0" t="s">
-        <v>184</v>
+        <v>95</v>
       </c>
       <c r="HE2" s="0" t="s">
-        <v>61</v>
+        <v>185</v>
       </c>
       <c r="HF2" s="0" t="s">
-        <v>122</v>
+        <v>62</v>
       </c>
       <c r="HG2" s="0" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="HH2" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="HI2" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="HI2" s="0" t="s">
-        <v>129</v>
-      </c>
       <c r="HJ2" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="HK2" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="HL2" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="HM2" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="HN2" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="HO2" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="HP2" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="HQ2" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="HR2" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="HS2" s="0" t="s">
         <v>133</v>
       </c>
-      <c r="HK2" s="0" t="s">
+      <c r="HT2" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="HU2" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="HV2" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="HW2" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="HX2" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="HY2" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="HZ2" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="IA2" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="IB2" s="0" t="s">
         <v>130</v>
       </c>
-      <c r="HL2" s="0" t="s">
-        <v>127</v>
-      </c>
-      <c r="HM2" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="HN2" s="0" t="s">
-        <v>161</v>
-      </c>
-      <c r="HO2" s="0" t="s">
+      <c r="IC2" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="ID2" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="IE2" s="0" t="s">
         <v>163</v>
       </c>
-      <c r="HP2" s="0" t="s">
-        <v>185</v>
-      </c>
-      <c r="HQ2" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="HR2" s="0" t="s">
-        <v>162</v>
-      </c>
-      <c r="HS2" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="HT2" s="0" t="s">
-        <v>122</v>
-      </c>
-      <c r="HU2" s="0" t="s">
-        <v>115</v>
-      </c>
-      <c r="HV2" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="HW2" s="0" t="s">
-        <v>129</v>
-      </c>
-      <c r="HX2" s="0" t="s">
+      <c r="IF2" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="IG2" s="0" t="s">
         <v>133</v>
-      </c>
-      <c r="HY2" s="0" t="s">
-        <v>130</v>
-      </c>
-      <c r="HZ2" s="0" t="s">
-        <v>127</v>
-      </c>
-      <c r="IA2" s="0" t="s">
-        <v>161</v>
-      </c>
-      <c r="IB2" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="IC2" s="0" t="s">
-        <v>163</v>
-      </c>
-      <c r="ID2" s="0" t="s">
-        <v>185</v>
-      </c>
-      <c r="IE2" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="IF2" s="0" t="s">
-        <v>162</v>
-      </c>
-      <c r="IG2" s="0" t="s">
-        <v>186</v>
       </c>
       <c r="IH2" s="0" t="s">
         <v>187</v>
       </c>
+      <c r="II2" s="0" t="s">
+        <v>188</v>
+      </c>
     </row>
-    <row r="3" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="1" t="n">
-        <v>22.472</v>
-      </c>
-      <c r="D3" s="1" t="n">
+      <c r="B3" s="2"/>
+      <c r="C3" s="0" t="n">
+        <v>24.254</v>
+      </c>
+      <c r="D3" s="0" t="n">
         <v>2.667</v>
       </c>
-      <c r="E3" s="1" t="n">
+      <c r="E3" s="0" t="n">
+        <v>2.575</v>
+      </c>
+      <c r="F3" s="0" t="n">
         <v>2.144</v>
       </c>
-      <c r="F3" s="1" t="n">
+      <c r="G3" s="0" t="n">
         <v>1.508</v>
       </c>
-      <c r="G3" s="1" t="n">
+      <c r="H3" s="0" t="n">
         <v>1.508</v>
       </c>
-      <c r="H3" s="1" t="n">
+      <c r="I3" s="0" t="n">
         <v>1.152</v>
       </c>
-      <c r="I3" s="1" t="n">
+      <c r="J3" s="0" t="n">
         <v>1.152</v>
       </c>
-      <c r="J3" s="1" t="n">
+      <c r="K3" s="0" t="n">
         <v>1.078</v>
       </c>
-      <c r="K3" s="1" t="n">
+      <c r="L3" s="0" t="n">
         <v>1.078</v>
       </c>
-      <c r="L3" s="1" t="n">
+      <c r="M3" s="0" t="n">
         <v>0.88</v>
       </c>
-      <c r="M3" s="1" t="n">
+      <c r="N3" s="0" t="n">
         <v>0.849</v>
       </c>
-      <c r="N3" s="1" t="n">
+      <c r="O3" s="0" t="n">
         <v>0.849</v>
       </c>
-      <c r="O3" s="1" t="n">
-        <v>0.794</v>
-      </c>
-      <c r="P3" s="1" t="n">
+      <c r="P3" s="0" t="n">
         <v>0.009</v>
       </c>
-      <c r="Q3" s="1" t="n">
+      <c r="Q3" s="0" t="n">
         <v>0.004</v>
       </c>
-      <c r="R3" s="1" t="n">
+      <c r="R3" s="0" t="n">
         <v>0.004</v>
       </c>
-      <c r="S3" s="1" t="n">
+      <c r="S3" s="0" t="n">
         <v>0.004</v>
       </c>
-      <c r="T3" s="1" t="n">
+      <c r="T3" s="0" t="n">
         <v>0.003</v>
       </c>
-      <c r="U3" s="1" t="n">
+      <c r="U3" s="0" t="n">
         <v>0.003</v>
       </c>
-      <c r="V3" s="1" t="n">
+      <c r="V3" s="0" t="n">
         <v>0.002</v>
       </c>
-      <c r="W3" s="1" t="n">
+      <c r="W3" s="0" t="n">
         <v>0.002</v>
       </c>
-      <c r="X3" s="1" t="n">
+      <c r="X3" s="0" t="n">
         <v>0.002</v>
       </c>
-      <c r="Y3" s="1" t="n">
+      <c r="Y3" s="0" t="n">
         <v>0.002</v>
       </c>
-      <c r="Z3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH3" s="1" t="n">
+      <c r="Z3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI3" s="0" t="n">
         <v>0.503</v>
       </c>
-      <c r="AI3" s="1" t="n">
+      <c r="AJ3" s="0" t="n">
         <v>0.503</v>
       </c>
-      <c r="AJ3" s="1" t="n">
+      <c r="AK3" s="0" t="n">
         <v>0.389</v>
       </c>
-      <c r="AK3" s="1" t="n">
+      <c r="AL3" s="0" t="n">
         <v>0.079</v>
       </c>
-      <c r="AL3" s="1" t="n">
+      <c r="AM3" s="0" t="n">
         <v>0.079</v>
       </c>
-      <c r="AM3" s="1" t="n">
+      <c r="AN3" s="0" t="n">
         <v>0.079</v>
       </c>
-      <c r="AN3" s="1" t="n">
+      <c r="AO3" s="0" t="n">
         <v>0.079</v>
       </c>
-      <c r="AO3" s="1" t="n">
+      <c r="AP3" s="0" t="n">
         <v>0.079</v>
       </c>
-      <c r="AP3" s="1" t="n">
+      <c r="AQ3" s="0" t="n">
         <v>0.079</v>
       </c>
-      <c r="AQ3" s="1" t="n">
+      <c r="AR3" s="0" t="n">
         <v>0.065</v>
       </c>
-      <c r="AR3" s="1" t="n">
+      <c r="AS3" s="0" t="n">
         <v>0.063</v>
       </c>
-      <c r="AS3" s="1" t="n">
+      <c r="AT3" s="0" t="n">
         <v>0.039</v>
       </c>
-      <c r="AT3" s="1" t="n">
+      <c r="AU3" s="0" t="n">
         <v>0.039</v>
       </c>
-      <c r="AU3" s="1" t="n">
+      <c r="AV3" s="0" t="n">
         <v>0.039</v>
       </c>
-      <c r="AV3" s="1" t="n">
+      <c r="AW3" s="0" t="n">
         <v>0.039</v>
       </c>
-      <c r="AW3" s="1" t="n">
+      <c r="AX3" s="0" t="n">
         <v>0.74</v>
       </c>
-      <c r="AX3" s="1" t="n">
+      <c r="AY3" s="0" t="n">
         <v>0.266</v>
       </c>
-      <c r="AY3" s="1" t="n">
+      <c r="AZ3" s="0" t="n">
         <v>0.266</v>
       </c>
-      <c r="AZ3" s="1" t="n">
+      <c r="BA3" s="0" t="n">
         <v>0.266</v>
       </c>
-      <c r="BA3" s="1" t="n">
+      <c r="BB3" s="0" t="n">
         <v>0.266</v>
       </c>
-      <c r="BB3" s="1" t="n">
+      <c r="BC3" s="0" t="n">
         <v>0.113</v>
       </c>
-      <c r="BC3" s="1" t="n">
+      <c r="BD3" s="0" t="n">
         <v>0.074</v>
       </c>
-      <c r="BD3" s="1" t="n">
+      <c r="BE3" s="0" t="n">
         <v>0.074</v>
       </c>
-      <c r="BE3" s="1" t="n">
+      <c r="BF3" s="0" t="n">
         <v>0.062</v>
       </c>
-      <c r="BF3" s="1" t="n">
+      <c r="BG3" s="0" t="n">
         <v>0.055</v>
       </c>
-      <c r="BG3" s="1" t="n">
+      <c r="BH3" s="0" t="n">
         <v>0.039</v>
       </c>
-      <c r="BH3" s="1" t="n">
+      <c r="BI3" s="0" t="n">
         <v>0.039</v>
       </c>
-      <c r="BI3" s="1" t="n">
+      <c r="BJ3" s="0" t="n">
         <v>0.039</v>
       </c>
-      <c r="BJ3" s="1" t="n">
+      <c r="BK3" s="0" t="n">
         <v>0.029</v>
       </c>
-      <c r="BK3" s="1" t="n">
+      <c r="BL3" s="0" t="n">
         <v>0.029</v>
       </c>
-      <c r="BL3" s="1" t="n">
+      <c r="BM3" s="0" t="n">
         <v>0.018</v>
       </c>
-      <c r="BM3" s="1" t="n">
+      <c r="BN3" s="0" t="n">
         <v>0.018</v>
       </c>
-      <c r="BN3" s="1" t="n">
+      <c r="BO3" s="0" t="n">
         <v>0.018</v>
       </c>
-      <c r="BO3" s="1" t="n">
+      <c r="BP3" s="0" t="n">
         <v>0.018</v>
       </c>
-      <c r="BP3" s="1" t="n">
+      <c r="BQ3" s="0" t="n">
         <v>0.018</v>
       </c>
-      <c r="BQ3" s="1" t="n">
+      <c r="BR3" s="0" t="n">
         <v>0.018</v>
       </c>
-      <c r="BR3" s="1" t="n">
+      <c r="BS3" s="0" t="n">
         <v>0.018</v>
       </c>
-      <c r="BS3" s="1" t="n">
+      <c r="BT3" s="0" t="n">
         <v>0.018</v>
       </c>
-      <c r="BT3" s="1" t="n">
+      <c r="BU3" s="0" t="n">
         <v>0.018</v>
       </c>
-      <c r="BU3" s="1" t="n">
+      <c r="BV3" s="0" t="n">
         <v>0.018</v>
       </c>
-      <c r="BV3" s="1" t="n">
+      <c r="BW3" s="0" t="n">
         <v>0.018</v>
       </c>
-      <c r="BW3" s="1" t="n">
+      <c r="BX3" s="0" t="n">
         <v>0.018</v>
       </c>
-      <c r="BX3" s="1" t="n">
+      <c r="BY3" s="0" t="n">
         <v>0.018</v>
       </c>
-      <c r="BY3" s="1" t="n">
+      <c r="BZ3" s="0" t="n">
         <v>0.018</v>
       </c>
-      <c r="BZ3" s="1" t="n">
+      <c r="CA3" s="0" t="n">
         <v>0.018</v>
       </c>
-      <c r="CA3" s="1" t="n">
+      <c r="CB3" s="0" t="n">
         <v>0.018</v>
       </c>
-      <c r="CB3" s="1" t="n">
+      <c r="CC3" s="0" t="n">
         <v>0.018</v>
       </c>
-      <c r="CC3" s="1" t="n">
+      <c r="CD3" s="0" t="n">
         <v>0.018</v>
       </c>
-      <c r="CD3" s="1" t="n">
+      <c r="CE3" s="0" t="n">
         <v>0.018</v>
       </c>
-      <c r="CE3" s="1" t="n">
+      <c r="CF3" s="0" t="n">
         <v>0.004</v>
       </c>
-      <c r="CF3" s="1" t="n">
+      <c r="CG3" s="0" t="n">
         <v>0.003</v>
       </c>
-      <c r="CG3" s="1" t="n">
+      <c r="CH3" s="0" t="n">
         <v>0.003</v>
       </c>
-      <c r="CH3" s="1" t="n">
+      <c r="CI3" s="0" t="n">
         <v>0.003</v>
       </c>
-      <c r="CI3" s="1" t="n">
+      <c r="CJ3" s="0" t="n">
         <v>0.003</v>
       </c>
-      <c r="CJ3" s="1" t="n">
+      <c r="CK3" s="0" t="n">
         <v>0.003</v>
       </c>
-      <c r="CK3" s="1" t="n">
+      <c r="CL3" s="0" t="n">
         <v>0.001</v>
       </c>
-      <c r="CL3" s="1" t="n">
+      <c r="CM3" s="0" t="n">
         <v>0.001</v>
       </c>
-      <c r="CM3" s="1" t="n">
+      <c r="CN3" s="0" t="n">
         <v>0.001</v>
       </c>
-      <c r="CN3" s="1" t="n">
+      <c r="CO3" s="0" t="n">
         <v>0.001</v>
       </c>
-      <c r="CO3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="CS3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="CT3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="CU3" s="1" t="n">
+      <c r="CP3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="CV3" s="0" t="n">
         <v>0.128</v>
       </c>
-      <c r="CV3" s="1" t="n">
+      <c r="CW3" s="0" t="n">
         <v>0.123</v>
       </c>
-      <c r="CW3" s="1" t="n">
+      <c r="CX3" s="0" t="n">
         <v>0.123</v>
       </c>
-      <c r="CX3" s="1" t="n">
+      <c r="CY3" s="0" t="n">
         <v>0.123</v>
       </c>
-      <c r="CY3" s="1" t="n">
+      <c r="CZ3" s="0" t="n">
         <v>0.088</v>
       </c>
-      <c r="CZ3" s="1" t="n">
+      <c r="DA3" s="0" t="n">
         <v>0.063</v>
       </c>
-      <c r="DA3" s="1" t="n">
+      <c r="DB3" s="0" t="n">
         <v>0.052</v>
       </c>
-      <c r="DB3" s="1" t="n">
+      <c r="DC3" s="0" t="n">
         <v>0.052</v>
       </c>
-      <c r="DC3" s="1" t="n">
+      <c r="DD3" s="0" t="n">
         <v>0.012</v>
       </c>
-      <c r="DD3" s="1" t="n">
+      <c r="DE3" s="0" t="n">
         <v>0.011</v>
       </c>
-      <c r="DE3" s="1" t="n">
+      <c r="DF3" s="0" t="n">
         <v>0.009</v>
       </c>
-      <c r="DF3" s="1" t="n">
+      <c r="DG3" s="0" t="n">
         <v>0.009</v>
       </c>
-      <c r="DG3" s="1" t="n">
+      <c r="DH3" s="0" t="n">
         <v>0.009</v>
       </c>
-      <c r="DH3" s="1" t="n">
+      <c r="DI3" s="0" t="n">
         <v>0.009</v>
       </c>
-      <c r="DI3" s="1" t="n">
+      <c r="DJ3" s="0" t="n">
         <v>0.008</v>
       </c>
-      <c r="DJ3" s="1" t="n">
+      <c r="DK3" s="0" t="n">
         <v>0.008</v>
       </c>
-      <c r="DK3" s="1" t="n">
+      <c r="DL3" s="0" t="n">
         <v>0.008</v>
       </c>
-      <c r="DL3" s="1" t="n">
+      <c r="DM3" s="0" t="n">
         <v>0.008</v>
       </c>
-      <c r="DM3" s="1" t="n">
+      <c r="DN3" s="0" t="n">
         <v>0.007</v>
       </c>
-      <c r="DN3" s="1" t="n">
+      <c r="DO3" s="0" t="n">
         <v>0.007</v>
       </c>
-      <c r="DO3" s="1" t="n">
+      <c r="DP3" s="0" t="n">
         <v>0.006</v>
       </c>
-      <c r="DP3" s="1" t="n">
+      <c r="DQ3" s="0" t="n">
         <v>0.006</v>
       </c>
-      <c r="DQ3" s="1" t="n">
+      <c r="DR3" s="0" t="n">
         <v>0.005</v>
       </c>
-      <c r="DR3" s="1" t="n">
+      <c r="DS3" s="0" t="n">
         <v>0.004</v>
       </c>
-      <c r="DS3" s="1" t="n">
+      <c r="DT3" s="0" t="n">
         <v>0.004</v>
       </c>
-      <c r="DT3" s="1" t="n">
+      <c r="DU3" s="0" t="n">
         <v>0.004</v>
       </c>
-      <c r="DU3" s="1" t="n">
+      <c r="DV3" s="0" t="n">
         <v>0.004</v>
       </c>
-      <c r="DV3" s="1" t="n">
+      <c r="DW3" s="0" t="n">
         <v>0.003</v>
       </c>
-      <c r="DW3" s="1" t="n">
+      <c r="DX3" s="0" t="n">
         <v>0.003</v>
       </c>
-      <c r="DX3" s="1" t="n">
+      <c r="DY3" s="0" t="n">
         <v>0.003</v>
       </c>
-      <c r="DY3" s="1" t="n">
+      <c r="DZ3" s="0" t="n">
         <v>0.003</v>
       </c>
-      <c r="DZ3" s="1" t="n">
+      <c r="EA3" s="0" t="n">
         <v>0.003</v>
       </c>
-      <c r="EA3" s="1" t="n">
+      <c r="EB3" s="0" t="n">
         <v>0.003</v>
       </c>
-      <c r="EB3" s="1" t="n">
+      <c r="EC3" s="0" t="n">
         <v>0.003</v>
       </c>
-      <c r="EC3" s="1" t="n">
+      <c r="ED3" s="0" t="n">
         <v>0.003</v>
       </c>
-      <c r="ED3" s="1" t="n">
+      <c r="EE3" s="0" t="n">
         <v>0.001</v>
       </c>
-      <c r="EE3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="EF3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="EG3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="EH3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="EI3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="EJ3" s="1" t="n">
+      <c r="EF3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="EG3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="EH3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="EI3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="EJ3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="EK3" s="0" t="n">
         <v>0.143</v>
       </c>
-      <c r="EK3" s="1" t="n">
+      <c r="EL3" s="0" t="n">
         <v>0.143</v>
       </c>
-      <c r="EL3" s="1" t="n">
+      <c r="EM3" s="0" t="n">
         <v>0.11</v>
       </c>
-      <c r="EM3" s="1" t="n">
+      <c r="EN3" s="0" t="n">
         <v>0.071</v>
       </c>
-      <c r="EN3" s="1" t="n">
+      <c r="EO3" s="0" t="n">
         <v>0.039</v>
       </c>
-      <c r="EO3" s="1" t="n">
+      <c r="EP3" s="0" t="n">
         <v>0.136</v>
       </c>
-      <c r="EP3" s="1" t="n">
+      <c r="EQ3" s="0" t="n">
         <v>0.071</v>
       </c>
-      <c r="EQ3" s="1" t="n">
+      <c r="ER3" s="0" t="n">
         <v>0.042</v>
       </c>
-      <c r="ER3" s="1" t="n">
+      <c r="ES3" s="0" t="n">
         <v>0.015</v>
       </c>
-      <c r="ES3" s="1" t="n">
+      <c r="ET3" s="0" t="n">
         <v>0.008</v>
       </c>
-      <c r="ET3" s="1" t="n">
+      <c r="EU3" s="0" t="n">
         <v>0.008</v>
       </c>
-      <c r="EU3" s="1" t="n">
+      <c r="EV3" s="0" t="n">
         <v>0.008</v>
       </c>
-      <c r="EV3" s="1" t="n">
+      <c r="EW3" s="0" t="n">
         <v>0.007</v>
       </c>
-      <c r="EW3" s="1" t="n">
+      <c r="EX3" s="0" t="n">
         <v>0.003</v>
       </c>
-      <c r="EX3" s="1" t="n">
+      <c r="EY3" s="0" t="n">
         <v>0.003</v>
       </c>
-      <c r="EY3" s="1" t="n">
+      <c r="EZ3" s="0" t="n">
         <v>0.003</v>
       </c>
-      <c r="EZ3" s="1" t="n">
+      <c r="FA3" s="0" t="n">
         <v>0.002</v>
       </c>
-      <c r="FA3" s="1" t="n">
+      <c r="FB3" s="0" t="n">
         <v>0.002</v>
       </c>
-      <c r="FB3" s="1" t="n">
+      <c r="FC3" s="0" t="n">
         <v>0.001</v>
       </c>
-      <c r="FC3" s="1" t="n">
+      <c r="FD3" s="0" t="n">
         <v>0.001</v>
       </c>
-      <c r="FD3" s="1" t="n">
+      <c r="FE3" s="0" t="n">
         <v>0.001</v>
       </c>
-      <c r="FE3" s="1" t="n">
+      <c r="FF3" s="0" t="n">
         <v>0.001</v>
       </c>
-      <c r="FF3" s="1" t="n">
+      <c r="FG3" s="0" t="n">
         <v>0.001</v>
       </c>
-      <c r="FG3" s="1" t="n">
+      <c r="FH3" s="0" t="n">
         <v>0.001</v>
       </c>
-      <c r="FH3" s="1" t="n">
+      <c r="FI3" s="0" t="n">
         <v>0.001</v>
       </c>
-      <c r="FI3" s="1" t="n">
+      <c r="FJ3" s="0" t="n">
         <v>0.001</v>
       </c>
-      <c r="FJ3" s="1" t="n">
+      <c r="FK3" s="0" t="n">
         <v>0.001</v>
       </c>
-      <c r="FK3" s="1" t="n">
+      <c r="FL3" s="0" t="n">
         <v>0.001</v>
       </c>
-      <c r="FL3" s="1" t="n">
+      <c r="FM3" s="0" t="n">
         <v>0.001</v>
       </c>
-      <c r="FM3" s="1" t="n">
+      <c r="FN3" s="0" t="n">
         <v>0.001</v>
       </c>
-      <c r="FN3" s="1" t="n">
+      <c r="FO3" s="0" t="n">
         <v>0.039</v>
       </c>
-      <c r="FO3" s="1" t="n">
+      <c r="FP3" s="0" t="n">
         <v>0.007</v>
       </c>
-      <c r="FP3" s="1" t="n">
+      <c r="FQ3" s="0" t="n">
         <v>0.003</v>
       </c>
-      <c r="FQ3" s="1" t="n">
+      <c r="FR3" s="0" t="n">
         <v>0.003</v>
       </c>
-      <c r="FR3" s="1" t="n">
+      <c r="FS3" s="0" t="n">
         <v>0.003</v>
       </c>
-      <c r="FS3" s="1" t="n">
+      <c r="FT3" s="0" t="n">
         <v>0.003</v>
       </c>
-      <c r="FT3" s="1" t="n">
+      <c r="FU3" s="0" t="n">
         <v>0.003</v>
       </c>
-      <c r="FU3" s="1" t="n">
+      <c r="FV3" s="0" t="n">
         <v>0.003</v>
       </c>
-      <c r="FV3" s="1" t="n">
+      <c r="FW3" s="0" t="n">
         <v>0.003</v>
       </c>
-      <c r="FW3" s="1" t="n">
+      <c r="FX3" s="0" t="n">
         <v>0.003</v>
       </c>
-      <c r="FX3" s="1" t="n">
+      <c r="FY3" s="0" t="n">
         <v>0.003</v>
       </c>
-      <c r="FY3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="FZ3" s="1" t="n">
+      <c r="FZ3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="GA3" s="0" t="n">
         <v>0.031</v>
       </c>
-      <c r="GA3" s="1" t="n">
+      <c r="GB3" s="0" t="n">
         <v>0.003</v>
       </c>
-      <c r="GB3" s="1" t="n">
+      <c r="GC3" s="0" t="n">
         <v>0.003</v>
       </c>
-      <c r="GC3" s="1" t="n">
+      <c r="GD3" s="0" t="n">
         <v>0.003</v>
       </c>
-      <c r="GD3" s="1" t="n">
+      <c r="GE3" s="0" t="n">
         <v>0.003</v>
       </c>
-      <c r="GE3" s="1" t="n">
+      <c r="GF3" s="0" t="n">
         <v>0.003</v>
       </c>
-      <c r="GF3" s="1" t="n">
+      <c r="GG3" s="0" t="n">
         <v>0.001</v>
       </c>
-      <c r="GG3" s="1" t="n">
+      <c r="GH3" s="0" t="n">
         <v>0.001</v>
       </c>
-      <c r="GH3" s="1" t="n">
+      <c r="GI3" s="0" t="n">
         <v>0.001</v>
       </c>
-      <c r="GI3" s="1" t="n">
+      <c r="GJ3" s="0" t="n">
         <v>0.001</v>
       </c>
-      <c r="GJ3" s="1" t="n">
+      <c r="GK3" s="0" t="n">
         <v>0.001</v>
       </c>
-      <c r="GK3" s="1" t="n">
+      <c r="GL3" s="0" t="n">
         <v>0.014</v>
       </c>
-      <c r="GL3" s="1" t="n">
+      <c r="GM3" s="0" t="n">
         <v>0.005</v>
       </c>
-      <c r="GM3" s="1" t="n">
+      <c r="GN3" s="0" t="n">
         <v>0.004</v>
       </c>
-      <c r="GN3" s="1" t="n">
+      <c r="GO3" s="0" t="n">
         <v>0.003</v>
       </c>
-      <c r="GO3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GP3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GQ3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GR3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GS3" s="1" t="n">
+      <c r="GP3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="GQ3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="GR3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="GS3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="GT3" s="0" t="n">
         <v>0.01</v>
       </c>
-      <c r="GT3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GU3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GV3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GW3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GX3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GY3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GZ3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HA3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HB3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HC3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HD3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HE3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HF3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HG3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HH3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HI3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HJ3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HK3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HL3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HM3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HN3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HO3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HP3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HQ3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HR3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HS3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HT3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HU3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HV3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HW3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HX3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HY3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HZ3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IA3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IB3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IC3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="ID3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IE3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IF3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IG3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IH3" s="1" t="n">
+      <c r="GU3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="GW3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="GX3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="GY3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="GZ3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="HA3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="HB3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="HC3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="HD3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="HE3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="HF3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="HG3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="HH3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="HI3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="HJ3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="HK3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="HL3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="HM3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="HN3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="HO3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="HP3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="HQ3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="HR3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="HS3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="HT3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="HU3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="HV3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="HW3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="HX3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="HY3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="HZ3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="IA3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="IB3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="IC3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="ID3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="IE3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="IF3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="IG3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="IH3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="II3" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>188</v>
-      </c>
-      <c r="B4" s="0" t="s">
         <v>189</v>
       </c>
-      <c r="C4" s="1" t="n">
-        <v>3.349</v>
+      <c r="B4" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>3.67</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>320.993</v>
@@ -3225,7 +3254,7 @@
         <v>320.993</v>
       </c>
       <c r="H4" s="0" t="n">
-        <v>45.91</v>
+        <v>320.993</v>
       </c>
       <c r="I4" s="0" t="n">
         <v>45.91</v>
@@ -3236,12 +3265,15 @@
       <c r="K4" s="0" t="n">
         <v>45.91</v>
       </c>
-      <c r="M4" s="0" t="n">
-        <v>320.993</v>
+      <c r="L4" s="0" t="n">
+        <v>45.91</v>
       </c>
       <c r="N4" s="0" t="n">
         <v>320.993</v>
       </c>
+      <c r="O4" s="0" t="n">
+        <v>320.993</v>
+      </c>
       <c r="P4" s="0" t="n">
         <v>0.191</v>
       </c>
@@ -3278,8 +3310,8 @@
       <c r="AF4" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="AH4" s="0" t="n">
-        <v>32.545</v>
+      <c r="AG4" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="AI4" s="0" t="n">
         <v>32.545</v>
@@ -3288,7 +3320,7 @@
         <v>32.545</v>
       </c>
       <c r="AK4" s="0" t="n">
-        <v>18.922</v>
+        <v>32.545</v>
       </c>
       <c r="AL4" s="0" t="n">
         <v>18.922</v>
@@ -3303,13 +3335,13 @@
         <v>18.922</v>
       </c>
       <c r="AP4" s="0" t="n">
-        <v>5.818</v>
+        <v>18.922</v>
       </c>
       <c r="AQ4" s="0" t="n">
         <v>5.818</v>
       </c>
       <c r="AR4" s="0" t="n">
-        <v>4.068</v>
+        <v>5.818</v>
       </c>
       <c r="AS4" s="0" t="n">
         <v>4.068</v>
@@ -3324,10 +3356,10 @@
         <v>4.068</v>
       </c>
       <c r="AW4" s="0" t="n">
+        <v>4.068</v>
+      </c>
+      <c r="AX4" s="0" t="n">
         <v>325.452</v>
-      </c>
-      <c r="AX4" s="0" t="n">
-        <v>32.545</v>
       </c>
       <c r="AY4" s="0" t="n">
         <v>32.545</v>
@@ -3339,10 +3371,10 @@
         <v>32.545</v>
       </c>
       <c r="BB4" s="0" t="n">
+        <v>32.545</v>
+      </c>
+      <c r="BC4" s="0" t="n">
         <v>24.883</v>
-      </c>
-      <c r="BC4" s="0" t="n">
-        <v>7.652</v>
       </c>
       <c r="BD4" s="0" t="n">
         <v>7.652</v>
@@ -3350,7 +3382,7 @@
       <c r="BE4" s="0" t="n">
         <v>7.652</v>
       </c>
-      <c r="BG4" s="0" t="n">
+      <c r="BF4" s="0" t="n">
         <v>7.652</v>
       </c>
       <c r="BH4" s="0" t="n">
@@ -3423,7 +3455,7 @@
         <v>7.652</v>
       </c>
       <c r="CE4" s="0" t="n">
-        <v>0.191</v>
+        <v>7.652</v>
       </c>
       <c r="CF4" s="0" t="n">
         <v>0.191</v>
@@ -3431,7 +3463,7 @@
       <c r="CG4" s="0" t="n">
         <v>0.191</v>
       </c>
-      <c r="CK4" s="0" t="n">
+      <c r="CH4" s="0" t="n">
         <v>0.191</v>
       </c>
       <c r="CL4" s="0" t="n">
@@ -3462,7 +3494,7 @@
         <v>0.191</v>
       </c>
       <c r="CU4" s="0" t="n">
-        <v>25.412</v>
+        <v>0.191</v>
       </c>
       <c r="CV4" s="0" t="n">
         <v>25.412</v>
@@ -3473,14 +3505,14 @@
       <c r="CX4" s="0" t="n">
         <v>25.412</v>
       </c>
-      <c r="DA4" s="0" t="n">
+      <c r="CY4" s="0" t="n">
         <v>25.412</v>
       </c>
       <c r="DB4" s="0" t="n">
         <v>25.412</v>
       </c>
       <c r="DC4" s="0" t="n">
-        <v>1.337</v>
+        <v>25.412</v>
       </c>
       <c r="DD4" s="0" t="n">
         <v>1.337</v>
@@ -3524,10 +3556,10 @@
       <c r="DQ4" s="0" t="n">
         <v>1.337</v>
       </c>
-      <c r="DU4" s="0" t="n">
+      <c r="DR4" s="0" t="n">
         <v>1.337</v>
       </c>
-      <c r="EA4" s="0" t="n">
+      <c r="DV4" s="0" t="n">
         <v>1.337</v>
       </c>
       <c r="EB4" s="0" t="n">
@@ -3536,35 +3568,35 @@
       <c r="EC4" s="0" t="n">
         <v>1.337</v>
       </c>
-      <c r="EG4" s="0" t="n">
-        <v>0.03</v>
+      <c r="ED4" s="0" t="n">
+        <v>1.337</v>
       </c>
       <c r="EH4" s="0" t="n">
         <v>0.03</v>
       </c>
-      <c r="EJ4" s="0" t="n">
-        <v>32.545</v>
+      <c r="EI4" s="0" t="n">
+        <v>0.03</v>
       </c>
       <c r="EK4" s="0" t="n">
         <v>32.545</v>
       </c>
       <c r="EL4" s="0" t="n">
+        <v>32.545</v>
+      </c>
+      <c r="EM4" s="0" t="n">
         <v>7.652</v>
       </c>
-      <c r="EN4" s="0" t="n">
+      <c r="EO4" s="0" t="n">
         <v>7.652</v>
       </c>
-      <c r="EP4" s="0" t="n">
+      <c r="EQ4" s="0" t="n">
         <v>26.749</v>
       </c>
-      <c r="EQ4" s="0" t="n">
+      <c r="ER4" s="0" t="n">
         <v>3.826</v>
       </c>
-      <c r="ER4" s="0" t="n">
+      <c r="ES4" s="0" t="n">
         <v>6.687</v>
-      </c>
-      <c r="ES4" s="0" t="n">
-        <v>1.337</v>
       </c>
       <c r="ET4" s="0" t="n">
         <v>1.337</v>
@@ -3572,16 +3604,16 @@
       <c r="EU4" s="0" t="n">
         <v>1.337</v>
       </c>
-      <c r="EY4" s="0" t="n">
+      <c r="EV4" s="0" t="n">
         <v>1.337</v>
       </c>
-      <c r="FN4" s="0" t="n">
+      <c r="EZ4" s="0" t="n">
+        <v>1.337</v>
+      </c>
+      <c r="FO4" s="0" t="n">
         <v>4.068</v>
       </c>
-      <c r="FO4" s="0" t="n">
-        <v>1.337</v>
-      </c>
-      <c r="FQ4" s="0" t="n">
+      <c r="FP4" s="0" t="n">
         <v>1.337</v>
       </c>
       <c r="FR4" s="0" t="n">
@@ -3597,7 +3629,7 @@
         <v>1.337</v>
       </c>
       <c r="FV4" s="0" t="n">
-        <v>0.134</v>
+        <v>1.337</v>
       </c>
       <c r="FW4" s="0" t="n">
         <v>0.134</v>
@@ -3605,14 +3637,14 @@
       <c r="FX4" s="0" t="n">
         <v>0.134</v>
       </c>
-      <c r="GF4" s="0" t="n">
+      <c r="FY4" s="0" t="n">
+        <v>0.134</v>
+      </c>
+      <c r="GG4" s="0" t="n">
         <v>0.622</v>
       </c>
-      <c r="GK4" s="0" t="n">
+      <c r="GL4" s="0" t="n">
         <v>5.818</v>
-      </c>
-      <c r="GL4" s="0" t="n">
-        <v>1.337</v>
       </c>
       <c r="GM4" s="0" t="n">
         <v>1.337</v>
@@ -3621,7 +3653,7 @@
         <v>1.337</v>
       </c>
       <c r="GO4" s="0" t="n">
-        <v>0</v>
+        <v>1.337</v>
       </c>
       <c r="GP4" s="0" t="n">
         <v>0</v>
@@ -3632,17 +3664,17 @@
       <c r="GR4" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="GT4" s="0" t="n">
+      <c r="GS4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU4" s="0" t="n">
         <v>0.105</v>
       </c>
-      <c r="GU4" s="0" t="n">
+      <c r="GV4" s="0" t="n">
         <v>0.119</v>
       </c>
-      <c r="GW4" s="0" t="n">
+      <c r="GX4" s="0" t="n">
         <v>0.003</v>
-      </c>
-      <c r="GX4" s="0" t="n">
-        <v>0.001</v>
       </c>
       <c r="GY4" s="0" t="n">
         <v>0.001</v>
@@ -3662,21 +3694,24 @@
       <c r="HD4" s="0" t="n">
         <v>0.001</v>
       </c>
-      <c r="IH4" s="0" t="n">
+      <c r="HE4" s="0" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="II4" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>190</v>
-      </c>
-      <c r="C5" s="1" t="n">
-        <v>2.009</v>
+        <v>191</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>2.196</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>186.624</v>
       </c>
-      <c r="L5" s="0" t="n">
+      <c r="E5" s="0" t="n">
         <v>186.624</v>
       </c>
       <c r="M5" s="0" t="n">
@@ -3685,6 +3720,9 @@
       <c r="N5" s="0" t="n">
         <v>186.624</v>
       </c>
+      <c r="O5" s="0" t="n">
+        <v>186.624</v>
+      </c>
       <c r="P5" s="0" t="n">
         <v>0.778</v>
       </c>
@@ -3700,17 +3738,17 @@
       <c r="AF5" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="AH5" s="0" t="n">
-        <v>189.216</v>
+      <c r="AG5" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="AI5" s="0" t="n">
         <v>189.216</v>
       </c>
       <c r="AJ5" s="0" t="n">
+        <v>189.216</v>
+      </c>
+      <c r="AK5" s="0" t="n">
         <v>75.686</v>
-      </c>
-      <c r="AK5" s="0" t="n">
-        <v>23.652</v>
       </c>
       <c r="AL5" s="0" t="n">
         <v>23.652</v>
@@ -3733,11 +3771,11 @@
       <c r="AR5" s="0" t="n">
         <v>23.652</v>
       </c>
-      <c r="AW5" s="0" t="n">
+      <c r="AS5" s="0" t="n">
+        <v>23.652</v>
+      </c>
+      <c r="AX5" s="0" t="n">
         <v>189.216</v>
-      </c>
-      <c r="AX5" s="0" t="n">
-        <v>75.686</v>
       </c>
       <c r="AY5" s="0" t="n">
         <v>75.686</v>
@@ -3748,8 +3786,8 @@
       <c r="BA5" s="0" t="n">
         <v>75.686</v>
       </c>
-      <c r="DC5" s="0" t="n">
-        <v>0.778</v>
+      <c r="BB5" s="0" t="n">
+        <v>75.686</v>
       </c>
       <c r="DD5" s="0" t="n">
         <v>0.778</v>
@@ -3772,35 +3810,35 @@
       <c r="DJ5" s="0" t="n">
         <v>0.778</v>
       </c>
-      <c r="DL5" s="0" t="n">
+      <c r="DK5" s="0" t="n">
         <v>0.778</v>
       </c>
-      <c r="DP5" s="0" t="n">
+      <c r="DM5" s="0" t="n">
         <v>0.778</v>
       </c>
       <c r="DQ5" s="0" t="n">
         <v>0.778</v>
       </c>
-      <c r="DU5" s="0" t="n">
+      <c r="DR5" s="0" t="n">
         <v>0.778</v>
       </c>
-      <c r="EA5" s="0" t="n">
+      <c r="DV5" s="0" t="n">
         <v>0.778</v>
       </c>
       <c r="EB5" s="0" t="n">
         <v>0.778</v>
       </c>
-      <c r="EO5" s="0" t="n">
+      <c r="EC5" s="0" t="n">
+        <v>0.778</v>
+      </c>
+      <c r="EP5" s="0" t="n">
         <v>75.686</v>
-      </c>
-      <c r="EP5" s="0" t="n">
-        <v>15.552</v>
       </c>
       <c r="EQ5" s="0" t="n">
         <v>15.552</v>
       </c>
-      <c r="ES5" s="0" t="n">
-        <v>0.778</v>
+      <c r="ER5" s="0" t="n">
+        <v>15.552</v>
       </c>
       <c r="ET5" s="0" t="n">
         <v>0.778</v>
@@ -3808,10 +3846,10 @@
       <c r="EU5" s="0" t="n">
         <v>0.778</v>
       </c>
-      <c r="EY5" s="0" t="n">
+      <c r="EV5" s="0" t="n">
         <v>0.778</v>
       </c>
-      <c r="FV5" s="0" t="n">
+      <c r="EZ5" s="0" t="n">
         <v>0.778</v>
       </c>
       <c r="FW5" s="0" t="n">
@@ -3820,23 +3858,23 @@
       <c r="FX5" s="0" t="n">
         <v>0.778</v>
       </c>
-      <c r="GL5" s="0" t="n">
+      <c r="FY5" s="0" t="n">
         <v>0.778</v>
       </c>
-      <c r="GS5" s="0" t="n">
+      <c r="GM5" s="0" t="n">
+        <v>0.778</v>
+      </c>
+      <c r="GT5" s="0" t="n">
         <v>0.946</v>
       </c>
-      <c r="GT5" s="0" t="n">
+      <c r="GU5" s="0" t="n">
         <v>0.131</v>
-      </c>
-      <c r="GU5" s="0" t="n">
-        <v>0.069</v>
       </c>
       <c r="GV5" s="0" t="n">
         <v>0.069</v>
       </c>
-      <c r="HE5" s="0" t="n">
-        <v>0</v>
+      <c r="GW5" s="0" t="n">
+        <v>0.069</v>
       </c>
       <c r="HF5" s="0" t="n">
         <v>0</v>
@@ -3847,7 +3885,7 @@
       <c r="HH5" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="HS5" s="0" t="n">
+      <c r="HI5" s="0" t="n">
         <v>0</v>
       </c>
       <c r="HT5" s="0" t="n">
@@ -3859,18 +3897,21 @@
       <c r="HV5" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="IH5" s="0" t="n">
+      <c r="HW5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="II5" s="0" t="n">
         <v>0.001</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>191</v>
-      </c>
-      <c r="B6" s="0" t="s">
         <v>192</v>
       </c>
-      <c r="C6" s="1" t="n">
+      <c r="B6" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="C6" s="0" t="n">
         <v>1.871</v>
       </c>
       <c r="D6" s="0" t="n">
@@ -3964,7 +4005,7 @@
         <v>0</v>
       </c>
       <c r="AH6" s="0" t="n">
-        <v>62.441</v>
+        <v>0</v>
       </c>
       <c r="AI6" s="0" t="n">
         <v>62.441</v>
@@ -3973,7 +4014,7 @@
         <v>62.441</v>
       </c>
       <c r="AK6" s="0" t="n">
-        <v>7.805</v>
+        <v>62.441</v>
       </c>
       <c r="AL6" s="0" t="n">
         <v>7.805</v>
@@ -4009,10 +4050,10 @@
         <v>7.805</v>
       </c>
       <c r="AW6" s="0" t="n">
+        <v>7.805</v>
+      </c>
+      <c r="AX6" s="0" t="n">
         <v>62.441</v>
-      </c>
-      <c r="AX6" s="0" t="n">
-        <v>60.549</v>
       </c>
       <c r="AY6" s="0" t="n">
         <v>60.549</v>
@@ -4024,7 +4065,7 @@
         <v>60.549</v>
       </c>
       <c r="BB6" s="0" t="n">
-        <v>10.264</v>
+        <v>60.549</v>
       </c>
       <c r="BC6" s="0" t="n">
         <v>10.264</v>
@@ -4111,7 +4152,7 @@
         <v>10.264</v>
       </c>
       <c r="CE6" s="0" t="n">
-        <v>0.257</v>
+        <v>10.264</v>
       </c>
       <c r="CF6" s="0" t="n">
         <v>0.257</v>
@@ -4159,7 +4200,7 @@
         <v>0.257</v>
       </c>
       <c r="CU6" s="0" t="n">
-        <v>4.876</v>
+        <v>0.257</v>
       </c>
       <c r="CV6" s="0" t="n">
         <v>4.876</v>
@@ -4183,7 +4224,7 @@
         <v>4.876</v>
       </c>
       <c r="DC6" s="0" t="n">
-        <v>0.257</v>
+        <v>4.876</v>
       </c>
       <c r="DD6" s="0" t="n">
         <v>0.257</v>
@@ -4266,8 +4307,8 @@
       <c r="ED6" s="0" t="n">
         <v>0.257</v>
       </c>
-      <c r="EG6" s="0" t="n">
-        <v>0.03</v>
+      <c r="EE6" s="0" t="n">
+        <v>0.257</v>
       </c>
       <c r="EH6" s="0" t="n">
         <v>0.03</v>
@@ -4276,13 +4317,13 @@
         <v>0.03</v>
       </c>
       <c r="EJ6" s="0" t="n">
-        <v>13.245</v>
+        <v>0.03</v>
       </c>
       <c r="EK6" s="0" t="n">
         <v>13.245</v>
       </c>
       <c r="EL6" s="0" t="n">
-        <v>10.264</v>
+        <v>13.245</v>
       </c>
       <c r="EM6" s="0" t="n">
         <v>10.264</v>
@@ -4291,20 +4332,20 @@
         <v>10.264</v>
       </c>
       <c r="EO6" s="0" t="n">
+        <v>10.264</v>
+      </c>
+      <c r="EP6" s="0" t="n">
         <v>60.549</v>
-      </c>
-      <c r="EP6" s="0" t="n">
-        <v>5.132</v>
       </c>
       <c r="EQ6" s="0" t="n">
         <v>5.132</v>
       </c>
       <c r="ER6" s="0" t="n">
+        <v>5.132</v>
+      </c>
+      <c r="ES6" s="0" t="n">
         <v>1.283</v>
       </c>
-      <c r="ES6" s="0" t="n">
-        <v>0.257</v>
-      </c>
       <c r="ET6" s="0" t="n">
         <v>0.257</v>
       </c>
@@ -4312,11 +4353,11 @@
         <v>0.257</v>
       </c>
       <c r="EV6" s="0" t="n">
+        <v>0.257</v>
+      </c>
+      <c r="EW6" s="0" t="n">
         <v>2.053</v>
       </c>
-      <c r="EW6" s="0" t="n">
-        <v>0.257</v>
-      </c>
       <c r="EX6" s="0" t="n">
         <v>0.257</v>
       </c>
@@ -4366,11 +4407,11 @@
         <v>0.257</v>
       </c>
       <c r="FN6" s="0" t="n">
+        <v>0.257</v>
+      </c>
+      <c r="FO6" s="0" t="n">
         <v>7.805</v>
       </c>
-      <c r="FO6" s="0" t="n">
-        <v>0.257</v>
-      </c>
       <c r="FP6" s="0" t="n">
         <v>0.257</v>
       </c>
@@ -4402,10 +4443,10 @@
         <v>0.257</v>
       </c>
       <c r="FZ6" s="0" t="n">
+        <v>0.257</v>
+      </c>
+      <c r="GA6" s="0" t="n">
         <v>31.221</v>
-      </c>
-      <c r="GA6" s="0" t="n">
-        <v>1.742</v>
       </c>
       <c r="GB6" s="0" t="n">
         <v>1.742</v>
@@ -4414,17 +4455,17 @@
         <v>1.742</v>
       </c>
       <c r="GD6" s="0" t="n">
-        <v>0.257</v>
+        <v>1.742</v>
       </c>
       <c r="GE6" s="0" t="n">
+        <v>0.257</v>
+      </c>
+      <c r="GF6" s="0" t="n">
         <v>1.283</v>
       </c>
-      <c r="GF6" s="0" t="n">
+      <c r="GG6" s="0" t="n">
         <v>0.062</v>
       </c>
-      <c r="GG6" s="0" t="n">
-        <v>0.257</v>
-      </c>
       <c r="GH6" s="0" t="n">
         <v>0.257</v>
       </c>
@@ -4435,11 +4476,11 @@
         <v>0.257</v>
       </c>
       <c r="GK6" s="0" t="n">
+        <v>0.257</v>
+      </c>
+      <c r="GL6" s="0" t="n">
         <v>7.805</v>
       </c>
-      <c r="GL6" s="0" t="n">
-        <v>0.257</v>
-      </c>
       <c r="GM6" s="0" t="n">
         <v>0.257</v>
       </c>
@@ -4447,7 +4488,7 @@
         <v>0.257</v>
       </c>
       <c r="GO6" s="0" t="n">
-        <v>0</v>
+        <v>0.257</v>
       </c>
       <c r="GP6" s="0" t="n">
         <v>0</v>
@@ -4459,19 +4500,19 @@
         <v>0</v>
       </c>
       <c r="GS6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="GT6" s="0" t="n">
         <v>0.946</v>
       </c>
-      <c r="GT6" s="0" t="n">
+      <c r="GU6" s="0" t="n">
         <v>0.043</v>
-      </c>
-      <c r="GU6" s="0" t="n">
-        <v>0.023</v>
       </c>
       <c r="GV6" s="0" t="n">
         <v>0.023</v>
       </c>
       <c r="GW6" s="0" t="n">
-        <v>0.001</v>
+        <v>0.023</v>
       </c>
       <c r="GX6" s="0" t="n">
         <v>0.001</v>
@@ -4492,7 +4533,7 @@
         <v>0.001</v>
       </c>
       <c r="HD6" s="0" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="HE6" s="0" t="n">
         <v>0</v>
@@ -4579,20 +4620,23 @@
         <v>0</v>
       </c>
       <c r="IG6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="IH6" s="0" t="n">
         <v>0.001</v>
       </c>
-      <c r="IH6" s="0" t="n">
+      <c r="II6" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>193</v>
-      </c>
-      <c r="B7" s="0" t="s">
         <v>194</v>
       </c>
-      <c r="C7" s="1" t="n">
+      <c r="B7" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="C7" s="0" t="n">
         <v>1.394</v>
       </c>
       <c r="D7" s="0" t="n">
@@ -4608,7 +4652,7 @@
         <v>96.298</v>
       </c>
       <c r="H7" s="0" t="n">
-        <v>32.099</v>
+        <v>96.298</v>
       </c>
       <c r="I7" s="0" t="n">
         <v>32.099</v>
@@ -4619,8 +4663,8 @@
       <c r="K7" s="0" t="n">
         <v>32.099</v>
       </c>
-      <c r="M7" s="0" t="n">
-        <v>96.298</v>
+      <c r="L7" s="0" t="n">
+        <v>32.099</v>
       </c>
       <c r="N7" s="0" t="n">
         <v>96.298</v>
@@ -4683,7 +4727,7 @@
         <v>0</v>
       </c>
       <c r="AH7" s="0" t="n">
-        <v>32.545</v>
+        <v>0</v>
       </c>
       <c r="AI7" s="0" t="n">
         <v>32.545</v>
@@ -4692,7 +4736,7 @@
         <v>32.545</v>
       </c>
       <c r="AK7" s="0" t="n">
-        <v>5.676</v>
+        <v>32.545</v>
       </c>
       <c r="AL7" s="0" t="n">
         <v>5.676</v>
@@ -4707,7 +4751,7 @@
         <v>5.676</v>
       </c>
       <c r="AP7" s="0" t="n">
-        <v>4.068</v>
+        <v>5.676</v>
       </c>
       <c r="AQ7" s="0" t="n">
         <v>4.068</v>
@@ -4728,10 +4772,10 @@
         <v>4.068</v>
       </c>
       <c r="AW7" s="0" t="n">
+        <v>4.068</v>
+      </c>
+      <c r="AX7" s="0" t="n">
         <v>97.635</v>
-      </c>
-      <c r="AX7" s="0" t="n">
-        <v>32.545</v>
       </c>
       <c r="AY7" s="0" t="n">
         <v>32.545</v>
@@ -4743,10 +4787,10 @@
         <v>32.545</v>
       </c>
       <c r="BB7" s="0" t="n">
+        <v>32.545</v>
+      </c>
+      <c r="BC7" s="0" t="n">
         <v>7.465</v>
-      </c>
-      <c r="BG7" s="0" t="n">
-        <v>5.35</v>
       </c>
       <c r="BH7" s="0" t="n">
         <v>5.35</v>
@@ -4754,10 +4798,10 @@
       <c r="BI7" s="0" t="n">
         <v>5.35</v>
       </c>
-      <c r="CE7" s="0" t="n">
-        <v>0.134</v>
-      </c>
-      <c r="CH7" s="0" t="n">
+      <c r="BJ7" s="0" t="n">
+        <v>5.35</v>
+      </c>
+      <c r="CF7" s="0" t="n">
         <v>0.134</v>
       </c>
       <c r="CI7" s="0" t="n">
@@ -4778,8 +4822,8 @@
       <c r="CN7" s="0" t="n">
         <v>0.134</v>
       </c>
-      <c r="CU7" s="0" t="n">
-        <v>7.624</v>
+      <c r="CO7" s="0" t="n">
+        <v>0.134</v>
       </c>
       <c r="CV7" s="0" t="n">
         <v>7.624</v>
@@ -4803,7 +4847,7 @@
         <v>7.624</v>
       </c>
       <c r="DC7" s="0" t="n">
-        <v>0.401</v>
+        <v>7.624</v>
       </c>
       <c r="DD7" s="0" t="n">
         <v>0.401</v>
@@ -4883,8 +4927,8 @@
       <c r="EC7" s="0" t="n">
         <v>0.401</v>
       </c>
-      <c r="EG7" s="0" t="n">
-        <v>0.03</v>
+      <c r="ED7" s="0" t="n">
+        <v>0.401</v>
       </c>
       <c r="EH7" s="0" t="n">
         <v>0.03</v>
@@ -4893,13 +4937,13 @@
         <v>0.03</v>
       </c>
       <c r="EJ7" s="0" t="n">
-        <v>32.545</v>
+        <v>0.03</v>
       </c>
       <c r="EK7" s="0" t="n">
         <v>32.545</v>
       </c>
       <c r="EL7" s="0" t="n">
-        <v>5.35</v>
+        <v>32.545</v>
       </c>
       <c r="EM7" s="0" t="n">
         <v>5.35</v>
@@ -4907,17 +4951,17 @@
       <c r="EN7" s="0" t="n">
         <v>5.35</v>
       </c>
-      <c r="EP7" s="0" t="n">
+      <c r="EO7" s="0" t="n">
+        <v>5.35</v>
+      </c>
+      <c r="EQ7" s="0" t="n">
         <v>8.025</v>
       </c>
-      <c r="EQ7" s="0" t="n">
+      <c r="ER7" s="0" t="n">
         <v>2.675</v>
       </c>
-      <c r="ER7" s="0" t="n">
+      <c r="ES7" s="0" t="n">
         <v>2.006</v>
-      </c>
-      <c r="ES7" s="0" t="n">
-        <v>0.401</v>
       </c>
       <c r="ET7" s="0" t="n">
         <v>0.401</v>
@@ -4926,10 +4970,10 @@
         <v>0.401</v>
       </c>
       <c r="EV7" s="0" t="n">
+        <v>0.401</v>
+      </c>
+      <c r="EW7" s="0" t="n">
         <v>3.21</v>
-      </c>
-      <c r="EW7" s="0" t="n">
-        <v>0.401</v>
       </c>
       <c r="EX7" s="0" t="n">
         <v>0.401</v>
@@ -4943,11 +4987,11 @@
       <c r="FA7" s="0" t="n">
         <v>0.401</v>
       </c>
-      <c r="FN7" s="0" t="n">
+      <c r="FB7" s="0" t="n">
+        <v>0.401</v>
+      </c>
+      <c r="FO7" s="0" t="n">
         <v>4.068</v>
-      </c>
-      <c r="FO7" s="0" t="n">
-        <v>0.401</v>
       </c>
       <c r="FP7" s="0" t="n">
         <v>0.401</v>
@@ -4968,7 +5012,7 @@
         <v>0.401</v>
       </c>
       <c r="FV7" s="0" t="n">
-        <v>0.134</v>
+        <v>0.401</v>
       </c>
       <c r="FW7" s="0" t="n">
         <v>0.134</v>
@@ -4976,16 +5020,16 @@
       <c r="FX7" s="0" t="n">
         <v>0.134</v>
       </c>
-      <c r="GD7" s="0" t="n">
+      <c r="FY7" s="0" t="n">
+        <v>0.134</v>
+      </c>
+      <c r="GE7" s="0" t="n">
         <v>0.401</v>
       </c>
-      <c r="GF7" s="0" t="n">
+      <c r="GG7" s="0" t="n">
         <v>0.187</v>
       </c>
-      <c r="GG7" s="0" t="n">
-        <v>0.401</v>
-      </c>
-      <c r="GL7" s="0" t="n">
+      <c r="GH7" s="0" t="n">
         <v>0.401</v>
       </c>
       <c r="GM7" s="0" t="n">
@@ -4995,7 +5039,7 @@
         <v>0.401</v>
       </c>
       <c r="GO7" s="0" t="n">
-        <v>0</v>
+        <v>0.401</v>
       </c>
       <c r="GP7" s="0" t="n">
         <v>0</v>
@@ -5006,28 +5050,31 @@
       <c r="GR7" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="GT7" s="0" t="n">
+      <c r="GS7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU7" s="0" t="n">
         <v>0.032</v>
       </c>
-      <c r="GU7" s="0" t="n">
+      <c r="GV7" s="0" t="n">
         <v>0.036</v>
       </c>
-      <c r="GW7" s="0" t="n">
+      <c r="GX7" s="0" t="n">
         <v>0.001</v>
       </c>
-      <c r="HD7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="IH7" s="0" t="n">
+      <c r="HE7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="II7" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>195</v>
-      </c>
-      <c r="C8" s="1" t="n">
-        <v>0.928</v>
+        <v>196</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>1.044</v>
       </c>
       <c r="D8" s="0" t="n">
         <v>115.707</v>
@@ -5053,6 +5100,9 @@
       <c r="K8" s="0" t="n">
         <v>115.707</v>
       </c>
+      <c r="L8" s="0" t="n">
+        <v>115.707</v>
+      </c>
       <c r="P8" s="0" t="n">
         <v>0.482</v>
       </c>
@@ -5077,19 +5127,19 @@
       <c r="AD8" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="DC8" s="0" t="n">
+      <c r="DD8" s="0" t="n">
         <v>0.482</v>
       </c>
-      <c r="HD8" s="0" t="n">
+      <c r="HE8" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>196</v>
-      </c>
-      <c r="C9" s="1" t="n">
-        <v>0.928</v>
+        <v>197</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>1.044</v>
       </c>
       <c r="D9" s="0" t="n">
         <v>115.707</v>
@@ -5115,6 +5165,9 @@
       <c r="K9" s="0" t="n">
         <v>115.707</v>
       </c>
+      <c r="L9" s="0" t="n">
+        <v>115.707</v>
+      </c>
       <c r="P9" s="0" t="n">
         <v>0.482</v>
       </c>
@@ -5139,19 +5192,19 @@
       <c r="AD9" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="DC9" s="0" t="n">
+      <c r="DD9" s="0" t="n">
         <v>0.482</v>
       </c>
-      <c r="HD9" s="0" t="n">
+      <c r="HE9" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>197</v>
-      </c>
-      <c r="C10" s="1" t="n">
-        <v>0.883</v>
+        <v>198</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>0.993</v>
       </c>
       <c r="D10" s="0" t="n">
         <v>110.108</v>
@@ -5177,6 +5230,9 @@
       <c r="K10" s="0" t="n">
         <v>110.108</v>
       </c>
+      <c r="L10" s="0" t="n">
+        <v>110.108</v>
+      </c>
       <c r="P10" s="0" t="n">
         <v>0.459</v>
       </c>
@@ -5201,19 +5257,19 @@
       <c r="AD10" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="DC10" s="0" t="n">
+      <c r="DD10" s="0" t="n">
         <v>0.459</v>
       </c>
-      <c r="HD10" s="0" t="n">
+      <c r="HE10" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>198</v>
-      </c>
-      <c r="C11" s="1" t="n">
-        <v>0.883</v>
+        <v>199</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>0.993</v>
       </c>
       <c r="D11" s="0" t="n">
         <v>110.108</v>
@@ -5239,6 +5295,9 @@
       <c r="K11" s="0" t="n">
         <v>110.108</v>
       </c>
+      <c r="L11" s="0" t="n">
+        <v>110.108</v>
+      </c>
       <c r="P11" s="0" t="n">
         <v>0.459</v>
       </c>
@@ -5263,18 +5322,18 @@
       <c r="AD11" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="DC11" s="0" t="n">
+      <c r="DD11" s="0" t="n">
         <v>0.459</v>
       </c>
-      <c r="HD11" s="0" t="n">
+      <c r="HE11" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>199</v>
-      </c>
-      <c r="C12" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="C12" s="0" t="n">
         <v>0.873</v>
       </c>
       <c r="D12" s="0" t="n">
@@ -5283,14 +5342,14 @@
       <c r="E12" s="0" t="n">
         <v>191.476</v>
       </c>
-      <c r="H12" s="0" t="n">
-        <v>47.869</v>
+      <c r="F12" s="0" t="n">
+        <v>191.476</v>
       </c>
       <c r="I12" s="0" t="n">
         <v>47.869</v>
       </c>
-      <c r="O12" s="0" t="n">
-        <v>191.476</v>
+      <c r="J12" s="0" t="n">
+        <v>47.869</v>
       </c>
       <c r="P12" s="0" t="n">
         <v>0.266</v>
@@ -5325,11 +5384,8 @@
       <c r="AE12" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="AG12" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB12" s="0" t="n">
-        <v>11.384</v>
+      <c r="AH12" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="BC12" s="0" t="n">
         <v>11.384</v>
@@ -5343,8 +5399,8 @@
       <c r="BF12" s="0" t="n">
         <v>11.384</v>
       </c>
-      <c r="CE12" s="0" t="n">
-        <v>0.798</v>
+      <c r="BG12" s="0" t="n">
+        <v>11.384</v>
       </c>
       <c r="CF12" s="0" t="n">
         <v>0.798</v>
@@ -5361,8 +5417,8 @@
       <c r="CJ12" s="0" t="n">
         <v>0.798</v>
       </c>
-      <c r="CU12" s="0" t="n">
-        <v>15.159</v>
+      <c r="CK12" s="0" t="n">
+        <v>0.798</v>
       </c>
       <c r="CV12" s="0" t="n">
         <v>15.159</v>
@@ -5379,8 +5435,8 @@
       <c r="CZ12" s="0" t="n">
         <v>15.159</v>
       </c>
-      <c r="DC12" s="0" t="n">
-        <v>0.798</v>
+      <c r="DA12" s="0" t="n">
+        <v>15.159</v>
       </c>
       <c r="DD12" s="0" t="n">
         <v>0.798</v>
@@ -5421,7 +5477,7 @@
       <c r="DP12" s="0" t="n">
         <v>0.798</v>
       </c>
-      <c r="DR12" s="0" t="n">
+      <c r="DQ12" s="0" t="n">
         <v>0.798</v>
       </c>
       <c r="DS12" s="0" t="n">
@@ -5430,7 +5486,7 @@
       <c r="DT12" s="0" t="n">
         <v>0.798</v>
       </c>
-      <c r="DV12" s="0" t="n">
+      <c r="DU12" s="0" t="n">
         <v>0.798</v>
       </c>
       <c r="DW12" s="0" t="n">
@@ -5445,17 +5501,17 @@
       <c r="DZ12" s="0" t="n">
         <v>0.798</v>
       </c>
-      <c r="EI12" s="0" t="n">
+      <c r="EA12" s="0" t="n">
+        <v>0.798</v>
+      </c>
+      <c r="EJ12" s="0" t="n">
         <v>0.03</v>
-      </c>
-      <c r="EL12" s="0" t="n">
-        <v>11.384</v>
       </c>
       <c r="EM12" s="0" t="n">
         <v>11.384</v>
       </c>
-      <c r="ES12" s="0" t="n">
-        <v>0.798</v>
+      <c r="EN12" s="0" t="n">
+        <v>11.384</v>
       </c>
       <c r="ET12" s="0" t="n">
         <v>0.798</v>
@@ -5463,42 +5519,45 @@
       <c r="EU12" s="0" t="n">
         <v>0.798</v>
       </c>
-      <c r="EW12" s="0" t="n">
+      <c r="EV12" s="0" t="n">
         <v>0.798</v>
       </c>
       <c r="EX12" s="0" t="n">
         <v>0.798</v>
       </c>
-      <c r="EZ12" s="0" t="n">
-        <v>0.266</v>
+      <c r="EY12" s="0" t="n">
+        <v>0.798</v>
       </c>
       <c r="FA12" s="0" t="n">
         <v>0.266</v>
       </c>
-      <c r="FO12" s="0" t="n">
-        <v>0.798</v>
+      <c r="FB12" s="0" t="n">
+        <v>0.266</v>
       </c>
       <c r="FP12" s="0" t="n">
         <v>0.798</v>
       </c>
-      <c r="GD12" s="0" t="n">
-        <v>0.798</v>
-      </c>
-      <c r="GL12" s="0" t="n">
-        <v>0.266</v>
+      <c r="FQ12" s="0" t="n">
+        <v>0.798</v>
+      </c>
+      <c r="GE12" s="0" t="n">
+        <v>0.798</v>
       </c>
       <c r="GM12" s="0" t="n">
         <v>0.266</v>
       </c>
-      <c r="HD12" s="0" t="n">
+      <c r="GN12" s="0" t="n">
+        <v>0.266</v>
+      </c>
+      <c r="HE12" s="0" t="n">
         <v>0.001</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>200</v>
-      </c>
-      <c r="C13" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="C13" s="0" t="n">
         <v>0.873</v>
       </c>
       <c r="D13" s="0" t="n">
@@ -5507,14 +5566,14 @@
       <c r="E13" s="0" t="n">
         <v>191.476</v>
       </c>
-      <c r="H13" s="0" t="n">
-        <v>47.869</v>
+      <c r="F13" s="0" t="n">
+        <v>191.476</v>
       </c>
       <c r="I13" s="0" t="n">
         <v>47.869</v>
       </c>
-      <c r="O13" s="0" t="n">
-        <v>191.476</v>
+      <c r="J13" s="0" t="n">
+        <v>47.869</v>
       </c>
       <c r="P13" s="0" t="n">
         <v>0.266</v>
@@ -5549,11 +5608,8 @@
       <c r="AE13" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="AG13" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB13" s="0" t="n">
-        <v>11.384</v>
+      <c r="AH13" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="BC13" s="0" t="n">
         <v>11.384</v>
@@ -5567,8 +5623,8 @@
       <c r="BF13" s="0" t="n">
         <v>11.384</v>
       </c>
-      <c r="CE13" s="0" t="n">
-        <v>0.798</v>
+      <c r="BG13" s="0" t="n">
+        <v>11.384</v>
       </c>
       <c r="CF13" s="0" t="n">
         <v>0.798</v>
@@ -5585,8 +5641,8 @@
       <c r="CJ13" s="0" t="n">
         <v>0.798</v>
       </c>
-      <c r="CU13" s="0" t="n">
-        <v>15.159</v>
+      <c r="CK13" s="0" t="n">
+        <v>0.798</v>
       </c>
       <c r="CV13" s="0" t="n">
         <v>15.159</v>
@@ -5603,8 +5659,8 @@
       <c r="CZ13" s="0" t="n">
         <v>15.159</v>
       </c>
-      <c r="DC13" s="0" t="n">
-        <v>0.798</v>
+      <c r="DA13" s="0" t="n">
+        <v>15.159</v>
       </c>
       <c r="DD13" s="0" t="n">
         <v>0.798</v>
@@ -5645,7 +5701,7 @@
       <c r="DP13" s="0" t="n">
         <v>0.798</v>
       </c>
-      <c r="DR13" s="0" t="n">
+      <c r="DQ13" s="0" t="n">
         <v>0.798</v>
       </c>
       <c r="DS13" s="0" t="n">
@@ -5654,7 +5710,7 @@
       <c r="DT13" s="0" t="n">
         <v>0.798</v>
       </c>
-      <c r="DV13" s="0" t="n">
+      <c r="DU13" s="0" t="n">
         <v>0.798</v>
       </c>
       <c r="DW13" s="0" t="n">
@@ -5669,17 +5725,17 @@
       <c r="DZ13" s="0" t="n">
         <v>0.798</v>
       </c>
-      <c r="EI13" s="0" t="n">
+      <c r="EA13" s="0" t="n">
+        <v>0.798</v>
+      </c>
+      <c r="EJ13" s="0" t="n">
         <v>0.03</v>
-      </c>
-      <c r="EL13" s="0" t="n">
-        <v>11.384</v>
       </c>
       <c r="EM13" s="0" t="n">
         <v>11.384</v>
       </c>
-      <c r="ES13" s="0" t="n">
-        <v>0.798</v>
+      <c r="EN13" s="0" t="n">
+        <v>11.384</v>
       </c>
       <c r="ET13" s="0" t="n">
         <v>0.798</v>
@@ -5687,42 +5743,45 @@
       <c r="EU13" s="0" t="n">
         <v>0.798</v>
       </c>
-      <c r="EW13" s="0" t="n">
+      <c r="EV13" s="0" t="n">
         <v>0.798</v>
       </c>
       <c r="EX13" s="0" t="n">
         <v>0.798</v>
       </c>
-      <c r="EZ13" s="0" t="n">
-        <v>0.266</v>
+      <c r="EY13" s="0" t="n">
+        <v>0.798</v>
       </c>
       <c r="FA13" s="0" t="n">
         <v>0.266</v>
       </c>
-      <c r="FO13" s="0" t="n">
-        <v>0.798</v>
+      <c r="FB13" s="0" t="n">
+        <v>0.266</v>
       </c>
       <c r="FP13" s="0" t="n">
         <v>0.798</v>
       </c>
-      <c r="GD13" s="0" t="n">
-        <v>0.798</v>
-      </c>
-      <c r="GL13" s="0" t="n">
-        <v>0.266</v>
+      <c r="FQ13" s="0" t="n">
+        <v>0.798</v>
+      </c>
+      <c r="GE13" s="0" t="n">
+        <v>0.798</v>
       </c>
       <c r="GM13" s="0" t="n">
         <v>0.266</v>
       </c>
-      <c r="HD13" s="0" t="n">
+      <c r="GN13" s="0" t="n">
+        <v>0.266</v>
+      </c>
+      <c r="HE13" s="0" t="n">
         <v>0.001</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>201</v>
-      </c>
-      <c r="C14" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="C14" s="0" t="n">
         <v>0.872</v>
       </c>
       <c r="D14" s="0" t="n">
@@ -5731,14 +5790,14 @@
       <c r="E14" s="0" t="n">
         <v>191.476</v>
       </c>
-      <c r="H14" s="0" t="n">
-        <v>47.869</v>
+      <c r="F14" s="0" t="n">
+        <v>191.476</v>
       </c>
       <c r="I14" s="0" t="n">
         <v>47.869</v>
       </c>
-      <c r="O14" s="0" t="n">
-        <v>191.476</v>
+      <c r="J14" s="0" t="n">
+        <v>47.869</v>
       </c>
       <c r="P14" s="0" t="n">
         <v>0.266</v>
@@ -5773,11 +5832,8 @@
       <c r="AE14" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="AG14" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB14" s="0" t="n">
-        <v>11.384</v>
+      <c r="AH14" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="BC14" s="0" t="n">
         <v>11.384</v>
@@ -5791,8 +5847,8 @@
       <c r="BF14" s="0" t="n">
         <v>11.384</v>
       </c>
-      <c r="CE14" s="0" t="n">
-        <v>0.798</v>
+      <c r="BG14" s="0" t="n">
+        <v>11.384</v>
       </c>
       <c r="CF14" s="0" t="n">
         <v>0.798</v>
@@ -5809,8 +5865,8 @@
       <c r="CJ14" s="0" t="n">
         <v>0.798</v>
       </c>
-      <c r="CU14" s="0" t="n">
-        <v>15.159</v>
+      <c r="CK14" s="0" t="n">
+        <v>0.798</v>
       </c>
       <c r="CV14" s="0" t="n">
         <v>15.159</v>
@@ -5827,8 +5883,8 @@
       <c r="CZ14" s="0" t="n">
         <v>15.159</v>
       </c>
-      <c r="DC14" s="0" t="n">
-        <v>0.798</v>
+      <c r="DA14" s="0" t="n">
+        <v>15.159</v>
       </c>
       <c r="DD14" s="0" t="n">
         <v>0.798</v>
@@ -5869,7 +5925,7 @@
       <c r="DP14" s="0" t="n">
         <v>0.798</v>
       </c>
-      <c r="DR14" s="0" t="n">
+      <c r="DQ14" s="0" t="n">
         <v>0.798</v>
       </c>
       <c r="DS14" s="0" t="n">
@@ -5878,7 +5934,7 @@
       <c r="DT14" s="0" t="n">
         <v>0.798</v>
       </c>
-      <c r="DV14" s="0" t="n">
+      <c r="DU14" s="0" t="n">
         <v>0.798</v>
       </c>
       <c r="DW14" s="0" t="n">
@@ -5893,121 +5949,76 @@
       <c r="DZ14" s="0" t="n">
         <v>0.798</v>
       </c>
-      <c r="EI14" s="0" t="n">
+      <c r="EA14" s="0" t="n">
+        <v>0.798</v>
+      </c>
+      <c r="EJ14" s="0" t="n">
         <v>0.03</v>
-      </c>
-      <c r="EL14" s="0" t="n">
-        <v>11.384</v>
       </c>
       <c r="EM14" s="0" t="n">
         <v>11.384</v>
       </c>
-      <c r="ES14" s="0" t="n">
-        <v>0.798</v>
+      <c r="EN14" s="0" t="n">
+        <v>11.384</v>
       </c>
       <c r="ET14" s="0" t="n">
         <v>0.798</v>
       </c>
       <c r="EU14" s="0" t="n">
+        <v>0.798</v>
+      </c>
+      <c r="EV14" s="0" t="n">
         <v>0.266</v>
       </c>
-      <c r="EW14" s="0" t="n">
-        <v>0.798</v>
-      </c>
       <c r="EX14" s="0" t="n">
         <v>0.798</v>
       </c>
-      <c r="EZ14" s="0" t="n">
-        <v>0.266</v>
+      <c r="EY14" s="0" t="n">
+        <v>0.798</v>
       </c>
       <c r="FA14" s="0" t="n">
         <v>0.266</v>
       </c>
-      <c r="FO14" s="0" t="n">
-        <v>0.798</v>
+      <c r="FB14" s="0" t="n">
+        <v>0.266</v>
       </c>
       <c r="FP14" s="0" t="n">
         <v>0.798</v>
       </c>
-      <c r="GD14" s="0" t="n">
-        <v>0.798</v>
-      </c>
-      <c r="GL14" s="0" t="n">
-        <v>0.266</v>
+      <c r="FQ14" s="0" t="n">
+        <v>0.798</v>
+      </c>
+      <c r="GE14" s="0" t="n">
+        <v>0.798</v>
       </c>
       <c r="GM14" s="0" t="n">
         <v>0.266</v>
       </c>
-      <c r="HD14" s="0" t="n">
+      <c r="GN14" s="0" t="n">
+        <v>0.266</v>
+      </c>
+      <c r="HE14" s="0" t="n">
         <v>0.001</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>202</v>
-      </c>
-      <c r="C15" s="1" t="n">
-        <v>0.771</v>
+        <v>203</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>0.849</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>32.099</v>
+        <v>279.936</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>32.099</v>
-      </c>
-      <c r="F15" s="0" t="n">
-        <v>32.099</v>
-      </c>
-      <c r="G15" s="0" t="n">
-        <v>32.099</v>
-      </c>
-      <c r="H15" s="0" t="n">
-        <v>32.099</v>
-      </c>
-      <c r="I15" s="0" t="n">
-        <v>32.099</v>
-      </c>
-      <c r="J15" s="0" t="n">
-        <v>32.099</v>
-      </c>
-      <c r="K15" s="0" t="n">
-        <v>32.099</v>
+        <v>279.936</v>
       </c>
       <c r="M15" s="0" t="n">
-        <v>32.099</v>
-      </c>
-      <c r="N15" s="0" t="n">
-        <v>32.099</v>
+        <v>279.936</v>
       </c>
       <c r="P15" s="0" t="n">
-        <v>0.134</v>
-      </c>
-      <c r="Q15" s="0" t="n">
-        <v>0.134</v>
-      </c>
-      <c r="R15" s="0" t="n">
-        <v>0.134</v>
-      </c>
-      <c r="S15" s="0" t="n">
-        <v>0.134</v>
-      </c>
-      <c r="T15" s="0" t="n">
-        <v>0.134</v>
-      </c>
-      <c r="V15" s="0" t="n">
-        <v>0.134</v>
-      </c>
-      <c r="Z15" s="0" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="AA15" s="0" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="AC15" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD15" s="0" t="n">
-        <v>0</v>
+        <v>1.166</v>
       </c>
       <c r="AE15" s="0" t="n">
         <v>0</v>
@@ -6015,349 +6026,37 @@
       <c r="AF15" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="AH15" s="0" t="n">
-        <v>32.545</v>
-      </c>
-      <c r="AI15" s="0" t="n">
-        <v>32.545</v>
-      </c>
-      <c r="AJ15" s="0" t="n">
-        <v>32.545</v>
-      </c>
-      <c r="AK15" s="0" t="n">
-        <v>4.068</v>
-      </c>
-      <c r="AL15" s="0" t="n">
-        <v>4.068</v>
-      </c>
-      <c r="AM15" s="0" t="n">
-        <v>4.068</v>
-      </c>
-      <c r="AN15" s="0" t="n">
-        <v>4.068</v>
-      </c>
-      <c r="AO15" s="0" t="n">
-        <v>4.068</v>
-      </c>
-      <c r="AP15" s="0" t="n">
-        <v>4.068</v>
-      </c>
-      <c r="AQ15" s="0" t="n">
-        <v>4.068</v>
-      </c>
-      <c r="AR15" s="0" t="n">
-        <v>4.068</v>
-      </c>
-      <c r="AS15" s="0" t="n">
-        <v>4.068</v>
-      </c>
-      <c r="AT15" s="0" t="n">
-        <v>4.068</v>
-      </c>
-      <c r="AU15" s="0" t="n">
-        <v>4.068</v>
-      </c>
-      <c r="AV15" s="0" t="n">
-        <v>4.068</v>
-      </c>
-      <c r="AW15" s="0" t="n">
-        <v>32.545</v>
-      </c>
-      <c r="AX15" s="0" t="n">
-        <v>32.545</v>
-      </c>
-      <c r="AY15" s="0" t="n">
-        <v>32.545</v>
-      </c>
-      <c r="AZ15" s="0" t="n">
-        <v>32.545</v>
-      </c>
-      <c r="BA15" s="0" t="n">
-        <v>32.545</v>
-      </c>
-      <c r="BB15" s="0" t="n">
-        <v>2.488</v>
-      </c>
-      <c r="BG15" s="0" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="BH15" s="0" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="BI15" s="0" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="BJ15" s="0" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="BK15" s="0" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="CE15" s="0" t="n">
-        <v>0.134</v>
-      </c>
-      <c r="CK15" s="0" t="n">
-        <v>0.134</v>
-      </c>
-      <c r="CL15" s="0" t="n">
-        <v>0.134</v>
-      </c>
-      <c r="CM15" s="0" t="n">
-        <v>0.134</v>
-      </c>
-      <c r="CN15" s="0" t="n">
-        <v>0.134</v>
-      </c>
-      <c r="CU15" s="0" t="n">
-        <v>2.541</v>
-      </c>
-      <c r="CV15" s="0" t="n">
-        <v>2.541</v>
-      </c>
-      <c r="CW15" s="0" t="n">
-        <v>2.541</v>
-      </c>
-      <c r="CX15" s="0" t="n">
-        <v>2.541</v>
-      </c>
-      <c r="DA15" s="0" t="n">
-        <v>2.541</v>
-      </c>
-      <c r="DB15" s="0" t="n">
-        <v>2.541</v>
-      </c>
-      <c r="DC15" s="0" t="n">
-        <v>0.134</v>
-      </c>
-      <c r="DD15" s="0" t="n">
-        <v>0.134</v>
+      <c r="AG15" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="DE15" s="0" t="n">
-        <v>0.134</v>
-      </c>
-      <c r="DF15" s="0" t="n">
-        <v>0.134</v>
+        <v>1.166</v>
       </c>
       <c r="DG15" s="0" t="n">
-        <v>0.134</v>
+        <v>1.166</v>
       </c>
       <c r="DH15" s="0" t="n">
-        <v>0.134</v>
-      </c>
-      <c r="DI15" s="0" t="n">
-        <v>0.134</v>
+        <v>1.166</v>
       </c>
       <c r="DJ15" s="0" t="n">
-        <v>0.134</v>
+        <v>1.166</v>
       </c>
       <c r="DK15" s="0" t="n">
-        <v>0.134</v>
-      </c>
-      <c r="DL15" s="0" t="n">
-        <v>0.134</v>
+        <v>1.166</v>
       </c>
       <c r="DM15" s="0" t="n">
-        <v>0.134</v>
-      </c>
-      <c r="DN15" s="0" t="n">
-        <v>0.134</v>
-      </c>
-      <c r="DO15" s="0" t="n">
-        <v>0.134</v>
-      </c>
-      <c r="DP15" s="0" t="n">
-        <v>0.134</v>
-      </c>
-      <c r="DQ15" s="0" t="n">
-        <v>0.134</v>
-      </c>
-      <c r="DU15" s="0" t="n">
-        <v>0.134</v>
-      </c>
-      <c r="EA15" s="0" t="n">
-        <v>0.134</v>
-      </c>
-      <c r="EB15" s="0" t="n">
-        <v>0.134</v>
-      </c>
-      <c r="EC15" s="0" t="n">
-        <v>0.134</v>
-      </c>
-      <c r="EG15" s="0" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="EH15" s="0" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="EJ15" s="0" t="n">
-        <v>32.545</v>
-      </c>
-      <c r="EK15" s="0" t="n">
-        <v>32.545</v>
-      </c>
-      <c r="EL15" s="0" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="EN15" s="0" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="EP15" s="0" t="n">
-        <v>2.675</v>
-      </c>
-      <c r="EQ15" s="0" t="n">
-        <v>2.675</v>
-      </c>
-      <c r="ER15" s="0" t="n">
-        <v>0.669</v>
-      </c>
-      <c r="ES15" s="0" t="n">
-        <v>0.134</v>
-      </c>
-      <c r="ET15" s="0" t="n">
-        <v>0.134</v>
-      </c>
-      <c r="EU15" s="0" t="n">
-        <v>0.134</v>
-      </c>
-      <c r="EY15" s="0" t="n">
-        <v>0.134</v>
-      </c>
-      <c r="FN15" s="0" t="n">
-        <v>4.068</v>
-      </c>
-      <c r="FO15" s="0" t="n">
-        <v>0.134</v>
-      </c>
-      <c r="FQ15" s="0" t="n">
-        <v>0.134</v>
-      </c>
-      <c r="FR15" s="0" t="n">
-        <v>0.134</v>
-      </c>
-      <c r="FS15" s="0" t="n">
-        <v>0.134</v>
-      </c>
-      <c r="FT15" s="0" t="n">
-        <v>0.134</v>
-      </c>
-      <c r="FU15" s="0" t="n">
-        <v>0.134</v>
-      </c>
-      <c r="FV15" s="0" t="n">
-        <v>0.134</v>
-      </c>
-      <c r="FW15" s="0" t="n">
-        <v>0.134</v>
-      </c>
-      <c r="FX15" s="0" t="n">
-        <v>0.134</v>
-      </c>
-      <c r="FY15" s="0" t="n">
-        <v>0.134</v>
-      </c>
-      <c r="GF15" s="0" t="n">
-        <v>0.062</v>
-      </c>
-      <c r="GH15" s="0" t="n">
-        <v>0.134</v>
-      </c>
-      <c r="GI15" s="0" t="n">
-        <v>0.134</v>
-      </c>
-      <c r="GL15" s="0" t="n">
-        <v>0.134</v>
-      </c>
-      <c r="GM15" s="0" t="n">
-        <v>0.134</v>
-      </c>
-      <c r="GN15" s="0" t="n">
-        <v>0.134</v>
-      </c>
-      <c r="GO15" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="GP15" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="GQ15" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="GR15" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="GS15" s="0" t="n">
-        <v>4.068</v>
-      </c>
-      <c r="GT15" s="0" t="n">
-        <v>0.011</v>
-      </c>
-      <c r="GU15" s="0" t="n">
-        <v>0.012</v>
-      </c>
-      <c r="GW15" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="HD15" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="HE15" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="HF15" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="HG15" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="HH15" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="HO15" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="HP15" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="HQ15" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="HR15" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="HS15" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="HT15" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="HU15" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="HV15" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="IC15" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="ID15" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="IE15" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="IF15" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="IH15" s="0" t="n">
-        <v>0</v>
+        <v>1.166</v>
+      </c>
+      <c r="DR15" s="0" t="n">
+        <v>1.166</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>203</v>
-      </c>
-      <c r="C16" s="1" t="n">
-        <v>0.771</v>
+        <v>204</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>0.803</v>
       </c>
       <c r="D16" s="0" t="n">
         <v>32.099</v>
@@ -6383,12 +6082,15 @@
       <c r="K16" s="0" t="n">
         <v>32.099</v>
       </c>
-      <c r="M16" s="0" t="n">
+      <c r="L16" s="0" t="n">
         <v>32.099</v>
       </c>
       <c r="N16" s="0" t="n">
         <v>32.099</v>
       </c>
+      <c r="O16" s="0" t="n">
+        <v>32.099</v>
+      </c>
       <c r="P16" s="0" t="n">
         <v>0.134</v>
       </c>
@@ -6425,8 +6127,8 @@
       <c r="AF16" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="AH16" s="0" t="n">
-        <v>32.545</v>
+      <c r="AG16" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="AI16" s="0" t="n">
         <v>32.545</v>
@@ -6435,7 +6137,7 @@
         <v>32.545</v>
       </c>
       <c r="AK16" s="0" t="n">
-        <v>4.068</v>
+        <v>32.545</v>
       </c>
       <c r="AL16" s="0" t="n">
         <v>4.068</v>
@@ -6471,7 +6173,7 @@
         <v>4.068</v>
       </c>
       <c r="AW16" s="0" t="n">
-        <v>32.545</v>
+        <v>4.068</v>
       </c>
       <c r="AX16" s="0" t="n">
         <v>32.545</v>
@@ -6486,10 +6188,10 @@
         <v>32.545</v>
       </c>
       <c r="BB16" s="0" t="n">
+        <v>32.545</v>
+      </c>
+      <c r="BC16" s="0" t="n">
         <v>2.488</v>
-      </c>
-      <c r="BG16" s="0" t="n">
-        <v>5.35</v>
       </c>
       <c r="BH16" s="0" t="n">
         <v>5.35</v>
@@ -6503,10 +6205,10 @@
       <c r="BK16" s="0" t="n">
         <v>5.35</v>
       </c>
-      <c r="CE16" s="0" t="n">
-        <v>0.134</v>
-      </c>
-      <c r="CK16" s="0" t="n">
+      <c r="BL16" s="0" t="n">
+        <v>5.35</v>
+      </c>
+      <c r="CF16" s="0" t="n">
         <v>0.134</v>
       </c>
       <c r="CL16" s="0" t="n">
@@ -6518,8 +6220,8 @@
       <c r="CN16" s="0" t="n">
         <v>0.134</v>
       </c>
-      <c r="CU16" s="0" t="n">
-        <v>2.541</v>
+      <c r="CO16" s="0" t="n">
+        <v>0.134</v>
       </c>
       <c r="CV16" s="0" t="n">
         <v>2.541</v>
@@ -6530,14 +6232,14 @@
       <c r="CX16" s="0" t="n">
         <v>2.541</v>
       </c>
-      <c r="DA16" s="0" t="n">
+      <c r="CY16" s="0" t="n">
         <v>2.541</v>
       </c>
       <c r="DB16" s="0" t="n">
         <v>2.541</v>
       </c>
       <c r="DC16" s="0" t="n">
-        <v>0.134</v>
+        <v>2.541</v>
       </c>
       <c r="DD16" s="0" t="n">
         <v>0.134</v>
@@ -6581,10 +6283,10 @@
       <c r="DQ16" s="0" t="n">
         <v>0.134</v>
       </c>
-      <c r="DU16" s="0" t="n">
-        <v>0.134</v>
-      </c>
-      <c r="EA16" s="0" t="n">
+      <c r="DR16" s="0" t="n">
+        <v>0.134</v>
+      </c>
+      <c r="DV16" s="0" t="n">
         <v>0.134</v>
       </c>
       <c r="EB16" s="0" t="n">
@@ -6593,52 +6295,52 @@
       <c r="EC16" s="0" t="n">
         <v>0.134</v>
       </c>
-      <c r="EG16" s="0" t="n">
-        <v>0.03</v>
+      <c r="ED16" s="0" t="n">
+        <v>0.134</v>
       </c>
       <c r="EH16" s="0" t="n">
         <v>0.03</v>
       </c>
-      <c r="EJ16" s="0" t="n">
-        <v>32.545</v>
+      <c r="EI16" s="0" t="n">
+        <v>0.03</v>
       </c>
       <c r="EK16" s="0" t="n">
         <v>32.545</v>
       </c>
       <c r="EL16" s="0" t="n">
+        <v>32.545</v>
+      </c>
+      <c r="EM16" s="0" t="n">
         <v>5.35</v>
       </c>
-      <c r="EN16" s="0" t="n">
+      <c r="EO16" s="0" t="n">
         <v>5.35</v>
-      </c>
-      <c r="EP16" s="0" t="n">
-        <v>2.675</v>
       </c>
       <c r="EQ16" s="0" t="n">
         <v>2.675</v>
       </c>
       <c r="ER16" s="0" t="n">
+        <v>2.675</v>
+      </c>
+      <c r="ES16" s="0" t="n">
         <v>0.669</v>
       </c>
-      <c r="ES16" s="0" t="n">
-        <v>0.134</v>
-      </c>
       <c r="ET16" s="0" t="n">
         <v>0.134</v>
       </c>
       <c r="EU16" s="0" t="n">
         <v>0.134</v>
       </c>
-      <c r="EY16" s="0" t="n">
-        <v>0.134</v>
-      </c>
-      <c r="FN16" s="0" t="n">
+      <c r="EV16" s="0" t="n">
+        <v>0.134</v>
+      </c>
+      <c r="EZ16" s="0" t="n">
+        <v>0.134</v>
+      </c>
+      <c r="FO16" s="0" t="n">
         <v>4.068</v>
       </c>
-      <c r="FO16" s="0" t="n">
-        <v>0.134</v>
-      </c>
-      <c r="FQ16" s="0" t="n">
+      <c r="FP16" s="0" t="n">
         <v>0.134</v>
       </c>
       <c r="FR16" s="0" t="n">
@@ -6662,16 +6364,19 @@
       <c r="FX16" s="0" t="n">
         <v>0.134</v>
       </c>
-      <c r="GF16" s="0" t="n">
+      <c r="FY16" s="0" t="n">
+        <v>0.134</v>
+      </c>
+      <c r="FZ16" s="0" t="n">
+        <v>0.134</v>
+      </c>
+      <c r="GG16" s="0" t="n">
         <v>0.062</v>
       </c>
-      <c r="GH16" s="0" t="n">
-        <v>0.134</v>
-      </c>
       <c r="GI16" s="0" t="n">
         <v>0.134</v>
       </c>
-      <c r="GL16" s="0" t="n">
+      <c r="GJ16" s="0" t="n">
         <v>0.134</v>
       </c>
       <c r="GM16" s="0" t="n">
@@ -6681,7 +6386,7 @@
         <v>0.134</v>
       </c>
       <c r="GO16" s="0" t="n">
-        <v>0</v>
+        <v>0.134</v>
       </c>
       <c r="GP16" s="0" t="n">
         <v>0</v>
@@ -6693,75 +6398,138 @@
         <v>0</v>
       </c>
       <c r="GS16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="GT16" s="0" t="n">
         <v>4.068</v>
       </c>
-      <c r="GT16" s="0" t="n">
+      <c r="GU16" s="0" t="n">
         <v>0.011</v>
       </c>
-      <c r="GU16" s="0" t="n">
+      <c r="GV16" s="0" t="n">
         <v>0.012</v>
       </c>
-      <c r="GW16" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="HD16" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="IH16" s="0" t="n">
+      <c r="GX16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="HE16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="HF16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="HG16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="HH16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="HI16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="HP16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="HQ16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="HR16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="HS16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="HT16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="HU16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="HV16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="HW16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="ID16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="IE16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="IF16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="IG16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="II16" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>204</v>
-      </c>
-      <c r="C17" s="1" t="n">
-        <v>0.673</v>
+        <v>205</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>0.803</v>
       </c>
       <c r="D17" s="0" t="n">
-        <v>74.65</v>
+        <v>32.099</v>
       </c>
       <c r="E17" s="0" t="n">
-        <v>74.65</v>
+        <v>32.099</v>
       </c>
       <c r="F17" s="0" t="n">
-        <v>74.65</v>
+        <v>32.099</v>
       </c>
       <c r="G17" s="0" t="n">
-        <v>74.65</v>
+        <v>32.099</v>
       </c>
       <c r="H17" s="0" t="n">
-        <v>74.65</v>
+        <v>32.099</v>
       </c>
       <c r="I17" s="0" t="n">
-        <v>74.65</v>
+        <v>32.099</v>
       </c>
       <c r="J17" s="0" t="n">
-        <v>74.65</v>
+        <v>32.099</v>
       </c>
       <c r="K17" s="0" t="n">
-        <v>74.65</v>
+        <v>32.099</v>
       </c>
       <c r="L17" s="0" t="n">
-        <v>74.65</v>
+        <v>32.099</v>
+      </c>
+      <c r="N17" s="0" t="n">
+        <v>32.099</v>
+      </c>
+      <c r="O17" s="0" t="n">
+        <v>32.099</v>
       </c>
       <c r="P17" s="0" t="n">
-        <v>0.311</v>
+        <v>0.134</v>
       </c>
       <c r="Q17" s="0" t="n">
-        <v>0.311</v>
+        <v>0.134</v>
       </c>
       <c r="R17" s="0" t="n">
-        <v>0.311</v>
+        <v>0.134</v>
       </c>
       <c r="S17" s="0" t="n">
-        <v>0.311</v>
+        <v>0.134</v>
+      </c>
+      <c r="T17" s="0" t="n">
+        <v>0.134</v>
+      </c>
+      <c r="V17" s="0" t="n">
+        <v>0.134</v>
       </c>
       <c r="Z17" s="0" t="n">
-        <v>0.003</v>
+        <v>0.001</v>
       </c>
       <c r="AA17" s="0" t="n">
-        <v>0.003</v>
+        <v>0.001</v>
       </c>
       <c r="AC17" s="0" t="n">
         <v>0</v>
@@ -6769,63 +6537,375 @@
       <c r="AD17" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="AE17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI17" s="0" t="n">
+        <v>32.545</v>
+      </c>
+      <c r="AJ17" s="0" t="n">
+        <v>32.545</v>
+      </c>
+      <c r="AK17" s="0" t="n">
+        <v>32.545</v>
+      </c>
+      <c r="AL17" s="0" t="n">
+        <v>4.068</v>
+      </c>
+      <c r="AM17" s="0" t="n">
+        <v>4.068</v>
+      </c>
+      <c r="AN17" s="0" t="n">
+        <v>4.068</v>
+      </c>
+      <c r="AO17" s="0" t="n">
+        <v>4.068</v>
+      </c>
+      <c r="AP17" s="0" t="n">
+        <v>4.068</v>
+      </c>
+      <c r="AQ17" s="0" t="n">
+        <v>4.068</v>
+      </c>
+      <c r="AR17" s="0" t="n">
+        <v>4.068</v>
+      </c>
+      <c r="AS17" s="0" t="n">
+        <v>4.068</v>
+      </c>
+      <c r="AT17" s="0" t="n">
+        <v>4.068</v>
+      </c>
+      <c r="AU17" s="0" t="n">
+        <v>4.068</v>
+      </c>
+      <c r="AV17" s="0" t="n">
+        <v>4.068</v>
+      </c>
+      <c r="AW17" s="0" t="n">
+        <v>4.068</v>
+      </c>
+      <c r="AX17" s="0" t="n">
+        <v>32.545</v>
+      </c>
+      <c r="AY17" s="0" t="n">
+        <v>32.545</v>
+      </c>
+      <c r="AZ17" s="0" t="n">
+        <v>32.545</v>
+      </c>
+      <c r="BA17" s="0" t="n">
+        <v>32.545</v>
+      </c>
+      <c r="BB17" s="0" t="n">
+        <v>32.545</v>
+      </c>
+      <c r="BC17" s="0" t="n">
+        <v>2.488</v>
+      </c>
+      <c r="BH17" s="0" t="n">
+        <v>5.35</v>
+      </c>
+      <c r="BI17" s="0" t="n">
+        <v>5.35</v>
+      </c>
+      <c r="BJ17" s="0" t="n">
+        <v>5.35</v>
+      </c>
+      <c r="BK17" s="0" t="n">
+        <v>5.35</v>
+      </c>
+      <c r="BL17" s="0" t="n">
+        <v>5.35</v>
+      </c>
+      <c r="CF17" s="0" t="n">
+        <v>0.134</v>
+      </c>
+      <c r="CL17" s="0" t="n">
+        <v>0.134</v>
+      </c>
+      <c r="CM17" s="0" t="n">
+        <v>0.134</v>
+      </c>
+      <c r="CN17" s="0" t="n">
+        <v>0.134</v>
+      </c>
+      <c r="CO17" s="0" t="n">
+        <v>0.134</v>
+      </c>
+      <c r="CV17" s="0" t="n">
+        <v>2.541</v>
+      </c>
+      <c r="CW17" s="0" t="n">
+        <v>2.541</v>
+      </c>
+      <c r="CX17" s="0" t="n">
+        <v>2.541</v>
+      </c>
+      <c r="CY17" s="0" t="n">
+        <v>2.541</v>
+      </c>
+      <c r="DB17" s="0" t="n">
+        <v>2.541</v>
+      </c>
       <c r="DC17" s="0" t="n">
-        <v>0.311</v>
-      </c>
-      <c r="HD17" s="0" t="n">
+        <v>2.541</v>
+      </c>
+      <c r="DD17" s="0" t="n">
+        <v>0.134</v>
+      </c>
+      <c r="DE17" s="0" t="n">
+        <v>0.134</v>
+      </c>
+      <c r="DF17" s="0" t="n">
+        <v>0.134</v>
+      </c>
+      <c r="DG17" s="0" t="n">
+        <v>0.134</v>
+      </c>
+      <c r="DH17" s="0" t="n">
+        <v>0.134</v>
+      </c>
+      <c r="DI17" s="0" t="n">
+        <v>0.134</v>
+      </c>
+      <c r="DJ17" s="0" t="n">
+        <v>0.134</v>
+      </c>
+      <c r="DK17" s="0" t="n">
+        <v>0.134</v>
+      </c>
+      <c r="DL17" s="0" t="n">
+        <v>0.134</v>
+      </c>
+      <c r="DM17" s="0" t="n">
+        <v>0.134</v>
+      </c>
+      <c r="DN17" s="0" t="n">
+        <v>0.134</v>
+      </c>
+      <c r="DO17" s="0" t="n">
+        <v>0.134</v>
+      </c>
+      <c r="DP17" s="0" t="n">
+        <v>0.134</v>
+      </c>
+      <c r="DQ17" s="0" t="n">
+        <v>0.134</v>
+      </c>
+      <c r="DR17" s="0" t="n">
+        <v>0.134</v>
+      </c>
+      <c r="DV17" s="0" t="n">
+        <v>0.134</v>
+      </c>
+      <c r="EB17" s="0" t="n">
+        <v>0.134</v>
+      </c>
+      <c r="EC17" s="0" t="n">
+        <v>0.134</v>
+      </c>
+      <c r="ED17" s="0" t="n">
+        <v>0.134</v>
+      </c>
+      <c r="EH17" s="0" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="EI17" s="0" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="EK17" s="0" t="n">
+        <v>32.545</v>
+      </c>
+      <c r="EL17" s="0" t="n">
+        <v>32.545</v>
+      </c>
+      <c r="EM17" s="0" t="n">
+        <v>5.35</v>
+      </c>
+      <c r="EO17" s="0" t="n">
+        <v>5.35</v>
+      </c>
+      <c r="EQ17" s="0" t="n">
+        <v>2.675</v>
+      </c>
+      <c r="ER17" s="0" t="n">
+        <v>2.675</v>
+      </c>
+      <c r="ES17" s="0" t="n">
+        <v>0.669</v>
+      </c>
+      <c r="ET17" s="0" t="n">
+        <v>0.134</v>
+      </c>
+      <c r="EU17" s="0" t="n">
+        <v>0.134</v>
+      </c>
+      <c r="EV17" s="0" t="n">
+        <v>0.134</v>
+      </c>
+      <c r="EZ17" s="0" t="n">
+        <v>0.134</v>
+      </c>
+      <c r="FO17" s="0" t="n">
+        <v>4.068</v>
+      </c>
+      <c r="FP17" s="0" t="n">
+        <v>0.134</v>
+      </c>
+      <c r="FR17" s="0" t="n">
+        <v>0.134</v>
+      </c>
+      <c r="FS17" s="0" t="n">
+        <v>0.134</v>
+      </c>
+      <c r="FT17" s="0" t="n">
+        <v>0.134</v>
+      </c>
+      <c r="FU17" s="0" t="n">
+        <v>0.134</v>
+      </c>
+      <c r="FV17" s="0" t="n">
+        <v>0.134</v>
+      </c>
+      <c r="FW17" s="0" t="n">
+        <v>0.134</v>
+      </c>
+      <c r="FX17" s="0" t="n">
+        <v>0.134</v>
+      </c>
+      <c r="FY17" s="0" t="n">
+        <v>0.134</v>
+      </c>
+      <c r="GG17" s="0" t="n">
+        <v>0.062</v>
+      </c>
+      <c r="GI17" s="0" t="n">
+        <v>0.134</v>
+      </c>
+      <c r="GJ17" s="0" t="n">
+        <v>0.134</v>
+      </c>
+      <c r="GM17" s="0" t="n">
+        <v>0.134</v>
+      </c>
+      <c r="GN17" s="0" t="n">
+        <v>0.134</v>
+      </c>
+      <c r="GO17" s="0" t="n">
+        <v>0.134</v>
+      </c>
+      <c r="GP17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="GQ17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="GR17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="GS17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="GT17" s="0" t="n">
+        <v>4.068</v>
+      </c>
+      <c r="GU17" s="0" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="GV17" s="0" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="GX17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="HE17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="II17" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>205</v>
-      </c>
-      <c r="C18" s="1" t="n">
-        <v>0.569</v>
+        <v>206</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>0.748</v>
       </c>
       <c r="D18" s="0" t="n">
-        <v>279.936</v>
+        <v>74.65</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <v>74.65</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <v>74.65</v>
+      </c>
+      <c r="G18" s="0" t="n">
+        <v>74.65</v>
+      </c>
+      <c r="H18" s="0" t="n">
+        <v>74.65</v>
+      </c>
+      <c r="I18" s="0" t="n">
+        <v>74.65</v>
+      </c>
+      <c r="J18" s="0" t="n">
+        <v>74.65</v>
+      </c>
+      <c r="K18" s="0" t="n">
+        <v>74.65</v>
       </c>
       <c r="L18" s="0" t="n">
-        <v>279.936</v>
+        <v>74.65</v>
+      </c>
+      <c r="M18" s="0" t="n">
+        <v>74.65</v>
       </c>
       <c r="P18" s="0" t="n">
-        <v>1.166</v>
-      </c>
-      <c r="AE18" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF18" s="0" t="n">
+        <v>0.311</v>
+      </c>
+      <c r="Q18" s="0" t="n">
+        <v>0.311</v>
+      </c>
+      <c r="R18" s="0" t="n">
+        <v>0.311</v>
+      </c>
+      <c r="S18" s="0" t="n">
+        <v>0.311</v>
+      </c>
+      <c r="Z18" s="0" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="AA18" s="0" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="AC18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD18" s="0" t="n">
         <v>0</v>
       </c>
       <c r="DD18" s="0" t="n">
-        <v>1.166</v>
-      </c>
-      <c r="DF18" s="0" t="n">
-        <v>1.166</v>
-      </c>
-      <c r="DG18" s="0" t="n">
-        <v>1.166</v>
-      </c>
-      <c r="DI18" s="0" t="n">
-        <v>1.166</v>
-      </c>
-      <c r="DJ18" s="0" t="n">
-        <v>1.166</v>
-      </c>
-      <c r="DL18" s="0" t="n">
-        <v>1.166</v>
-      </c>
-      <c r="DQ18" s="0" t="n">
-        <v>1.166</v>
+        <v>0.311</v>
+      </c>
+      <c r="HE18" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>206</v>
-      </c>
-      <c r="C19" s="1" t="n">
-        <v>0.527</v>
+        <v>207</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>0.559</v>
       </c>
       <c r="D19" s="0" t="n">
         <v>32.099</v>
@@ -6851,12 +6931,15 @@
       <c r="K19" s="0" t="n">
         <v>32.099</v>
       </c>
-      <c r="M19" s="0" t="n">
+      <c r="L19" s="0" t="n">
         <v>32.099</v>
       </c>
       <c r="N19" s="0" t="n">
         <v>32.099</v>
       </c>
+      <c r="O19" s="0" t="n">
+        <v>32.099</v>
+      </c>
       <c r="P19" s="0" t="n">
         <v>0.134</v>
       </c>
@@ -6890,9 +6973,6 @@
       <c r="AE19" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="AH19" s="0" t="n">
-        <v>32.545</v>
-      </c>
       <c r="AI19" s="0" t="n">
         <v>32.545</v>
       </c>
@@ -6900,7 +6980,7 @@
         <v>32.545</v>
       </c>
       <c r="AK19" s="0" t="n">
-        <v>4.068</v>
+        <v>32.545</v>
       </c>
       <c r="AL19" s="0" t="n">
         <v>4.068</v>
@@ -6935,11 +7015,11 @@
       <c r="AV19" s="0" t="n">
         <v>4.068</v>
       </c>
-      <c r="BB19" s="0" t="n">
+      <c r="AW19" s="0" t="n">
+        <v>4.068</v>
+      </c>
+      <c r="BC19" s="0" t="n">
         <v>2.488</v>
-      </c>
-      <c r="BG19" s="0" t="n">
-        <v>5.35</v>
       </c>
       <c r="BH19" s="0" t="n">
         <v>5.35</v>
@@ -6947,10 +7027,10 @@
       <c r="BI19" s="0" t="n">
         <v>5.35</v>
       </c>
-      <c r="CE19" s="0" t="n">
-        <v>0.134</v>
-      </c>
-      <c r="CK19" s="0" t="n">
+      <c r="BJ19" s="0" t="n">
+        <v>5.35</v>
+      </c>
+      <c r="CF19" s="0" t="n">
         <v>0.134</v>
       </c>
       <c r="CL19" s="0" t="n">
@@ -6962,8 +7042,8 @@
       <c r="CN19" s="0" t="n">
         <v>0.134</v>
       </c>
-      <c r="CU19" s="0" t="n">
-        <v>2.541</v>
+      <c r="CO19" s="0" t="n">
+        <v>0.134</v>
       </c>
       <c r="CV19" s="0" t="n">
         <v>2.541</v>
@@ -6974,14 +7054,14 @@
       <c r="CX19" s="0" t="n">
         <v>2.541</v>
       </c>
-      <c r="DA19" s="0" t="n">
+      <c r="CY19" s="0" t="n">
         <v>2.541</v>
       </c>
       <c r="DB19" s="0" t="n">
         <v>2.541</v>
       </c>
       <c r="DC19" s="0" t="n">
-        <v>0.134</v>
+        <v>2.541</v>
       </c>
       <c r="DD19" s="0" t="n">
         <v>0.134</v>
@@ -6998,7 +7078,7 @@
       <c r="DH19" s="0" t="n">
         <v>0.134</v>
       </c>
-      <c r="DK19" s="0" t="n">
+      <c r="DI19" s="0" t="n">
         <v>0.134</v>
       </c>
       <c r="DL19" s="0" t="n">
@@ -7013,49 +7093,49 @@
       <c r="DO19" s="0" t="n">
         <v>0.134</v>
       </c>
-      <c r="DU19" s="0" t="n">
-        <v>0.134</v>
-      </c>
-      <c r="EC19" s="0" t="n">
-        <v>0.134</v>
-      </c>
-      <c r="EG19" s="0" t="n">
-        <v>0.03</v>
+      <c r="DP19" s="0" t="n">
+        <v>0.134</v>
+      </c>
+      <c r="DV19" s="0" t="n">
+        <v>0.134</v>
+      </c>
+      <c r="ED19" s="0" t="n">
+        <v>0.134</v>
       </c>
       <c r="EH19" s="0" t="n">
         <v>0.03</v>
       </c>
-      <c r="EL19" s="0" t="n">
+      <c r="EI19" s="0" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="EM19" s="0" t="n">
         <v>5.35</v>
       </c>
-      <c r="EN19" s="0" t="n">
+      <c r="EO19" s="0" t="n">
         <v>5.35</v>
-      </c>
-      <c r="EP19" s="0" t="n">
-        <v>2.675</v>
       </c>
       <c r="EQ19" s="0" t="n">
         <v>2.675</v>
       </c>
       <c r="ER19" s="0" t="n">
+        <v>2.675</v>
+      </c>
+      <c r="ES19" s="0" t="n">
         <v>0.669</v>
       </c>
-      <c r="ES19" s="0" t="n">
-        <v>0.134</v>
-      </c>
       <c r="ET19" s="0" t="n">
         <v>0.134</v>
       </c>
       <c r="EU19" s="0" t="n">
         <v>0.134</v>
       </c>
-      <c r="FN19" s="0" t="n">
+      <c r="EV19" s="0" t="n">
+        <v>0.134</v>
+      </c>
+      <c r="FO19" s="0" t="n">
         <v>4.068</v>
       </c>
-      <c r="FO19" s="0" t="n">
-        <v>0.134</v>
-      </c>
-      <c r="FQ19" s="0" t="n">
+      <c r="FP19" s="0" t="n">
         <v>0.134</v>
       </c>
       <c r="FR19" s="0" t="n">
@@ -7079,12 +7159,12 @@
       <c r="FX19" s="0" t="n">
         <v>0.134</v>
       </c>
-      <c r="GF19" s="0" t="n">
+      <c r="FY19" s="0" t="n">
+        <v>0.134</v>
+      </c>
+      <c r="GG19" s="0" t="n">
         <v>0.062</v>
       </c>
-      <c r="GL19" s="0" t="n">
-        <v>0.134</v>
-      </c>
       <c r="GM19" s="0" t="n">
         <v>0.134</v>
       </c>
@@ -7092,7 +7172,7 @@
         <v>0.134</v>
       </c>
       <c r="GO19" s="0" t="n">
-        <v>0</v>
+        <v>0.134</v>
       </c>
       <c r="GP19" s="0" t="n">
         <v>0</v>
@@ -7103,25 +7183,28 @@
       <c r="GR19" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="GT19" s="0" t="n">
+      <c r="GS19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU19" s="0" t="n">
         <v>0.011</v>
       </c>
-      <c r="GU19" s="0" t="n">
+      <c r="GV19" s="0" t="n">
         <v>0.012</v>
       </c>
-      <c r="GW19" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="HD19" s="0" t="n">
+      <c r="GX19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="HE19" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>207</v>
-      </c>
-      <c r="C20" s="1" t="n">
-        <v>0.506</v>
+        <v>208</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>0.538</v>
       </c>
       <c r="D20" s="0" t="n">
         <v>32.099</v>
@@ -7147,12 +7230,15 @@
       <c r="K20" s="0" t="n">
         <v>32.099</v>
       </c>
-      <c r="M20" s="0" t="n">
+      <c r="L20" s="0" t="n">
         <v>32.099</v>
       </c>
       <c r="N20" s="0" t="n">
         <v>32.099</v>
       </c>
+      <c r="O20" s="0" t="n">
+        <v>32.099</v>
+      </c>
       <c r="P20" s="0" t="n">
         <v>0.134</v>
       </c>
@@ -7186,9 +7272,6 @@
       <c r="AE20" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="AH20" s="0" t="n">
-        <v>32.545</v>
-      </c>
       <c r="AI20" s="0" t="n">
         <v>32.545</v>
       </c>
@@ -7196,7 +7279,7 @@
         <v>32.545</v>
       </c>
       <c r="AK20" s="0" t="n">
-        <v>4.068</v>
+        <v>32.545</v>
       </c>
       <c r="AL20" s="0" t="n">
         <v>4.068</v>
@@ -7231,20 +7314,20 @@
       <c r="AV20" s="0" t="n">
         <v>4.068</v>
       </c>
-      <c r="BB20" s="0" t="n">
+      <c r="AW20" s="0" t="n">
+        <v>4.068</v>
+      </c>
+      <c r="BC20" s="0" t="n">
         <v>2.488</v>
       </c>
-      <c r="CE20" s="0" t="n">
-        <v>0.134</v>
-      </c>
-      <c r="CK20" s="0" t="n">
+      <c r="CF20" s="0" t="n">
         <v>0.134</v>
       </c>
       <c r="CL20" s="0" t="n">
         <v>0.134</v>
       </c>
-      <c r="CU20" s="0" t="n">
-        <v>2.541</v>
+      <c r="CM20" s="0" t="n">
+        <v>0.134</v>
       </c>
       <c r="CV20" s="0" t="n">
         <v>2.541</v>
@@ -7255,14 +7338,14 @@
       <c r="CX20" s="0" t="n">
         <v>2.541</v>
       </c>
-      <c r="DA20" s="0" t="n">
+      <c r="CY20" s="0" t="n">
         <v>2.541</v>
       </c>
       <c r="DB20" s="0" t="n">
         <v>2.541</v>
       </c>
       <c r="DC20" s="0" t="n">
-        <v>0.134</v>
+        <v>2.541</v>
       </c>
       <c r="DD20" s="0" t="n">
         <v>0.134</v>
@@ -7279,7 +7362,7 @@
       <c r="DH20" s="0" t="n">
         <v>0.134</v>
       </c>
-      <c r="DK20" s="0" t="n">
+      <c r="DI20" s="0" t="n">
         <v>0.134</v>
       </c>
       <c r="DL20" s="0" t="n">
@@ -7294,46 +7377,46 @@
       <c r="DO20" s="0" t="n">
         <v>0.134</v>
       </c>
-      <c r="DU20" s="0" t="n">
-        <v>0.134</v>
-      </c>
-      <c r="EC20" s="0" t="n">
-        <v>0.134</v>
-      </c>
-      <c r="EG20" s="0" t="n">
-        <v>0.03</v>
+      <c r="DP20" s="0" t="n">
+        <v>0.134</v>
+      </c>
+      <c r="DV20" s="0" t="n">
+        <v>0.134</v>
+      </c>
+      <c r="ED20" s="0" t="n">
+        <v>0.134</v>
       </c>
       <c r="EH20" s="0" t="n">
         <v>0.03</v>
       </c>
-      <c r="EL20" s="0" t="n">
+      <c r="EI20" s="0" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="EM20" s="0" t="n">
         <v>5.35</v>
-      </c>
-      <c r="EP20" s="0" t="n">
-        <v>2.675</v>
       </c>
       <c r="EQ20" s="0" t="n">
         <v>2.675</v>
       </c>
       <c r="ER20" s="0" t="n">
+        <v>2.675</v>
+      </c>
+      <c r="ES20" s="0" t="n">
         <v>0.669</v>
       </c>
-      <c r="ES20" s="0" t="n">
-        <v>0.134</v>
-      </c>
       <c r="ET20" s="0" t="n">
         <v>0.134</v>
       </c>
       <c r="EU20" s="0" t="n">
         <v>0.134</v>
       </c>
-      <c r="FN20" s="0" t="n">
+      <c r="EV20" s="0" t="n">
+        <v>0.134</v>
+      </c>
+      <c r="FO20" s="0" t="n">
         <v>4.068</v>
       </c>
-      <c r="FO20" s="0" t="n">
-        <v>0.134</v>
-      </c>
-      <c r="FQ20" s="0" t="n">
+      <c r="FP20" s="0" t="n">
         <v>0.134</v>
       </c>
       <c r="FR20" s="0" t="n">
@@ -7357,12 +7440,12 @@
       <c r="FX20" s="0" t="n">
         <v>0.134</v>
       </c>
-      <c r="GF20" s="0" t="n">
+      <c r="FY20" s="0" t="n">
+        <v>0.134</v>
+      </c>
+      <c r="GG20" s="0" t="n">
         <v>0.062</v>
       </c>
-      <c r="GL20" s="0" t="n">
-        <v>0.134</v>
-      </c>
       <c r="GM20" s="0" t="n">
         <v>0.134</v>
       </c>
@@ -7370,7 +7453,7 @@
         <v>0.134</v>
       </c>
       <c r="GO20" s="0" t="n">
-        <v>0</v>
+        <v>0.134</v>
       </c>
       <c r="GP20" s="0" t="n">
         <v>0</v>
@@ -7381,25 +7464,28 @@
       <c r="GR20" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="GT20" s="0" t="n">
+      <c r="GS20" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU20" s="0" t="n">
         <v>0.011</v>
       </c>
-      <c r="GU20" s="0" t="n">
+      <c r="GV20" s="0" t="n">
         <v>0.012</v>
       </c>
-      <c r="GW20" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="HD20" s="0" t="n">
+      <c r="GX20" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="HE20" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>208</v>
-      </c>
-      <c r="C21" s="1" t="n">
-        <v>0.506</v>
+        <v>209</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>0.538</v>
       </c>
       <c r="D21" s="0" t="n">
         <v>32.099</v>
@@ -7425,12 +7511,15 @@
       <c r="K21" s="0" t="n">
         <v>32.099</v>
       </c>
-      <c r="M21" s="0" t="n">
+      <c r="L21" s="0" t="n">
         <v>32.099</v>
       </c>
       <c r="N21" s="0" t="n">
         <v>32.099</v>
       </c>
+      <c r="O21" s="0" t="n">
+        <v>32.099</v>
+      </c>
       <c r="P21" s="0" t="n">
         <v>0.134</v>
       </c>
@@ -7464,9 +7553,6 @@
       <c r="AE21" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="AH21" s="0" t="n">
-        <v>32.545</v>
-      </c>
       <c r="AI21" s="0" t="n">
         <v>32.545</v>
       </c>
@@ -7474,7 +7560,7 @@
         <v>32.545</v>
       </c>
       <c r="AK21" s="0" t="n">
-        <v>4.068</v>
+        <v>32.545</v>
       </c>
       <c r="AL21" s="0" t="n">
         <v>4.068</v>
@@ -7509,20 +7595,20 @@
       <c r="AV21" s="0" t="n">
         <v>4.068</v>
       </c>
-      <c r="BB21" s="0" t="n">
+      <c r="AW21" s="0" t="n">
+        <v>4.068</v>
+      </c>
+      <c r="BC21" s="0" t="n">
         <v>2.488</v>
       </c>
-      <c r="CE21" s="0" t="n">
-        <v>0.134</v>
-      </c>
-      <c r="CK21" s="0" t="n">
+      <c r="CF21" s="0" t="n">
         <v>0.134</v>
       </c>
       <c r="CL21" s="0" t="n">
         <v>0.134</v>
       </c>
-      <c r="CU21" s="0" t="n">
-        <v>2.541</v>
+      <c r="CM21" s="0" t="n">
+        <v>0.134</v>
       </c>
       <c r="CV21" s="0" t="n">
         <v>2.541</v>
@@ -7533,14 +7619,14 @@
       <c r="CX21" s="0" t="n">
         <v>2.541</v>
       </c>
-      <c r="DA21" s="0" t="n">
+      <c r="CY21" s="0" t="n">
         <v>2.541</v>
       </c>
       <c r="DB21" s="0" t="n">
         <v>2.541</v>
       </c>
       <c r="DC21" s="0" t="n">
-        <v>0.134</v>
+        <v>2.541</v>
       </c>
       <c r="DD21" s="0" t="n">
         <v>0.134</v>
@@ -7557,7 +7643,7 @@
       <c r="DH21" s="0" t="n">
         <v>0.134</v>
       </c>
-      <c r="DK21" s="0" t="n">
+      <c r="DI21" s="0" t="n">
         <v>0.134</v>
       </c>
       <c r="DL21" s="0" t="n">
@@ -7572,46 +7658,46 @@
       <c r="DO21" s="0" t="n">
         <v>0.134</v>
       </c>
-      <c r="DU21" s="0" t="n">
-        <v>0.134</v>
-      </c>
-      <c r="EC21" s="0" t="n">
-        <v>0.134</v>
-      </c>
-      <c r="EG21" s="0" t="n">
-        <v>0.03</v>
+      <c r="DP21" s="0" t="n">
+        <v>0.134</v>
+      </c>
+      <c r="DV21" s="0" t="n">
+        <v>0.134</v>
+      </c>
+      <c r="ED21" s="0" t="n">
+        <v>0.134</v>
       </c>
       <c r="EH21" s="0" t="n">
         <v>0.03</v>
       </c>
-      <c r="EL21" s="0" t="n">
+      <c r="EI21" s="0" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="EM21" s="0" t="n">
         <v>5.35</v>
-      </c>
-      <c r="EP21" s="0" t="n">
-        <v>2.675</v>
       </c>
       <c r="EQ21" s="0" t="n">
         <v>2.675</v>
       </c>
       <c r="ER21" s="0" t="n">
+        <v>2.675</v>
+      </c>
+      <c r="ES21" s="0" t="n">
         <v>0.669</v>
       </c>
-      <c r="ES21" s="0" t="n">
-        <v>0.134</v>
-      </c>
       <c r="ET21" s="0" t="n">
         <v>0.134</v>
       </c>
       <c r="EU21" s="0" t="n">
         <v>0.134</v>
       </c>
-      <c r="FN21" s="0" t="n">
+      <c r="EV21" s="0" t="n">
+        <v>0.134</v>
+      </c>
+      <c r="FO21" s="0" t="n">
         <v>4.068</v>
       </c>
-      <c r="FO21" s="0" t="n">
-        <v>0.134</v>
-      </c>
-      <c r="FQ21" s="0" t="n">
+      <c r="FP21" s="0" t="n">
         <v>0.134</v>
       </c>
       <c r="FR21" s="0" t="n">
@@ -7635,12 +7721,12 @@
       <c r="FX21" s="0" t="n">
         <v>0.134</v>
       </c>
-      <c r="GF21" s="0" t="n">
+      <c r="FY21" s="0" t="n">
+        <v>0.134</v>
+      </c>
+      <c r="GG21" s="0" t="n">
         <v>0.062</v>
       </c>
-      <c r="GL21" s="0" t="n">
-        <v>0.134</v>
-      </c>
       <c r="GM21" s="0" t="n">
         <v>0.134</v>
       </c>
@@ -7648,7 +7734,7 @@
         <v>0.134</v>
       </c>
       <c r="GO21" s="0" t="n">
-        <v>0</v>
+        <v>0.134</v>
       </c>
       <c r="GP21" s="0" t="n">
         <v>0</v>
@@ -7659,24 +7745,27 @@
       <c r="GR21" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="GT21" s="0" t="n">
+      <c r="GS21" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU21" s="0" t="n">
         <v>0.011</v>
       </c>
-      <c r="GU21" s="0" t="n">
+      <c r="GV21" s="0" t="n">
         <v>0.012</v>
       </c>
-      <c r="GW21" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="HD21" s="0" t="n">
+      <c r="GX21" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="HE21" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>209</v>
-      </c>
-      <c r="C22" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="C22" s="0" t="n">
         <v>0.497</v>
       </c>
       <c r="D22" s="0" t="n">
@@ -7685,16 +7774,16 @@
       <c r="E22" s="0" t="n">
         <v>61.586</v>
       </c>
-      <c r="H22" s="0" t="n">
+      <c r="F22" s="0" t="n">
         <v>61.586</v>
       </c>
       <c r="I22" s="0" t="n">
         <v>61.586</v>
       </c>
-      <c r="L22" s="0" t="n">
+      <c r="J22" s="0" t="n">
         <v>61.586</v>
       </c>
-      <c r="O22" s="0" t="n">
+      <c r="M22" s="0" t="n">
         <v>61.586</v>
       </c>
       <c r="P22" s="0" t="n">
@@ -7730,11 +7819,8 @@
       <c r="AE22" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="AG22" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB22" s="0" t="n">
-        <v>10.264</v>
+      <c r="AH22" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="BC22" s="0" t="n">
         <v>10.264</v>
@@ -7748,8 +7834,8 @@
       <c r="BF22" s="0" t="n">
         <v>10.264</v>
       </c>
-      <c r="CE22" s="0" t="n">
-        <v>0.257</v>
+      <c r="BG22" s="0" t="n">
+        <v>10.264</v>
       </c>
       <c r="CF22" s="0" t="n">
         <v>0.257</v>
@@ -7766,8 +7852,8 @@
       <c r="CJ22" s="0" t="n">
         <v>0.257</v>
       </c>
-      <c r="CU22" s="0" t="n">
-        <v>4.876</v>
+      <c r="CK22" s="0" t="n">
+        <v>0.257</v>
       </c>
       <c r="CV22" s="0" t="n">
         <v>4.876</v>
@@ -7784,8 +7870,8 @@
       <c r="CZ22" s="0" t="n">
         <v>4.876</v>
       </c>
-      <c r="DC22" s="0" t="n">
-        <v>0.257</v>
+      <c r="DA22" s="0" t="n">
+        <v>4.876</v>
       </c>
       <c r="DD22" s="0" t="n">
         <v>0.257</v>
@@ -7826,7 +7912,7 @@
       <c r="DP22" s="0" t="n">
         <v>0.257</v>
       </c>
-      <c r="DR22" s="0" t="n">
+      <c r="DQ22" s="0" t="n">
         <v>0.257</v>
       </c>
       <c r="DS22" s="0" t="n">
@@ -7835,7 +7921,7 @@
       <c r="DT22" s="0" t="n">
         <v>0.257</v>
       </c>
-      <c r="DV22" s="0" t="n">
+      <c r="DU22" s="0" t="n">
         <v>0.257</v>
       </c>
       <c r="DW22" s="0" t="n">
@@ -7856,24 +7942,24 @@
       <c r="EB22" s="0" t="n">
         <v>0.257</v>
       </c>
-      <c r="ED22" s="0" t="n">
-        <v>0.257</v>
-      </c>
-      <c r="EI22" s="0" t="n">
+      <c r="EC22" s="0" t="n">
+        <v>0.257</v>
+      </c>
+      <c r="EE22" s="0" t="n">
+        <v>0.257</v>
+      </c>
+      <c r="EJ22" s="0" t="n">
         <v>0.03</v>
-      </c>
-      <c r="EL22" s="0" t="n">
-        <v>10.264</v>
       </c>
       <c r="EM22" s="0" t="n">
         <v>10.264</v>
       </c>
-      <c r="ER22" s="0" t="n">
+      <c r="EN22" s="0" t="n">
+        <v>10.264</v>
+      </c>
+      <c r="ES22" s="0" t="n">
         <v>1.283</v>
       </c>
-      <c r="ES22" s="0" t="n">
-        <v>0.257</v>
-      </c>
       <c r="ET22" s="0" t="n">
         <v>0.257</v>
       </c>
@@ -7881,15 +7967,15 @@
         <v>0.257</v>
       </c>
       <c r="EV22" s="0" t="n">
+        <v>0.257</v>
+      </c>
+      <c r="EW22" s="0" t="n">
         <v>2.053</v>
       </c>
-      <c r="EW22" s="0" t="n">
-        <v>0.257</v>
-      </c>
       <c r="EX22" s="0" t="n">
         <v>0.257</v>
       </c>
-      <c r="EZ22" s="0" t="n">
+      <c r="EY22" s="0" t="n">
         <v>0.257</v>
       </c>
       <c r="FA22" s="0" t="n">
@@ -7931,14 +8017,14 @@
       <c r="FM22" s="0" t="n">
         <v>0.257</v>
       </c>
-      <c r="FO22" s="0" t="n">
+      <c r="FN22" s="0" t="n">
         <v>0.257</v>
       </c>
       <c r="FP22" s="0" t="n">
         <v>0.257</v>
       </c>
-      <c r="GA22" s="0" t="n">
-        <v>1.742</v>
+      <c r="FQ22" s="0" t="n">
+        <v>0.257</v>
       </c>
       <c r="GB22" s="0" t="n">
         <v>1.742</v>
@@ -7947,31 +8033,31 @@
         <v>1.742</v>
       </c>
       <c r="GD22" s="0" t="n">
-        <v>0.257</v>
+        <v>1.742</v>
       </c>
       <c r="GE22" s="0" t="n">
+        <v>0.257</v>
+      </c>
+      <c r="GF22" s="0" t="n">
         <v>1.283</v>
       </c>
-      <c r="GF22" s="0" t="n">
+      <c r="GG22" s="0" t="n">
         <v>0.062</v>
       </c>
-      <c r="GG22" s="0" t="n">
-        <v>0.257</v>
-      </c>
       <c r="GH22" s="0" t="n">
         <v>0.257</v>
       </c>
-      <c r="GJ22" s="0" t="n">
-        <v>0.257</v>
-      </c>
-      <c r="GL22" s="0" t="n">
+      <c r="GI22" s="0" t="n">
+        <v>0.257</v>
+      </c>
+      <c r="GK22" s="0" t="n">
         <v>0.257</v>
       </c>
       <c r="GM22" s="0" t="n">
         <v>0.257</v>
       </c>
-      <c r="GW22" s="0" t="n">
-        <v>0.001</v>
+      <c r="GN22" s="0" t="n">
+        <v>0.257</v>
       </c>
       <c r="GX22" s="0" t="n">
         <v>0.001</v>
@@ -7982,8 +8068,8 @@
       <c r="GZ22" s="0" t="n">
         <v>0.001</v>
       </c>
-      <c r="HD22" s="0" t="n">
-        <v>0</v>
+      <c r="HA22" s="0" t="n">
+        <v>0.001</v>
       </c>
       <c r="HE22" s="0" t="n">
         <v>0</v>
@@ -7994,7 +8080,7 @@
       <c r="HG22" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="HI22" s="0" t="n">
+      <c r="HH22" s="0" t="n">
         <v>0</v>
       </c>
       <c r="HJ22" s="0" t="n">
@@ -8012,7 +8098,7 @@
       <c r="HN22" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="HS22" s="0" t="n">
+      <c r="HO22" s="0" t="n">
         <v>0</v>
       </c>
       <c r="HT22" s="0" t="n">
@@ -8021,7 +8107,7 @@
       <c r="HU22" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="HW22" s="0" t="n">
+      <c r="HV22" s="0" t="n">
         <v>0</v>
       </c>
       <c r="HX22" s="0" t="n">
@@ -8037,15 +8123,18 @@
         <v>0</v>
       </c>
       <c r="IB22" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="IC22" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>210</v>
-      </c>
-      <c r="C23" s="1" t="n">
-        <v>0.438</v>
+        <v>211</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <v>0.486</v>
       </c>
       <c r="D23" s="0" t="n">
         <v>48.522</v>
@@ -8074,6 +8163,9 @@
       <c r="L23" s="0" t="n">
         <v>48.522</v>
       </c>
+      <c r="M23" s="0" t="n">
+        <v>48.522</v>
+      </c>
       <c r="P23" s="0" t="n">
         <v>0.202</v>
       </c>
@@ -8098,19 +8190,19 @@
       <c r="AD23" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="DC23" s="0" t="n">
+      <c r="DD23" s="0" t="n">
         <v>0.202</v>
       </c>
-      <c r="HD23" s="0" t="n">
+      <c r="HE23" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>211</v>
-      </c>
-      <c r="C24" s="1" t="n">
-        <v>0.359</v>
+        <v>212</v>
+      </c>
+      <c r="C24" s="0" t="n">
+        <v>0.382</v>
       </c>
       <c r="D24" s="0" t="n">
         <v>22.768</v>
@@ -8136,12 +8228,15 @@
       <c r="K24" s="0" t="n">
         <v>22.768</v>
       </c>
-      <c r="M24" s="0" t="n">
+      <c r="L24" s="0" t="n">
         <v>22.768</v>
       </c>
       <c r="N24" s="0" t="n">
         <v>22.768</v>
       </c>
+      <c r="O24" s="0" t="n">
+        <v>22.768</v>
+      </c>
       <c r="P24" s="0" t="n">
         <v>0.095</v>
       </c>
@@ -8175,9 +8270,6 @@
       <c r="AE24" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="AH24" s="0" t="n">
-        <v>23.084</v>
-      </c>
       <c r="AI24" s="0" t="n">
         <v>23.084</v>
       </c>
@@ -8185,7 +8277,7 @@
         <v>23.084</v>
       </c>
       <c r="AK24" s="0" t="n">
-        <v>2.886</v>
+        <v>23.084</v>
       </c>
       <c r="AL24" s="0" t="n">
         <v>2.886</v>
@@ -8220,20 +8312,20 @@
       <c r="AV24" s="0" t="n">
         <v>2.886</v>
       </c>
-      <c r="BB24" s="0" t="n">
+      <c r="AW24" s="0" t="n">
+        <v>2.886</v>
+      </c>
+      <c r="BC24" s="0" t="n">
         <v>2.488</v>
       </c>
-      <c r="CE24" s="0" t="n">
-        <v>0.095</v>
-      </c>
-      <c r="CK24" s="0" t="n">
+      <c r="CF24" s="0" t="n">
         <v>0.095</v>
       </c>
       <c r="CL24" s="0" t="n">
         <v>0.095</v>
       </c>
-      <c r="CU24" s="0" t="n">
-        <v>1.802</v>
+      <c r="CM24" s="0" t="n">
+        <v>0.095</v>
       </c>
       <c r="CV24" s="0" t="n">
         <v>1.802</v>
@@ -8244,14 +8336,14 @@
       <c r="CX24" s="0" t="n">
         <v>1.802</v>
       </c>
-      <c r="DA24" s="0" t="n">
+      <c r="CY24" s="0" t="n">
         <v>1.802</v>
       </c>
       <c r="DB24" s="0" t="n">
         <v>1.802</v>
       </c>
       <c r="DC24" s="0" t="n">
-        <v>0.095</v>
+        <v>1.802</v>
       </c>
       <c r="DD24" s="0" t="n">
         <v>0.095</v>
@@ -8268,7 +8360,7 @@
       <c r="DH24" s="0" t="n">
         <v>0.095</v>
       </c>
-      <c r="DK24" s="0" t="n">
+      <c r="DI24" s="0" t="n">
         <v>0.095</v>
       </c>
       <c r="DL24" s="0" t="n">
@@ -8283,32 +8375,32 @@
       <c r="DO24" s="0" t="n">
         <v>0.095</v>
       </c>
-      <c r="DU24" s="0" t="n">
+      <c r="DP24" s="0" t="n">
         <v>0.095</v>
       </c>
-      <c r="EC24" s="0" t="n">
+      <c r="DV24" s="0" t="n">
         <v>0.095</v>
       </c>
-      <c r="EG24" s="0" t="n">
-        <v>0.03</v>
+      <c r="ED24" s="0" t="n">
+        <v>0.095</v>
       </c>
       <c r="EH24" s="0" t="n">
         <v>0.03</v>
       </c>
-      <c r="EL24" s="0" t="n">
+      <c r="EI24" s="0" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="EM24" s="0" t="n">
         <v>3.795</v>
-      </c>
-      <c r="EP24" s="0" t="n">
-        <v>1.897</v>
       </c>
       <c r="EQ24" s="0" t="n">
         <v>1.897</v>
       </c>
       <c r="ER24" s="0" t="n">
+        <v>1.897</v>
+      </c>
+      <c r="ES24" s="0" t="n">
         <v>0.474</v>
-      </c>
-      <c r="ES24" s="0" t="n">
-        <v>0.095</v>
       </c>
       <c r="ET24" s="0" t="n">
         <v>0.095</v>
@@ -8316,13 +8408,13 @@
       <c r="EU24" s="0" t="n">
         <v>0.095</v>
       </c>
-      <c r="FN24" s="0" t="n">
+      <c r="EV24" s="0" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="FO24" s="0" t="n">
         <v>2.886</v>
       </c>
-      <c r="FO24" s="0" t="n">
-        <v>0.095</v>
-      </c>
-      <c r="FQ24" s="0" t="n">
+      <c r="FP24" s="0" t="n">
         <v>0.095</v>
       </c>
       <c r="FR24" s="0" t="n">
@@ -8346,11 +8438,11 @@
       <c r="FX24" s="0" t="n">
         <v>0.095</v>
       </c>
-      <c r="GF24" s="0" t="n">
+      <c r="FY24" s="0" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="GG24" s="0" t="n">
         <v>0.062</v>
-      </c>
-      <c r="GL24" s="0" t="n">
-        <v>0.095</v>
       </c>
       <c r="GM24" s="0" t="n">
         <v>0.095</v>
@@ -8359,7 +8451,7 @@
         <v>0.095</v>
       </c>
       <c r="GO24" s="0" t="n">
-        <v>0</v>
+        <v>0.095</v>
       </c>
       <c r="GP24" s="0" t="n">
         <v>0</v>
@@ -8370,25 +8462,28 @@
       <c r="GR24" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="GT24" s="0" t="n">
+      <c r="GS24" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU24" s="0" t="n">
         <v>0.011</v>
       </c>
-      <c r="GU24" s="0" t="n">
+      <c r="GV24" s="0" t="n">
         <v>0.008</v>
       </c>
-      <c r="GW24" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="HD24" s="0" t="n">
+      <c r="GX24" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="HE24" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>212</v>
-      </c>
-      <c r="C25" s="1" t="n">
-        <v>0.242</v>
+        <v>213</v>
+      </c>
+      <c r="C25" s="0" t="n">
+        <v>0.269</v>
       </c>
       <c r="D25" s="0" t="n">
         <v>26.874</v>
@@ -8417,6 +8512,9 @@
       <c r="L25" s="0" t="n">
         <v>26.874</v>
       </c>
+      <c r="M25" s="0" t="n">
+        <v>26.874</v>
+      </c>
       <c r="P25" s="0" t="n">
         <v>0.112</v>
       </c>
@@ -8441,19 +8539,19 @@
       <c r="AD25" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="DC25" s="0" t="n">
+      <c r="DD25" s="0" t="n">
         <v>0.112</v>
       </c>
-      <c r="HD25" s="0" t="n">
+      <c r="HE25" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>213</v>
-      </c>
-      <c r="C26" s="1" t="n">
-        <v>0.202</v>
+        <v>214</v>
+      </c>
+      <c r="C26" s="0" t="n">
+        <v>0.224</v>
       </c>
       <c r="D26" s="0" t="n">
         <v>22.395</v>
@@ -8482,6 +8580,9 @@
       <c r="L26" s="0" t="n">
         <v>22.395</v>
       </c>
+      <c r="M26" s="0" t="n">
+        <v>22.395</v>
+      </c>
       <c r="P26" s="0" t="n">
         <v>0.093</v>
       </c>
@@ -8506,19 +8607,19 @@
       <c r="AD26" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="DC26" s="0" t="n">
+      <c r="DD26" s="0" t="n">
         <v>0.093</v>
       </c>
-      <c r="HD26" s="0" t="n">
+      <c r="HE26" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>214</v>
-      </c>
-      <c r="C27" s="1" t="n">
-        <v>0.157</v>
+        <v>215</v>
+      </c>
+      <c r="C27" s="0" t="n">
+        <v>0.183</v>
       </c>
       <c r="D27" s="0" t="n">
         <v>26.127</v>
@@ -8532,31 +8633,34 @@
       <c r="G27" s="0" t="n">
         <v>26.127</v>
       </c>
-      <c r="J27" s="0" t="n">
+      <c r="H27" s="0" t="n">
         <v>26.127</v>
       </c>
       <c r="K27" s="0" t="n">
         <v>26.127</v>
       </c>
+      <c r="L27" s="0" t="n">
+        <v>26.127</v>
+      </c>
       <c r="P27" s="0" t="n">
         <v>0.109</v>
       </c>
       <c r="Z27" s="0" t="n">
         <v>0.001</v>
       </c>
-      <c r="DC27" s="0" t="n">
+      <c r="DD27" s="0" t="n">
         <v>0.109</v>
       </c>
-      <c r="HD27" s="0" t="n">
+      <c r="HE27" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>215</v>
-      </c>
-      <c r="C28" s="1" t="n">
-        <v>0.157</v>
+        <v>216</v>
+      </c>
+      <c r="C28" s="0" t="n">
+        <v>0.183</v>
       </c>
       <c r="D28" s="0" t="n">
         <v>26.127</v>
@@ -8570,31 +8674,34 @@
       <c r="G28" s="0" t="n">
         <v>26.127</v>
       </c>
-      <c r="J28" s="0" t="n">
+      <c r="H28" s="0" t="n">
         <v>26.127</v>
       </c>
       <c r="K28" s="0" t="n">
         <v>26.127</v>
       </c>
+      <c r="L28" s="0" t="n">
+        <v>26.127</v>
+      </c>
       <c r="P28" s="0" t="n">
         <v>0.109</v>
       </c>
       <c r="Z28" s="0" t="n">
         <v>0.001</v>
       </c>
-      <c r="DC28" s="0" t="n">
+      <c r="DD28" s="0" t="n">
         <v>0.109</v>
       </c>
-      <c r="HD28" s="0" t="n">
+      <c r="HE28" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>216</v>
-      </c>
-      <c r="C29" s="1" t="n">
-        <v>0.157</v>
+        <v>217</v>
+      </c>
+      <c r="C29" s="0" t="n">
+        <v>0.183</v>
       </c>
       <c r="D29" s="0" t="n">
         <v>26.127</v>
@@ -8608,31 +8715,34 @@
       <c r="G29" s="0" t="n">
         <v>26.127</v>
       </c>
-      <c r="J29" s="0" t="n">
+      <c r="H29" s="0" t="n">
         <v>26.127</v>
       </c>
       <c r="K29" s="0" t="n">
         <v>26.127</v>
       </c>
+      <c r="L29" s="0" t="n">
+        <v>26.127</v>
+      </c>
       <c r="P29" s="0" t="n">
         <v>0.109</v>
       </c>
       <c r="Z29" s="0" t="n">
         <v>0.001</v>
       </c>
-      <c r="DC29" s="0" t="n">
+      <c r="DD29" s="0" t="n">
         <v>0.109</v>
       </c>
-      <c r="HD29" s="0" t="n">
+      <c r="HE29" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>217</v>
-      </c>
-      <c r="C30" s="1" t="n">
-        <v>0.157</v>
+        <v>218</v>
+      </c>
+      <c r="C30" s="0" t="n">
+        <v>0.183</v>
       </c>
       <c r="D30" s="0" t="n">
         <v>26.127</v>
@@ -8646,31 +8756,34 @@
       <c r="G30" s="0" t="n">
         <v>26.127</v>
       </c>
-      <c r="J30" s="0" t="n">
+      <c r="H30" s="0" t="n">
         <v>26.127</v>
       </c>
       <c r="K30" s="0" t="n">
         <v>26.127</v>
       </c>
+      <c r="L30" s="0" t="n">
+        <v>26.127</v>
+      </c>
       <c r="P30" s="0" t="n">
         <v>0.109</v>
       </c>
       <c r="Z30" s="0" t="n">
         <v>0.001</v>
       </c>
-      <c r="DC30" s="0" t="n">
+      <c r="DD30" s="0" t="n">
         <v>0.109</v>
       </c>
-      <c r="HD30" s="0" t="n">
+      <c r="HE30" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>218</v>
-      </c>
-      <c r="C31" s="1" t="n">
-        <v>0.157</v>
+        <v>219</v>
+      </c>
+      <c r="C31" s="0" t="n">
+        <v>0.183</v>
       </c>
       <c r="D31" s="0" t="n">
         <v>26.127</v>
@@ -8684,159 +8797,168 @@
       <c r="G31" s="0" t="n">
         <v>26.127</v>
       </c>
-      <c r="J31" s="0" t="n">
+      <c r="H31" s="0" t="n">
         <v>26.127</v>
       </c>
       <c r="K31" s="0" t="n">
         <v>26.127</v>
       </c>
+      <c r="L31" s="0" t="n">
+        <v>26.127</v>
+      </c>
       <c r="P31" s="0" t="n">
         <v>0.109</v>
       </c>
       <c r="Z31" s="0" t="n">
         <v>0.001</v>
       </c>
-      <c r="DC31" s="0" t="n">
+      <c r="DD31" s="0" t="n">
         <v>0.109</v>
       </c>
-      <c r="HD31" s="0" t="n">
+      <c r="HE31" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>219</v>
-      </c>
-      <c r="C32" s="1" t="n">
-        <v>0.141</v>
-      </c>
-      <c r="BB32" s="0" t="n">
-        <v>11.384</v>
-      </c>
-      <c r="BC32" s="0" t="n">
-        <v>11.384</v>
-      </c>
-      <c r="BD32" s="0" t="n">
-        <v>11.384</v>
-      </c>
-      <c r="CU32" s="0" t="n">
-        <v>15.159</v>
-      </c>
-      <c r="CV32" s="0" t="n">
-        <v>15.159</v>
-      </c>
-      <c r="CW32" s="0" t="n">
-        <v>15.159</v>
-      </c>
-      <c r="CX32" s="0" t="n">
-        <v>15.159</v>
-      </c>
-      <c r="CY32" s="0" t="n">
-        <v>15.159</v>
-      </c>
-      <c r="DC32" s="0" t="n">
-        <v>0.798</v>
-      </c>
-      <c r="DD32" s="0" t="n">
-        <v>0.798</v>
-      </c>
-      <c r="DE32" s="0" t="n">
-        <v>0.798</v>
-      </c>
-      <c r="DF32" s="0" t="n">
-        <v>0.798</v>
+        <v>220</v>
+      </c>
+      <c r="C32" s="0" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="D32" s="0" t="n">
+        <v>55.987</v>
+      </c>
+      <c r="E32" s="0" t="n">
+        <v>55.987</v>
+      </c>
+      <c r="M32" s="0" t="n">
+        <v>55.987</v>
+      </c>
+      <c r="P32" s="0" t="n">
+        <v>0.233</v>
+      </c>
+      <c r="AE32" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF32" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG32" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="DG32" s="0" t="n">
-        <v>0.798</v>
-      </c>
-      <c r="DI32" s="0" t="n">
-        <v>0.798</v>
+        <v>0.233</v>
+      </c>
+      <c r="DH32" s="0" t="n">
+        <v>0.233</v>
       </c>
       <c r="DJ32" s="0" t="n">
-        <v>0.798</v>
+        <v>0.233</v>
       </c>
       <c r="DK32" s="0" t="n">
-        <v>0.798</v>
-      </c>
-      <c r="DO32" s="0" t="n">
-        <v>0.798</v>
+        <v>0.233</v>
+      </c>
+      <c r="DM32" s="0" t="n">
+        <v>0.233</v>
       </c>
       <c r="DR32" s="0" t="n">
-        <v>0.798</v>
-      </c>
-      <c r="EL32" s="0" t="n">
-        <v>11.384</v>
-      </c>
-      <c r="EM32" s="0" t="n">
-        <v>11.384</v>
+        <v>0.233</v>
+      </c>
+      <c r="HF32" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="HT32" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>220</v>
-      </c>
-      <c r="C33" s="1" t="n">
-        <v>0.114</v>
-      </c>
-      <c r="D33" s="0" t="n">
-        <v>55.987</v>
-      </c>
-      <c r="L33" s="0" t="n">
-        <v>55.987</v>
-      </c>
-      <c r="P33" s="0" t="n">
-        <v>0.233</v>
-      </c>
-      <c r="AE33" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF33" s="0" t="n">
-        <v>0</v>
+        <v>221</v>
+      </c>
+      <c r="C33" s="0" t="n">
+        <v>0.141</v>
+      </c>
+      <c r="BC33" s="0" t="n">
+        <v>11.384</v>
+      </c>
+      <c r="BD33" s="0" t="n">
+        <v>11.384</v>
+      </c>
+      <c r="BE33" s="0" t="n">
+        <v>11.384</v>
+      </c>
+      <c r="CV33" s="0" t="n">
+        <v>15.159</v>
+      </c>
+      <c r="CW33" s="0" t="n">
+        <v>15.159</v>
+      </c>
+      <c r="CX33" s="0" t="n">
+        <v>15.159</v>
+      </c>
+      <c r="CY33" s="0" t="n">
+        <v>15.159</v>
+      </c>
+      <c r="CZ33" s="0" t="n">
+        <v>15.159</v>
+      </c>
+      <c r="DD33" s="0" t="n">
+        <v>0.798</v>
+      </c>
+      <c r="DE33" s="0" t="n">
+        <v>0.798</v>
       </c>
       <c r="DF33" s="0" t="n">
-        <v>0.233</v>
+        <v>0.798</v>
       </c>
       <c r="DG33" s="0" t="n">
-        <v>0.233</v>
-      </c>
-      <c r="DI33" s="0" t="n">
-        <v>0.233</v>
+        <v>0.798</v>
+      </c>
+      <c r="DH33" s="0" t="n">
+        <v>0.798</v>
       </c>
       <c r="DJ33" s="0" t="n">
-        <v>0.233</v>
+        <v>0.798</v>
+      </c>
+      <c r="DK33" s="0" t="n">
+        <v>0.798</v>
       </c>
       <c r="DL33" s="0" t="n">
-        <v>0.233</v>
-      </c>
-      <c r="DQ33" s="0" t="n">
-        <v>0.233</v>
-      </c>
-      <c r="HE33" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="HS33" s="0" t="n">
-        <v>0</v>
+        <v>0.798</v>
+      </c>
+      <c r="DP33" s="0" t="n">
+        <v>0.798</v>
+      </c>
+      <c r="DS33" s="0" t="n">
+        <v>0.798</v>
+      </c>
+      <c r="EM33" s="0" t="n">
+        <v>11.384</v>
+      </c>
+      <c r="EN33" s="0" t="n">
+        <v>11.384</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>221</v>
-      </c>
-      <c r="C34" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="C34" s="0" t="n">
         <v>0.097</v>
       </c>
       <c r="D34" s="0" t="n">
         <v>24.261</v>
       </c>
-      <c r="E34" s="0" t="n">
-        <v>24.261</v>
-      </c>
       <c r="F34" s="0" t="n">
         <v>24.261</v>
       </c>
       <c r="G34" s="0" t="n">
         <v>24.261</v>
       </c>
+      <c r="H34" s="0" t="n">
+        <v>24.261</v>
+      </c>
       <c r="P34" s="0" t="n">
         <v>0.101</v>
       </c>
@@ -8849,25 +8971,22 @@
       <c r="Z34" s="0" t="n">
         <v>0.001</v>
       </c>
-      <c r="DC34" s="0" t="n">
+      <c r="DD34" s="0" t="n">
         <v>0.101</v>
       </c>
-      <c r="HD34" s="0" t="n">
+      <c r="HE34" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>222</v>
-      </c>
-      <c r="C35" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="C35" s="0" t="n">
         <v>0.09</v>
       </c>
-      <c r="L35" s="0" t="n">
+      <c r="M35" s="0" t="n">
         <v>61.586</v>
-      </c>
-      <c r="CU35" s="0" t="n">
-        <v>4.876</v>
       </c>
       <c r="CV35" s="0" t="n">
         <v>4.876</v>
@@ -8881,8 +9000,8 @@
       <c r="CY35" s="0" t="n">
         <v>4.876</v>
       </c>
-      <c r="DC35" s="0" t="n">
-        <v>0.257</v>
+      <c r="CZ35" s="0" t="n">
+        <v>4.876</v>
       </c>
       <c r="DD35" s="0" t="n">
         <v>0.257</v>
@@ -8896,7 +9015,7 @@
       <c r="DG35" s="0" t="n">
         <v>0.257</v>
       </c>
-      <c r="DI35" s="0" t="n">
+      <c r="DH35" s="0" t="n">
         <v>0.257</v>
       </c>
       <c r="DJ35" s="0" t="n">
@@ -8908,10 +9027,10 @@
       <c r="DL35" s="0" t="n">
         <v>0.257</v>
       </c>
-      <c r="DO35" s="0" t="n">
-        <v>0.257</v>
-      </c>
-      <c r="DR35" s="0" t="n">
+      <c r="DM35" s="0" t="n">
+        <v>0.257</v>
+      </c>
+      <c r="DP35" s="0" t="n">
         <v>0.257</v>
       </c>
       <c r="DS35" s="0" t="n">
@@ -8920,199 +9039,199 @@
       <c r="DT35" s="0" t="n">
         <v>0.257</v>
       </c>
-      <c r="GL35" s="0" t="n">
+      <c r="DU35" s="0" t="n">
         <v>0.257</v>
       </c>
       <c r="GM35" s="0" t="n">
+        <v>0.257</v>
+      </c>
+      <c r="GN35" s="0" t="n">
         <v>0.257</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>223</v>
-      </c>
-      <c r="C36" s="1" t="n">
+        <v>224</v>
+      </c>
+      <c r="C36" s="0" t="n">
         <v>0.054</v>
       </c>
       <c r="D36" s="0" t="n">
         <v>13.437</v>
       </c>
-      <c r="E36" s="0" t="n">
-        <v>13.437</v>
-      </c>
       <c r="F36" s="0" t="n">
         <v>13.437</v>
       </c>
       <c r="G36" s="0" t="n">
         <v>13.437</v>
       </c>
+      <c r="H36" s="0" t="n">
+        <v>13.437</v>
+      </c>
       <c r="P36" s="0" t="n">
         <v>0.056</v>
       </c>
       <c r="Z36" s="0" t="n">
         <v>0.001</v>
       </c>
-      <c r="DC36" s="0" t="n">
+      <c r="DD36" s="0" t="n">
         <v>0.056</v>
       </c>
-      <c r="HD36" s="0" t="n">
+      <c r="HE36" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>224</v>
-      </c>
-      <c r="C37" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="C37" s="0" t="n">
         <v>0.054</v>
       </c>
       <c r="D37" s="0" t="n">
         <v>13.437</v>
       </c>
-      <c r="E37" s="0" t="n">
-        <v>13.437</v>
-      </c>
       <c r="F37" s="0" t="n">
         <v>13.437</v>
       </c>
       <c r="G37" s="0" t="n">
         <v>13.437</v>
       </c>
+      <c r="H37" s="0" t="n">
+        <v>13.437</v>
+      </c>
       <c r="P37" s="0" t="n">
         <v>0.056</v>
       </c>
       <c r="Z37" s="0" t="n">
         <v>0.001</v>
       </c>
-      <c r="DC37" s="0" t="n">
+      <c r="DD37" s="0" t="n">
         <v>0.056</v>
       </c>
-      <c r="HD37" s="0" t="n">
+      <c r="HE37" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>225</v>
-      </c>
-      <c r="C38" s="1" t="n">
+        <v>226</v>
+      </c>
+      <c r="C38" s="0" t="n">
         <v>0.054</v>
       </c>
       <c r="D38" s="0" t="n">
         <v>13.437</v>
       </c>
-      <c r="E38" s="0" t="n">
-        <v>13.437</v>
-      </c>
       <c r="F38" s="0" t="n">
         <v>13.437</v>
       </c>
       <c r="G38" s="0" t="n">
         <v>13.437</v>
       </c>
+      <c r="H38" s="0" t="n">
+        <v>13.437</v>
+      </c>
       <c r="P38" s="0" t="n">
         <v>0.056</v>
       </c>
       <c r="Z38" s="0" t="n">
         <v>0.001</v>
       </c>
-      <c r="DC38" s="0" t="n">
+      <c r="DD38" s="0" t="n">
         <v>0.056</v>
       </c>
-      <c r="HD38" s="0" t="n">
+      <c r="HE38" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>226</v>
-      </c>
-      <c r="C39" s="1" t="n">
+        <v>227</v>
+      </c>
+      <c r="C39" s="0" t="n">
         <v>0.054</v>
       </c>
       <c r="D39" s="0" t="n">
         <v>13.437</v>
       </c>
-      <c r="E39" s="0" t="n">
-        <v>13.437</v>
-      </c>
       <c r="F39" s="0" t="n">
         <v>13.437</v>
       </c>
       <c r="G39" s="0" t="n">
         <v>13.437</v>
       </c>
+      <c r="H39" s="0" t="n">
+        <v>13.437</v>
+      </c>
       <c r="P39" s="0" t="n">
         <v>0.056</v>
       </c>
       <c r="Z39" s="0" t="n">
         <v>0.001</v>
       </c>
-      <c r="DC39" s="0" t="n">
+      <c r="DD39" s="0" t="n">
         <v>0.056</v>
       </c>
-      <c r="HD39" s="0" t="n">
+      <c r="HE39" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>227</v>
-      </c>
-      <c r="C40" s="1" t="n">
+        <v>228</v>
+      </c>
+      <c r="C40" s="0" t="n">
         <v>0.054</v>
       </c>
       <c r="D40" s="0" t="n">
         <v>13.437</v>
       </c>
-      <c r="E40" s="0" t="n">
-        <v>13.437</v>
-      </c>
       <c r="F40" s="0" t="n">
         <v>13.437</v>
       </c>
       <c r="G40" s="0" t="n">
         <v>13.437</v>
       </c>
+      <c r="H40" s="0" t="n">
+        <v>13.437</v>
+      </c>
       <c r="P40" s="0" t="n">
         <v>0.056</v>
       </c>
       <c r="Z40" s="0" t="n">
         <v>0.001</v>
       </c>
-      <c r="DC40" s="0" t="n">
+      <c r="DD40" s="0" t="n">
         <v>0.056</v>
       </c>
-      <c r="HD40" s="0" t="n">
+      <c r="HE40" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>228</v>
-      </c>
-      <c r="C41" s="1" t="n">
+        <v>229</v>
+      </c>
+      <c r="C41" s="0" t="n">
         <v>0.012</v>
       </c>
       <c r="P41" s="0" t="n">
         <v>0.311</v>
       </c>
-      <c r="AP41" s="0" t="n">
+      <c r="AQ41" s="0" t="n">
         <v>9.461</v>
-      </c>
-      <c r="DC41" s="0" t="n">
-        <v>0.311</v>
       </c>
       <c r="DD41" s="0" t="n">
         <v>0.311</v>
       </c>
-      <c r="DH41" s="0" t="n">
+      <c r="DE41" s="0" t="n">
         <v>0.311</v>
       </c>
-      <c r="DL41" s="0" t="n">
+      <c r="DI41" s="0" t="n">
         <v>0.311</v>
       </c>
-      <c r="FV41" s="0" t="n">
+      <c r="DM41" s="0" t="n">
         <v>0.311</v>
       </c>
       <c r="FW41" s="0" t="n">
@@ -9121,36 +9240,36 @@
       <c r="FX41" s="0" t="n">
         <v>0.311</v>
       </c>
-      <c r="GL41" s="0" t="n">
+      <c r="FY41" s="0" t="n">
+        <v>0.311</v>
+      </c>
+      <c r="GM41" s="0" t="n">
         <v>0.311</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>229</v>
-      </c>
-      <c r="C42" s="1" t="n">
+        <v>230</v>
+      </c>
+      <c r="C42" s="0" t="n">
         <v>0.006</v>
       </c>
       <c r="P42" s="0" t="n">
         <v>0.156</v>
       </c>
-      <c r="AP42" s="0" t="n">
+      <c r="AQ42" s="0" t="n">
         <v>4.73</v>
-      </c>
-      <c r="DC42" s="0" t="n">
-        <v>0.156</v>
       </c>
       <c r="DD42" s="0" t="n">
         <v>0.156</v>
       </c>
-      <c r="DH42" s="0" t="n">
+      <c r="DE42" s="0" t="n">
         <v>0.156</v>
       </c>
-      <c r="DL42" s="0" t="n">
+      <c r="DI42" s="0" t="n">
         <v>0.156</v>
       </c>
-      <c r="FV42" s="0" t="n">
+      <c r="DM42" s="0" t="n">
         <v>0.156</v>
       </c>
       <c r="FW42" s="0" t="n">
@@ -9159,36 +9278,36 @@
       <c r="FX42" s="0" t="n">
         <v>0.156</v>
       </c>
-      <c r="GL42" s="0" t="n">
+      <c r="FY42" s="0" t="n">
+        <v>0.156</v>
+      </c>
+      <c r="GM42" s="0" t="n">
         <v>0.156</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>230</v>
-      </c>
-      <c r="C43" s="1" t="n">
+        <v>231</v>
+      </c>
+      <c r="C43" s="0" t="n">
         <v>0.002</v>
-      </c>
-      <c r="DD43" s="0" t="n">
-        <v>0.233</v>
       </c>
       <c r="DE43" s="0" t="n">
         <v>0.233</v>
       </c>
-      <c r="DH43" s="0" t="n">
+      <c r="DF43" s="0" t="n">
         <v>0.233</v>
       </c>
-      <c r="DK43" s="0" t="n">
+      <c r="DI43" s="0" t="n">
         <v>0.233</v>
       </c>
-      <c r="DM43" s="0" t="n">
+      <c r="DL43" s="0" t="n">
         <v>0.233</v>
       </c>
       <c r="DN43" s="0" t="n">
         <v>0.233</v>
       </c>
-      <c r="ES43" s="0" t="n">
+      <c r="DO43" s="0" t="n">
         <v>0.233</v>
       </c>
       <c r="ET43" s="0" t="n">
@@ -9197,36 +9316,36 @@
       <c r="EU43" s="0" t="n">
         <v>0.233</v>
       </c>
-      <c r="FO43" s="0" t="n">
+      <c r="EV43" s="0" t="n">
+        <v>0.233</v>
+      </c>
+      <c r="FP43" s="0" t="n">
         <v>0.233</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>231</v>
-      </c>
-      <c r="C44" s="1" t="n">
+        <v>232</v>
+      </c>
+      <c r="C44" s="0" t="n">
         <v>0.002</v>
-      </c>
-      <c r="DD44" s="0" t="n">
-        <v>0.233</v>
       </c>
       <c r="DE44" s="0" t="n">
         <v>0.233</v>
       </c>
-      <c r="DH44" s="0" t="n">
+      <c r="DF44" s="0" t="n">
         <v>0.233</v>
       </c>
-      <c r="DK44" s="0" t="n">
+      <c r="DI44" s="0" t="n">
         <v>0.233</v>
       </c>
-      <c r="DM44" s="0" t="n">
+      <c r="DL44" s="0" t="n">
         <v>0.233</v>
       </c>
       <c r="DN44" s="0" t="n">
         <v>0.233</v>
       </c>
-      <c r="ES44" s="0" t="n">
+      <c r="DO44" s="0" t="n">
         <v>0.233</v>
       </c>
       <c r="ET44" s="0" t="n">
@@ -9235,36 +9354,36 @@
       <c r="EU44" s="0" t="n">
         <v>0.233</v>
       </c>
-      <c r="FO44" s="0" t="n">
+      <c r="EV44" s="0" t="n">
+        <v>0.233</v>
+      </c>
+      <c r="FP44" s="0" t="n">
         <v>0.233</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>232</v>
-      </c>
-      <c r="C45" s="1" t="n">
+        <v>233</v>
+      </c>
+      <c r="C45" s="0" t="n">
         <v>0.002</v>
-      </c>
-      <c r="DD45" s="0" t="n">
-        <v>0.233</v>
       </c>
       <c r="DE45" s="0" t="n">
         <v>0.233</v>
       </c>
-      <c r="DH45" s="0" t="n">
+      <c r="DF45" s="0" t="n">
         <v>0.233</v>
       </c>
-      <c r="DK45" s="0" t="n">
+      <c r="DI45" s="0" t="n">
         <v>0.233</v>
       </c>
-      <c r="DM45" s="0" t="n">
+      <c r="DL45" s="0" t="n">
         <v>0.233</v>
       </c>
       <c r="DN45" s="0" t="n">
         <v>0.233</v>
       </c>
-      <c r="ES45" s="0" t="n">
+      <c r="DO45" s="0" t="n">
         <v>0.233</v>
       </c>
       <c r="ET45" s="0" t="n">
@@ -9273,36 +9392,36 @@
       <c r="EU45" s="0" t="n">
         <v>0.233</v>
       </c>
-      <c r="FO45" s="0" t="n">
+      <c r="EV45" s="0" t="n">
+        <v>0.233</v>
+      </c>
+      <c r="FP45" s="0" t="n">
         <v>0.233</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>233</v>
-      </c>
-      <c r="C46" s="1" t="n">
+        <v>234</v>
+      </c>
+      <c r="C46" s="0" t="n">
         <v>0.002</v>
-      </c>
-      <c r="DD46" s="0" t="n">
-        <v>0.233</v>
       </c>
       <c r="DE46" s="0" t="n">
         <v>0.233</v>
       </c>
-      <c r="DH46" s="0" t="n">
+      <c r="DF46" s="0" t="n">
         <v>0.233</v>
       </c>
-      <c r="DK46" s="0" t="n">
+      <c r="DI46" s="0" t="n">
         <v>0.233</v>
       </c>
-      <c r="DM46" s="0" t="n">
+      <c r="DL46" s="0" t="n">
         <v>0.233</v>
       </c>
       <c r="DN46" s="0" t="n">
         <v>0.233</v>
       </c>
-      <c r="ES46" s="0" t="n">
+      <c r="DO46" s="0" t="n">
         <v>0.233</v>
       </c>
       <c r="ET46" s="0" t="n">
@@ -9311,36 +9430,36 @@
       <c r="EU46" s="0" t="n">
         <v>0.233</v>
       </c>
-      <c r="FO46" s="0" t="n">
+      <c r="EV46" s="0" t="n">
+        <v>0.233</v>
+      </c>
+      <c r="FP46" s="0" t="n">
         <v>0.233</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>234</v>
-      </c>
-      <c r="C47" s="1" t="n">
+        <v>235</v>
+      </c>
+      <c r="C47" s="0" t="n">
         <v>0.002</v>
-      </c>
-      <c r="DD47" s="0" t="n">
-        <v>0.226</v>
       </c>
       <c r="DE47" s="0" t="n">
         <v>0.226</v>
       </c>
-      <c r="DH47" s="0" t="n">
+      <c r="DF47" s="0" t="n">
         <v>0.226</v>
       </c>
-      <c r="DK47" s="0" t="n">
+      <c r="DI47" s="0" t="n">
         <v>0.226</v>
       </c>
-      <c r="DM47" s="0" t="n">
+      <c r="DL47" s="0" t="n">
         <v>0.226</v>
       </c>
       <c r="DN47" s="0" t="n">
         <v>0.226</v>
       </c>
-      <c r="ES47" s="0" t="n">
+      <c r="DO47" s="0" t="n">
         <v>0.226</v>
       </c>
       <c r="ET47" s="0" t="n">
@@ -9349,264 +9468,264 @@
       <c r="EU47" s="0" t="n">
         <v>0.226</v>
       </c>
-      <c r="FO47" s="0" t="n">
+      <c r="EV47" s="0" t="n">
+        <v>0.226</v>
+      </c>
+      <c r="FP47" s="0" t="n">
         <v>0.226</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>235</v>
-      </c>
-      <c r="C48" s="1" t="n">
+        <v>236</v>
+      </c>
+      <c r="C48" s="0" t="n">
         <v>0.002</v>
       </c>
-      <c r="CU48" s="0" t="n">
+      <c r="CV48" s="0" t="n">
         <v>0.886</v>
       </c>
-      <c r="CY48" s="0" t="n">
+      <c r="CZ48" s="0" t="n">
         <v>0.886</v>
       </c>
-      <c r="DC48" s="0" t="n">
-        <v>0.047</v>
-      </c>
-      <c r="DF48" s="0" t="n">
+      <c r="DD48" s="0" t="n">
         <v>0.047</v>
       </c>
       <c r="DG48" s="0" t="n">
         <v>0.047</v>
       </c>
-      <c r="DI48" s="0" t="n">
+      <c r="DH48" s="0" t="n">
         <v>0.047</v>
       </c>
       <c r="DJ48" s="0" t="n">
         <v>0.047</v>
       </c>
-      <c r="DQ48" s="0" t="n">
-        <v>0.047</v>
-      </c>
-      <c r="EE48" s="0" t="n">
+      <c r="DK48" s="0" t="n">
+        <v>0.047</v>
+      </c>
+      <c r="DR48" s="0" t="n">
         <v>0.047</v>
       </c>
       <c r="EF48" s="0" t="n">
+        <v>0.047</v>
+      </c>
+      <c r="EG48" s="0" t="n">
         <v>0.047</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>236</v>
-      </c>
-      <c r="C49" s="1" t="n">
+        <v>237</v>
+      </c>
+      <c r="C49" s="0" t="n">
         <v>0.002</v>
       </c>
-      <c r="CU49" s="0" t="n">
+      <c r="CV49" s="0" t="n">
         <v>0.886</v>
       </c>
-      <c r="CY49" s="0" t="n">
+      <c r="CZ49" s="0" t="n">
         <v>0.886</v>
       </c>
-      <c r="DC49" s="0" t="n">
-        <v>0.047</v>
-      </c>
-      <c r="DF49" s="0" t="n">
+      <c r="DD49" s="0" t="n">
         <v>0.047</v>
       </c>
       <c r="DG49" s="0" t="n">
         <v>0.047</v>
       </c>
-      <c r="DI49" s="0" t="n">
+      <c r="DH49" s="0" t="n">
         <v>0.047</v>
       </c>
       <c r="DJ49" s="0" t="n">
         <v>0.047</v>
       </c>
-      <c r="DQ49" s="0" t="n">
-        <v>0.047</v>
-      </c>
-      <c r="EE49" s="0" t="n">
+      <c r="DK49" s="0" t="n">
+        <v>0.047</v>
+      </c>
+      <c r="DR49" s="0" t="n">
         <v>0.047</v>
       </c>
       <c r="EF49" s="0" t="n">
+        <v>0.047</v>
+      </c>
+      <c r="EG49" s="0" t="n">
         <v>0.047</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>237</v>
-      </c>
-      <c r="C50" s="1" t="n">
+        <v>238</v>
+      </c>
+      <c r="C50" s="0" t="n">
         <v>0.002</v>
       </c>
-      <c r="CU50" s="0" t="n">
+      <c r="CV50" s="0" t="n">
         <v>0.886</v>
       </c>
-      <c r="CY50" s="0" t="n">
+      <c r="CZ50" s="0" t="n">
         <v>0.886</v>
       </c>
-      <c r="DC50" s="0" t="n">
-        <v>0.047</v>
-      </c>
-      <c r="DF50" s="0" t="n">
+      <c r="DD50" s="0" t="n">
         <v>0.047</v>
       </c>
       <c r="DG50" s="0" t="n">
         <v>0.047</v>
       </c>
-      <c r="DI50" s="0" t="n">
+      <c r="DH50" s="0" t="n">
         <v>0.047</v>
       </c>
       <c r="DJ50" s="0" t="n">
         <v>0.047</v>
       </c>
-      <c r="DQ50" s="0" t="n">
-        <v>0.047</v>
-      </c>
-      <c r="EE50" s="0" t="n">
+      <c r="DK50" s="0" t="n">
+        <v>0.047</v>
+      </c>
+      <c r="DR50" s="0" t="n">
         <v>0.047</v>
       </c>
       <c r="EF50" s="0" t="n">
+        <v>0.047</v>
+      </c>
+      <c r="EG50" s="0" t="n">
         <v>0.047</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>238</v>
-      </c>
-      <c r="C51" s="1" t="n">
+        <v>239</v>
+      </c>
+      <c r="C51" s="0" t="n">
         <v>0.002</v>
       </c>
-      <c r="CU51" s="0" t="n">
+      <c r="CV51" s="0" t="n">
         <v>0.886</v>
       </c>
-      <c r="CY51" s="0" t="n">
+      <c r="CZ51" s="0" t="n">
         <v>0.886</v>
       </c>
-      <c r="DC51" s="0" t="n">
-        <v>0.047</v>
-      </c>
-      <c r="DF51" s="0" t="n">
+      <c r="DD51" s="0" t="n">
         <v>0.047</v>
       </c>
       <c r="DG51" s="0" t="n">
         <v>0.047</v>
       </c>
-      <c r="DI51" s="0" t="n">
+      <c r="DH51" s="0" t="n">
         <v>0.047</v>
       </c>
       <c r="DJ51" s="0" t="n">
         <v>0.047</v>
       </c>
-      <c r="DQ51" s="0" t="n">
-        <v>0.047</v>
-      </c>
-      <c r="EE51" s="0" t="n">
+      <c r="DK51" s="0" t="n">
+        <v>0.047</v>
+      </c>
+      <c r="DR51" s="0" t="n">
         <v>0.047</v>
       </c>
       <c r="EF51" s="0" t="n">
+        <v>0.047</v>
+      </c>
+      <c r="EG51" s="0" t="n">
         <v>0.047</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>239</v>
-      </c>
-      <c r="C52" s="1" t="n">
+        <v>240</v>
+      </c>
+      <c r="C52" s="0" t="n">
         <v>0.002</v>
       </c>
-      <c r="CU52" s="0" t="n">
+      <c r="CV52" s="0" t="n">
         <v>0.886</v>
       </c>
-      <c r="CY52" s="0" t="n">
+      <c r="CZ52" s="0" t="n">
         <v>0.886</v>
       </c>
-      <c r="DC52" s="0" t="n">
-        <v>0.047</v>
-      </c>
-      <c r="DF52" s="0" t="n">
+      <c r="DD52" s="0" t="n">
         <v>0.047</v>
       </c>
       <c r="DG52" s="0" t="n">
         <v>0.047</v>
       </c>
-      <c r="DI52" s="0" t="n">
+      <c r="DH52" s="0" t="n">
         <v>0.047</v>
       </c>
       <c r="DJ52" s="0" t="n">
         <v>0.047</v>
       </c>
-      <c r="DQ52" s="0" t="n">
-        <v>0.047</v>
-      </c>
-      <c r="EE52" s="0" t="n">
+      <c r="DK52" s="0" t="n">
+        <v>0.047</v>
+      </c>
+      <c r="DR52" s="0" t="n">
         <v>0.047</v>
       </c>
       <c r="EF52" s="0" t="n">
+        <v>0.047</v>
+      </c>
+      <c r="EG52" s="0" t="n">
         <v>0.047</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>240</v>
-      </c>
-      <c r="C53" s="1" t="n">
+        <v>241</v>
+      </c>
+      <c r="C53" s="0" t="n">
         <v>0.002</v>
       </c>
-      <c r="CU53" s="0" t="n">
+      <c r="CV53" s="0" t="n">
         <v>0.886</v>
       </c>
-      <c r="CY53" s="0" t="n">
+      <c r="CZ53" s="0" t="n">
         <v>0.886</v>
       </c>
-      <c r="DC53" s="0" t="n">
-        <v>0.047</v>
-      </c>
-      <c r="DF53" s="0" t="n">
+      <c r="DD53" s="0" t="n">
         <v>0.047</v>
       </c>
       <c r="DG53" s="0" t="n">
         <v>0.047</v>
       </c>
-      <c r="DI53" s="0" t="n">
+      <c r="DH53" s="0" t="n">
         <v>0.047</v>
       </c>
       <c r="DJ53" s="0" t="n">
         <v>0.047</v>
       </c>
-      <c r="DQ53" s="0" t="n">
-        <v>0.047</v>
-      </c>
-      <c r="EE53" s="0" t="n">
+      <c r="DK53" s="0" t="n">
+        <v>0.047</v>
+      </c>
+      <c r="DR53" s="0" t="n">
         <v>0.047</v>
       </c>
       <c r="EF53" s="0" t="n">
+        <v>0.047</v>
+      </c>
+      <c r="EG53" s="0" t="n">
         <v>0.047</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>241</v>
-      </c>
-      <c r="C54" s="1" t="n">
+        <v>242</v>
+      </c>
+      <c r="C54" s="0" t="n">
         <v>0.001</v>
-      </c>
-      <c r="DD54" s="0" t="n">
-        <v>0.056</v>
       </c>
       <c r="DE54" s="0" t="n">
         <v>0.056</v>
       </c>
-      <c r="DH54" s="0" t="n">
+      <c r="DF54" s="0" t="n">
         <v>0.056</v>
       </c>
-      <c r="DK54" s="0" t="n">
+      <c r="DI54" s="0" t="n">
         <v>0.056</v>
       </c>
-      <c r="DM54" s="0" t="n">
+      <c r="DL54" s="0" t="n">
         <v>0.056</v>
       </c>
       <c r="DN54" s="0" t="n">
         <v>0.056</v>
       </c>
-      <c r="ES54" s="0" t="n">
+      <c r="DO54" s="0" t="n">
         <v>0.056</v>
       </c>
       <c r="ET54" s="0" t="n">
@@ -9615,36 +9734,36 @@
       <c r="EU54" s="0" t="n">
         <v>0.056</v>
       </c>
-      <c r="FO54" s="0" t="n">
+      <c r="EV54" s="0" t="n">
+        <v>0.056</v>
+      </c>
+      <c r="FP54" s="0" t="n">
         <v>0.056</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>242</v>
-      </c>
-      <c r="C55" s="1" t="n">
+        <v>243</v>
+      </c>
+      <c r="C55" s="0" t="n">
         <v>0.001</v>
-      </c>
-      <c r="DD55" s="0" t="n">
-        <v>0.056</v>
       </c>
       <c r="DE55" s="0" t="n">
         <v>0.056</v>
       </c>
-      <c r="DH55" s="0" t="n">
+      <c r="DF55" s="0" t="n">
         <v>0.056</v>
       </c>
-      <c r="DK55" s="0" t="n">
+      <c r="DI55" s="0" t="n">
         <v>0.056</v>
       </c>
-      <c r="DM55" s="0" t="n">
+      <c r="DL55" s="0" t="n">
         <v>0.056</v>
       </c>
       <c r="DN55" s="0" t="n">
         <v>0.056</v>
       </c>
-      <c r="ES55" s="0" t="n">
+      <c r="DO55" s="0" t="n">
         <v>0.056</v>
       </c>
       <c r="ET55" s="0" t="n">
@@ -9653,36 +9772,36 @@
       <c r="EU55" s="0" t="n">
         <v>0.056</v>
       </c>
-      <c r="FO55" s="0" t="n">
+      <c r="EV55" s="0" t="n">
+        <v>0.056</v>
+      </c>
+      <c r="FP55" s="0" t="n">
         <v>0.056</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>243</v>
-      </c>
-      <c r="C56" s="1" t="n">
+        <v>244</v>
+      </c>
+      <c r="C56" s="0" t="n">
         <v>0.001</v>
-      </c>
-      <c r="DD56" s="0" t="n">
-        <v>0.056</v>
       </c>
       <c r="DE56" s="0" t="n">
         <v>0.056</v>
       </c>
-      <c r="DH56" s="0" t="n">
+      <c r="DF56" s="0" t="n">
         <v>0.056</v>
       </c>
-      <c r="DK56" s="0" t="n">
+      <c r="DI56" s="0" t="n">
         <v>0.056</v>
       </c>
-      <c r="DM56" s="0" t="n">
+      <c r="DL56" s="0" t="n">
         <v>0.056</v>
       </c>
       <c r="DN56" s="0" t="n">
         <v>0.056</v>
       </c>
-      <c r="ES56" s="0" t="n">
+      <c r="DO56" s="0" t="n">
         <v>0.056</v>
       </c>
       <c r="ET56" s="0" t="n">
@@ -9691,36 +9810,36 @@
       <c r="EU56" s="0" t="n">
         <v>0.056</v>
       </c>
-      <c r="FO56" s="0" t="n">
+      <c r="EV56" s="0" t="n">
+        <v>0.056</v>
+      </c>
+      <c r="FP56" s="0" t="n">
         <v>0.056</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>244</v>
-      </c>
-      <c r="C57" s="1" t="n">
+        <v>245</v>
+      </c>
+      <c r="C57" s="0" t="n">
         <v>0.001</v>
-      </c>
-      <c r="DD57" s="0" t="n">
-        <v>0.056</v>
       </c>
       <c r="DE57" s="0" t="n">
         <v>0.056</v>
       </c>
-      <c r="DH57" s="0" t="n">
+      <c r="DF57" s="0" t="n">
         <v>0.056</v>
       </c>
-      <c r="DK57" s="0" t="n">
+      <c r="DI57" s="0" t="n">
         <v>0.056</v>
       </c>
-      <c r="DM57" s="0" t="n">
+      <c r="DL57" s="0" t="n">
         <v>0.056</v>
       </c>
       <c r="DN57" s="0" t="n">
         <v>0.056</v>
       </c>
-      <c r="ES57" s="0" t="n">
+      <c r="DO57" s="0" t="n">
         <v>0.056</v>
       </c>
       <c r="ET57" s="0" t="n">
@@ -9729,36 +9848,36 @@
       <c r="EU57" s="0" t="n">
         <v>0.056</v>
       </c>
-      <c r="FO57" s="0" t="n">
+      <c r="EV57" s="0" t="n">
+        <v>0.056</v>
+      </c>
+      <c r="FP57" s="0" t="n">
         <v>0.056</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>245</v>
-      </c>
-      <c r="C58" s="1" t="n">
+        <v>246</v>
+      </c>
+      <c r="C58" s="0" t="n">
         <v>0.001</v>
-      </c>
-      <c r="DD58" s="0" t="n">
-        <v>0.056</v>
       </c>
       <c r="DE58" s="0" t="n">
         <v>0.056</v>
       </c>
-      <c r="DH58" s="0" t="n">
+      <c r="DF58" s="0" t="n">
         <v>0.056</v>
       </c>
-      <c r="DK58" s="0" t="n">
+      <c r="DI58" s="0" t="n">
         <v>0.056</v>
       </c>
-      <c r="DM58" s="0" t="n">
+      <c r="DL58" s="0" t="n">
         <v>0.056</v>
       </c>
       <c r="DN58" s="0" t="n">
         <v>0.056</v>
       </c>
-      <c r="ES58" s="0" t="n">
+      <c r="DO58" s="0" t="n">
         <v>0.056</v>
       </c>
       <c r="ET58" s="0" t="n">
@@ -9767,36 +9886,36 @@
       <c r="EU58" s="0" t="n">
         <v>0.056</v>
       </c>
-      <c r="FO58" s="0" t="n">
+      <c r="EV58" s="0" t="n">
+        <v>0.056</v>
+      </c>
+      <c r="FP58" s="0" t="n">
         <v>0.056</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>246</v>
-      </c>
-      <c r="C59" s="1" t="n">
+        <v>247</v>
+      </c>
+      <c r="C59" s="0" t="n">
         <v>0.001</v>
-      </c>
-      <c r="DD59" s="0" t="n">
-        <v>0.056</v>
       </c>
       <c r="DE59" s="0" t="n">
         <v>0.056</v>
       </c>
-      <c r="DH59" s="0" t="n">
+      <c r="DF59" s="0" t="n">
         <v>0.056</v>
       </c>
-      <c r="DK59" s="0" t="n">
+      <c r="DI59" s="0" t="n">
         <v>0.056</v>
       </c>
-      <c r="DM59" s="0" t="n">
+      <c r="DL59" s="0" t="n">
         <v>0.056</v>
       </c>
       <c r="DN59" s="0" t="n">
         <v>0.056</v>
       </c>
-      <c r="ES59" s="0" t="n">
+      <c r="DO59" s="0" t="n">
         <v>0.056</v>
       </c>
       <c r="ET59" s="0" t="n">
@@ -9805,36 +9924,36 @@
       <c r="EU59" s="0" t="n">
         <v>0.056</v>
       </c>
-      <c r="FO59" s="0" t="n">
+      <c r="EV59" s="0" t="n">
+        <v>0.056</v>
+      </c>
+      <c r="FP59" s="0" t="n">
         <v>0.056</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>247</v>
-      </c>
-      <c r="C60" s="1" t="n">
+        <v>248</v>
+      </c>
+      <c r="C60" s="0" t="n">
         <v>0.001</v>
-      </c>
-      <c r="DD60" s="0" t="n">
-        <v>0.056</v>
       </c>
       <c r="DE60" s="0" t="n">
         <v>0.056</v>
       </c>
-      <c r="DH60" s="0" t="n">
+      <c r="DF60" s="0" t="n">
         <v>0.056</v>
       </c>
-      <c r="DK60" s="0" t="n">
+      <c r="DI60" s="0" t="n">
         <v>0.056</v>
       </c>
-      <c r="DM60" s="0" t="n">
+      <c r="DL60" s="0" t="n">
         <v>0.056</v>
       </c>
       <c r="DN60" s="0" t="n">
         <v>0.056</v>
       </c>
-      <c r="ES60" s="0" t="n">
+      <c r="DO60" s="0" t="n">
         <v>0.056</v>
       </c>
       <c r="ET60" s="0" t="n">
@@ -9843,36 +9962,36 @@
       <c r="EU60" s="0" t="n">
         <v>0.056</v>
       </c>
-      <c r="FO60" s="0" t="n">
+      <c r="EV60" s="0" t="n">
+        <v>0.056</v>
+      </c>
+      <c r="FP60" s="0" t="n">
         <v>0.056</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>248</v>
-      </c>
-      <c r="C61" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="DD61" s="0" t="n">
-        <v>0.047</v>
+        <v>249</v>
+      </c>
+      <c r="C61" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="DE61" s="0" t="n">
         <v>0.047</v>
       </c>
-      <c r="DH61" s="0" t="n">
-        <v>0.047</v>
-      </c>
-      <c r="DK61" s="0" t="n">
-        <v>0.047</v>
-      </c>
-      <c r="DM61" s="0" t="n">
+      <c r="DF61" s="0" t="n">
+        <v>0.047</v>
+      </c>
+      <c r="DI61" s="0" t="n">
+        <v>0.047</v>
+      </c>
+      <c r="DL61" s="0" t="n">
         <v>0.047</v>
       </c>
       <c r="DN61" s="0" t="n">
         <v>0.047</v>
       </c>
-      <c r="ES61" s="0" t="n">
+      <c r="DO61" s="0" t="n">
         <v>0.047</v>
       </c>
       <c r="ET61" s="0" t="n">
@@ -9881,36 +10000,36 @@
       <c r="EU61" s="0" t="n">
         <v>0.047</v>
       </c>
-      <c r="FO61" s="0" t="n">
+      <c r="EV61" s="0" t="n">
+        <v>0.047</v>
+      </c>
+      <c r="FP61" s="0" t="n">
         <v>0.047</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>249</v>
-      </c>
-      <c r="C62" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="DD62" s="0" t="n">
-        <v>0.047</v>
+        <v>250</v>
+      </c>
+      <c r="C62" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="DE62" s="0" t="n">
         <v>0.047</v>
       </c>
-      <c r="DH62" s="0" t="n">
-        <v>0.047</v>
-      </c>
-      <c r="DK62" s="0" t="n">
-        <v>0.047</v>
-      </c>
-      <c r="DM62" s="0" t="n">
+      <c r="DF62" s="0" t="n">
+        <v>0.047</v>
+      </c>
+      <c r="DI62" s="0" t="n">
+        <v>0.047</v>
+      </c>
+      <c r="DL62" s="0" t="n">
         <v>0.047</v>
       </c>
       <c r="DN62" s="0" t="n">
         <v>0.047</v>
       </c>
-      <c r="ES62" s="0" t="n">
+      <c r="DO62" s="0" t="n">
         <v>0.047</v>
       </c>
       <c r="ET62" s="0" t="n">
@@ -9919,36 +10038,36 @@
       <c r="EU62" s="0" t="n">
         <v>0.047</v>
       </c>
-      <c r="FO62" s="0" t="n">
+      <c r="EV62" s="0" t="n">
+        <v>0.047</v>
+      </c>
+      <c r="FP62" s="0" t="n">
         <v>0.047</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>250</v>
-      </c>
-      <c r="C63" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="DD63" s="0" t="n">
-        <v>0.047</v>
+        <v>251</v>
+      </c>
+      <c r="C63" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="DE63" s="0" t="n">
         <v>0.047</v>
       </c>
-      <c r="DH63" s="0" t="n">
-        <v>0.047</v>
-      </c>
-      <c r="DK63" s="0" t="n">
-        <v>0.047</v>
-      </c>
-      <c r="DM63" s="0" t="n">
+      <c r="DF63" s="0" t="n">
+        <v>0.047</v>
+      </c>
+      <c r="DI63" s="0" t="n">
+        <v>0.047</v>
+      </c>
+      <c r="DL63" s="0" t="n">
         <v>0.047</v>
       </c>
       <c r="DN63" s="0" t="n">
         <v>0.047</v>
       </c>
-      <c r="ES63" s="0" t="n">
+      <c r="DO63" s="0" t="n">
         <v>0.047</v>
       </c>
       <c r="ET63" s="0" t="n">
@@ -9957,36 +10076,36 @@
       <c r="EU63" s="0" t="n">
         <v>0.047</v>
       </c>
-      <c r="FO63" s="0" t="n">
+      <c r="EV63" s="0" t="n">
+        <v>0.047</v>
+      </c>
+      <c r="FP63" s="0" t="n">
         <v>0.047</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>251</v>
-      </c>
-      <c r="C64" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="DD64" s="0" t="n">
-        <v>0.047</v>
+        <v>252</v>
+      </c>
+      <c r="C64" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="DE64" s="0" t="n">
         <v>0.047</v>
       </c>
-      <c r="DH64" s="0" t="n">
-        <v>0.047</v>
-      </c>
-      <c r="DK64" s="0" t="n">
-        <v>0.047</v>
-      </c>
-      <c r="DM64" s="0" t="n">
+      <c r="DF64" s="0" t="n">
+        <v>0.047</v>
+      </c>
+      <c r="DI64" s="0" t="n">
+        <v>0.047</v>
+      </c>
+      <c r="DL64" s="0" t="n">
         <v>0.047</v>
       </c>
       <c r="DN64" s="0" t="n">
         <v>0.047</v>
       </c>
-      <c r="ES64" s="0" t="n">
+      <c r="DO64" s="0" t="n">
         <v>0.047</v>
       </c>
       <c r="ET64" s="0" t="n">
@@ -9995,36 +10114,36 @@
       <c r="EU64" s="0" t="n">
         <v>0.047</v>
       </c>
-      <c r="FO64" s="0" t="n">
+      <c r="EV64" s="0" t="n">
+        <v>0.047</v>
+      </c>
+      <c r="FP64" s="0" t="n">
         <v>0.047</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>252</v>
-      </c>
-      <c r="C65" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="DD65" s="0" t="n">
-        <v>0.047</v>
+        <v>253</v>
+      </c>
+      <c r="C65" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="DE65" s="0" t="n">
         <v>0.047</v>
       </c>
-      <c r="DH65" s="0" t="n">
-        <v>0.047</v>
-      </c>
-      <c r="DK65" s="0" t="n">
-        <v>0.047</v>
-      </c>
-      <c r="DM65" s="0" t="n">
+      <c r="DF65" s="0" t="n">
+        <v>0.047</v>
+      </c>
+      <c r="DI65" s="0" t="n">
+        <v>0.047</v>
+      </c>
+      <c r="DL65" s="0" t="n">
         <v>0.047</v>
       </c>
       <c r="DN65" s="0" t="n">
         <v>0.047</v>
       </c>
-      <c r="ES65" s="0" t="n">
+      <c r="DO65" s="0" t="n">
         <v>0.047</v>
       </c>
       <c r="ET65" s="0" t="n">
@@ -10033,36 +10152,36 @@
       <c r="EU65" s="0" t="n">
         <v>0.047</v>
       </c>
-      <c r="FO65" s="0" t="n">
+      <c r="EV65" s="0" t="n">
+        <v>0.047</v>
+      </c>
+      <c r="FP65" s="0" t="n">
         <v>0.047</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>253</v>
-      </c>
-      <c r="C66" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="DD66" s="0" t="n">
-        <v>0.047</v>
+        <v>254</v>
+      </c>
+      <c r="C66" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="DE66" s="0" t="n">
         <v>0.047</v>
       </c>
-      <c r="DH66" s="0" t="n">
-        <v>0.047</v>
-      </c>
-      <c r="DK66" s="0" t="n">
-        <v>0.047</v>
-      </c>
-      <c r="DM66" s="0" t="n">
+      <c r="DF66" s="0" t="n">
+        <v>0.047</v>
+      </c>
+      <c r="DI66" s="0" t="n">
+        <v>0.047</v>
+      </c>
+      <c r="DL66" s="0" t="n">
         <v>0.047</v>
       </c>
       <c r="DN66" s="0" t="n">
         <v>0.047</v>
       </c>
-      <c r="ES66" s="0" t="n">
+      <c r="DO66" s="0" t="n">
         <v>0.047</v>
       </c>
       <c r="ET66" s="0" t="n">
@@ -10071,36 +10190,36 @@
       <c r="EU66" s="0" t="n">
         <v>0.047</v>
       </c>
-      <c r="FO66" s="0" t="n">
+      <c r="EV66" s="0" t="n">
+        <v>0.047</v>
+      </c>
+      <c r="FP66" s="0" t="n">
         <v>0.047</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>254</v>
-      </c>
-      <c r="C67" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="DD67" s="0" t="n">
-        <v>0.031</v>
+        <v>255</v>
+      </c>
+      <c r="C67" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="DE67" s="0" t="n">
         <v>0.031</v>
       </c>
-      <c r="DH67" s="0" t="n">
+      <c r="DF67" s="0" t="n">
         <v>0.031</v>
       </c>
-      <c r="DK67" s="0" t="n">
+      <c r="DI67" s="0" t="n">
         <v>0.031</v>
       </c>
-      <c r="DM67" s="0" t="n">
+      <c r="DL67" s="0" t="n">
         <v>0.031</v>
       </c>
       <c r="DN67" s="0" t="n">
         <v>0.031</v>
       </c>
-      <c r="ES67" s="0" t="n">
+      <c r="DO67" s="0" t="n">
         <v>0.031</v>
       </c>
       <c r="ET67" s="0" t="n">
@@ -10109,36 +10228,36 @@
       <c r="EU67" s="0" t="n">
         <v>0.031</v>
       </c>
-      <c r="FO67" s="0" t="n">
+      <c r="EV67" s="0" t="n">
+        <v>0.031</v>
+      </c>
+      <c r="FP67" s="0" t="n">
         <v>0.031</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>255</v>
-      </c>
-      <c r="C68" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="DD68" s="0" t="n">
-        <v>0.016</v>
+        <v>256</v>
+      </c>
+      <c r="C68" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="DE68" s="0" t="n">
         <v>0.016</v>
       </c>
-      <c r="DH68" s="0" t="n">
+      <c r="DF68" s="0" t="n">
         <v>0.016</v>
       </c>
-      <c r="DK68" s="0" t="n">
+      <c r="DI68" s="0" t="n">
         <v>0.016</v>
       </c>
-      <c r="DM68" s="0" t="n">
+      <c r="DL68" s="0" t="n">
         <v>0.016</v>
       </c>
       <c r="DN68" s="0" t="n">
         <v>0.016</v>
       </c>
-      <c r="ES68" s="0" t="n">
+      <c r="DO68" s="0" t="n">
         <v>0.016</v>
       </c>
       <c r="ET68" s="0" t="n">
@@ -10147,36 +10266,36 @@
       <c r="EU68" s="0" t="n">
         <v>0.016</v>
       </c>
-      <c r="FO68" s="0" t="n">
+      <c r="EV68" s="0" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="FP68" s="0" t="n">
         <v>0.016</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>256</v>
-      </c>
-      <c r="C69" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="DD69" s="0" t="n">
-        <v>0.016</v>
+        <v>257</v>
+      </c>
+      <c r="C69" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="DE69" s="0" t="n">
         <v>0.016</v>
       </c>
-      <c r="DH69" s="0" t="n">
+      <c r="DF69" s="0" t="n">
         <v>0.016</v>
       </c>
-      <c r="DK69" s="0" t="n">
+      <c r="DI69" s="0" t="n">
         <v>0.016</v>
       </c>
-      <c r="DM69" s="0" t="n">
+      <c r="DL69" s="0" t="n">
         <v>0.016</v>
       </c>
       <c r="DN69" s="0" t="n">
         <v>0.016</v>
       </c>
-      <c r="ES69" s="0" t="n">
+      <c r="DO69" s="0" t="n">
         <v>0.016</v>
       </c>
       <c r="ET69" s="0" t="n">
@@ -10185,36 +10304,36 @@
       <c r="EU69" s="0" t="n">
         <v>0.016</v>
       </c>
-      <c r="FO69" s="0" t="n">
+      <c r="EV69" s="0" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="FP69" s="0" t="n">
         <v>0.016</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>257</v>
-      </c>
-      <c r="C70" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="DD70" s="0" t="n">
-        <v>0.016</v>
+        <v>258</v>
+      </c>
+      <c r="C70" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="DE70" s="0" t="n">
         <v>0.016</v>
       </c>
-      <c r="DH70" s="0" t="n">
+      <c r="DF70" s="0" t="n">
         <v>0.016</v>
       </c>
-      <c r="DK70" s="0" t="n">
+      <c r="DI70" s="0" t="n">
         <v>0.016</v>
       </c>
-      <c r="DM70" s="0" t="n">
+      <c r="DL70" s="0" t="n">
         <v>0.016</v>
       </c>
       <c r="DN70" s="0" t="n">
         <v>0.016</v>
       </c>
-      <c r="ES70" s="0" t="n">
+      <c r="DO70" s="0" t="n">
         <v>0.016</v>
       </c>
       <c r="ET70" s="0" t="n">
@@ -10223,36 +10342,36 @@
       <c r="EU70" s="0" t="n">
         <v>0.016</v>
       </c>
-      <c r="FO70" s="0" t="n">
+      <c r="EV70" s="0" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="FP70" s="0" t="n">
         <v>0.016</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>258</v>
-      </c>
-      <c r="C71" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="DD71" s="0" t="n">
-        <v>0.016</v>
+        <v>259</v>
+      </c>
+      <c r="C71" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="DE71" s="0" t="n">
         <v>0.016</v>
       </c>
-      <c r="DH71" s="0" t="n">
+      <c r="DF71" s="0" t="n">
         <v>0.016</v>
       </c>
-      <c r="DK71" s="0" t="n">
+      <c r="DI71" s="0" t="n">
         <v>0.016</v>
       </c>
-      <c r="DM71" s="0" t="n">
+      <c r="DL71" s="0" t="n">
         <v>0.016</v>
       </c>
       <c r="DN71" s="0" t="n">
         <v>0.016</v>
       </c>
-      <c r="ES71" s="0" t="n">
+      <c r="DO71" s="0" t="n">
         <v>0.016</v>
       </c>
       <c r="ET71" s="0" t="n">
@@ -10261,36 +10380,36 @@
       <c r="EU71" s="0" t="n">
         <v>0.016</v>
       </c>
-      <c r="FO71" s="0" t="n">
+      <c r="EV71" s="0" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="FP71" s="0" t="n">
         <v>0.016</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>259</v>
-      </c>
-      <c r="C72" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="DD72" s="0" t="n">
-        <v>0.016</v>
+        <v>260</v>
+      </c>
+      <c r="C72" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="DE72" s="0" t="n">
         <v>0.016</v>
       </c>
-      <c r="DH72" s="0" t="n">
+      <c r="DF72" s="0" t="n">
         <v>0.016</v>
       </c>
-      <c r="DK72" s="0" t="n">
+      <c r="DI72" s="0" t="n">
         <v>0.016</v>
       </c>
-      <c r="DM72" s="0" t="n">
+      <c r="DL72" s="0" t="n">
         <v>0.016</v>
       </c>
       <c r="DN72" s="0" t="n">
         <v>0.016</v>
       </c>
-      <c r="ES72" s="0" t="n">
+      <c r="DO72" s="0" t="n">
         <v>0.016</v>
       </c>
       <c r="ET72" s="0" t="n">
@@ -10299,24 +10418,27 @@
       <c r="EU72" s="0" t="n">
         <v>0.016</v>
       </c>
-      <c r="FO72" s="0" t="n">
+      <c r="EV72" s="0" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="FP72" s="0" t="n">
         <v>0.016</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>260</v>
-      </c>
-      <c r="C73" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="DL73" s="0" t="n">
+        <v>261</v>
+      </c>
+      <c r="C73" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="DM73" s="0" t="n">
         <v>0.056</v>
       </c>
-      <c r="HE73" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="HS73" s="0" t="n">
+      <c r="HF73" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="HT73" s="0" t="n">
         <v>0</v>
       </c>
     </row>
